--- a/DB_homicidios.xlsx
+++ b/DB_homicidios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\OneDrive\Documentos\Ingenieria Financiera\6to Semestre\Simulacion de Procesos financieros\Proyecto_Modulo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunopimentel/Documents/Iteso/6 Semestre/Simulacion de procesos financieross/Proyecto/Proyecto_Modulo1-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{0985A638-5CDA-2A41-A8BC-D569E225AC7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{934797BC-90C9-4996-9109-60F4830BDAAE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DCC6DC-33F8-E74F-961E-F9FD7202E677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -66,9 +68,6 @@
     <t xml:space="preserve"> No especificado</t>
   </si>
   <si>
-    <t>Hombre  Profesional</t>
-  </si>
-  <si>
     <t>Mujer Profesional</t>
   </si>
   <si>
@@ -76,6 +75,9 @@
   </si>
   <si>
     <t>Mujer No profesional</t>
+  </si>
+  <si>
+    <t>Hombre Profesional</t>
   </si>
 </sst>
 </file>
@@ -85,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,7 +129,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,12 +140,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4A86E8"/>
         <bgColor rgb="FF4A86E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -195,12 +191,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -430,20 +420,21 @@
   </sheetPr>
   <dimension ref="A1:U998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I50" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" topLeftCell="K85" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P87" sqref="P87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="6" max="6" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" customWidth="1"/>
-    <col min="18" max="18" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -474,7 +465,7 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -483,30 +474,30 @@
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="U1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21">
+    <row r="2" spans="1:21" ht="16">
+      <c r="A2" s="19">
         <v>40179</v>
       </c>
       <c r="B2" s="5">
@@ -570,8 +561,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21">
+    <row r="3" spans="1:21" ht="16">
+      <c r="A3" s="19">
         <v>40210</v>
       </c>
       <c r="B3" s="5">
@@ -635,8 +626,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
+    <row r="4" spans="1:21" ht="16">
+      <c r="A4" s="19">
         <v>40238</v>
       </c>
       <c r="B4" s="5">
@@ -700,8 +691,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
+    <row r="5" spans="1:21" ht="16">
+      <c r="A5" s="19">
         <v>40269</v>
       </c>
       <c r="B5" s="5">
@@ -765,8 +756,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
+    <row r="6" spans="1:21" ht="16">
+      <c r="A6" s="19">
         <v>40299</v>
       </c>
       <c r="B6" s="5">
@@ -830,8 +821,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
+    <row r="7" spans="1:21" ht="16">
+      <c r="A7" s="19">
         <v>40330</v>
       </c>
       <c r="B7" s="5">
@@ -895,8 +886,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21">
+    <row r="8" spans="1:21" ht="16">
+      <c r="A8" s="19">
         <v>40360</v>
       </c>
       <c r="B8" s="5">
@@ -960,8 +951,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
+    <row r="9" spans="1:21" ht="16">
+      <c r="A9" s="19">
         <v>40391</v>
       </c>
       <c r="B9" s="5">
@@ -1025,8 +1016,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21">
+    <row r="10" spans="1:21" ht="16">
+      <c r="A10" s="19">
         <v>40422</v>
       </c>
       <c r="B10" s="5">
@@ -1090,8 +1081,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
+    <row r="11" spans="1:21" ht="16">
+      <c r="A11" s="19">
         <v>40452</v>
       </c>
       <c r="B11" s="5">
@@ -1155,8 +1146,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
+    <row r="12" spans="1:21" ht="16">
+      <c r="A12" s="19">
         <v>40483</v>
       </c>
       <c r="B12" s="5">
@@ -1220,8 +1211,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
+    <row r="13" spans="1:21" ht="16">
+      <c r="A13" s="19">
         <v>40513</v>
       </c>
       <c r="B13" s="5">
@@ -1285,8 +1276,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
+    <row r="14" spans="1:21" ht="16">
+      <c r="A14" s="19">
         <v>40544</v>
       </c>
       <c r="B14" s="5">
@@ -1350,8 +1341,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21">
+    <row r="15" spans="1:21" ht="16">
+      <c r="A15" s="19">
         <v>40575</v>
       </c>
       <c r="B15" s="5">
@@ -1415,8 +1406,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21">
+    <row r="16" spans="1:21" ht="16">
+      <c r="A16" s="19">
         <v>40603</v>
       </c>
       <c r="B16" s="5">
@@ -1480,8 +1471,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="21">
+    <row r="17" spans="1:21" ht="16">
+      <c r="A17" s="19">
         <v>40634</v>
       </c>
       <c r="B17" s="5">
@@ -1545,8 +1536,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="21">
+    <row r="18" spans="1:21" ht="16">
+      <c r="A18" s="19">
         <v>40664</v>
       </c>
       <c r="B18" s="5">
@@ -1610,8 +1601,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
+    <row r="19" spans="1:21" ht="16">
+      <c r="A19" s="19">
         <v>40695</v>
       </c>
       <c r="B19" s="5">
@@ -1675,8 +1666,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="21">
+    <row r="20" spans="1:21" ht="16">
+      <c r="A20" s="19">
         <v>40725</v>
       </c>
       <c r="B20" s="5">
@@ -1740,8 +1731,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
+    <row r="21" spans="1:21" ht="16">
+      <c r="A21" s="19">
         <v>40756</v>
       </c>
       <c r="B21" s="5">
@@ -1805,8 +1796,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="21">
+    <row r="22" spans="1:21" ht="16">
+      <c r="A22" s="19">
         <v>40787</v>
       </c>
       <c r="B22" s="5">
@@ -1870,8 +1861,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="21">
+    <row r="23" spans="1:21" ht="16">
+      <c r="A23" s="19">
         <v>40817</v>
       </c>
       <c r="B23" s="5">
@@ -1935,8 +1926,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="21">
+    <row r="24" spans="1:21" ht="16">
+      <c r="A24" s="19">
         <v>40848</v>
       </c>
       <c r="B24" s="5">
@@ -2000,8 +1991,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="21">
+    <row r="25" spans="1:21" ht="16">
+      <c r="A25" s="19">
         <v>40878</v>
       </c>
       <c r="B25" s="5">
@@ -2065,8 +2056,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="21">
+    <row r="26" spans="1:21" ht="16">
+      <c r="A26" s="19">
         <v>40909</v>
       </c>
       <c r="B26" s="5">
@@ -2130,8 +2121,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="21">
+    <row r="27" spans="1:21" ht="16">
+      <c r="A27" s="19">
         <v>40940</v>
       </c>
       <c r="B27" s="5">
@@ -2195,8 +2186,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="21">
+    <row r="28" spans="1:21" ht="16">
+      <c r="A28" s="19">
         <v>40969</v>
       </c>
       <c r="B28" s="5">
@@ -2260,8 +2251,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="21">
+    <row r="29" spans="1:21" ht="16">
+      <c r="A29" s="19">
         <v>41000</v>
       </c>
       <c r="B29" s="5">
@@ -2325,8 +2316,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="21">
+    <row r="30" spans="1:21" ht="16">
+      <c r="A30" s="19">
         <v>41030</v>
       </c>
       <c r="B30" s="5">
@@ -2390,8 +2381,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="21">
+    <row r="31" spans="1:21" ht="16">
+      <c r="A31" s="19">
         <v>41061</v>
       </c>
       <c r="B31" s="5">
@@ -2455,8 +2446,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="21">
+    <row r="32" spans="1:21" ht="16">
+      <c r="A32" s="19">
         <v>41091</v>
       </c>
       <c r="B32" s="5">
@@ -2520,8 +2511,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="21">
+    <row r="33" spans="1:21" ht="16">
+      <c r="A33" s="19">
         <v>41122</v>
       </c>
       <c r="B33" s="5">
@@ -2585,8 +2576,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="21">
+    <row r="34" spans="1:21" ht="16">
+      <c r="A34" s="19">
         <v>41153</v>
       </c>
       <c r="B34" s="5">
@@ -2650,8 +2641,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="21">
+    <row r="35" spans="1:21" ht="16">
+      <c r="A35" s="19">
         <v>41183</v>
       </c>
       <c r="B35" s="5">
@@ -2715,8 +2706,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="21">
+    <row r="36" spans="1:21" ht="16">
+      <c r="A36" s="19">
         <v>41214</v>
       </c>
       <c r="B36" s="5">
@@ -2780,8 +2771,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="21">
+    <row r="37" spans="1:21" ht="16">
+      <c r="A37" s="19">
         <v>41244</v>
       </c>
       <c r="B37" s="5">
@@ -2845,8 +2836,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="21">
+    <row r="38" spans="1:21" ht="16">
+      <c r="A38" s="19">
         <v>41275</v>
       </c>
       <c r="B38" s="5">
@@ -2910,8 +2901,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="21">
+    <row r="39" spans="1:21" ht="16">
+      <c r="A39" s="19">
         <v>41306</v>
       </c>
       <c r="B39" s="5">
@@ -2975,8 +2966,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="21">
+    <row r="40" spans="1:21" ht="16">
+      <c r="A40" s="19">
         <v>41334</v>
       </c>
       <c r="B40" s="5">
@@ -3040,8 +3031,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="21">
+    <row r="41" spans="1:21" ht="16">
+      <c r="A41" s="19">
         <v>41365</v>
       </c>
       <c r="B41" s="5">
@@ -3105,8 +3096,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="21">
+    <row r="42" spans="1:21" ht="16">
+      <c r="A42" s="19">
         <v>41395</v>
       </c>
       <c r="B42" s="5">
@@ -3170,8 +3161,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="21">
+    <row r="43" spans="1:21" ht="16">
+      <c r="A43" s="19">
         <v>41426</v>
       </c>
       <c r="B43" s="5">
@@ -3235,8 +3226,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="21">
+    <row r="44" spans="1:21" ht="16">
+      <c r="A44" s="19">
         <v>41456</v>
       </c>
       <c r="B44" s="5">
@@ -3300,8 +3291,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="21">
+    <row r="45" spans="1:21" ht="16">
+      <c r="A45" s="19">
         <v>41487</v>
       </c>
       <c r="B45" s="5">
@@ -3365,8 +3356,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="21">
+    <row r="46" spans="1:21" ht="16">
+      <c r="A46" s="19">
         <v>41518</v>
       </c>
       <c r="B46" s="5">
@@ -3430,8 +3421,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="21">
+    <row r="47" spans="1:21" ht="16">
+      <c r="A47" s="19">
         <v>41548</v>
       </c>
       <c r="B47" s="5">
@@ -3495,8 +3486,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="21">
+    <row r="48" spans="1:21" ht="16">
+      <c r="A48" s="19">
         <v>41579</v>
       </c>
       <c r="B48" s="5">
@@ -3560,8 +3551,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="21">
+    <row r="49" spans="1:21" ht="16">
+      <c r="A49" s="19">
         <v>41609</v>
       </c>
       <c r="B49" s="5">
@@ -3625,8 +3616,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="21">
+    <row r="50" spans="1:21" ht="16">
+      <c r="A50" s="19">
         <v>41640</v>
       </c>
       <c r="B50" s="5">
@@ -3690,8 +3681,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="21">
+    <row r="51" spans="1:21" ht="16">
+      <c r="A51" s="19">
         <v>41671</v>
       </c>
       <c r="B51" s="5">
@@ -3755,8 +3746,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="21">
+    <row r="52" spans="1:21" ht="16">
+      <c r="A52" s="19">
         <v>41699</v>
       </c>
       <c r="B52" s="5">
@@ -3820,8 +3811,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="21">
+    <row r="53" spans="1:21" ht="16">
+      <c r="A53" s="19">
         <v>41730</v>
       </c>
       <c r="B53" s="5">
@@ -3885,8 +3876,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="21">
+    <row r="54" spans="1:21" ht="16">
+      <c r="A54" s="19">
         <v>41760</v>
       </c>
       <c r="B54" s="5">
@@ -3950,8 +3941,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="21">
+    <row r="55" spans="1:21" ht="16">
+      <c r="A55" s="19">
         <v>41791</v>
       </c>
       <c r="B55" s="5">
@@ -4015,8 +4006,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="21">
+    <row r="56" spans="1:21" ht="16">
+      <c r="A56" s="19">
         <v>41821</v>
       </c>
       <c r="B56" s="5">
@@ -4080,8 +4071,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="21">
+    <row r="57" spans="1:21" ht="16">
+      <c r="A57" s="19">
         <v>41852</v>
       </c>
       <c r="B57" s="5">
@@ -4145,8 +4136,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="21">
+    <row r="58" spans="1:21" ht="16">
+      <c r="A58" s="19">
         <v>41883</v>
       </c>
       <c r="B58" s="5">
@@ -4210,8 +4201,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="21">
+    <row r="59" spans="1:21" ht="16">
+      <c r="A59" s="19">
         <v>41913</v>
       </c>
       <c r="B59" s="5">
@@ -4275,8 +4266,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="21">
+    <row r="60" spans="1:21" ht="16">
+      <c r="A60" s="19">
         <v>41944</v>
       </c>
       <c r="B60" s="5">
@@ -4340,8 +4331,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="21">
+    <row r="61" spans="1:21" ht="16">
+      <c r="A61" s="19">
         <v>41974</v>
       </c>
       <c r="B61" s="5">
@@ -4405,8 +4396,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="21">
+    <row r="62" spans="1:21" ht="16">
+      <c r="A62" s="19">
         <v>42005</v>
       </c>
       <c r="B62" s="5">
@@ -4470,8 +4461,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="21">
+    <row r="63" spans="1:21" ht="16">
+      <c r="A63" s="19">
         <v>42036</v>
       </c>
       <c r="B63" s="5">
@@ -4535,8 +4526,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="21">
+    <row r="64" spans="1:21" ht="16">
+      <c r="A64" s="19">
         <v>42064</v>
       </c>
       <c r="B64" s="5">
@@ -4600,8 +4591,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="21">
+    <row r="65" spans="1:21" ht="16">
+      <c r="A65" s="19">
         <v>42095</v>
       </c>
       <c r="B65" s="5">
@@ -4665,8 +4656,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="21">
+    <row r="66" spans="1:21" ht="16">
+      <c r="A66" s="19">
         <v>42125</v>
       </c>
       <c r="B66" s="5">
@@ -4730,8 +4721,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="21">
+    <row r="67" spans="1:21" ht="16">
+      <c r="A67" s="19">
         <v>42156</v>
       </c>
       <c r="B67" s="5">
@@ -4795,8 +4786,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="21">
+    <row r="68" spans="1:21" ht="16">
+      <c r="A68" s="19">
         <v>42186</v>
       </c>
       <c r="B68" s="5">
@@ -4860,8 +4851,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="21">
+    <row r="69" spans="1:21" ht="16">
+      <c r="A69" s="19">
         <v>42217</v>
       </c>
       <c r="B69" s="5">
@@ -4925,8 +4916,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="21">
+    <row r="70" spans="1:21" ht="16">
+      <c r="A70" s="19">
         <v>42248</v>
       </c>
       <c r="B70" s="5">
@@ -4944,10 +4935,10 @@
       <c r="F70" s="7">
         <v>1</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="20">
         <v>1332</v>
       </c>
-      <c r="H70" s="22">
+      <c r="H70" s="20">
         <v>168</v>
       </c>
       <c r="I70" s="7">
@@ -4990,8 +4981,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="21">
+    <row r="71" spans="1:21" ht="16">
+      <c r="A71" s="19">
         <v>42278</v>
       </c>
       <c r="B71" s="5">
@@ -5055,8 +5046,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="21">
+    <row r="72" spans="1:21" ht="16">
+      <c r="A72" s="19">
         <v>42309</v>
       </c>
       <c r="B72" s="5">
@@ -5120,8 +5111,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="21">
+    <row r="73" spans="1:21" ht="16">
+      <c r="A73" s="19">
         <v>42339</v>
       </c>
       <c r="B73" s="5">
@@ -5185,8 +5176,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="21">
+    <row r="74" spans="1:21" ht="16">
+      <c r="A74" s="19">
         <v>42370</v>
       </c>
       <c r="B74" s="5">
@@ -5250,8 +5241,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="21">
+    <row r="75" spans="1:21" ht="16">
+      <c r="A75" s="19">
         <v>42401</v>
       </c>
       <c r="B75" s="5">
@@ -5315,8 +5306,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="21">
+    <row r="76" spans="1:21" ht="16">
+      <c r="A76" s="19">
         <v>42430</v>
       </c>
       <c r="B76" s="5">
@@ -5380,8 +5371,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="21">
+    <row r="77" spans="1:21" ht="16">
+      <c r="A77" s="19">
         <v>42461</v>
       </c>
       <c r="B77" s="5">
@@ -5445,8 +5436,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="21">
+    <row r="78" spans="1:21" ht="16">
+      <c r="A78" s="19">
         <v>42491</v>
       </c>
       <c r="B78" s="5">
@@ -5510,8 +5501,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="21">
+    <row r="79" spans="1:21" ht="16">
+      <c r="A79" s="19">
         <v>42522</v>
       </c>
       <c r="B79" s="5">
@@ -5575,8 +5566,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="21">
+    <row r="80" spans="1:21" ht="16">
+      <c r="A80" s="19">
         <v>42552</v>
       </c>
       <c r="B80" s="5">
@@ -5640,8 +5631,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="21">
+    <row r="81" spans="1:21" ht="16">
+      <c r="A81" s="19">
         <v>42583</v>
       </c>
       <c r="B81" s="5">
@@ -5705,8 +5696,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="21">
+    <row r="82" spans="1:21" ht="16">
+      <c r="A82" s="19">
         <v>42614</v>
       </c>
       <c r="B82" s="5">
@@ -5770,8 +5761,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="21">
+    <row r="83" spans="1:21" ht="16">
+      <c r="A83" s="19">
         <v>42644</v>
       </c>
       <c r="B83" s="5">
@@ -5835,8 +5826,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="21">
+    <row r="84" spans="1:21" ht="16">
+      <c r="A84" s="19">
         <v>42675</v>
       </c>
       <c r="B84" s="5">
@@ -5900,8 +5891,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="21">
+    <row r="85" spans="1:21" ht="16">
+      <c r="A85" s="19">
         <v>42705</v>
       </c>
       <c r="B85" s="5">
@@ -5965,8 +5956,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="21">
+    <row r="86" spans="1:21" ht="16">
+      <c r="A86" s="19">
         <v>42736</v>
       </c>
       <c r="B86" s="5">
@@ -6028,8 +6019,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="21">
+    <row r="87" spans="1:21" ht="16">
+      <c r="A87" s="19">
         <v>42767</v>
       </c>
       <c r="B87" s="5">
@@ -6091,8 +6082,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="21">
+    <row r="88" spans="1:21" ht="16">
+      <c r="A88" s="19">
         <v>42795</v>
       </c>
       <c r="B88" s="5">
@@ -6154,8 +6145,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="21">
+    <row r="89" spans="1:21" ht="16">
+      <c r="A89" s="19">
         <v>42826</v>
       </c>
       <c r="B89" s="5">
@@ -6217,8 +6208,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="21">
+    <row r="90" spans="1:21" ht="16">
+      <c r="A90" s="19">
         <v>42856</v>
       </c>
       <c r="B90" s="5">
@@ -6280,8 +6271,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="21">
+    <row r="91" spans="1:21" ht="16">
+      <c r="A91" s="19">
         <v>42887</v>
       </c>
       <c r="B91" s="5">
@@ -6343,8 +6334,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="21">
+    <row r="92" spans="1:21" ht="16">
+      <c r="A92" s="19">
         <v>42917</v>
       </c>
       <c r="B92" s="5">
@@ -6408,8 +6399,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="21">
+    <row r="93" spans="1:21" ht="16">
+      <c r="A93" s="19">
         <v>42948</v>
       </c>
       <c r="B93" s="5">
@@ -6471,8 +6462,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="21">
+    <row r="94" spans="1:21" ht="16">
+      <c r="A94" s="19">
         <v>42979</v>
       </c>
       <c r="B94" s="5">
@@ -6536,8 +6527,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="21">
+    <row r="95" spans="1:21" ht="16">
+      <c r="A95" s="19">
         <v>43009</v>
       </c>
       <c r="B95" s="5">
@@ -6599,8 +6590,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="21">
+    <row r="96" spans="1:21" ht="16">
+      <c r="A96" s="19">
         <v>43040</v>
       </c>
       <c r="B96" s="5">
@@ -6662,8 +6653,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="21">
+    <row r="97" spans="1:21" ht="16">
+      <c r="A97" s="19">
         <v>43070</v>
       </c>
       <c r="B97" s="5">
@@ -6675,7 +6666,7 @@
       <c r="D97" s="6">
         <v>280</v>
       </c>
-      <c r="E97" s="23">
+      <c r="E97" s="21">
         <v>49</v>
       </c>
       <c r="F97" s="7">
@@ -6715,7 +6706,7 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-      <c r="S97" s="13">
+      <c r="S97" s="12">
         <v>1681</v>
       </c>
       <c r="T97" s="12">
@@ -6725,8 +6716,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="21">
+    <row r="98" spans="1:21" ht="16">
+      <c r="A98" s="19">
         <v>43101</v>
       </c>
       <c r="B98" s="5">
@@ -6771,27 +6762,27 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="17">
+      <c r="P98" s="12">
         <v>449</v>
       </c>
-      <c r="Q98" s="17">
+      <c r="Q98" s="12">
         <v>43</v>
       </c>
       <c r="R98" s="3">
         <v>0</v>
       </c>
-      <c r="S98" s="18">
+      <c r="S98" s="12">
         <v>1685</v>
       </c>
-      <c r="T98" s="17">
+      <c r="T98" s="12">
         <v>208</v>
       </c>
       <c r="U98" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="21">
+    <row r="99" spans="1:21" ht="16">
+      <c r="A99" s="19">
         <v>43132</v>
       </c>
       <c r="B99" s="5">
@@ -6836,27 +6827,27 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="17">
+      <c r="P99" s="12">
         <v>418</v>
       </c>
-      <c r="Q99" s="17">
+      <c r="Q99" s="12">
         <v>47</v>
       </c>
       <c r="R99" s="3">
         <v>0</v>
       </c>
-      <c r="S99" s="18">
+      <c r="S99" s="12">
         <v>1541</v>
       </c>
-      <c r="T99" s="17">
+      <c r="T99" s="12">
         <v>169</v>
       </c>
       <c r="U99" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="21">
+    <row r="100" spans="1:21" ht="16">
+      <c r="A100" s="19">
         <v>43160</v>
       </c>
       <c r="B100" s="5">
@@ -6899,27 +6890,27 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="17">
+      <c r="P100" s="12">
         <v>441</v>
       </c>
-      <c r="Q100" s="17">
+      <c r="Q100" s="12">
         <v>54</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="18">
+      <c r="S100" s="12">
         <v>1769</v>
       </c>
-      <c r="T100" s="17">
+      <c r="T100" s="12">
         <v>224</v>
       </c>
       <c r="U100" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="21">
+    <row r="101" spans="1:21" ht="16">
+      <c r="A101" s="19">
         <v>43191</v>
       </c>
       <c r="B101" s="5">
@@ -6964,27 +6955,27 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="17">
+      <c r="P101" s="12">
         <v>478</v>
       </c>
-      <c r="Q101" s="17">
+      <c r="Q101" s="12">
         <v>53</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="18">
+      <c r="S101" s="12">
         <v>1799</v>
       </c>
-      <c r="T101" s="17">
+      <c r="T101" s="12">
         <v>193</v>
       </c>
       <c r="U101" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="21">
+    <row r="102" spans="1:21" ht="16">
+      <c r="A102" s="19">
         <v>43221</v>
       </c>
       <c r="B102" s="5">
@@ -7029,27 +7020,27 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="17">
+      <c r="P102" s="12">
         <v>437</v>
       </c>
-      <c r="Q102" s="17">
+      <c r="Q102" s="12">
         <v>52</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="18">
+      <c r="S102" s="12">
         <v>1859</v>
       </c>
-      <c r="T102" s="17">
+      <c r="T102" s="12">
         <v>209</v>
       </c>
       <c r="U102" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="21">
+    <row r="103" spans="1:21" ht="16">
+      <c r="A103" s="19">
         <v>43252</v>
       </c>
       <c r="B103" s="5">
@@ -7092,27 +7083,27 @@
       <c r="O103" s="3">
         <v>0</v>
       </c>
-      <c r="P103" s="17">
+      <c r="P103" s="12">
         <v>450</v>
       </c>
-      <c r="Q103" s="17">
+      <c r="Q103" s="12">
         <v>45</v>
       </c>
       <c r="R103" s="3">
         <v>0</v>
       </c>
-      <c r="S103" s="18">
+      <c r="S103" s="12">
         <v>1754</v>
       </c>
-      <c r="T103" s="17">
+      <c r="T103" s="12">
         <v>216</v>
       </c>
       <c r="U103" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="21">
+    <row r="104" spans="1:21" ht="16">
+      <c r="A104" s="19">
         <v>43282</v>
       </c>
       <c r="B104" s="5">
@@ -7155,27 +7146,27 @@
       <c r="O104" s="3">
         <v>0</v>
       </c>
-      <c r="P104" s="17">
+      <c r="P104" s="12">
         <v>473</v>
       </c>
-      <c r="Q104" s="17">
+      <c r="Q104" s="12">
         <v>54</v>
       </c>
       <c r="R104" s="3">
         <v>0</v>
       </c>
-      <c r="S104" s="18">
+      <c r="S104" s="12">
         <v>1968</v>
       </c>
-      <c r="T104" s="17">
+      <c r="T104" s="12">
         <v>186</v>
       </c>
       <c r="U104" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="21">
+    <row r="105" spans="1:21" ht="16">
+      <c r="A105" s="19">
         <v>43313</v>
       </c>
       <c r="B105" s="5">
@@ -7218,27 +7209,27 @@
       <c r="O105" s="3">
         <v>0</v>
       </c>
-      <c r="P105" s="17">
+      <c r="P105" s="12">
         <v>411</v>
       </c>
-      <c r="Q105" s="17">
+      <c r="Q105" s="12">
         <v>52</v>
       </c>
       <c r="R105" s="3">
         <v>0</v>
       </c>
-      <c r="S105" s="18">
+      <c r="S105" s="12">
         <v>1908</v>
       </c>
-      <c r="T105" s="17">
+      <c r="T105" s="12">
         <v>205</v>
       </c>
       <c r="U105" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="21">
+    <row r="106" spans="1:21" ht="16">
+      <c r="A106" s="19">
         <v>43344</v>
       </c>
       <c r="B106" s="5">
@@ -7281,27 +7272,27 @@
       <c r="O106" s="3">
         <v>0</v>
       </c>
-      <c r="P106" s="17">
+      <c r="P106" s="12">
         <v>488</v>
       </c>
-      <c r="Q106" s="17">
+      <c r="Q106" s="12">
         <v>37</v>
       </c>
       <c r="R106" s="3">
         <v>0</v>
       </c>
-      <c r="S106" s="18">
+      <c r="S106" s="12">
         <v>1859</v>
       </c>
-      <c r="T106" s="17">
+      <c r="T106" s="12">
         <v>222</v>
       </c>
       <c r="U106" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="21">
+    <row r="107" spans="1:21" ht="16">
+      <c r="A107" s="19">
         <v>43374</v>
       </c>
       <c r="B107" s="5">
@@ -7344,27 +7335,27 @@
       <c r="O107" s="3">
         <v>0</v>
       </c>
-      <c r="P107" s="17">
+      <c r="P107" s="12">
         <v>482</v>
       </c>
-      <c r="Q107" s="17">
+      <c r="Q107" s="12">
         <v>52</v>
       </c>
       <c r="R107" s="3">
         <v>0</v>
       </c>
-      <c r="S107" s="18">
+      <c r="S107" s="12">
         <v>1760</v>
       </c>
-      <c r="T107" s="17">
+      <c r="T107" s="12">
         <v>219</v>
       </c>
       <c r="U107" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="21">
+    <row r="108" spans="1:21" ht="16">
+      <c r="A108" s="19">
         <v>43405</v>
       </c>
       <c r="B108" s="5">
@@ -7407,27 +7398,27 @@
       <c r="O108" s="3">
         <v>0</v>
       </c>
-      <c r="P108" s="17">
+      <c r="P108" s="12">
         <v>439</v>
       </c>
-      <c r="Q108" s="17">
+      <c r="Q108" s="12">
         <v>53</v>
       </c>
       <c r="R108" s="3">
         <v>0</v>
       </c>
-      <c r="S108" s="18">
+      <c r="S108" s="12">
         <v>1775</v>
       </c>
-      <c r="T108" s="17">
+      <c r="T108" s="12">
         <v>199</v>
       </c>
       <c r="U108" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="21">
+    <row r="109" spans="1:21" ht="16">
+      <c r="A109" s="19">
         <v>43435</v>
       </c>
       <c r="B109" s="5">
@@ -7470,36 +7461,38 @@
       <c r="O109" s="3">
         <v>0</v>
       </c>
-      <c r="P109" s="17">
+      <c r="P109" s="12">
         <v>460</v>
       </c>
-      <c r="Q109" s="17">
+      <c r="Q109" s="12">
         <v>45</v>
       </c>
       <c r="R109" s="3">
         <v>0</v>
       </c>
-      <c r="S109" s="18">
+      <c r="S109" s="12">
         <v>1689</v>
       </c>
-      <c r="T109" s="17">
+      <c r="T109" s="12">
         <v>212</v>
       </c>
       <c r="U109" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
+    <row r="110" spans="1:21" ht="15">
+      <c r="A110" s="17"/>
       <c r="F110" s="4"/>
       <c r="I110" s="4"/>
       <c r="L110" s="4"/>
       <c r="O110" s="2"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
       <c r="R110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
+    <row r="111" spans="1:21" ht="13">
+      <c r="A111" s="17"/>
       <c r="F111" s="4"/>
       <c r="I111" s="4"/>
       <c r="L111" s="4"/>
@@ -7507,8 +7500,8 @@
       <c r="R111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
+    <row r="112" spans="1:21" ht="13">
+      <c r="A112" s="17"/>
       <c r="F112" s="4"/>
       <c r="I112" s="4"/>
       <c r="L112" s="4"/>
@@ -7516,8 +7509,8 @@
       <c r="R112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
+    <row r="113" spans="1:21" ht="13">
+      <c r="A113" s="17"/>
       <c r="F113" s="4"/>
       <c r="I113" s="4"/>
       <c r="L113" s="4"/>
@@ -7525,8 +7518,8 @@
       <c r="R113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
+    <row r="114" spans="1:21" ht="13">
+      <c r="A114" s="17"/>
       <c r="F114" s="4"/>
       <c r="I114" s="4"/>
       <c r="L114" s="4"/>
@@ -7534,8 +7527,8 @@
       <c r="R114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
+    <row r="115" spans="1:21" ht="13">
+      <c r="A115" s="17"/>
       <c r="F115" s="4"/>
       <c r="I115" s="4"/>
       <c r="L115" s="4"/>
@@ -7543,8 +7536,8 @@
       <c r="R115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
+    <row r="116" spans="1:21" ht="13">
+      <c r="A116" s="17"/>
       <c r="F116" s="4"/>
       <c r="I116" s="4"/>
       <c r="L116" s="4"/>
@@ -7552,8 +7545,8 @@
       <c r="R116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
+    <row r="117" spans="1:21" ht="13">
+      <c r="A117" s="17"/>
       <c r="F117" s="4"/>
       <c r="I117" s="4"/>
       <c r="L117" s="4"/>
@@ -7561,8 +7554,8 @@
       <c r="R117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
+    <row r="118" spans="1:21" ht="13">
+      <c r="A118" s="17"/>
       <c r="F118" s="4"/>
       <c r="I118" s="4"/>
       <c r="L118" s="4"/>
@@ -7570,8 +7563,8 @@
       <c r="R118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="19"/>
+    <row r="119" spans="1:21" ht="13">
+      <c r="A119" s="17"/>
       <c r="F119" s="4"/>
       <c r="I119" s="4"/>
       <c r="L119" s="4"/>
@@ -7579,8 +7572,8 @@
       <c r="R119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
+    <row r="120" spans="1:21" ht="13">
+      <c r="A120" s="17"/>
       <c r="F120" s="4"/>
       <c r="I120" s="4"/>
       <c r="L120" s="4"/>
@@ -7588,8 +7581,8 @@
       <c r="R120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
+    <row r="121" spans="1:21" ht="13">
+      <c r="A121" s="17"/>
       <c r="F121" s="4"/>
       <c r="I121" s="4"/>
       <c r="L121" s="4"/>
@@ -7597,8 +7590,8 @@
       <c r="R121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
+    <row r="122" spans="1:21" ht="13">
+      <c r="A122" s="17"/>
       <c r="F122" s="4"/>
       <c r="I122" s="4"/>
       <c r="L122" s="4"/>
@@ -7606,8 +7599,8 @@
       <c r="R122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
+    <row r="123" spans="1:21" ht="13">
+      <c r="A123" s="17"/>
       <c r="F123" s="4"/>
       <c r="I123" s="4"/>
       <c r="L123" s="4"/>
@@ -7615,8 +7608,8 @@
       <c r="R123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
+    <row r="124" spans="1:21" ht="13">
+      <c r="A124" s="17"/>
       <c r="F124" s="4"/>
       <c r="I124" s="4"/>
       <c r="L124" s="4"/>
@@ -7624,8 +7617,8 @@
       <c r="R124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
+    <row r="125" spans="1:21" ht="13">
+      <c r="A125" s="17"/>
       <c r="F125" s="4"/>
       <c r="I125" s="4"/>
       <c r="L125" s="4"/>
@@ -7633,8 +7626,8 @@
       <c r="R125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
+    <row r="126" spans="1:21" ht="13">
+      <c r="A126" s="17"/>
       <c r="F126" s="4"/>
       <c r="I126" s="4"/>
       <c r="L126" s="4"/>
@@ -7642,8 +7635,8 @@
       <c r="R126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="19"/>
+    <row r="127" spans="1:21" ht="13">
+      <c r="A127" s="17"/>
       <c r="F127" s="4"/>
       <c r="I127" s="4"/>
       <c r="L127" s="4"/>
@@ -7651,8 +7644,8 @@
       <c r="R127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="19"/>
+    <row r="128" spans="1:21" ht="13">
+      <c r="A128" s="17"/>
       <c r="F128" s="4"/>
       <c r="I128" s="4"/>
       <c r="L128" s="4"/>
@@ -7660,8 +7653,8 @@
       <c r="R128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
+    <row r="129" spans="1:21" ht="13">
+      <c r="A129" s="17"/>
       <c r="F129" s="4"/>
       <c r="I129" s="4"/>
       <c r="L129" s="4"/>
@@ -7669,8 +7662,8 @@
       <c r="R129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
+    <row r="130" spans="1:21" ht="13">
+      <c r="A130" s="17"/>
       <c r="F130" s="4"/>
       <c r="I130" s="4"/>
       <c r="L130" s="4"/>
@@ -7678,8 +7671,8 @@
       <c r="R130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="19"/>
+    <row r="131" spans="1:21" ht="13">
+      <c r="A131" s="17"/>
       <c r="F131" s="4"/>
       <c r="I131" s="4"/>
       <c r="L131" s="4"/>
@@ -7687,8 +7680,8 @@
       <c r="R131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="19"/>
+    <row r="132" spans="1:21" ht="13">
+      <c r="A132" s="17"/>
       <c r="F132" s="4"/>
       <c r="I132" s="4"/>
       <c r="L132" s="4"/>
@@ -7696,8 +7689,8 @@
       <c r="R132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="19"/>
+    <row r="133" spans="1:21" ht="13">
+      <c r="A133" s="17"/>
       <c r="F133" s="4"/>
       <c r="I133" s="4"/>
       <c r="L133" s="4"/>
@@ -7705,8 +7698,8 @@
       <c r="R133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="19"/>
+    <row r="134" spans="1:21" ht="13">
+      <c r="A134" s="17"/>
       <c r="F134" s="4"/>
       <c r="I134" s="4"/>
       <c r="L134" s="4"/>
@@ -7714,8 +7707,8 @@
       <c r="R134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="19"/>
+    <row r="135" spans="1:21" ht="13">
+      <c r="A135" s="17"/>
       <c r="F135" s="4"/>
       <c r="I135" s="4"/>
       <c r="L135" s="4"/>
@@ -7723,7 +7716,7 @@
       <c r="R135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="13">
       <c r="F136" s="4"/>
       <c r="I136" s="4"/>
       <c r="L136" s="4"/>
@@ -7731,7 +7724,7 @@
       <c r="R136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="13">
       <c r="F137" s="4"/>
       <c r="I137" s="4"/>
       <c r="L137" s="4"/>
@@ -7739,7 +7732,7 @@
       <c r="R137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="13">
       <c r="F138" s="4"/>
       <c r="I138" s="4"/>
       <c r="L138" s="4"/>
@@ -7747,7 +7740,7 @@
       <c r="R138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="13">
       <c r="F139" s="4"/>
       <c r="I139" s="4"/>
       <c r="L139" s="4"/>
@@ -7755,7 +7748,7 @@
       <c r="R139" s="4"/>
       <c r="U139" s="4"/>
     </row>
-    <row r="140" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="13">
       <c r="F140" s="4"/>
       <c r="I140" s="4"/>
       <c r="L140" s="4"/>
@@ -7763,7 +7756,7 @@
       <c r="R140" s="4"/>
       <c r="U140" s="4"/>
     </row>
-    <row r="141" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" ht="13">
       <c r="F141" s="4"/>
       <c r="I141" s="4"/>
       <c r="L141" s="4"/>
@@ -7771,7 +7764,7 @@
       <c r="R141" s="4"/>
       <c r="U141" s="4"/>
     </row>
-    <row r="142" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="13">
       <c r="F142" s="4"/>
       <c r="I142" s="4"/>
       <c r="L142" s="4"/>
@@ -7779,7 +7772,7 @@
       <c r="R142" s="4"/>
       <c r="U142" s="4"/>
     </row>
-    <row r="143" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="13">
       <c r="F143" s="4"/>
       <c r="I143" s="4"/>
       <c r="L143" s="4"/>
@@ -7787,7 +7780,7 @@
       <c r="R143" s="4"/>
       <c r="U143" s="4"/>
     </row>
-    <row r="144" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="13">
       <c r="F144" s="4"/>
       <c r="I144" s="4"/>
       <c r="L144" s="4"/>
@@ -7795,7 +7788,7 @@
       <c r="R144" s="4"/>
       <c r="U144" s="4"/>
     </row>
-    <row r="145" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:21" ht="13">
       <c r="F145" s="4"/>
       <c r="I145" s="4"/>
       <c r="L145" s="4"/>
@@ -7803,7 +7796,7 @@
       <c r="R145" s="4"/>
       <c r="U145" s="4"/>
     </row>
-    <row r="146" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:21" ht="13">
       <c r="F146" s="4"/>
       <c r="I146" s="4"/>
       <c r="L146" s="4"/>
@@ -7811,7 +7804,7 @@
       <c r="R146" s="4"/>
       <c r="U146" s="4"/>
     </row>
-    <row r="147" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:21" ht="13">
       <c r="F147" s="4"/>
       <c r="I147" s="4"/>
       <c r="L147" s="4"/>
@@ -7819,7 +7812,7 @@
       <c r="R147" s="4"/>
       <c r="U147" s="4"/>
     </row>
-    <row r="148" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:21" ht="13">
       <c r="F148" s="4"/>
       <c r="I148" s="4"/>
       <c r="L148" s="4"/>
@@ -7827,7 +7820,7 @@
       <c r="R148" s="4"/>
       <c r="U148" s="4"/>
     </row>
-    <row r="149" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:21" ht="13">
       <c r="F149" s="4"/>
       <c r="I149" s="4"/>
       <c r="L149" s="4"/>
@@ -7835,7 +7828,7 @@
       <c r="R149" s="4"/>
       <c r="U149" s="4"/>
     </row>
-    <row r="150" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:21" ht="13">
       <c r="F150" s="4"/>
       <c r="I150" s="4"/>
       <c r="L150" s="4"/>
@@ -7843,7 +7836,7 @@
       <c r="R150" s="4"/>
       <c r="U150" s="4"/>
     </row>
-    <row r="151" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:21" ht="13">
       <c r="F151" s="4"/>
       <c r="I151" s="4"/>
       <c r="L151" s="4"/>
@@ -7851,7 +7844,7 @@
       <c r="R151" s="4"/>
       <c r="U151" s="4"/>
     </row>
-    <row r="152" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:21" ht="13">
       <c r="F152" s="4"/>
       <c r="I152" s="4"/>
       <c r="L152" s="4"/>
@@ -7859,7 +7852,7 @@
       <c r="R152" s="4"/>
       <c r="U152" s="4"/>
     </row>
-    <row r="153" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:21" ht="13">
       <c r="F153" s="4"/>
       <c r="I153" s="4"/>
       <c r="L153" s="4"/>
@@ -7867,7 +7860,7 @@
       <c r="R153" s="4"/>
       <c r="U153" s="4"/>
     </row>
-    <row r="154" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:21" ht="13">
       <c r="F154" s="4"/>
       <c r="I154" s="4"/>
       <c r="L154" s="4"/>
@@ -7875,7 +7868,7 @@
       <c r="R154" s="4"/>
       <c r="U154" s="4"/>
     </row>
-    <row r="155" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:21" ht="13">
       <c r="F155" s="4"/>
       <c r="I155" s="4"/>
       <c r="L155" s="4"/>
@@ -7883,7 +7876,7 @@
       <c r="R155" s="4"/>
       <c r="U155" s="4"/>
     </row>
-    <row r="156" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:21" ht="13">
       <c r="F156" s="4"/>
       <c r="I156" s="4"/>
       <c r="L156" s="4"/>
@@ -7891,7 +7884,7 @@
       <c r="R156" s="4"/>
       <c r="U156" s="4"/>
     </row>
-    <row r="157" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:21" ht="13">
       <c r="F157" s="4"/>
       <c r="I157" s="4"/>
       <c r="L157" s="4"/>
@@ -7899,7 +7892,7 @@
       <c r="R157" s="4"/>
       <c r="U157" s="4"/>
     </row>
-    <row r="158" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:21" ht="13">
       <c r="F158" s="4"/>
       <c r="I158" s="4"/>
       <c r="L158" s="4"/>
@@ -7907,7 +7900,7 @@
       <c r="R158" s="4"/>
       <c r="U158" s="4"/>
     </row>
-    <row r="159" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:21" ht="13">
       <c r="F159" s="4"/>
       <c r="I159" s="4"/>
       <c r="L159" s="4"/>
@@ -7915,7 +7908,7 @@
       <c r="R159" s="4"/>
       <c r="U159" s="4"/>
     </row>
-    <row r="160" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:21" ht="13">
       <c r="F160" s="4"/>
       <c r="I160" s="4"/>
       <c r="L160" s="4"/>
@@ -7923,7 +7916,7 @@
       <c r="R160" s="4"/>
       <c r="U160" s="4"/>
     </row>
-    <row r="161" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:21" ht="13">
       <c r="F161" s="4"/>
       <c r="I161" s="4"/>
       <c r="L161" s="4"/>
@@ -7931,7 +7924,7 @@
       <c r="R161" s="4"/>
       <c r="U161" s="4"/>
     </row>
-    <row r="162" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:21" ht="13">
       <c r="F162" s="4"/>
       <c r="I162" s="4"/>
       <c r="L162" s="4"/>
@@ -7939,7 +7932,7 @@
       <c r="R162" s="4"/>
       <c r="U162" s="4"/>
     </row>
-    <row r="163" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:21" ht="13">
       <c r="F163" s="4"/>
       <c r="I163" s="4"/>
       <c r="L163" s="4"/>
@@ -7947,7 +7940,7 @@
       <c r="R163" s="4"/>
       <c r="U163" s="4"/>
     </row>
-    <row r="164" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:21" ht="13">
       <c r="F164" s="4"/>
       <c r="I164" s="4"/>
       <c r="L164" s="4"/>
@@ -7955,7 +7948,7 @@
       <c r="R164" s="4"/>
       <c r="U164" s="4"/>
     </row>
-    <row r="165" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:21" ht="13">
       <c r="F165" s="4"/>
       <c r="I165" s="4"/>
       <c r="L165" s="4"/>
@@ -7963,7 +7956,7 @@
       <c r="R165" s="4"/>
       <c r="U165" s="4"/>
     </row>
-    <row r="166" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:21" ht="13">
       <c r="F166" s="4"/>
       <c r="I166" s="4"/>
       <c r="L166" s="4"/>
@@ -7971,7 +7964,7 @@
       <c r="R166" s="4"/>
       <c r="U166" s="4"/>
     </row>
-    <row r="167" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:21" ht="13">
       <c r="F167" s="4"/>
       <c r="I167" s="4"/>
       <c r="L167" s="4"/>
@@ -7979,7 +7972,7 @@
       <c r="R167" s="4"/>
       <c r="U167" s="4"/>
     </row>
-    <row r="168" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:21" ht="13">
       <c r="F168" s="4"/>
       <c r="I168" s="4"/>
       <c r="L168" s="4"/>
@@ -7987,7 +7980,7 @@
       <c r="R168" s="4"/>
       <c r="U168" s="4"/>
     </row>
-    <row r="169" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:21" ht="13">
       <c r="F169" s="4"/>
       <c r="I169" s="4"/>
       <c r="L169" s="4"/>
@@ -7995,7 +7988,7 @@
       <c r="R169" s="4"/>
       <c r="U169" s="4"/>
     </row>
-    <row r="170" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:21" ht="13">
       <c r="F170" s="4"/>
       <c r="I170" s="4"/>
       <c r="L170" s="4"/>
@@ -8003,7 +7996,7 @@
       <c r="R170" s="4"/>
       <c r="U170" s="4"/>
     </row>
-    <row r="171" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:21" ht="13">
       <c r="F171" s="4"/>
       <c r="I171" s="4"/>
       <c r="L171" s="4"/>
@@ -8011,7 +8004,7 @@
       <c r="R171" s="4"/>
       <c r="U171" s="4"/>
     </row>
-    <row r="172" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:21" ht="13">
       <c r="F172" s="4"/>
       <c r="I172" s="4"/>
       <c r="L172" s="4"/>
@@ -8019,7 +8012,7 @@
       <c r="R172" s="4"/>
       <c r="U172" s="4"/>
     </row>
-    <row r="173" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:21" ht="13">
       <c r="F173" s="4"/>
       <c r="I173" s="4"/>
       <c r="L173" s="4"/>
@@ -8027,7 +8020,7 @@
       <c r="R173" s="4"/>
       <c r="U173" s="4"/>
     </row>
-    <row r="174" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:21" ht="13">
       <c r="F174" s="4"/>
       <c r="I174" s="4"/>
       <c r="L174" s="4"/>
@@ -8035,7 +8028,7 @@
       <c r="R174" s="4"/>
       <c r="U174" s="4"/>
     </row>
-    <row r="175" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:21" ht="13">
       <c r="F175" s="4"/>
       <c r="I175" s="4"/>
       <c r="L175" s="4"/>
@@ -8043,7 +8036,7 @@
       <c r="R175" s="4"/>
       <c r="U175" s="4"/>
     </row>
-    <row r="176" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:21" ht="13">
       <c r="F176" s="4"/>
       <c r="I176" s="4"/>
       <c r="L176" s="4"/>
@@ -8051,7 +8044,7 @@
       <c r="R176" s="4"/>
       <c r="U176" s="4"/>
     </row>
-    <row r="177" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:21" ht="13">
       <c r="F177" s="4"/>
       <c r="I177" s="4"/>
       <c r="L177" s="4"/>
@@ -8059,7 +8052,7 @@
       <c r="R177" s="4"/>
       <c r="U177" s="4"/>
     </row>
-    <row r="178" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:21" ht="13">
       <c r="F178" s="4"/>
       <c r="I178" s="4"/>
       <c r="L178" s="4"/>
@@ -8067,7 +8060,7 @@
       <c r="R178" s="4"/>
       <c r="U178" s="4"/>
     </row>
-    <row r="179" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:21" ht="13">
       <c r="F179" s="4"/>
       <c r="I179" s="4"/>
       <c r="L179" s="4"/>
@@ -8075,7 +8068,7 @@
       <c r="R179" s="4"/>
       <c r="U179" s="4"/>
     </row>
-    <row r="180" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:21" ht="13">
       <c r="F180" s="4"/>
       <c r="I180" s="4"/>
       <c r="L180" s="4"/>
@@ -8083,7 +8076,7 @@
       <c r="R180" s="4"/>
       <c r="U180" s="4"/>
     </row>
-    <row r="181" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:21" ht="13">
       <c r="F181" s="4"/>
       <c r="I181" s="4"/>
       <c r="L181" s="4"/>
@@ -8091,7 +8084,7 @@
       <c r="R181" s="4"/>
       <c r="U181" s="4"/>
     </row>
-    <row r="182" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:21" ht="13">
       <c r="F182" s="4"/>
       <c r="I182" s="4"/>
       <c r="L182" s="4"/>
@@ -8099,7 +8092,7 @@
       <c r="R182" s="4"/>
       <c r="U182" s="4"/>
     </row>
-    <row r="183" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:21" ht="13">
       <c r="F183" s="4"/>
       <c r="I183" s="4"/>
       <c r="L183" s="4"/>
@@ -8107,7 +8100,7 @@
       <c r="R183" s="4"/>
       <c r="U183" s="4"/>
     </row>
-    <row r="184" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:21" ht="13">
       <c r="F184" s="4"/>
       <c r="I184" s="4"/>
       <c r="L184" s="4"/>
@@ -8115,7 +8108,7 @@
       <c r="R184" s="4"/>
       <c r="U184" s="4"/>
     </row>
-    <row r="185" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:21" ht="13">
       <c r="F185" s="4"/>
       <c r="I185" s="4"/>
       <c r="L185" s="4"/>
@@ -8123,7 +8116,7 @@
       <c r="R185" s="4"/>
       <c r="U185" s="4"/>
     </row>
-    <row r="186" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:21" ht="13">
       <c r="F186" s="4"/>
       <c r="I186" s="4"/>
       <c r="L186" s="4"/>
@@ -8131,7 +8124,7 @@
       <c r="R186" s="4"/>
       <c r="U186" s="4"/>
     </row>
-    <row r="187" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:21" ht="13">
       <c r="F187" s="4"/>
       <c r="I187" s="4"/>
       <c r="L187" s="4"/>
@@ -8139,7 +8132,7 @@
       <c r="R187" s="4"/>
       <c r="U187" s="4"/>
     </row>
-    <row r="188" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:21" ht="13">
       <c r="F188" s="4"/>
       <c r="I188" s="4"/>
       <c r="L188" s="4"/>
@@ -8147,7 +8140,7 @@
       <c r="R188" s="4"/>
       <c r="U188" s="4"/>
     </row>
-    <row r="189" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:21" ht="13">
       <c r="F189" s="4"/>
       <c r="I189" s="4"/>
       <c r="L189" s="4"/>
@@ -8155,7 +8148,7 @@
       <c r="R189" s="4"/>
       <c r="U189" s="4"/>
     </row>
-    <row r="190" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:21" ht="13">
       <c r="F190" s="4"/>
       <c r="I190" s="4"/>
       <c r="L190" s="4"/>
@@ -8163,7 +8156,7 @@
       <c r="R190" s="4"/>
       <c r="U190" s="4"/>
     </row>
-    <row r="191" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:21" ht="13">
       <c r="F191" s="4"/>
       <c r="I191" s="4"/>
       <c r="L191" s="4"/>
@@ -8171,7 +8164,7 @@
       <c r="R191" s="4"/>
       <c r="U191" s="4"/>
     </row>
-    <row r="192" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:21" ht="13">
       <c r="F192" s="4"/>
       <c r="I192" s="4"/>
       <c r="L192" s="4"/>
@@ -8179,7 +8172,7 @@
       <c r="R192" s="4"/>
       <c r="U192" s="4"/>
     </row>
-    <row r="193" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:21" ht="13">
       <c r="F193" s="4"/>
       <c r="I193" s="4"/>
       <c r="L193" s="4"/>
@@ -8187,7 +8180,7 @@
       <c r="R193" s="4"/>
       <c r="U193" s="4"/>
     </row>
-    <row r="194" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:21" ht="13">
       <c r="F194" s="4"/>
       <c r="I194" s="4"/>
       <c r="L194" s="4"/>
@@ -8195,7 +8188,7 @@
       <c r="R194" s="4"/>
       <c r="U194" s="4"/>
     </row>
-    <row r="195" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:21" ht="13">
       <c r="F195" s="4"/>
       <c r="I195" s="4"/>
       <c r="L195" s="4"/>
@@ -8203,7 +8196,7 @@
       <c r="R195" s="4"/>
       <c r="U195" s="4"/>
     </row>
-    <row r="196" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:21" ht="13">
       <c r="F196" s="4"/>
       <c r="I196" s="4"/>
       <c r="L196" s="4"/>
@@ -8211,7 +8204,7 @@
       <c r="R196" s="4"/>
       <c r="U196" s="4"/>
     </row>
-    <row r="197" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:21" ht="13">
       <c r="F197" s="4"/>
       <c r="I197" s="4"/>
       <c r="L197" s="4"/>
@@ -8219,7 +8212,7 @@
       <c r="R197" s="4"/>
       <c r="U197" s="4"/>
     </row>
-    <row r="198" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:21" ht="13">
       <c r="F198" s="4"/>
       <c r="I198" s="4"/>
       <c r="L198" s="4"/>
@@ -8227,7 +8220,7 @@
       <c r="R198" s="4"/>
       <c r="U198" s="4"/>
     </row>
-    <row r="199" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:21" ht="13">
       <c r="F199" s="4"/>
       <c r="I199" s="4"/>
       <c r="L199" s="4"/>
@@ -8235,7 +8228,7 @@
       <c r="R199" s="4"/>
       <c r="U199" s="4"/>
     </row>
-    <row r="200" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:21" ht="13">
       <c r="F200" s="4"/>
       <c r="I200" s="4"/>
       <c r="L200" s="4"/>
@@ -8243,7 +8236,7 @@
       <c r="R200" s="4"/>
       <c r="U200" s="4"/>
     </row>
-    <row r="201" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:21" ht="13">
       <c r="F201" s="4"/>
       <c r="I201" s="4"/>
       <c r="L201" s="4"/>
@@ -8251,7 +8244,7 @@
       <c r="R201" s="4"/>
       <c r="U201" s="4"/>
     </row>
-    <row r="202" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:21" ht="13">
       <c r="F202" s="4"/>
       <c r="I202" s="4"/>
       <c r="L202" s="4"/>
@@ -8259,7 +8252,7 @@
       <c r="R202" s="4"/>
       <c r="U202" s="4"/>
     </row>
-    <row r="203" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:21" ht="13">
       <c r="F203" s="4"/>
       <c r="I203" s="4"/>
       <c r="L203" s="4"/>
@@ -8267,7 +8260,7 @@
       <c r="R203" s="4"/>
       <c r="U203" s="4"/>
     </row>
-    <row r="204" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:21" ht="13">
       <c r="F204" s="4"/>
       <c r="I204" s="4"/>
       <c r="L204" s="4"/>
@@ -8275,7 +8268,7 @@
       <c r="R204" s="4"/>
       <c r="U204" s="4"/>
     </row>
-    <row r="205" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:21" ht="13">
       <c r="F205" s="4"/>
       <c r="I205" s="4"/>
       <c r="L205" s="4"/>
@@ -8283,7 +8276,7 @@
       <c r="R205" s="4"/>
       <c r="U205" s="4"/>
     </row>
-    <row r="206" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:21" ht="13">
       <c r="F206" s="4"/>
       <c r="I206" s="4"/>
       <c r="L206" s="4"/>
@@ -8291,7 +8284,7 @@
       <c r="R206" s="4"/>
       <c r="U206" s="4"/>
     </row>
-    <row r="207" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:21" ht="13">
       <c r="F207" s="4"/>
       <c r="I207" s="4"/>
       <c r="L207" s="4"/>
@@ -8299,7 +8292,7 @@
       <c r="R207" s="4"/>
       <c r="U207" s="4"/>
     </row>
-    <row r="208" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:21" ht="13">
       <c r="F208" s="4"/>
       <c r="I208" s="4"/>
       <c r="L208" s="4"/>
@@ -8307,7 +8300,7 @@
       <c r="R208" s="4"/>
       <c r="U208" s="4"/>
     </row>
-    <row r="209" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:21" ht="13">
       <c r="F209" s="4"/>
       <c r="I209" s="4"/>
       <c r="L209" s="4"/>
@@ -8315,7 +8308,7 @@
       <c r="R209" s="4"/>
       <c r="U209" s="4"/>
     </row>
-    <row r="210" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:21" ht="13">
       <c r="F210" s="4"/>
       <c r="I210" s="4"/>
       <c r="L210" s="4"/>
@@ -8323,7 +8316,7 @@
       <c r="R210" s="4"/>
       <c r="U210" s="4"/>
     </row>
-    <row r="211" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:21" ht="13">
       <c r="F211" s="4"/>
       <c r="I211" s="4"/>
       <c r="L211" s="4"/>
@@ -8331,7 +8324,7 @@
       <c r="R211" s="4"/>
       <c r="U211" s="4"/>
     </row>
-    <row r="212" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:21" ht="13">
       <c r="F212" s="4"/>
       <c r="I212" s="4"/>
       <c r="L212" s="4"/>
@@ -8339,7 +8332,7 @@
       <c r="R212" s="4"/>
       <c r="U212" s="4"/>
     </row>
-    <row r="213" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:21" ht="13">
       <c r="F213" s="4"/>
       <c r="I213" s="4"/>
       <c r="L213" s="4"/>
@@ -8347,7 +8340,7 @@
       <c r="R213" s="4"/>
       <c r="U213" s="4"/>
     </row>
-    <row r="214" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:21" ht="13">
       <c r="F214" s="4"/>
       <c r="I214" s="4"/>
       <c r="L214" s="4"/>
@@ -8355,7 +8348,7 @@
       <c r="R214" s="4"/>
       <c r="U214" s="4"/>
     </row>
-    <row r="215" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:21" ht="13">
       <c r="F215" s="4"/>
       <c r="I215" s="4"/>
       <c r="L215" s="4"/>
@@ -8363,7 +8356,7 @@
       <c r="R215" s="4"/>
       <c r="U215" s="4"/>
     </row>
-    <row r="216" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:21" ht="13">
       <c r="F216" s="4"/>
       <c r="I216" s="4"/>
       <c r="L216" s="4"/>
@@ -8371,7 +8364,7 @@
       <c r="R216" s="4"/>
       <c r="U216" s="4"/>
     </row>
-    <row r="217" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:21" ht="13">
       <c r="F217" s="4"/>
       <c r="I217" s="4"/>
       <c r="L217" s="4"/>
@@ -8379,7 +8372,7 @@
       <c r="R217" s="4"/>
       <c r="U217" s="4"/>
     </row>
-    <row r="218" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:21" ht="13">
       <c r="F218" s="4"/>
       <c r="I218" s="4"/>
       <c r="L218" s="4"/>
@@ -8387,7 +8380,7 @@
       <c r="R218" s="4"/>
       <c r="U218" s="4"/>
     </row>
-    <row r="219" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:21" ht="13">
       <c r="F219" s="4"/>
       <c r="I219" s="4"/>
       <c r="L219" s="4"/>
@@ -8395,7 +8388,7 @@
       <c r="R219" s="4"/>
       <c r="U219" s="4"/>
     </row>
-    <row r="220" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:21" ht="13">
       <c r="F220" s="4"/>
       <c r="I220" s="4"/>
       <c r="L220" s="4"/>
@@ -8403,7 +8396,7 @@
       <c r="R220" s="4"/>
       <c r="U220" s="4"/>
     </row>
-    <row r="221" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:21" ht="13">
       <c r="F221" s="4"/>
       <c r="I221" s="4"/>
       <c r="L221" s="4"/>
@@ -8411,7 +8404,7 @@
       <c r="R221" s="4"/>
       <c r="U221" s="4"/>
     </row>
-    <row r="222" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:21" ht="13">
       <c r="F222" s="4"/>
       <c r="I222" s="4"/>
       <c r="L222" s="4"/>
@@ -8419,7 +8412,7 @@
       <c r="R222" s="4"/>
       <c r="U222" s="4"/>
     </row>
-    <row r="223" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:21" ht="13">
       <c r="F223" s="4"/>
       <c r="I223" s="4"/>
       <c r="L223" s="4"/>
@@ -8427,7 +8420,7 @@
       <c r="R223" s="4"/>
       <c r="U223" s="4"/>
     </row>
-    <row r="224" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:21" ht="13">
       <c r="F224" s="4"/>
       <c r="I224" s="4"/>
       <c r="L224" s="4"/>
@@ -8435,7 +8428,7 @@
       <c r="R224" s="4"/>
       <c r="U224" s="4"/>
     </row>
-    <row r="225" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:21" ht="13">
       <c r="F225" s="4"/>
       <c r="I225" s="4"/>
       <c r="L225" s="4"/>
@@ -8443,7 +8436,7 @@
       <c r="R225" s="4"/>
       <c r="U225" s="4"/>
     </row>
-    <row r="226" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:21" ht="13">
       <c r="F226" s="4"/>
       <c r="I226" s="4"/>
       <c r="L226" s="4"/>
@@ -8451,7 +8444,7 @@
       <c r="R226" s="4"/>
       <c r="U226" s="4"/>
     </row>
-    <row r="227" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:21" ht="13">
       <c r="F227" s="4"/>
       <c r="I227" s="4"/>
       <c r="L227" s="4"/>
@@ -8459,7 +8452,7 @@
       <c r="R227" s="4"/>
       <c r="U227" s="4"/>
     </row>
-    <row r="228" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:21" ht="13">
       <c r="F228" s="4"/>
       <c r="I228" s="4"/>
       <c r="L228" s="4"/>
@@ -8467,7 +8460,7 @@
       <c r="R228" s="4"/>
       <c r="U228" s="4"/>
     </row>
-    <row r="229" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:21" ht="13">
       <c r="F229" s="4"/>
       <c r="I229" s="4"/>
       <c r="L229" s="4"/>
@@ -8475,7 +8468,7 @@
       <c r="R229" s="4"/>
       <c r="U229" s="4"/>
     </row>
-    <row r="230" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:21" ht="13">
       <c r="F230" s="4"/>
       <c r="I230" s="4"/>
       <c r="L230" s="4"/>
@@ -8483,7 +8476,7 @@
       <c r="R230" s="4"/>
       <c r="U230" s="4"/>
     </row>
-    <row r="231" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:21" ht="13">
       <c r="F231" s="4"/>
       <c r="I231" s="4"/>
       <c r="L231" s="4"/>
@@ -8491,7 +8484,7 @@
       <c r="R231" s="4"/>
       <c r="U231" s="4"/>
     </row>
-    <row r="232" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:21" ht="13">
       <c r="F232" s="4"/>
       <c r="I232" s="4"/>
       <c r="L232" s="4"/>
@@ -8499,7 +8492,7 @@
       <c r="R232" s="4"/>
       <c r="U232" s="4"/>
     </row>
-    <row r="233" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:21" ht="13">
       <c r="F233" s="4"/>
       <c r="I233" s="4"/>
       <c r="L233" s="4"/>
@@ -8507,7 +8500,7 @@
       <c r="R233" s="4"/>
       <c r="U233" s="4"/>
     </row>
-    <row r="234" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:21" ht="13">
       <c r="F234" s="4"/>
       <c r="I234" s="4"/>
       <c r="L234" s="4"/>
@@ -8515,7 +8508,7 @@
       <c r="R234" s="4"/>
       <c r="U234" s="4"/>
     </row>
-    <row r="235" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:21" ht="13">
       <c r="F235" s="4"/>
       <c r="I235" s="4"/>
       <c r="L235" s="4"/>
@@ -8523,7 +8516,7 @@
       <c r="R235" s="4"/>
       <c r="U235" s="4"/>
     </row>
-    <row r="236" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:21" ht="13">
       <c r="F236" s="4"/>
       <c r="I236" s="4"/>
       <c r="L236" s="4"/>
@@ -8531,7 +8524,7 @@
       <c r="R236" s="4"/>
       <c r="U236" s="4"/>
     </row>
-    <row r="237" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:21" ht="13">
       <c r="F237" s="4"/>
       <c r="I237" s="4"/>
       <c r="L237" s="4"/>
@@ -8539,7 +8532,7 @@
       <c r="R237" s="4"/>
       <c r="U237" s="4"/>
     </row>
-    <row r="238" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:21" ht="13">
       <c r="F238" s="4"/>
       <c r="I238" s="4"/>
       <c r="L238" s="4"/>
@@ -8547,7 +8540,7 @@
       <c r="R238" s="4"/>
       <c r="U238" s="4"/>
     </row>
-    <row r="239" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:21" ht="13">
       <c r="F239" s="4"/>
       <c r="I239" s="4"/>
       <c r="L239" s="4"/>
@@ -8555,7 +8548,7 @@
       <c r="R239" s="4"/>
       <c r="U239" s="4"/>
     </row>
-    <row r="240" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:21" ht="13">
       <c r="F240" s="4"/>
       <c r="I240" s="4"/>
       <c r="L240" s="4"/>
@@ -8563,7 +8556,7 @@
       <c r="R240" s="4"/>
       <c r="U240" s="4"/>
     </row>
-    <row r="241" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:21" ht="13">
       <c r="F241" s="4"/>
       <c r="I241" s="4"/>
       <c r="L241" s="4"/>
@@ -8571,7 +8564,7 @@
       <c r="R241" s="4"/>
       <c r="U241" s="4"/>
     </row>
-    <row r="242" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:21" ht="13">
       <c r="F242" s="4"/>
       <c r="I242" s="4"/>
       <c r="L242" s="4"/>
@@ -8579,7 +8572,7 @@
       <c r="R242" s="4"/>
       <c r="U242" s="4"/>
     </row>
-    <row r="243" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:21" ht="13">
       <c r="F243" s="4"/>
       <c r="I243" s="4"/>
       <c r="L243" s="4"/>
@@ -8587,7 +8580,7 @@
       <c r="R243" s="4"/>
       <c r="U243" s="4"/>
     </row>
-    <row r="244" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:21" ht="13">
       <c r="F244" s="4"/>
       <c r="I244" s="4"/>
       <c r="L244" s="4"/>
@@ -8595,7 +8588,7 @@
       <c r="R244" s="4"/>
       <c r="U244" s="4"/>
     </row>
-    <row r="245" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:21" ht="13">
       <c r="F245" s="4"/>
       <c r="I245" s="4"/>
       <c r="L245" s="4"/>
@@ -8603,7 +8596,7 @@
       <c r="R245" s="4"/>
       <c r="U245" s="4"/>
     </row>
-    <row r="246" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:21" ht="13">
       <c r="F246" s="4"/>
       <c r="I246" s="4"/>
       <c r="L246" s="4"/>
@@ -8611,7 +8604,7 @@
       <c r="R246" s="4"/>
       <c r="U246" s="4"/>
     </row>
-    <row r="247" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:21" ht="13">
       <c r="F247" s="4"/>
       <c r="I247" s="4"/>
       <c r="L247" s="4"/>
@@ -8619,7 +8612,7 @@
       <c r="R247" s="4"/>
       <c r="U247" s="4"/>
     </row>
-    <row r="248" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:21" ht="13">
       <c r="F248" s="4"/>
       <c r="I248" s="4"/>
       <c r="L248" s="4"/>
@@ -8627,7 +8620,7 @@
       <c r="R248" s="4"/>
       <c r="U248" s="4"/>
     </row>
-    <row r="249" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:21" ht="13">
       <c r="F249" s="4"/>
       <c r="I249" s="4"/>
       <c r="L249" s="4"/>
@@ -8635,7 +8628,7 @@
       <c r="R249" s="4"/>
       <c r="U249" s="4"/>
     </row>
-    <row r="250" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:21" ht="13">
       <c r="F250" s="4"/>
       <c r="I250" s="4"/>
       <c r="L250" s="4"/>
@@ -8643,7 +8636,7 @@
       <c r="R250" s="4"/>
       <c r="U250" s="4"/>
     </row>
-    <row r="251" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:21" ht="13">
       <c r="F251" s="4"/>
       <c r="I251" s="4"/>
       <c r="L251" s="4"/>
@@ -8651,7 +8644,7 @@
       <c r="R251" s="4"/>
       <c r="U251" s="4"/>
     </row>
-    <row r="252" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:21" ht="13">
       <c r="F252" s="4"/>
       <c r="I252" s="4"/>
       <c r="L252" s="4"/>
@@ -8659,7 +8652,7 @@
       <c r="R252" s="4"/>
       <c r="U252" s="4"/>
     </row>
-    <row r="253" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:21" ht="13">
       <c r="F253" s="4"/>
       <c r="I253" s="4"/>
       <c r="L253" s="4"/>
@@ -8667,7 +8660,7 @@
       <c r="R253" s="4"/>
       <c r="U253" s="4"/>
     </row>
-    <row r="254" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:21" ht="13">
       <c r="F254" s="4"/>
       <c r="I254" s="4"/>
       <c r="L254" s="4"/>
@@ -8675,7 +8668,7 @@
       <c r="R254" s="4"/>
       <c r="U254" s="4"/>
     </row>
-    <row r="255" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:21" ht="13">
       <c r="F255" s="4"/>
       <c r="I255" s="4"/>
       <c r="L255" s="4"/>
@@ -8683,7 +8676,7 @@
       <c r="R255" s="4"/>
       <c r="U255" s="4"/>
     </row>
-    <row r="256" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:21" ht="13">
       <c r="F256" s="4"/>
       <c r="I256" s="4"/>
       <c r="L256" s="4"/>
@@ -8691,7 +8684,7 @@
       <c r="R256" s="4"/>
       <c r="U256" s="4"/>
     </row>
-    <row r="257" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:21" ht="13">
       <c r="F257" s="4"/>
       <c r="I257" s="4"/>
       <c r="L257" s="4"/>
@@ -8699,7 +8692,7 @@
       <c r="R257" s="4"/>
       <c r="U257" s="4"/>
     </row>
-    <row r="258" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:21" ht="13">
       <c r="F258" s="4"/>
       <c r="I258" s="4"/>
       <c r="L258" s="4"/>
@@ -8707,7 +8700,7 @@
       <c r="R258" s="4"/>
       <c r="U258" s="4"/>
     </row>
-    <row r="259" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:21" ht="13">
       <c r="F259" s="4"/>
       <c r="I259" s="4"/>
       <c r="L259" s="4"/>
@@ -8715,7 +8708,7 @@
       <c r="R259" s="4"/>
       <c r="U259" s="4"/>
     </row>
-    <row r="260" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:21" ht="13">
       <c r="F260" s="4"/>
       <c r="I260" s="4"/>
       <c r="L260" s="4"/>
@@ -8723,7 +8716,7 @@
       <c r="R260" s="4"/>
       <c r="U260" s="4"/>
     </row>
-    <row r="261" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:21" ht="13">
       <c r="F261" s="4"/>
       <c r="I261" s="4"/>
       <c r="L261" s="4"/>
@@ -8731,7 +8724,7 @@
       <c r="R261" s="4"/>
       <c r="U261" s="4"/>
     </row>
-    <row r="262" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:21" ht="13">
       <c r="F262" s="4"/>
       <c r="I262" s="4"/>
       <c r="L262" s="4"/>
@@ -8739,7 +8732,7 @@
       <c r="R262" s="4"/>
       <c r="U262" s="4"/>
     </row>
-    <row r="263" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:21" ht="13">
       <c r="F263" s="4"/>
       <c r="I263" s="4"/>
       <c r="L263" s="4"/>
@@ -8747,7 +8740,7 @@
       <c r="R263" s="4"/>
       <c r="U263" s="4"/>
     </row>
-    <row r="264" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:21" ht="13">
       <c r="F264" s="4"/>
       <c r="I264" s="4"/>
       <c r="L264" s="4"/>
@@ -8755,7 +8748,7 @@
       <c r="R264" s="4"/>
       <c r="U264" s="4"/>
     </row>
-    <row r="265" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:21" ht="13">
       <c r="F265" s="4"/>
       <c r="I265" s="4"/>
       <c r="L265" s="4"/>
@@ -8763,7 +8756,7 @@
       <c r="R265" s="4"/>
       <c r="U265" s="4"/>
     </row>
-    <row r="266" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:21" ht="13">
       <c r="F266" s="4"/>
       <c r="I266" s="4"/>
       <c r="L266" s="4"/>
@@ -8771,7 +8764,7 @@
       <c r="R266" s="4"/>
       <c r="U266" s="4"/>
     </row>
-    <row r="267" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:21" ht="13">
       <c r="F267" s="4"/>
       <c r="I267" s="4"/>
       <c r="L267" s="4"/>
@@ -8779,7 +8772,7 @@
       <c r="R267" s="4"/>
       <c r="U267" s="4"/>
     </row>
-    <row r="268" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:21" ht="13">
       <c r="F268" s="4"/>
       <c r="I268" s="4"/>
       <c r="L268" s="4"/>
@@ -8787,7 +8780,7 @@
       <c r="R268" s="4"/>
       <c r="U268" s="4"/>
     </row>
-    <row r="269" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:21" ht="13">
       <c r="F269" s="4"/>
       <c r="I269" s="4"/>
       <c r="L269" s="4"/>
@@ -8795,7 +8788,7 @@
       <c r="R269" s="4"/>
       <c r="U269" s="4"/>
     </row>
-    <row r="270" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:21" ht="13">
       <c r="F270" s="4"/>
       <c r="I270" s="4"/>
       <c r="L270" s="4"/>
@@ -8803,7 +8796,7 @@
       <c r="R270" s="4"/>
       <c r="U270" s="4"/>
     </row>
-    <row r="271" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:21" ht="13">
       <c r="F271" s="4"/>
       <c r="I271" s="4"/>
       <c r="L271" s="4"/>
@@ -8811,7 +8804,7 @@
       <c r="R271" s="4"/>
       <c r="U271" s="4"/>
     </row>
-    <row r="272" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:21" ht="13">
       <c r="F272" s="4"/>
       <c r="I272" s="4"/>
       <c r="L272" s="4"/>
@@ -8819,7 +8812,7 @@
       <c r="R272" s="4"/>
       <c r="U272" s="4"/>
     </row>
-    <row r="273" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:21" ht="13">
       <c r="F273" s="4"/>
       <c r="I273" s="4"/>
       <c r="L273" s="4"/>
@@ -8827,7 +8820,7 @@
       <c r="R273" s="4"/>
       <c r="U273" s="4"/>
     </row>
-    <row r="274" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:21" ht="13">
       <c r="F274" s="4"/>
       <c r="I274" s="4"/>
       <c r="L274" s="4"/>
@@ -8835,7 +8828,7 @@
       <c r="R274" s="4"/>
       <c r="U274" s="4"/>
     </row>
-    <row r="275" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:21" ht="13">
       <c r="F275" s="4"/>
       <c r="I275" s="4"/>
       <c r="L275" s="4"/>
@@ -8843,7 +8836,7 @@
       <c r="R275" s="4"/>
       <c r="U275" s="4"/>
     </row>
-    <row r="276" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:21" ht="13">
       <c r="F276" s="4"/>
       <c r="I276" s="4"/>
       <c r="L276" s="4"/>
@@ -8851,7 +8844,7 @@
       <c r="R276" s="4"/>
       <c r="U276" s="4"/>
     </row>
-    <row r="277" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:21" ht="13">
       <c r="F277" s="4"/>
       <c r="I277" s="4"/>
       <c r="L277" s="4"/>
@@ -8859,7 +8852,7 @@
       <c r="R277" s="4"/>
       <c r="U277" s="4"/>
     </row>
-    <row r="278" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:21" ht="13">
       <c r="F278" s="4"/>
       <c r="I278" s="4"/>
       <c r="L278" s="4"/>
@@ -8867,7 +8860,7 @@
       <c r="R278" s="4"/>
       <c r="U278" s="4"/>
     </row>
-    <row r="279" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:21" ht="13">
       <c r="F279" s="4"/>
       <c r="I279" s="4"/>
       <c r="L279" s="4"/>
@@ -8875,7 +8868,7 @@
       <c r="R279" s="4"/>
       <c r="U279" s="4"/>
     </row>
-    <row r="280" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:21" ht="13">
       <c r="F280" s="4"/>
       <c r="I280" s="4"/>
       <c r="L280" s="4"/>
@@ -8883,7 +8876,7 @@
       <c r="R280" s="4"/>
       <c r="U280" s="4"/>
     </row>
-    <row r="281" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:21" ht="13">
       <c r="F281" s="4"/>
       <c r="I281" s="4"/>
       <c r="L281" s="4"/>
@@ -8891,7 +8884,7 @@
       <c r="R281" s="4"/>
       <c r="U281" s="4"/>
     </row>
-    <row r="282" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:21" ht="13">
       <c r="F282" s="4"/>
       <c r="I282" s="4"/>
       <c r="L282" s="4"/>
@@ -8899,7 +8892,7 @@
       <c r="R282" s="4"/>
       <c r="U282" s="4"/>
     </row>
-    <row r="283" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:21" ht="13">
       <c r="F283" s="4"/>
       <c r="I283" s="4"/>
       <c r="L283" s="4"/>
@@ -8907,7 +8900,7 @@
       <c r="R283" s="4"/>
       <c r="U283" s="4"/>
     </row>
-    <row r="284" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:21" ht="13">
       <c r="F284" s="4"/>
       <c r="I284" s="4"/>
       <c r="L284" s="4"/>
@@ -8915,7 +8908,7 @@
       <c r="R284" s="4"/>
       <c r="U284" s="4"/>
     </row>
-    <row r="285" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:21" ht="13">
       <c r="F285" s="4"/>
       <c r="I285" s="4"/>
       <c r="L285" s="4"/>
@@ -8923,7 +8916,7 @@
       <c r="R285" s="4"/>
       <c r="U285" s="4"/>
     </row>
-    <row r="286" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:21" ht="13">
       <c r="F286" s="4"/>
       <c r="I286" s="4"/>
       <c r="L286" s="4"/>
@@ -8931,7 +8924,7 @@
       <c r="R286" s="4"/>
       <c r="U286" s="4"/>
     </row>
-    <row r="287" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:21" ht="13">
       <c r="F287" s="4"/>
       <c r="I287" s="4"/>
       <c r="L287" s="4"/>
@@ -8939,7 +8932,7 @@
       <c r="R287" s="4"/>
       <c r="U287" s="4"/>
     </row>
-    <row r="288" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:21" ht="13">
       <c r="F288" s="4"/>
       <c r="I288" s="4"/>
       <c r="L288" s="4"/>
@@ -8947,7 +8940,7 @@
       <c r="R288" s="4"/>
       <c r="U288" s="4"/>
     </row>
-    <row r="289" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="6:21" ht="13">
       <c r="F289" s="4"/>
       <c r="I289" s="4"/>
       <c r="L289" s="4"/>
@@ -8955,7 +8948,7 @@
       <c r="R289" s="4"/>
       <c r="U289" s="4"/>
     </row>
-    <row r="290" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="6:21" ht="13">
       <c r="F290" s="4"/>
       <c r="I290" s="4"/>
       <c r="L290" s="4"/>
@@ -8963,7 +8956,7 @@
       <c r="R290" s="4"/>
       <c r="U290" s="4"/>
     </row>
-    <row r="291" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="6:21" ht="13">
       <c r="F291" s="4"/>
       <c r="I291" s="4"/>
       <c r="L291" s="4"/>
@@ -8971,7 +8964,7 @@
       <c r="R291" s="4"/>
       <c r="U291" s="4"/>
     </row>
-    <row r="292" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:21" ht="13">
       <c r="F292" s="4"/>
       <c r="I292" s="4"/>
       <c r="L292" s="4"/>
@@ -8979,7 +8972,7 @@
       <c r="R292" s="4"/>
       <c r="U292" s="4"/>
     </row>
-    <row r="293" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:21" ht="13">
       <c r="F293" s="4"/>
       <c r="I293" s="4"/>
       <c r="L293" s="4"/>
@@ -8987,7 +8980,7 @@
       <c r="R293" s="4"/>
       <c r="U293" s="4"/>
     </row>
-    <row r="294" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:21" ht="13">
       <c r="F294" s="4"/>
       <c r="I294" s="4"/>
       <c r="L294" s="4"/>
@@ -8995,7 +8988,7 @@
       <c r="R294" s="4"/>
       <c r="U294" s="4"/>
     </row>
-    <row r="295" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:21" ht="13">
       <c r="F295" s="4"/>
       <c r="I295" s="4"/>
       <c r="L295" s="4"/>
@@ -9003,7 +8996,7 @@
       <c r="R295" s="4"/>
       <c r="U295" s="4"/>
     </row>
-    <row r="296" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:21" ht="13">
       <c r="F296" s="4"/>
       <c r="I296" s="4"/>
       <c r="L296" s="4"/>
@@ -9011,7 +9004,7 @@
       <c r="R296" s="4"/>
       <c r="U296" s="4"/>
     </row>
-    <row r="297" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:21" ht="13">
       <c r="F297" s="4"/>
       <c r="I297" s="4"/>
       <c r="L297" s="4"/>
@@ -9019,7 +9012,7 @@
       <c r="R297" s="4"/>
       <c r="U297" s="4"/>
     </row>
-    <row r="298" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:21" ht="13">
       <c r="F298" s="4"/>
       <c r="I298" s="4"/>
       <c r="L298" s="4"/>
@@ -9027,7 +9020,7 @@
       <c r="R298" s="4"/>
       <c r="U298" s="4"/>
     </row>
-    <row r="299" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:21" ht="13">
       <c r="F299" s="4"/>
       <c r="I299" s="4"/>
       <c r="L299" s="4"/>
@@ -9035,7 +9028,7 @@
       <c r="R299" s="4"/>
       <c r="U299" s="4"/>
     </row>
-    <row r="300" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:21" ht="13">
       <c r="F300" s="4"/>
       <c r="I300" s="4"/>
       <c r="L300" s="4"/>
@@ -9043,7 +9036,7 @@
       <c r="R300" s="4"/>
       <c r="U300" s="4"/>
     </row>
-    <row r="301" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:21" ht="13">
       <c r="F301" s="4"/>
       <c r="I301" s="4"/>
       <c r="L301" s="4"/>
@@ -9051,7 +9044,7 @@
       <c r="R301" s="4"/>
       <c r="U301" s="4"/>
     </row>
-    <row r="302" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:21" ht="13">
       <c r="F302" s="4"/>
       <c r="I302" s="4"/>
       <c r="L302" s="4"/>
@@ -9059,7 +9052,7 @@
       <c r="R302" s="4"/>
       <c r="U302" s="4"/>
     </row>
-    <row r="303" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:21" ht="13">
       <c r="F303" s="4"/>
       <c r="I303" s="4"/>
       <c r="L303" s="4"/>
@@ -9067,7 +9060,7 @@
       <c r="R303" s="4"/>
       <c r="U303" s="4"/>
     </row>
-    <row r="304" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:21" ht="13">
       <c r="F304" s="4"/>
       <c r="I304" s="4"/>
       <c r="L304" s="4"/>
@@ -9075,7 +9068,7 @@
       <c r="R304" s="4"/>
       <c r="U304" s="4"/>
     </row>
-    <row r="305" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="6:21" ht="13">
       <c r="F305" s="4"/>
       <c r="I305" s="4"/>
       <c r="L305" s="4"/>
@@ -9083,7 +9076,7 @@
       <c r="R305" s="4"/>
       <c r="U305" s="4"/>
     </row>
-    <row r="306" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="6:21" ht="13">
       <c r="F306" s="4"/>
       <c r="I306" s="4"/>
       <c r="L306" s="4"/>
@@ -9091,7 +9084,7 @@
       <c r="R306" s="4"/>
       <c r="U306" s="4"/>
     </row>
-    <row r="307" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="6:21" ht="13">
       <c r="F307" s="4"/>
       <c r="I307" s="4"/>
       <c r="L307" s="4"/>
@@ -9099,7 +9092,7 @@
       <c r="R307" s="4"/>
       <c r="U307" s="4"/>
     </row>
-    <row r="308" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="6:21" ht="13">
       <c r="F308" s="4"/>
       <c r="I308" s="4"/>
       <c r="L308" s="4"/>
@@ -9107,7 +9100,7 @@
       <c r="R308" s="4"/>
       <c r="U308" s="4"/>
     </row>
-    <row r="309" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="6:21" ht="13">
       <c r="F309" s="4"/>
       <c r="I309" s="4"/>
       <c r="L309" s="4"/>
@@ -9115,7 +9108,7 @@
       <c r="R309" s="4"/>
       <c r="U309" s="4"/>
     </row>
-    <row r="310" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="6:21" ht="13">
       <c r="F310" s="4"/>
       <c r="I310" s="4"/>
       <c r="L310" s="4"/>
@@ -9123,7 +9116,7 @@
       <c r="R310" s="4"/>
       <c r="U310" s="4"/>
     </row>
-    <row r="311" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="6:21" ht="13">
       <c r="F311" s="4"/>
       <c r="I311" s="4"/>
       <c r="L311" s="4"/>
@@ -9131,7 +9124,7 @@
       <c r="R311" s="4"/>
       <c r="U311" s="4"/>
     </row>
-    <row r="312" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="6:21" ht="13">
       <c r="F312" s="4"/>
       <c r="I312" s="4"/>
       <c r="L312" s="4"/>
@@ -9139,7 +9132,7 @@
       <c r="R312" s="4"/>
       <c r="U312" s="4"/>
     </row>
-    <row r="313" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="6:21" ht="13">
       <c r="F313" s="4"/>
       <c r="I313" s="4"/>
       <c r="L313" s="4"/>
@@ -9147,7 +9140,7 @@
       <c r="R313" s="4"/>
       <c r="U313" s="4"/>
     </row>
-    <row r="314" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="6:21" ht="13">
       <c r="F314" s="4"/>
       <c r="I314" s="4"/>
       <c r="L314" s="4"/>
@@ -9155,7 +9148,7 @@
       <c r="R314" s="4"/>
       <c r="U314" s="4"/>
     </row>
-    <row r="315" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="6:21" ht="13">
       <c r="F315" s="4"/>
       <c r="I315" s="4"/>
       <c r="L315" s="4"/>
@@ -9163,7 +9156,7 @@
       <c r="R315" s="4"/>
       <c r="U315" s="4"/>
     </row>
-    <row r="316" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="6:21" ht="13">
       <c r="F316" s="4"/>
       <c r="I316" s="4"/>
       <c r="L316" s="4"/>
@@ -9171,7 +9164,7 @@
       <c r="R316" s="4"/>
       <c r="U316" s="4"/>
     </row>
-    <row r="317" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="6:21" ht="13">
       <c r="F317" s="4"/>
       <c r="I317" s="4"/>
       <c r="L317" s="4"/>
@@ -9179,7 +9172,7 @@
       <c r="R317" s="4"/>
       <c r="U317" s="4"/>
     </row>
-    <row r="318" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="6:21" ht="13">
       <c r="F318" s="4"/>
       <c r="I318" s="4"/>
       <c r="L318" s="4"/>
@@ -9187,7 +9180,7 @@
       <c r="R318" s="4"/>
       <c r="U318" s="4"/>
     </row>
-    <row r="319" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="6:21" ht="13">
       <c r="F319" s="4"/>
       <c r="I319" s="4"/>
       <c r="L319" s="4"/>
@@ -9195,7 +9188,7 @@
       <c r="R319" s="4"/>
       <c r="U319" s="4"/>
     </row>
-    <row r="320" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="6:21" ht="13">
       <c r="F320" s="4"/>
       <c r="I320" s="4"/>
       <c r="L320" s="4"/>
@@ -9203,7 +9196,7 @@
       <c r="R320" s="4"/>
       <c r="U320" s="4"/>
     </row>
-    <row r="321" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="6:21" ht="13">
       <c r="F321" s="4"/>
       <c r="I321" s="4"/>
       <c r="L321" s="4"/>
@@ -9211,7 +9204,7 @@
       <c r="R321" s="4"/>
       <c r="U321" s="4"/>
     </row>
-    <row r="322" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="6:21" ht="13">
       <c r="F322" s="4"/>
       <c r="I322" s="4"/>
       <c r="L322" s="4"/>
@@ -9219,7 +9212,7 @@
       <c r="R322" s="4"/>
       <c r="U322" s="4"/>
     </row>
-    <row r="323" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="6:21" ht="13">
       <c r="F323" s="4"/>
       <c r="I323" s="4"/>
       <c r="L323" s="4"/>
@@ -9227,7 +9220,7 @@
       <c r="R323" s="4"/>
       <c r="U323" s="4"/>
     </row>
-    <row r="324" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="6:21" ht="13">
       <c r="F324" s="4"/>
       <c r="I324" s="4"/>
       <c r="L324" s="4"/>
@@ -9235,7 +9228,7 @@
       <c r="R324" s="4"/>
       <c r="U324" s="4"/>
     </row>
-    <row r="325" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="6:21" ht="13">
       <c r="F325" s="4"/>
       <c r="I325" s="4"/>
       <c r="L325" s="4"/>
@@ -9243,7 +9236,7 @@
       <c r="R325" s="4"/>
       <c r="U325" s="4"/>
     </row>
-    <row r="326" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="6:21" ht="13">
       <c r="F326" s="4"/>
       <c r="I326" s="4"/>
       <c r="L326" s="4"/>
@@ -9251,7 +9244,7 @@
       <c r="R326" s="4"/>
       <c r="U326" s="4"/>
     </row>
-    <row r="327" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="6:21" ht="13">
       <c r="F327" s="4"/>
       <c r="I327" s="4"/>
       <c r="L327" s="4"/>
@@ -9259,7 +9252,7 @@
       <c r="R327" s="4"/>
       <c r="U327" s="4"/>
     </row>
-    <row r="328" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="6:21" ht="13">
       <c r="F328" s="4"/>
       <c r="I328" s="4"/>
       <c r="L328" s="4"/>
@@ -9267,7 +9260,7 @@
       <c r="R328" s="4"/>
       <c r="U328" s="4"/>
     </row>
-    <row r="329" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="6:21" ht="13">
       <c r="F329" s="4"/>
       <c r="I329" s="4"/>
       <c r="L329" s="4"/>
@@ -9275,7 +9268,7 @@
       <c r="R329" s="4"/>
       <c r="U329" s="4"/>
     </row>
-    <row r="330" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="6:21" ht="13">
       <c r="F330" s="4"/>
       <c r="I330" s="4"/>
       <c r="L330" s="4"/>
@@ -9283,7 +9276,7 @@
       <c r="R330" s="4"/>
       <c r="U330" s="4"/>
     </row>
-    <row r="331" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="6:21" ht="13">
       <c r="F331" s="4"/>
       <c r="I331" s="4"/>
       <c r="L331" s="4"/>
@@ -9291,7 +9284,7 @@
       <c r="R331" s="4"/>
       <c r="U331" s="4"/>
     </row>
-    <row r="332" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="6:21" ht="13">
       <c r="F332" s="4"/>
       <c r="I332" s="4"/>
       <c r="L332" s="4"/>
@@ -9299,7 +9292,7 @@
       <c r="R332" s="4"/>
       <c r="U332" s="4"/>
     </row>
-    <row r="333" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="6:21" ht="13">
       <c r="F333" s="4"/>
       <c r="I333" s="4"/>
       <c r="L333" s="4"/>
@@ -9307,7 +9300,7 @@
       <c r="R333" s="4"/>
       <c r="U333" s="4"/>
     </row>
-    <row r="334" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="6:21" ht="13">
       <c r="F334" s="4"/>
       <c r="I334" s="4"/>
       <c r="L334" s="4"/>
@@ -9315,7 +9308,7 @@
       <c r="R334" s="4"/>
       <c r="U334" s="4"/>
     </row>
-    <row r="335" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="6:21" ht="13">
       <c r="F335" s="4"/>
       <c r="I335" s="4"/>
       <c r="L335" s="4"/>
@@ -9323,7 +9316,7 @@
       <c r="R335" s="4"/>
       <c r="U335" s="4"/>
     </row>
-    <row r="336" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="6:21" ht="13">
       <c r="F336" s="4"/>
       <c r="I336" s="4"/>
       <c r="L336" s="4"/>
@@ -9331,7 +9324,7 @@
       <c r="R336" s="4"/>
       <c r="U336" s="4"/>
     </row>
-    <row r="337" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="6:21" ht="13">
       <c r="F337" s="4"/>
       <c r="I337" s="4"/>
       <c r="L337" s="4"/>
@@ -9339,7 +9332,7 @@
       <c r="R337" s="4"/>
       <c r="U337" s="4"/>
     </row>
-    <row r="338" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="6:21" ht="13">
       <c r="F338" s="4"/>
       <c r="I338" s="4"/>
       <c r="L338" s="4"/>
@@ -9347,7 +9340,7 @@
       <c r="R338" s="4"/>
       <c r="U338" s="4"/>
     </row>
-    <row r="339" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="6:21" ht="13">
       <c r="F339" s="4"/>
       <c r="I339" s="4"/>
       <c r="L339" s="4"/>
@@ -9355,7 +9348,7 @@
       <c r="R339" s="4"/>
       <c r="U339" s="4"/>
     </row>
-    <row r="340" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="6:21" ht="13">
       <c r="F340" s="4"/>
       <c r="I340" s="4"/>
       <c r="L340" s="4"/>
@@ -9363,7 +9356,7 @@
       <c r="R340" s="4"/>
       <c r="U340" s="4"/>
     </row>
-    <row r="341" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="6:21" ht="13">
       <c r="F341" s="4"/>
       <c r="I341" s="4"/>
       <c r="L341" s="4"/>
@@ -9371,7 +9364,7 @@
       <c r="R341" s="4"/>
       <c r="U341" s="4"/>
     </row>
-    <row r="342" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="6:21" ht="13">
       <c r="F342" s="4"/>
       <c r="I342" s="4"/>
       <c r="L342" s="4"/>
@@ -9379,7 +9372,7 @@
       <c r="R342" s="4"/>
       <c r="U342" s="4"/>
     </row>
-    <row r="343" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="6:21" ht="13">
       <c r="F343" s="4"/>
       <c r="I343" s="4"/>
       <c r="L343" s="4"/>
@@ -9387,7 +9380,7 @@
       <c r="R343" s="4"/>
       <c r="U343" s="4"/>
     </row>
-    <row r="344" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="6:21" ht="13">
       <c r="F344" s="4"/>
       <c r="I344" s="4"/>
       <c r="L344" s="4"/>
@@ -9395,7 +9388,7 @@
       <c r="R344" s="4"/>
       <c r="U344" s="4"/>
     </row>
-    <row r="345" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="6:21" ht="13">
       <c r="F345" s="4"/>
       <c r="I345" s="4"/>
       <c r="L345" s="4"/>
@@ -9403,7 +9396,7 @@
       <c r="R345" s="4"/>
       <c r="U345" s="4"/>
     </row>
-    <row r="346" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="6:21" ht="13">
       <c r="F346" s="4"/>
       <c r="I346" s="4"/>
       <c r="L346" s="4"/>
@@ -9411,7 +9404,7 @@
       <c r="R346" s="4"/>
       <c r="U346" s="4"/>
     </row>
-    <row r="347" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="6:21" ht="13">
       <c r="F347" s="4"/>
       <c r="I347" s="4"/>
       <c r="L347" s="4"/>
@@ -9419,7 +9412,7 @@
       <c r="R347" s="4"/>
       <c r="U347" s="4"/>
     </row>
-    <row r="348" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="6:21" ht="13">
       <c r="F348" s="4"/>
       <c r="I348" s="4"/>
       <c r="L348" s="4"/>
@@ -9427,7 +9420,7 @@
       <c r="R348" s="4"/>
       <c r="U348" s="4"/>
     </row>
-    <row r="349" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="6:21" ht="13">
       <c r="F349" s="4"/>
       <c r="I349" s="4"/>
       <c r="L349" s="4"/>
@@ -9435,7 +9428,7 @@
       <c r="R349" s="4"/>
       <c r="U349" s="4"/>
     </row>
-    <row r="350" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="6:21" ht="13">
       <c r="F350" s="4"/>
       <c r="I350" s="4"/>
       <c r="L350" s="4"/>
@@ -9443,7 +9436,7 @@
       <c r="R350" s="4"/>
       <c r="U350" s="4"/>
     </row>
-    <row r="351" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="6:21" ht="13">
       <c r="F351" s="4"/>
       <c r="I351" s="4"/>
       <c r="L351" s="4"/>
@@ -9451,7 +9444,7 @@
       <c r="R351" s="4"/>
       <c r="U351" s="4"/>
     </row>
-    <row r="352" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="6:21" ht="13">
       <c r="F352" s="4"/>
       <c r="I352" s="4"/>
       <c r="L352" s="4"/>
@@ -9459,7 +9452,7 @@
       <c r="R352" s="4"/>
       <c r="U352" s="4"/>
     </row>
-    <row r="353" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="6:21" ht="13">
       <c r="F353" s="4"/>
       <c r="I353" s="4"/>
       <c r="L353" s="4"/>
@@ -9467,7 +9460,7 @@
       <c r="R353" s="4"/>
       <c r="U353" s="4"/>
     </row>
-    <row r="354" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="6:21" ht="13">
       <c r="F354" s="4"/>
       <c r="I354" s="4"/>
       <c r="L354" s="4"/>
@@ -9475,7 +9468,7 @@
       <c r="R354" s="4"/>
       <c r="U354" s="4"/>
     </row>
-    <row r="355" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="6:21" ht="13">
       <c r="F355" s="4"/>
       <c r="I355" s="4"/>
       <c r="L355" s="4"/>
@@ -9483,7 +9476,7 @@
       <c r="R355" s="4"/>
       <c r="U355" s="4"/>
     </row>
-    <row r="356" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="6:21" ht="13">
       <c r="F356" s="4"/>
       <c r="I356" s="4"/>
       <c r="L356" s="4"/>
@@ -9491,7 +9484,7 @@
       <c r="R356" s="4"/>
       <c r="U356" s="4"/>
     </row>
-    <row r="357" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="6:21" ht="13">
       <c r="F357" s="4"/>
       <c r="I357" s="4"/>
       <c r="L357" s="4"/>
@@ -9499,7 +9492,7 @@
       <c r="R357" s="4"/>
       <c r="U357" s="4"/>
     </row>
-    <row r="358" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="6:21" ht="13">
       <c r="F358" s="4"/>
       <c r="I358" s="4"/>
       <c r="L358" s="4"/>
@@ -9507,7 +9500,7 @@
       <c r="R358" s="4"/>
       <c r="U358" s="4"/>
     </row>
-    <row r="359" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="6:21" ht="13">
       <c r="F359" s="4"/>
       <c r="I359" s="4"/>
       <c r="L359" s="4"/>
@@ -9515,7 +9508,7 @@
       <c r="R359" s="4"/>
       <c r="U359" s="4"/>
     </row>
-    <row r="360" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="6:21" ht="13">
       <c r="F360" s="4"/>
       <c r="I360" s="4"/>
       <c r="L360" s="4"/>
@@ -9523,7 +9516,7 @@
       <c r="R360" s="4"/>
       <c r="U360" s="4"/>
     </row>
-    <row r="361" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="6:21" ht="13">
       <c r="F361" s="4"/>
       <c r="I361" s="4"/>
       <c r="L361" s="4"/>
@@ -9531,7 +9524,7 @@
       <c r="R361" s="4"/>
       <c r="U361" s="4"/>
     </row>
-    <row r="362" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="6:21" ht="13">
       <c r="F362" s="4"/>
       <c r="I362" s="4"/>
       <c r="L362" s="4"/>
@@ -9539,7 +9532,7 @@
       <c r="R362" s="4"/>
       <c r="U362" s="4"/>
     </row>
-    <row r="363" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="6:21" ht="13">
       <c r="F363" s="4"/>
       <c r="I363" s="4"/>
       <c r="L363" s="4"/>
@@ -9547,7 +9540,7 @@
       <c r="R363" s="4"/>
       <c r="U363" s="4"/>
     </row>
-    <row r="364" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="6:21" ht="13">
       <c r="F364" s="4"/>
       <c r="I364" s="4"/>
       <c r="L364" s="4"/>
@@ -9555,7 +9548,7 @@
       <c r="R364" s="4"/>
       <c r="U364" s="4"/>
     </row>
-    <row r="365" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="6:21" ht="13">
       <c r="F365" s="4"/>
       <c r="I365" s="4"/>
       <c r="L365" s="4"/>
@@ -9563,7 +9556,7 @@
       <c r="R365" s="4"/>
       <c r="U365" s="4"/>
     </row>
-    <row r="366" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="6:21" ht="13">
       <c r="F366" s="4"/>
       <c r="I366" s="4"/>
       <c r="L366" s="4"/>
@@ -9571,7 +9564,7 @@
       <c r="R366" s="4"/>
       <c r="U366" s="4"/>
     </row>
-    <row r="367" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="6:21" ht="13">
       <c r="F367" s="4"/>
       <c r="I367" s="4"/>
       <c r="L367" s="4"/>
@@ -9579,7 +9572,7 @@
       <c r="R367" s="4"/>
       <c r="U367" s="4"/>
     </row>
-    <row r="368" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="6:21" ht="13">
       <c r="F368" s="4"/>
       <c r="I368" s="4"/>
       <c r="L368" s="4"/>
@@ -9587,7 +9580,7 @@
       <c r="R368" s="4"/>
       <c r="U368" s="4"/>
     </row>
-    <row r="369" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="6:21" ht="13">
       <c r="F369" s="4"/>
       <c r="I369" s="4"/>
       <c r="L369" s="4"/>
@@ -9595,7 +9588,7 @@
       <c r="R369" s="4"/>
       <c r="U369" s="4"/>
     </row>
-    <row r="370" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="6:21" ht="13">
       <c r="F370" s="4"/>
       <c r="I370" s="4"/>
       <c r="L370" s="4"/>
@@ -9603,7 +9596,7 @@
       <c r="R370" s="4"/>
       <c r="U370" s="4"/>
     </row>
-    <row r="371" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="6:21" ht="13">
       <c r="F371" s="4"/>
       <c r="I371" s="4"/>
       <c r="L371" s="4"/>
@@ -9611,7 +9604,7 @@
       <c r="R371" s="4"/>
       <c r="U371" s="4"/>
     </row>
-    <row r="372" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="6:21" ht="13">
       <c r="F372" s="4"/>
       <c r="I372" s="4"/>
       <c r="L372" s="4"/>
@@ -9619,7 +9612,7 @@
       <c r="R372" s="4"/>
       <c r="U372" s="4"/>
     </row>
-    <row r="373" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="6:21" ht="13">
       <c r="F373" s="4"/>
       <c r="I373" s="4"/>
       <c r="L373" s="4"/>
@@ -9627,7 +9620,7 @@
       <c r="R373" s="4"/>
       <c r="U373" s="4"/>
     </row>
-    <row r="374" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="6:21" ht="13">
       <c r="F374" s="4"/>
       <c r="I374" s="4"/>
       <c r="L374" s="4"/>
@@ -9635,7 +9628,7 @@
       <c r="R374" s="4"/>
       <c r="U374" s="4"/>
     </row>
-    <row r="375" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="6:21" ht="13">
       <c r="F375" s="4"/>
       <c r="I375" s="4"/>
       <c r="L375" s="4"/>
@@ -9643,7 +9636,7 @@
       <c r="R375" s="4"/>
       <c r="U375" s="4"/>
     </row>
-    <row r="376" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="6:21" ht="13">
       <c r="F376" s="4"/>
       <c r="I376" s="4"/>
       <c r="L376" s="4"/>
@@ -9651,7 +9644,7 @@
       <c r="R376" s="4"/>
       <c r="U376" s="4"/>
     </row>
-    <row r="377" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="6:21" ht="13">
       <c r="F377" s="4"/>
       <c r="I377" s="4"/>
       <c r="L377" s="4"/>
@@ -9659,7 +9652,7 @@
       <c r="R377" s="4"/>
       <c r="U377" s="4"/>
     </row>
-    <row r="378" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="6:21" ht="13">
       <c r="F378" s="4"/>
       <c r="I378" s="4"/>
       <c r="L378" s="4"/>
@@ -9667,7 +9660,7 @@
       <c r="R378" s="4"/>
       <c r="U378" s="4"/>
     </row>
-    <row r="379" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="6:21" ht="13">
       <c r="F379" s="4"/>
       <c r="I379" s="4"/>
       <c r="L379" s="4"/>
@@ -9675,7 +9668,7 @@
       <c r="R379" s="4"/>
       <c r="U379" s="4"/>
     </row>
-    <row r="380" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="6:21" ht="13">
       <c r="F380" s="4"/>
       <c r="I380" s="4"/>
       <c r="L380" s="4"/>
@@ -9683,7 +9676,7 @@
       <c r="R380" s="4"/>
       <c r="U380" s="4"/>
     </row>
-    <row r="381" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="6:21" ht="13">
       <c r="F381" s="4"/>
       <c r="I381" s="4"/>
       <c r="L381" s="4"/>
@@ -9691,7 +9684,7 @@
       <c r="R381" s="4"/>
       <c r="U381" s="4"/>
     </row>
-    <row r="382" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="6:21" ht="13">
       <c r="F382" s="4"/>
       <c r="I382" s="4"/>
       <c r="L382" s="4"/>
@@ -9699,7 +9692,7 @@
       <c r="R382" s="4"/>
       <c r="U382" s="4"/>
     </row>
-    <row r="383" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="6:21" ht="13">
       <c r="F383" s="4"/>
       <c r="I383" s="4"/>
       <c r="L383" s="4"/>
@@ -9707,7 +9700,7 @@
       <c r="R383" s="4"/>
       <c r="U383" s="4"/>
     </row>
-    <row r="384" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="6:21" ht="13">
       <c r="F384" s="4"/>
       <c r="I384" s="4"/>
       <c r="L384" s="4"/>
@@ -9715,7 +9708,7 @@
       <c r="R384" s="4"/>
       <c r="U384" s="4"/>
     </row>
-    <row r="385" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="6:21" ht="13">
       <c r="F385" s="4"/>
       <c r="I385" s="4"/>
       <c r="L385" s="4"/>
@@ -9723,7 +9716,7 @@
       <c r="R385" s="4"/>
       <c r="U385" s="4"/>
     </row>
-    <row r="386" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="6:21" ht="13">
       <c r="F386" s="4"/>
       <c r="I386" s="4"/>
       <c r="L386" s="4"/>
@@ -9731,7 +9724,7 @@
       <c r="R386" s="4"/>
       <c r="U386" s="4"/>
     </row>
-    <row r="387" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="6:21" ht="13">
       <c r="F387" s="4"/>
       <c r="I387" s="4"/>
       <c r="L387" s="4"/>
@@ -9739,7 +9732,7 @@
       <c r="R387" s="4"/>
       <c r="U387" s="4"/>
     </row>
-    <row r="388" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="6:21" ht="13">
       <c r="F388" s="4"/>
       <c r="I388" s="4"/>
       <c r="L388" s="4"/>
@@ -9747,7 +9740,7 @@
       <c r="R388" s="4"/>
       <c r="U388" s="4"/>
     </row>
-    <row r="389" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="6:21" ht="13">
       <c r="F389" s="4"/>
       <c r="I389" s="4"/>
       <c r="L389" s="4"/>
@@ -9755,7 +9748,7 @@
       <c r="R389" s="4"/>
       <c r="U389" s="4"/>
     </row>
-    <row r="390" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="6:21" ht="13">
       <c r="F390" s="4"/>
       <c r="I390" s="4"/>
       <c r="L390" s="4"/>
@@ -9763,7 +9756,7 @@
       <c r="R390" s="4"/>
       <c r="U390" s="4"/>
     </row>
-    <row r="391" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="6:21" ht="13">
       <c r="F391" s="4"/>
       <c r="I391" s="4"/>
       <c r="L391" s="4"/>
@@ -9771,7 +9764,7 @@
       <c r="R391" s="4"/>
       <c r="U391" s="4"/>
     </row>
-    <row r="392" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="6:21" ht="13">
       <c r="F392" s="4"/>
       <c r="I392" s="4"/>
       <c r="L392" s="4"/>
@@ -9779,7 +9772,7 @@
       <c r="R392" s="4"/>
       <c r="U392" s="4"/>
     </row>
-    <row r="393" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="6:21" ht="13">
       <c r="F393" s="4"/>
       <c r="I393" s="4"/>
       <c r="L393" s="4"/>
@@ -9787,7 +9780,7 @@
       <c r="R393" s="4"/>
       <c r="U393" s="4"/>
     </row>
-    <row r="394" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="6:21" ht="13">
       <c r="F394" s="4"/>
       <c r="I394" s="4"/>
       <c r="L394" s="4"/>
@@ -9795,7 +9788,7 @@
       <c r="R394" s="4"/>
       <c r="U394" s="4"/>
     </row>
-    <row r="395" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="6:21" ht="13">
       <c r="F395" s="4"/>
       <c r="I395" s="4"/>
       <c r="L395" s="4"/>
@@ -9803,7 +9796,7 @@
       <c r="R395" s="4"/>
       <c r="U395" s="4"/>
     </row>
-    <row r="396" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="6:21" ht="13">
       <c r="F396" s="4"/>
       <c r="I396" s="4"/>
       <c r="L396" s="4"/>
@@ -9811,7 +9804,7 @@
       <c r="R396" s="4"/>
       <c r="U396" s="4"/>
     </row>
-    <row r="397" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="6:21" ht="13">
       <c r="F397" s="4"/>
       <c r="I397" s="4"/>
       <c r="L397" s="4"/>
@@ -9819,7 +9812,7 @@
       <c r="R397" s="4"/>
       <c r="U397" s="4"/>
     </row>
-    <row r="398" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="6:21" ht="13">
       <c r="F398" s="4"/>
       <c r="I398" s="4"/>
       <c r="L398" s="4"/>
@@ -9827,7 +9820,7 @@
       <c r="R398" s="4"/>
       <c r="U398" s="4"/>
     </row>
-    <row r="399" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="6:21" ht="13">
       <c r="F399" s="4"/>
       <c r="I399" s="4"/>
       <c r="L399" s="4"/>
@@ -9835,7 +9828,7 @@
       <c r="R399" s="4"/>
       <c r="U399" s="4"/>
     </row>
-    <row r="400" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="6:21" ht="13">
       <c r="F400" s="4"/>
       <c r="I400" s="4"/>
       <c r="L400" s="4"/>
@@ -9843,7 +9836,7 @@
       <c r="R400" s="4"/>
       <c r="U400" s="4"/>
     </row>
-    <row r="401" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="6:21" ht="13">
       <c r="F401" s="4"/>
       <c r="I401" s="4"/>
       <c r="L401" s="4"/>
@@ -9851,7 +9844,7 @@
       <c r="R401" s="4"/>
       <c r="U401" s="4"/>
     </row>
-    <row r="402" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="6:21" ht="13">
       <c r="F402" s="4"/>
       <c r="I402" s="4"/>
       <c r="L402" s="4"/>
@@ -9859,7 +9852,7 @@
       <c r="R402" s="4"/>
       <c r="U402" s="4"/>
     </row>
-    <row r="403" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="6:21" ht="13">
       <c r="F403" s="4"/>
       <c r="I403" s="4"/>
       <c r="L403" s="4"/>
@@ -9867,7 +9860,7 @@
       <c r="R403" s="4"/>
       <c r="U403" s="4"/>
     </row>
-    <row r="404" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="6:21" ht="13">
       <c r="F404" s="4"/>
       <c r="I404" s="4"/>
       <c r="L404" s="4"/>
@@ -9875,7 +9868,7 @@
       <c r="R404" s="4"/>
       <c r="U404" s="4"/>
     </row>
-    <row r="405" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="6:21" ht="13">
       <c r="F405" s="4"/>
       <c r="I405" s="4"/>
       <c r="L405" s="4"/>
@@ -9883,7 +9876,7 @@
       <c r="R405" s="4"/>
       <c r="U405" s="4"/>
     </row>
-    <row r="406" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="6:21" ht="13">
       <c r="F406" s="4"/>
       <c r="I406" s="4"/>
       <c r="L406" s="4"/>
@@ -9891,7 +9884,7 @@
       <c r="R406" s="4"/>
       <c r="U406" s="4"/>
     </row>
-    <row r="407" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="6:21" ht="13">
       <c r="F407" s="4"/>
       <c r="I407" s="4"/>
       <c r="L407" s="4"/>
@@ -9899,7 +9892,7 @@
       <c r="R407" s="4"/>
       <c r="U407" s="4"/>
     </row>
-    <row r="408" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="6:21" ht="13">
       <c r="F408" s="4"/>
       <c r="I408" s="4"/>
       <c r="L408" s="4"/>
@@ -9907,7 +9900,7 @@
       <c r="R408" s="4"/>
       <c r="U408" s="4"/>
     </row>
-    <row r="409" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="6:21" ht="13">
       <c r="F409" s="4"/>
       <c r="I409" s="4"/>
       <c r="L409" s="4"/>
@@ -9915,7 +9908,7 @@
       <c r="R409" s="4"/>
       <c r="U409" s="4"/>
     </row>
-    <row r="410" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="6:21" ht="13">
       <c r="F410" s="4"/>
       <c r="I410" s="4"/>
       <c r="L410" s="4"/>
@@ -9923,7 +9916,7 @@
       <c r="R410" s="4"/>
       <c r="U410" s="4"/>
     </row>
-    <row r="411" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="6:21" ht="13">
       <c r="F411" s="4"/>
       <c r="I411" s="4"/>
       <c r="L411" s="4"/>
@@ -9931,7 +9924,7 @@
       <c r="R411" s="4"/>
       <c r="U411" s="4"/>
     </row>
-    <row r="412" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="6:21" ht="13">
       <c r="F412" s="4"/>
       <c r="I412" s="4"/>
       <c r="L412" s="4"/>
@@ -9939,7 +9932,7 @@
       <c r="R412" s="4"/>
       <c r="U412" s="4"/>
     </row>
-    <row r="413" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="6:21" ht="13">
       <c r="F413" s="4"/>
       <c r="I413" s="4"/>
       <c r="L413" s="4"/>
@@ -9947,7 +9940,7 @@
       <c r="R413" s="4"/>
       <c r="U413" s="4"/>
     </row>
-    <row r="414" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="6:21" ht="13">
       <c r="F414" s="4"/>
       <c r="I414" s="4"/>
       <c r="L414" s="4"/>
@@ -9955,7 +9948,7 @@
       <c r="R414" s="4"/>
       <c r="U414" s="4"/>
     </row>
-    <row r="415" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="6:21" ht="13">
       <c r="F415" s="4"/>
       <c r="I415" s="4"/>
       <c r="L415" s="4"/>
@@ -9963,7 +9956,7 @@
       <c r="R415" s="4"/>
       <c r="U415" s="4"/>
     </row>
-    <row r="416" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="6:21" ht="13">
       <c r="F416" s="4"/>
       <c r="I416" s="4"/>
       <c r="L416" s="4"/>
@@ -9971,7 +9964,7 @@
       <c r="R416" s="4"/>
       <c r="U416" s="4"/>
     </row>
-    <row r="417" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="6:21" ht="13">
       <c r="F417" s="4"/>
       <c r="I417" s="4"/>
       <c r="L417" s="4"/>
@@ -9979,7 +9972,7 @@
       <c r="R417" s="4"/>
       <c r="U417" s="4"/>
     </row>
-    <row r="418" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="6:21" ht="13">
       <c r="F418" s="4"/>
       <c r="I418" s="4"/>
       <c r="L418" s="4"/>
@@ -9987,7 +9980,7 @@
       <c r="R418" s="4"/>
       <c r="U418" s="4"/>
     </row>
-    <row r="419" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="6:21" ht="13">
       <c r="F419" s="4"/>
       <c r="I419" s="4"/>
       <c r="L419" s="4"/>
@@ -9995,7 +9988,7 @@
       <c r="R419" s="4"/>
       <c r="U419" s="4"/>
     </row>
-    <row r="420" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="6:21" ht="13">
       <c r="F420" s="4"/>
       <c r="I420" s="4"/>
       <c r="L420" s="4"/>
@@ -10003,7 +9996,7 @@
       <c r="R420" s="4"/>
       <c r="U420" s="4"/>
     </row>
-    <row r="421" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="6:21" ht="13">
       <c r="F421" s="4"/>
       <c r="I421" s="4"/>
       <c r="L421" s="4"/>
@@ -10011,7 +10004,7 @@
       <c r="R421" s="4"/>
       <c r="U421" s="4"/>
     </row>
-    <row r="422" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="6:21" ht="13">
       <c r="F422" s="4"/>
       <c r="I422" s="4"/>
       <c r="L422" s="4"/>
@@ -10019,7 +10012,7 @@
       <c r="R422" s="4"/>
       <c r="U422" s="4"/>
     </row>
-    <row r="423" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="6:21" ht="13">
       <c r="F423" s="4"/>
       <c r="I423" s="4"/>
       <c r="L423" s="4"/>
@@ -10027,7 +10020,7 @@
       <c r="R423" s="4"/>
       <c r="U423" s="4"/>
     </row>
-    <row r="424" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="6:21" ht="13">
       <c r="F424" s="4"/>
       <c r="I424" s="4"/>
       <c r="L424" s="4"/>
@@ -10035,7 +10028,7 @@
       <c r="R424" s="4"/>
       <c r="U424" s="4"/>
     </row>
-    <row r="425" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="6:21" ht="13">
       <c r="F425" s="4"/>
       <c r="I425" s="4"/>
       <c r="L425" s="4"/>
@@ -10043,7 +10036,7 @@
       <c r="R425" s="4"/>
       <c r="U425" s="4"/>
     </row>
-    <row r="426" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="6:21" ht="13">
       <c r="F426" s="4"/>
       <c r="I426" s="4"/>
       <c r="L426" s="4"/>
@@ -10051,7 +10044,7 @@
       <c r="R426" s="4"/>
       <c r="U426" s="4"/>
     </row>
-    <row r="427" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="6:21" ht="13">
       <c r="F427" s="4"/>
       <c r="I427" s="4"/>
       <c r="L427" s="4"/>
@@ -10059,7 +10052,7 @@
       <c r="R427" s="4"/>
       <c r="U427" s="4"/>
     </row>
-    <row r="428" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="6:21" ht="13">
       <c r="F428" s="4"/>
       <c r="I428" s="4"/>
       <c r="L428" s="4"/>
@@ -10067,7 +10060,7 @@
       <c r="R428" s="4"/>
       <c r="U428" s="4"/>
     </row>
-    <row r="429" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="6:21" ht="13">
       <c r="F429" s="4"/>
       <c r="I429" s="4"/>
       <c r="L429" s="4"/>
@@ -10075,7 +10068,7 @@
       <c r="R429" s="4"/>
       <c r="U429" s="4"/>
     </row>
-    <row r="430" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="6:21" ht="13">
       <c r="F430" s="4"/>
       <c r="I430" s="4"/>
       <c r="L430" s="4"/>
@@ -10083,7 +10076,7 @@
       <c r="R430" s="4"/>
       <c r="U430" s="4"/>
     </row>
-    <row r="431" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="6:21" ht="13">
       <c r="F431" s="4"/>
       <c r="I431" s="4"/>
       <c r="L431" s="4"/>
@@ -10091,7 +10084,7 @@
       <c r="R431" s="4"/>
       <c r="U431" s="4"/>
     </row>
-    <row r="432" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="6:21" ht="13">
       <c r="F432" s="4"/>
       <c r="I432" s="4"/>
       <c r="L432" s="4"/>
@@ -10099,7 +10092,7 @@
       <c r="R432" s="4"/>
       <c r="U432" s="4"/>
     </row>
-    <row r="433" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="6:21" ht="13">
       <c r="F433" s="4"/>
       <c r="I433" s="4"/>
       <c r="L433" s="4"/>
@@ -10107,7 +10100,7 @@
       <c r="R433" s="4"/>
       <c r="U433" s="4"/>
     </row>
-    <row r="434" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="6:21" ht="13">
       <c r="F434" s="4"/>
       <c r="I434" s="4"/>
       <c r="L434" s="4"/>
@@ -10115,7 +10108,7 @@
       <c r="R434" s="4"/>
       <c r="U434" s="4"/>
     </row>
-    <row r="435" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="6:21" ht="13">
       <c r="F435" s="4"/>
       <c r="I435" s="4"/>
       <c r="L435" s="4"/>
@@ -10123,7 +10116,7 @@
       <c r="R435" s="4"/>
       <c r="U435" s="4"/>
     </row>
-    <row r="436" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="6:21" ht="13">
       <c r="F436" s="4"/>
       <c r="I436" s="4"/>
       <c r="L436" s="4"/>
@@ -10131,7 +10124,7 @@
       <c r="R436" s="4"/>
       <c r="U436" s="4"/>
     </row>
-    <row r="437" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="6:21" ht="13">
       <c r="F437" s="4"/>
       <c r="I437" s="4"/>
       <c r="L437" s="4"/>
@@ -10139,7 +10132,7 @@
       <c r="R437" s="4"/>
       <c r="U437" s="4"/>
     </row>
-    <row r="438" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="6:21" ht="13">
       <c r="F438" s="4"/>
       <c r="I438" s="4"/>
       <c r="L438" s="4"/>
@@ -10147,7 +10140,7 @@
       <c r="R438" s="4"/>
       <c r="U438" s="4"/>
     </row>
-    <row r="439" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="6:21" ht="13">
       <c r="F439" s="4"/>
       <c r="I439" s="4"/>
       <c r="L439" s="4"/>
@@ -10155,7 +10148,7 @@
       <c r="R439" s="4"/>
       <c r="U439" s="4"/>
     </row>
-    <row r="440" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="6:21" ht="13">
       <c r="F440" s="4"/>
       <c r="I440" s="4"/>
       <c r="L440" s="4"/>
@@ -10163,7 +10156,7 @@
       <c r="R440" s="4"/>
       <c r="U440" s="4"/>
     </row>
-    <row r="441" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="6:21" ht="13">
       <c r="F441" s="4"/>
       <c r="I441" s="4"/>
       <c r="L441" s="4"/>
@@ -10171,7 +10164,7 @@
       <c r="R441" s="4"/>
       <c r="U441" s="4"/>
     </row>
-    <row r="442" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="6:21" ht="13">
       <c r="F442" s="4"/>
       <c r="I442" s="4"/>
       <c r="L442" s="4"/>
@@ -10179,7 +10172,7 @@
       <c r="R442" s="4"/>
       <c r="U442" s="4"/>
     </row>
-    <row r="443" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="6:21" ht="13">
       <c r="F443" s="4"/>
       <c r="I443" s="4"/>
       <c r="L443" s="4"/>
@@ -10187,7 +10180,7 @@
       <c r="R443" s="4"/>
       <c r="U443" s="4"/>
     </row>
-    <row r="444" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="6:21" ht="13">
       <c r="F444" s="4"/>
       <c r="I444" s="4"/>
       <c r="L444" s="4"/>
@@ -10195,7 +10188,7 @@
       <c r="R444" s="4"/>
       <c r="U444" s="4"/>
     </row>
-    <row r="445" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="6:21" ht="13">
       <c r="F445" s="4"/>
       <c r="I445" s="4"/>
       <c r="L445" s="4"/>
@@ -10203,7 +10196,7 @@
       <c r="R445" s="4"/>
       <c r="U445" s="4"/>
     </row>
-    <row r="446" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="6:21" ht="13">
       <c r="F446" s="4"/>
       <c r="I446" s="4"/>
       <c r="L446" s="4"/>
@@ -10211,7 +10204,7 @@
       <c r="R446" s="4"/>
       <c r="U446" s="4"/>
     </row>
-    <row r="447" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="6:21" ht="13">
       <c r="F447" s="4"/>
       <c r="I447" s="4"/>
       <c r="L447" s="4"/>
@@ -10219,7 +10212,7 @@
       <c r="R447" s="4"/>
       <c r="U447" s="4"/>
     </row>
-    <row r="448" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="6:21" ht="13">
       <c r="F448" s="4"/>
       <c r="I448" s="4"/>
       <c r="L448" s="4"/>
@@ -10227,7 +10220,7 @@
       <c r="R448" s="4"/>
       <c r="U448" s="4"/>
     </row>
-    <row r="449" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="6:21" ht="13">
       <c r="F449" s="4"/>
       <c r="I449" s="4"/>
       <c r="L449" s="4"/>
@@ -10235,7 +10228,7 @@
       <c r="R449" s="4"/>
       <c r="U449" s="4"/>
     </row>
-    <row r="450" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="6:21" ht="13">
       <c r="F450" s="4"/>
       <c r="I450" s="4"/>
       <c r="L450" s="4"/>
@@ -10243,7 +10236,7 @@
       <c r="R450" s="4"/>
       <c r="U450" s="4"/>
     </row>
-    <row r="451" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="6:21" ht="13">
       <c r="F451" s="4"/>
       <c r="I451" s="4"/>
       <c r="L451" s="4"/>
@@ -10251,7 +10244,7 @@
       <c r="R451" s="4"/>
       <c r="U451" s="4"/>
     </row>
-    <row r="452" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="6:21" ht="13">
       <c r="F452" s="4"/>
       <c r="I452" s="4"/>
       <c r="L452" s="4"/>
@@ -10259,7 +10252,7 @@
       <c r="R452" s="4"/>
       <c r="U452" s="4"/>
     </row>
-    <row r="453" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="6:21" ht="13">
       <c r="F453" s="4"/>
       <c r="I453" s="4"/>
       <c r="L453" s="4"/>
@@ -10267,7 +10260,7 @@
       <c r="R453" s="4"/>
       <c r="U453" s="4"/>
     </row>
-    <row r="454" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="6:21" ht="13">
       <c r="F454" s="4"/>
       <c r="I454" s="4"/>
       <c r="L454" s="4"/>
@@ -10275,7 +10268,7 @@
       <c r="R454" s="4"/>
       <c r="U454" s="4"/>
     </row>
-    <row r="455" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="6:21" ht="13">
       <c r="F455" s="4"/>
       <c r="I455" s="4"/>
       <c r="L455" s="4"/>
@@ -10283,7 +10276,7 @@
       <c r="R455" s="4"/>
       <c r="U455" s="4"/>
     </row>
-    <row r="456" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="6:21" ht="13">
       <c r="F456" s="4"/>
       <c r="I456" s="4"/>
       <c r="L456" s="4"/>
@@ -10291,7 +10284,7 @@
       <c r="R456" s="4"/>
       <c r="U456" s="4"/>
     </row>
-    <row r="457" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="6:21" ht="13">
       <c r="F457" s="4"/>
       <c r="I457" s="4"/>
       <c r="L457" s="4"/>
@@ -10299,7 +10292,7 @@
       <c r="R457" s="4"/>
       <c r="U457" s="4"/>
     </row>
-    <row r="458" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="6:21" ht="13">
       <c r="F458" s="4"/>
       <c r="I458" s="4"/>
       <c r="L458" s="4"/>
@@ -10307,7 +10300,7 @@
       <c r="R458" s="4"/>
       <c r="U458" s="4"/>
     </row>
-    <row r="459" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="6:21" ht="13">
       <c r="F459" s="4"/>
       <c r="I459" s="4"/>
       <c r="L459" s="4"/>
@@ -10315,7 +10308,7 @@
       <c r="R459" s="4"/>
       <c r="U459" s="4"/>
     </row>
-    <row r="460" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="6:21" ht="13">
       <c r="F460" s="4"/>
       <c r="I460" s="4"/>
       <c r="L460" s="4"/>
@@ -10323,7 +10316,7 @@
       <c r="R460" s="4"/>
       <c r="U460" s="4"/>
     </row>
-    <row r="461" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="6:21" ht="13">
       <c r="F461" s="4"/>
       <c r="I461" s="4"/>
       <c r="L461" s="4"/>
@@ -10331,7 +10324,7 @@
       <c r="R461" s="4"/>
       <c r="U461" s="4"/>
     </row>
-    <row r="462" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="6:21" ht="13">
       <c r="F462" s="4"/>
       <c r="I462" s="4"/>
       <c r="L462" s="4"/>
@@ -10339,7 +10332,7 @@
       <c r="R462" s="4"/>
       <c r="U462" s="4"/>
     </row>
-    <row r="463" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="6:21" ht="13">
       <c r="F463" s="4"/>
       <c r="I463" s="4"/>
       <c r="L463" s="4"/>
@@ -10347,7 +10340,7 @@
       <c r="R463" s="4"/>
       <c r="U463" s="4"/>
     </row>
-    <row r="464" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="6:21" ht="13">
       <c r="F464" s="4"/>
       <c r="I464" s="4"/>
       <c r="L464" s="4"/>
@@ -10355,7 +10348,7 @@
       <c r="R464" s="4"/>
       <c r="U464" s="4"/>
     </row>
-    <row r="465" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="6:21" ht="13">
       <c r="F465" s="4"/>
       <c r="I465" s="4"/>
       <c r="L465" s="4"/>
@@ -10363,7 +10356,7 @@
       <c r="R465" s="4"/>
       <c r="U465" s="4"/>
     </row>
-    <row r="466" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="6:21" ht="13">
       <c r="F466" s="4"/>
       <c r="I466" s="4"/>
       <c r="L466" s="4"/>
@@ -10371,7 +10364,7 @@
       <c r="R466" s="4"/>
       <c r="U466" s="4"/>
     </row>
-    <row r="467" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="6:21" ht="13">
       <c r="F467" s="4"/>
       <c r="I467" s="4"/>
       <c r="L467" s="4"/>
@@ -10379,7 +10372,7 @@
       <c r="R467" s="4"/>
       <c r="U467" s="4"/>
     </row>
-    <row r="468" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="6:21" ht="13">
       <c r="F468" s="4"/>
       <c r="I468" s="4"/>
       <c r="L468" s="4"/>
@@ -10387,7 +10380,7 @@
       <c r="R468" s="4"/>
       <c r="U468" s="4"/>
     </row>
-    <row r="469" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="6:21" ht="13">
       <c r="F469" s="4"/>
       <c r="I469" s="4"/>
       <c r="L469" s="4"/>
@@ -10395,7 +10388,7 @@
       <c r="R469" s="4"/>
       <c r="U469" s="4"/>
     </row>
-    <row r="470" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="6:21" ht="13">
       <c r="F470" s="4"/>
       <c r="I470" s="4"/>
       <c r="L470" s="4"/>
@@ -10403,7 +10396,7 @@
       <c r="R470" s="4"/>
       <c r="U470" s="4"/>
     </row>
-    <row r="471" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="6:21" ht="13">
       <c r="F471" s="4"/>
       <c r="I471" s="4"/>
       <c r="L471" s="4"/>
@@ -10411,7 +10404,7 @@
       <c r="R471" s="4"/>
       <c r="U471" s="4"/>
     </row>
-    <row r="472" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="6:21" ht="13">
       <c r="F472" s="4"/>
       <c r="I472" s="4"/>
       <c r="L472" s="4"/>
@@ -10419,7 +10412,7 @@
       <c r="R472" s="4"/>
       <c r="U472" s="4"/>
     </row>
-    <row r="473" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="6:21" ht="13">
       <c r="F473" s="4"/>
       <c r="I473" s="4"/>
       <c r="L473" s="4"/>
@@ -10427,7 +10420,7 @@
       <c r="R473" s="4"/>
       <c r="U473" s="4"/>
     </row>
-    <row r="474" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="6:21" ht="13">
       <c r="F474" s="4"/>
       <c r="I474" s="4"/>
       <c r="L474" s="4"/>
@@ -10435,7 +10428,7 @@
       <c r="R474" s="4"/>
       <c r="U474" s="4"/>
     </row>
-    <row r="475" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="6:21" ht="13">
       <c r="F475" s="4"/>
       <c r="I475" s="4"/>
       <c r="L475" s="4"/>
@@ -10443,7 +10436,7 @@
       <c r="R475" s="4"/>
       <c r="U475" s="4"/>
     </row>
-    <row r="476" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="6:21" ht="13">
       <c r="F476" s="4"/>
       <c r="I476" s="4"/>
       <c r="L476" s="4"/>
@@ -10451,7 +10444,7 @@
       <c r="R476" s="4"/>
       <c r="U476" s="4"/>
     </row>
-    <row r="477" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="6:21" ht="13">
       <c r="F477" s="4"/>
       <c r="I477" s="4"/>
       <c r="L477" s="4"/>
@@ -10459,7 +10452,7 @@
       <c r="R477" s="4"/>
       <c r="U477" s="4"/>
     </row>
-    <row r="478" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="6:21" ht="13">
       <c r="F478" s="4"/>
       <c r="I478" s="4"/>
       <c r="L478" s="4"/>
@@ -10467,7 +10460,7 @@
       <c r="R478" s="4"/>
       <c r="U478" s="4"/>
     </row>
-    <row r="479" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="6:21" ht="13">
       <c r="F479" s="4"/>
       <c r="I479" s="4"/>
       <c r="L479" s="4"/>
@@ -10475,7 +10468,7 @@
       <c r="R479" s="4"/>
       <c r="U479" s="4"/>
     </row>
-    <row r="480" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="6:21" ht="13">
       <c r="F480" s="4"/>
       <c r="I480" s="4"/>
       <c r="L480" s="4"/>
@@ -10483,7 +10476,7 @@
       <c r="R480" s="4"/>
       <c r="U480" s="4"/>
     </row>
-    <row r="481" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="6:21" ht="13">
       <c r="F481" s="4"/>
       <c r="I481" s="4"/>
       <c r="L481" s="4"/>
@@ -10491,7 +10484,7 @@
       <c r="R481" s="4"/>
       <c r="U481" s="4"/>
     </row>
-    <row r="482" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="6:21" ht="13">
       <c r="F482" s="4"/>
       <c r="I482" s="4"/>
       <c r="L482" s="4"/>
@@ -10499,7 +10492,7 @@
       <c r="R482" s="4"/>
       <c r="U482" s="4"/>
     </row>
-    <row r="483" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="6:21" ht="13">
       <c r="F483" s="4"/>
       <c r="I483" s="4"/>
       <c r="L483" s="4"/>
@@ -10507,7 +10500,7 @@
       <c r="R483" s="4"/>
       <c r="U483" s="4"/>
     </row>
-    <row r="484" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="6:21" ht="13">
       <c r="F484" s="4"/>
       <c r="I484" s="4"/>
       <c r="L484" s="4"/>
@@ -10515,7 +10508,7 @@
       <c r="R484" s="4"/>
       <c r="U484" s="4"/>
     </row>
-    <row r="485" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="6:21" ht="13">
       <c r="F485" s="4"/>
       <c r="I485" s="4"/>
       <c r="L485" s="4"/>
@@ -10523,7 +10516,7 @@
       <c r="R485" s="4"/>
       <c r="U485" s="4"/>
     </row>
-    <row r="486" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="6:21" ht="13">
       <c r="F486" s="4"/>
       <c r="I486" s="4"/>
       <c r="L486" s="4"/>
@@ -10531,7 +10524,7 @@
       <c r="R486" s="4"/>
       <c r="U486" s="4"/>
     </row>
-    <row r="487" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="6:21" ht="13">
       <c r="F487" s="4"/>
       <c r="I487" s="4"/>
       <c r="L487" s="4"/>
@@ -10539,7 +10532,7 @@
       <c r="R487" s="4"/>
       <c r="U487" s="4"/>
     </row>
-    <row r="488" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="6:21" ht="13">
       <c r="F488" s="4"/>
       <c r="I488" s="4"/>
       <c r="L488" s="4"/>
@@ -10547,7 +10540,7 @@
       <c r="R488" s="4"/>
       <c r="U488" s="4"/>
     </row>
-    <row r="489" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="6:21" ht="13">
       <c r="F489" s="4"/>
       <c r="I489" s="4"/>
       <c r="L489" s="4"/>
@@ -10555,7 +10548,7 @@
       <c r="R489" s="4"/>
       <c r="U489" s="4"/>
     </row>
-    <row r="490" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="6:21" ht="13">
       <c r="F490" s="4"/>
       <c r="I490" s="4"/>
       <c r="L490" s="4"/>
@@ -10563,7 +10556,7 @@
       <c r="R490" s="4"/>
       <c r="U490" s="4"/>
     </row>
-    <row r="491" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="6:21" ht="13">
       <c r="F491" s="4"/>
       <c r="I491" s="4"/>
       <c r="L491" s="4"/>
@@ -10571,7 +10564,7 @@
       <c r="R491" s="4"/>
       <c r="U491" s="4"/>
     </row>
-    <row r="492" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="6:21" ht="13">
       <c r="F492" s="4"/>
       <c r="I492" s="4"/>
       <c r="L492" s="4"/>
@@ -10579,7 +10572,7 @@
       <c r="R492" s="4"/>
       <c r="U492" s="4"/>
     </row>
-    <row r="493" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="6:21" ht="13">
       <c r="F493" s="4"/>
       <c r="I493" s="4"/>
       <c r="L493" s="4"/>
@@ -10587,7 +10580,7 @@
       <c r="R493" s="4"/>
       <c r="U493" s="4"/>
     </row>
-    <row r="494" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="6:21" ht="13">
       <c r="F494" s="4"/>
       <c r="I494" s="4"/>
       <c r="L494" s="4"/>
@@ -10595,7 +10588,7 @@
       <c r="R494" s="4"/>
       <c r="U494" s="4"/>
     </row>
-    <row r="495" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="6:21" ht="13">
       <c r="F495" s="4"/>
       <c r="I495" s="4"/>
       <c r="L495" s="4"/>
@@ -10603,7 +10596,7 @@
       <c r="R495" s="4"/>
       <c r="U495" s="4"/>
     </row>
-    <row r="496" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="6:21" ht="13">
       <c r="F496" s="4"/>
       <c r="I496" s="4"/>
       <c r="L496" s="4"/>
@@ -10611,7 +10604,7 @@
       <c r="R496" s="4"/>
       <c r="U496" s="4"/>
     </row>
-    <row r="497" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="6:21" ht="13">
       <c r="F497" s="4"/>
       <c r="I497" s="4"/>
       <c r="L497" s="4"/>
@@ -10619,7 +10612,7 @@
       <c r="R497" s="4"/>
       <c r="U497" s="4"/>
     </row>
-    <row r="498" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="6:21" ht="13">
       <c r="F498" s="4"/>
       <c r="I498" s="4"/>
       <c r="L498" s="4"/>
@@ -10627,7 +10620,7 @@
       <c r="R498" s="4"/>
       <c r="U498" s="4"/>
     </row>
-    <row r="499" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="6:21" ht="13">
       <c r="F499" s="4"/>
       <c r="I499" s="4"/>
       <c r="L499" s="4"/>
@@ -10635,7 +10628,7 @@
       <c r="R499" s="4"/>
       <c r="U499" s="4"/>
     </row>
-    <row r="500" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="6:21" ht="13">
       <c r="F500" s="4"/>
       <c r="I500" s="4"/>
       <c r="L500" s="4"/>
@@ -10643,7 +10636,7 @@
       <c r="R500" s="4"/>
       <c r="U500" s="4"/>
     </row>
-    <row r="501" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="6:21" ht="13">
       <c r="F501" s="4"/>
       <c r="I501" s="4"/>
       <c r="L501" s="4"/>
@@ -10651,7 +10644,7 @@
       <c r="R501" s="4"/>
       <c r="U501" s="4"/>
     </row>
-    <row r="502" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="6:21" ht="13">
       <c r="F502" s="4"/>
       <c r="I502" s="4"/>
       <c r="L502" s="4"/>
@@ -10659,7 +10652,7 @@
       <c r="R502" s="4"/>
       <c r="U502" s="4"/>
     </row>
-    <row r="503" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="6:21" ht="13">
       <c r="F503" s="4"/>
       <c r="I503" s="4"/>
       <c r="L503" s="4"/>
@@ -10667,7 +10660,7 @@
       <c r="R503" s="4"/>
       <c r="U503" s="4"/>
     </row>
-    <row r="504" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="6:21" ht="13">
       <c r="F504" s="4"/>
       <c r="I504" s="4"/>
       <c r="L504" s="4"/>
@@ -10675,7 +10668,7 @@
       <c r="R504" s="4"/>
       <c r="U504" s="4"/>
     </row>
-    <row r="505" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="6:21" ht="13">
       <c r="F505" s="4"/>
       <c r="I505" s="4"/>
       <c r="L505" s="4"/>
@@ -10683,7 +10676,7 @@
       <c r="R505" s="4"/>
       <c r="U505" s="4"/>
     </row>
-    <row r="506" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="6:21" ht="13">
       <c r="F506" s="4"/>
       <c r="I506" s="4"/>
       <c r="L506" s="4"/>
@@ -10691,7 +10684,7 @@
       <c r="R506" s="4"/>
       <c r="U506" s="4"/>
     </row>
-    <row r="507" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="6:21" ht="13">
       <c r="F507" s="4"/>
       <c r="I507" s="4"/>
       <c r="L507" s="4"/>
@@ -10699,7 +10692,7 @@
       <c r="R507" s="4"/>
       <c r="U507" s="4"/>
     </row>
-    <row r="508" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="6:21" ht="13">
       <c r="F508" s="4"/>
       <c r="I508" s="4"/>
       <c r="L508" s="4"/>
@@ -10707,7 +10700,7 @@
       <c r="R508" s="4"/>
       <c r="U508" s="4"/>
     </row>
-    <row r="509" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="6:21" ht="13">
       <c r="F509" s="4"/>
       <c r="I509" s="4"/>
       <c r="L509" s="4"/>
@@ -10715,7 +10708,7 @@
       <c r="R509" s="4"/>
       <c r="U509" s="4"/>
     </row>
-    <row r="510" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="6:21" ht="13">
       <c r="F510" s="4"/>
       <c r="I510" s="4"/>
       <c r="L510" s="4"/>
@@ -10723,7 +10716,7 @@
       <c r="R510" s="4"/>
       <c r="U510" s="4"/>
     </row>
-    <row r="511" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="6:21" ht="13">
       <c r="F511" s="4"/>
       <c r="I511" s="4"/>
       <c r="L511" s="4"/>
@@ -10731,7 +10724,7 @@
       <c r="R511" s="4"/>
       <c r="U511" s="4"/>
     </row>
-    <row r="512" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="6:21" ht="13">
       <c r="F512" s="4"/>
       <c r="I512" s="4"/>
       <c r="L512" s="4"/>
@@ -10739,7 +10732,7 @@
       <c r="R512" s="4"/>
       <c r="U512" s="4"/>
     </row>
-    <row r="513" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="6:21" ht="13">
       <c r="F513" s="4"/>
       <c r="I513" s="4"/>
       <c r="L513" s="4"/>
@@ -10747,7 +10740,7 @@
       <c r="R513" s="4"/>
       <c r="U513" s="4"/>
     </row>
-    <row r="514" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="6:21" ht="13">
       <c r="F514" s="4"/>
       <c r="I514" s="4"/>
       <c r="L514" s="4"/>
@@ -10755,7 +10748,7 @@
       <c r="R514" s="4"/>
       <c r="U514" s="4"/>
     </row>
-    <row r="515" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="6:21" ht="13">
       <c r="F515" s="4"/>
       <c r="I515" s="4"/>
       <c r="L515" s="4"/>
@@ -10763,7 +10756,7 @@
       <c r="R515" s="4"/>
       <c r="U515" s="4"/>
     </row>
-    <row r="516" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="6:21" ht="13">
       <c r="F516" s="4"/>
       <c r="I516" s="4"/>
       <c r="L516" s="4"/>
@@ -10771,7 +10764,7 @@
       <c r="R516" s="4"/>
       <c r="U516" s="4"/>
     </row>
-    <row r="517" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="6:21" ht="13">
       <c r="F517" s="4"/>
       <c r="I517" s="4"/>
       <c r="L517" s="4"/>
@@ -10779,7 +10772,7 @@
       <c r="R517" s="4"/>
       <c r="U517" s="4"/>
     </row>
-    <row r="518" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="6:21" ht="13">
       <c r="F518" s="4"/>
       <c r="I518" s="4"/>
       <c r="L518" s="4"/>
@@ -10787,7 +10780,7 @@
       <c r="R518" s="4"/>
       <c r="U518" s="4"/>
     </row>
-    <row r="519" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="6:21" ht="13">
       <c r="F519" s="4"/>
       <c r="I519" s="4"/>
       <c r="L519" s="4"/>
@@ -10795,7 +10788,7 @@
       <c r="R519" s="4"/>
       <c r="U519" s="4"/>
     </row>
-    <row r="520" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="6:21" ht="13">
       <c r="F520" s="4"/>
       <c r="I520" s="4"/>
       <c r="L520" s="4"/>
@@ -10803,7 +10796,7 @@
       <c r="R520" s="4"/>
       <c r="U520" s="4"/>
     </row>
-    <row r="521" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="6:21" ht="13">
       <c r="F521" s="4"/>
       <c r="I521" s="4"/>
       <c r="L521" s="4"/>
@@ -10811,7 +10804,7 @@
       <c r="R521" s="4"/>
       <c r="U521" s="4"/>
     </row>
-    <row r="522" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="6:21" ht="13">
       <c r="F522" s="4"/>
       <c r="I522" s="4"/>
       <c r="L522" s="4"/>
@@ -10819,7 +10812,7 @@
       <c r="R522" s="4"/>
       <c r="U522" s="4"/>
     </row>
-    <row r="523" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="6:21" ht="13">
       <c r="F523" s="4"/>
       <c r="I523" s="4"/>
       <c r="L523" s="4"/>
@@ -10827,7 +10820,7 @@
       <c r="R523" s="4"/>
       <c r="U523" s="4"/>
     </row>
-    <row r="524" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="6:21" ht="13">
       <c r="F524" s="4"/>
       <c r="I524" s="4"/>
       <c r="L524" s="4"/>
@@ -10835,7 +10828,7 @@
       <c r="R524" s="4"/>
       <c r="U524" s="4"/>
     </row>
-    <row r="525" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="6:21" ht="13">
       <c r="F525" s="4"/>
       <c r="I525" s="4"/>
       <c r="L525" s="4"/>
@@ -10843,7 +10836,7 @@
       <c r="R525" s="4"/>
       <c r="U525" s="4"/>
     </row>
-    <row r="526" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="6:21" ht="13">
       <c r="F526" s="4"/>
       <c r="I526" s="4"/>
       <c r="L526" s="4"/>
@@ -10851,7 +10844,7 @@
       <c r="R526" s="4"/>
       <c r="U526" s="4"/>
     </row>
-    <row r="527" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="6:21" ht="13">
       <c r="F527" s="4"/>
       <c r="I527" s="4"/>
       <c r="L527" s="4"/>
@@ -10859,7 +10852,7 @@
       <c r="R527" s="4"/>
       <c r="U527" s="4"/>
     </row>
-    <row r="528" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="6:21" ht="13">
       <c r="F528" s="4"/>
       <c r="I528" s="4"/>
       <c r="L528" s="4"/>
@@ -10867,7 +10860,7 @@
       <c r="R528" s="4"/>
       <c r="U528" s="4"/>
     </row>
-    <row r="529" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="6:21" ht="13">
       <c r="F529" s="4"/>
       <c r="I529" s="4"/>
       <c r="L529" s="4"/>
@@ -10875,7 +10868,7 @@
       <c r="R529" s="4"/>
       <c r="U529" s="4"/>
     </row>
-    <row r="530" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="6:21" ht="13">
       <c r="F530" s="4"/>
       <c r="I530" s="4"/>
       <c r="L530" s="4"/>
@@ -10883,7 +10876,7 @@
       <c r="R530" s="4"/>
       <c r="U530" s="4"/>
     </row>
-    <row r="531" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="6:21" ht="13">
       <c r="F531" s="4"/>
       <c r="I531" s="4"/>
       <c r="L531" s="4"/>
@@ -10891,7 +10884,7 @@
       <c r="R531" s="4"/>
       <c r="U531" s="4"/>
     </row>
-    <row r="532" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="6:21" ht="13">
       <c r="F532" s="4"/>
       <c r="I532" s="4"/>
       <c r="L532" s="4"/>
@@ -10899,7 +10892,7 @@
       <c r="R532" s="4"/>
       <c r="U532" s="4"/>
     </row>
-    <row r="533" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="6:21" ht="13">
       <c r="F533" s="4"/>
       <c r="I533" s="4"/>
       <c r="L533" s="4"/>
@@ -10907,7 +10900,7 @@
       <c r="R533" s="4"/>
       <c r="U533" s="4"/>
     </row>
-    <row r="534" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="6:21" ht="13">
       <c r="F534" s="4"/>
       <c r="I534" s="4"/>
       <c r="L534" s="4"/>
@@ -10915,7 +10908,7 @@
       <c r="R534" s="4"/>
       <c r="U534" s="4"/>
     </row>
-    <row r="535" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="6:21" ht="13">
       <c r="F535" s="4"/>
       <c r="I535" s="4"/>
       <c r="L535" s="4"/>
@@ -10923,7 +10916,7 @@
       <c r="R535" s="4"/>
       <c r="U535" s="4"/>
     </row>
-    <row r="536" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="6:21" ht="13">
       <c r="F536" s="4"/>
       <c r="I536" s="4"/>
       <c r="L536" s="4"/>
@@ -10931,7 +10924,7 @@
       <c r="R536" s="4"/>
       <c r="U536" s="4"/>
     </row>
-    <row r="537" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="6:21" ht="13">
       <c r="F537" s="4"/>
       <c r="I537" s="4"/>
       <c r="L537" s="4"/>
@@ -10939,7 +10932,7 @@
       <c r="R537" s="4"/>
       <c r="U537" s="4"/>
     </row>
-    <row r="538" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="6:21" ht="13">
       <c r="F538" s="4"/>
       <c r="I538" s="4"/>
       <c r="L538" s="4"/>
@@ -10947,7 +10940,7 @@
       <c r="R538" s="4"/>
       <c r="U538" s="4"/>
     </row>
-    <row r="539" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="6:21" ht="13">
       <c r="F539" s="4"/>
       <c r="I539" s="4"/>
       <c r="L539" s="4"/>
@@ -10955,7 +10948,7 @@
       <c r="R539" s="4"/>
       <c r="U539" s="4"/>
     </row>
-    <row r="540" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="6:21" ht="13">
       <c r="F540" s="4"/>
       <c r="I540" s="4"/>
       <c r="L540" s="4"/>
@@ -10963,7 +10956,7 @@
       <c r="R540" s="4"/>
       <c r="U540" s="4"/>
     </row>
-    <row r="541" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="6:21" ht="13">
       <c r="F541" s="4"/>
       <c r="I541" s="4"/>
       <c r="L541" s="4"/>
@@ -10971,7 +10964,7 @@
       <c r="R541" s="4"/>
       <c r="U541" s="4"/>
     </row>
-    <row r="542" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="6:21" ht="13">
       <c r="F542" s="4"/>
       <c r="I542" s="4"/>
       <c r="L542" s="4"/>
@@ -10979,7 +10972,7 @@
       <c r="R542" s="4"/>
       <c r="U542" s="4"/>
     </row>
-    <row r="543" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="6:21" ht="13">
       <c r="F543" s="4"/>
       <c r="I543" s="4"/>
       <c r="L543" s="4"/>
@@ -10987,7 +10980,7 @@
       <c r="R543" s="4"/>
       <c r="U543" s="4"/>
     </row>
-    <row r="544" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="6:21" ht="13">
       <c r="F544" s="4"/>
       <c r="I544" s="4"/>
       <c r="L544" s="4"/>
@@ -10995,7 +10988,7 @@
       <c r="R544" s="4"/>
       <c r="U544" s="4"/>
     </row>
-    <row r="545" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="6:21" ht="13">
       <c r="F545" s="4"/>
       <c r="I545" s="4"/>
       <c r="L545" s="4"/>
@@ -11003,7 +10996,7 @@
       <c r="R545" s="4"/>
       <c r="U545" s="4"/>
     </row>
-    <row r="546" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="6:21" ht="13">
       <c r="F546" s="4"/>
       <c r="I546" s="4"/>
       <c r="L546" s="4"/>
@@ -11011,7 +11004,7 @@
       <c r="R546" s="4"/>
       <c r="U546" s="4"/>
     </row>
-    <row r="547" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="6:21" ht="13">
       <c r="F547" s="4"/>
       <c r="I547" s="4"/>
       <c r="L547" s="4"/>
@@ -11019,7 +11012,7 @@
       <c r="R547" s="4"/>
       <c r="U547" s="4"/>
     </row>
-    <row r="548" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="6:21" ht="13">
       <c r="F548" s="4"/>
       <c r="I548" s="4"/>
       <c r="L548" s="4"/>
@@ -11027,7 +11020,7 @@
       <c r="R548" s="4"/>
       <c r="U548" s="4"/>
     </row>
-    <row r="549" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="6:21" ht="13">
       <c r="F549" s="4"/>
       <c r="I549" s="4"/>
       <c r="L549" s="4"/>
@@ -11035,7 +11028,7 @@
       <c r="R549" s="4"/>
       <c r="U549" s="4"/>
     </row>
-    <row r="550" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="6:21" ht="13">
       <c r="F550" s="4"/>
       <c r="I550" s="4"/>
       <c r="L550" s="4"/>
@@ -11043,7 +11036,7 @@
       <c r="R550" s="4"/>
       <c r="U550" s="4"/>
     </row>
-    <row r="551" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="6:21" ht="13">
       <c r="F551" s="4"/>
       <c r="I551" s="4"/>
       <c r="L551" s="4"/>
@@ -11051,7 +11044,7 @@
       <c r="R551" s="4"/>
       <c r="U551" s="4"/>
     </row>
-    <row r="552" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="6:21" ht="13">
       <c r="F552" s="4"/>
       <c r="I552" s="4"/>
       <c r="L552" s="4"/>
@@ -11059,7 +11052,7 @@
       <c r="R552" s="4"/>
       <c r="U552" s="4"/>
     </row>
-    <row r="553" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="6:21" ht="13">
       <c r="F553" s="4"/>
       <c r="I553" s="4"/>
       <c r="L553" s="4"/>
@@ -11067,7 +11060,7 @@
       <c r="R553" s="4"/>
       <c r="U553" s="4"/>
     </row>
-    <row r="554" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="6:21" ht="13">
       <c r="F554" s="4"/>
       <c r="I554" s="4"/>
       <c r="L554" s="4"/>
@@ -11075,7 +11068,7 @@
       <c r="R554" s="4"/>
       <c r="U554" s="4"/>
     </row>
-    <row r="555" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="6:21" ht="13">
       <c r="F555" s="4"/>
       <c r="I555" s="4"/>
       <c r="L555" s="4"/>
@@ -11083,7 +11076,7 @@
       <c r="R555" s="4"/>
       <c r="U555" s="4"/>
     </row>
-    <row r="556" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="6:21" ht="13">
       <c r="F556" s="4"/>
       <c r="I556" s="4"/>
       <c r="L556" s="4"/>
@@ -11091,7 +11084,7 @@
       <c r="R556" s="4"/>
       <c r="U556" s="4"/>
     </row>
-    <row r="557" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="6:21" ht="13">
       <c r="F557" s="4"/>
       <c r="I557" s="4"/>
       <c r="L557" s="4"/>
@@ -11099,7 +11092,7 @@
       <c r="R557" s="4"/>
       <c r="U557" s="4"/>
     </row>
-    <row r="558" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="6:21" ht="13">
       <c r="F558" s="4"/>
       <c r="I558" s="4"/>
       <c r="L558" s="4"/>
@@ -11107,7 +11100,7 @@
       <c r="R558" s="4"/>
       <c r="U558" s="4"/>
     </row>
-    <row r="559" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="6:21" ht="13">
       <c r="F559" s="4"/>
       <c r="I559" s="4"/>
       <c r="L559" s="4"/>
@@ -11115,7 +11108,7 @@
       <c r="R559" s="4"/>
       <c r="U559" s="4"/>
     </row>
-    <row r="560" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="6:21" ht="13">
       <c r="F560" s="4"/>
       <c r="I560" s="4"/>
       <c r="L560" s="4"/>
@@ -11123,7 +11116,7 @@
       <c r="R560" s="4"/>
       <c r="U560" s="4"/>
     </row>
-    <row r="561" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="6:21" ht="13">
       <c r="F561" s="4"/>
       <c r="I561" s="4"/>
       <c r="L561" s="4"/>
@@ -11131,7 +11124,7 @@
       <c r="R561" s="4"/>
       <c r="U561" s="4"/>
     </row>
-    <row r="562" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="6:21" ht="13">
       <c r="F562" s="4"/>
       <c r="I562" s="4"/>
       <c r="L562" s="4"/>
@@ -11139,7 +11132,7 @@
       <c r="R562" s="4"/>
       <c r="U562" s="4"/>
     </row>
-    <row r="563" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="6:21" ht="13">
       <c r="F563" s="4"/>
       <c r="I563" s="4"/>
       <c r="L563" s="4"/>
@@ -11147,7 +11140,7 @@
       <c r="R563" s="4"/>
       <c r="U563" s="4"/>
     </row>
-    <row r="564" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="6:21" ht="13">
       <c r="F564" s="4"/>
       <c r="I564" s="4"/>
       <c r="L564" s="4"/>
@@ -11155,7 +11148,7 @@
       <c r="R564" s="4"/>
       <c r="U564" s="4"/>
     </row>
-    <row r="565" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="6:21" ht="13">
       <c r="F565" s="4"/>
       <c r="I565" s="4"/>
       <c r="L565" s="4"/>
@@ -11163,7 +11156,7 @@
       <c r="R565" s="4"/>
       <c r="U565" s="4"/>
     </row>
-    <row r="566" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="6:21" ht="13">
       <c r="F566" s="4"/>
       <c r="I566" s="4"/>
       <c r="L566" s="4"/>
@@ -11171,7 +11164,7 @@
       <c r="R566" s="4"/>
       <c r="U566" s="4"/>
     </row>
-    <row r="567" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="6:21" ht="13">
       <c r="F567" s="4"/>
       <c r="I567" s="4"/>
       <c r="L567" s="4"/>
@@ -11179,7 +11172,7 @@
       <c r="R567" s="4"/>
       <c r="U567" s="4"/>
     </row>
-    <row r="568" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="6:21" ht="13">
       <c r="F568" s="4"/>
       <c r="I568" s="4"/>
       <c r="L568" s="4"/>
@@ -11187,7 +11180,7 @@
       <c r="R568" s="4"/>
       <c r="U568" s="4"/>
     </row>
-    <row r="569" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="6:21" ht="13">
       <c r="F569" s="4"/>
       <c r="I569" s="4"/>
       <c r="L569" s="4"/>
@@ -11195,7 +11188,7 @@
       <c r="R569" s="4"/>
       <c r="U569" s="4"/>
     </row>
-    <row r="570" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="6:21" ht="13">
       <c r="F570" s="4"/>
       <c r="I570" s="4"/>
       <c r="L570" s="4"/>
@@ -11203,7 +11196,7 @@
       <c r="R570" s="4"/>
       <c r="U570" s="4"/>
     </row>
-    <row r="571" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="6:21" ht="13">
       <c r="F571" s="4"/>
       <c r="I571" s="4"/>
       <c r="L571" s="4"/>
@@ -11211,7 +11204,7 @@
       <c r="R571" s="4"/>
       <c r="U571" s="4"/>
     </row>
-    <row r="572" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="6:21" ht="13">
       <c r="F572" s="4"/>
       <c r="I572" s="4"/>
       <c r="L572" s="4"/>
@@ -11219,7 +11212,7 @@
       <c r="R572" s="4"/>
       <c r="U572" s="4"/>
     </row>
-    <row r="573" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="6:21" ht="13">
       <c r="F573" s="4"/>
       <c r="I573" s="4"/>
       <c r="L573" s="4"/>
@@ -11227,7 +11220,7 @@
       <c r="R573" s="4"/>
       <c r="U573" s="4"/>
     </row>
-    <row r="574" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="6:21" ht="13">
       <c r="F574" s="4"/>
       <c r="I574" s="4"/>
       <c r="L574" s="4"/>
@@ -11235,7 +11228,7 @@
       <c r="R574" s="4"/>
       <c r="U574" s="4"/>
     </row>
-    <row r="575" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="6:21" ht="13">
       <c r="F575" s="4"/>
       <c r="I575" s="4"/>
       <c r="L575" s="4"/>
@@ -11243,7 +11236,7 @@
       <c r="R575" s="4"/>
       <c r="U575" s="4"/>
     </row>
-    <row r="576" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="6:21" ht="13">
       <c r="F576" s="4"/>
       <c r="I576" s="4"/>
       <c r="L576" s="4"/>
@@ -11251,7 +11244,7 @@
       <c r="R576" s="4"/>
       <c r="U576" s="4"/>
     </row>
-    <row r="577" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="6:21" ht="13">
       <c r="F577" s="4"/>
       <c r="I577" s="4"/>
       <c r="L577" s="4"/>
@@ -11259,7 +11252,7 @@
       <c r="R577" s="4"/>
       <c r="U577" s="4"/>
     </row>
-    <row r="578" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="6:21" ht="13">
       <c r="F578" s="4"/>
       <c r="I578" s="4"/>
       <c r="L578" s="4"/>
@@ -11267,7 +11260,7 @@
       <c r="R578" s="4"/>
       <c r="U578" s="4"/>
     </row>
-    <row r="579" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="6:21" ht="13">
       <c r="F579" s="4"/>
       <c r="I579" s="4"/>
       <c r="L579" s="4"/>
@@ -11275,7 +11268,7 @@
       <c r="R579" s="4"/>
       <c r="U579" s="4"/>
     </row>
-    <row r="580" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:21" ht="13">
       <c r="F580" s="4"/>
       <c r="I580" s="4"/>
       <c r="L580" s="4"/>
@@ -11283,7 +11276,7 @@
       <c r="R580" s="4"/>
       <c r="U580" s="4"/>
     </row>
-    <row r="581" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:21" ht="13">
       <c r="F581" s="4"/>
       <c r="I581" s="4"/>
       <c r="L581" s="4"/>
@@ -11291,7 +11284,7 @@
       <c r="R581" s="4"/>
       <c r="U581" s="4"/>
     </row>
-    <row r="582" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:21" ht="13">
       <c r="F582" s="4"/>
       <c r="I582" s="4"/>
       <c r="L582" s="4"/>
@@ -11299,7 +11292,7 @@
       <c r="R582" s="4"/>
       <c r="U582" s="4"/>
     </row>
-    <row r="583" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:21" ht="13">
       <c r="F583" s="4"/>
       <c r="I583" s="4"/>
       <c r="L583" s="4"/>
@@ -11307,7 +11300,7 @@
       <c r="R583" s="4"/>
       <c r="U583" s="4"/>
     </row>
-    <row r="584" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:21" ht="13">
       <c r="F584" s="4"/>
       <c r="I584" s="4"/>
       <c r="L584" s="4"/>
@@ -11315,7 +11308,7 @@
       <c r="R584" s="4"/>
       <c r="U584" s="4"/>
     </row>
-    <row r="585" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="6:21" ht="13">
       <c r="F585" s="4"/>
       <c r="I585" s="4"/>
       <c r="L585" s="4"/>
@@ -11323,7 +11316,7 @@
       <c r="R585" s="4"/>
       <c r="U585" s="4"/>
     </row>
-    <row r="586" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="6:21" ht="13">
       <c r="F586" s="4"/>
       <c r="I586" s="4"/>
       <c r="L586" s="4"/>
@@ -11331,7 +11324,7 @@
       <c r="R586" s="4"/>
       <c r="U586" s="4"/>
     </row>
-    <row r="587" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="6:21" ht="13">
       <c r="F587" s="4"/>
       <c r="I587" s="4"/>
       <c r="L587" s="4"/>
@@ -11339,7 +11332,7 @@
       <c r="R587" s="4"/>
       <c r="U587" s="4"/>
     </row>
-    <row r="588" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="6:21" ht="13">
       <c r="F588" s="4"/>
       <c r="I588" s="4"/>
       <c r="L588" s="4"/>
@@ -11347,7 +11340,7 @@
       <c r="R588" s="4"/>
       <c r="U588" s="4"/>
     </row>
-    <row r="589" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="6:21" ht="13">
       <c r="F589" s="4"/>
       <c r="I589" s="4"/>
       <c r="L589" s="4"/>
@@ -11355,7 +11348,7 @@
       <c r="R589" s="4"/>
       <c r="U589" s="4"/>
     </row>
-    <row r="590" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="6:21" ht="13">
       <c r="F590" s="4"/>
       <c r="I590" s="4"/>
       <c r="L590" s="4"/>
@@ -11363,7 +11356,7 @@
       <c r="R590" s="4"/>
       <c r="U590" s="4"/>
     </row>
-    <row r="591" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="6:21" ht="13">
       <c r="F591" s="4"/>
       <c r="I591" s="4"/>
       <c r="L591" s="4"/>
@@ -11371,7 +11364,7 @@
       <c r="R591" s="4"/>
       <c r="U591" s="4"/>
     </row>
-    <row r="592" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="6:21" ht="13">
       <c r="F592" s="4"/>
       <c r="I592" s="4"/>
       <c r="L592" s="4"/>
@@ -11379,7 +11372,7 @@
       <c r="R592" s="4"/>
       <c r="U592" s="4"/>
     </row>
-    <row r="593" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="6:21" ht="13">
       <c r="F593" s="4"/>
       <c r="I593" s="4"/>
       <c r="L593" s="4"/>
@@ -11387,7 +11380,7 @@
       <c r="R593" s="4"/>
       <c r="U593" s="4"/>
     </row>
-    <row r="594" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="6:21" ht="13">
       <c r="F594" s="4"/>
       <c r="I594" s="4"/>
       <c r="L594" s="4"/>
@@ -11395,7 +11388,7 @@
       <c r="R594" s="4"/>
       <c r="U594" s="4"/>
     </row>
-    <row r="595" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="6:21" ht="13">
       <c r="F595" s="4"/>
       <c r="I595" s="4"/>
       <c r="L595" s="4"/>
@@ -11403,7 +11396,7 @@
       <c r="R595" s="4"/>
       <c r="U595" s="4"/>
     </row>
-    <row r="596" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="6:21" ht="13">
       <c r="F596" s="4"/>
       <c r="I596" s="4"/>
       <c r="L596" s="4"/>
@@ -11411,7 +11404,7 @@
       <c r="R596" s="4"/>
       <c r="U596" s="4"/>
     </row>
-    <row r="597" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="6:21" ht="13">
       <c r="F597" s="4"/>
       <c r="I597" s="4"/>
       <c r="L597" s="4"/>
@@ -11419,7 +11412,7 @@
       <c r="R597" s="4"/>
       <c r="U597" s="4"/>
     </row>
-    <row r="598" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="6:21" ht="13">
       <c r="F598" s="4"/>
       <c r="I598" s="4"/>
       <c r="L598" s="4"/>
@@ -11427,7 +11420,7 @@
       <c r="R598" s="4"/>
       <c r="U598" s="4"/>
     </row>
-    <row r="599" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="6:21" ht="13">
       <c r="F599" s="4"/>
       <c r="I599" s="4"/>
       <c r="L599" s="4"/>
@@ -11435,7 +11428,7 @@
       <c r="R599" s="4"/>
       <c r="U599" s="4"/>
     </row>
-    <row r="600" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="6:21" ht="13">
       <c r="F600" s="4"/>
       <c r="I600" s="4"/>
       <c r="L600" s="4"/>
@@ -11443,7 +11436,7 @@
       <c r="R600" s="4"/>
       <c r="U600" s="4"/>
     </row>
-    <row r="601" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="6:21" ht="13">
       <c r="F601" s="4"/>
       <c r="I601" s="4"/>
       <c r="L601" s="4"/>
@@ -11451,7 +11444,7 @@
       <c r="R601" s="4"/>
       <c r="U601" s="4"/>
     </row>
-    <row r="602" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="6:21" ht="13">
       <c r="F602" s="4"/>
       <c r="I602" s="4"/>
       <c r="L602" s="4"/>
@@ -11459,7 +11452,7 @@
       <c r="R602" s="4"/>
       <c r="U602" s="4"/>
     </row>
-    <row r="603" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="6:21" ht="13">
       <c r="F603" s="4"/>
       <c r="I603" s="4"/>
       <c r="L603" s="4"/>
@@ -11467,7 +11460,7 @@
       <c r="R603" s="4"/>
       <c r="U603" s="4"/>
     </row>
-    <row r="604" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="6:21" ht="13">
       <c r="F604" s="4"/>
       <c r="I604" s="4"/>
       <c r="L604" s="4"/>
@@ -11475,7 +11468,7 @@
       <c r="R604" s="4"/>
       <c r="U604" s="4"/>
     </row>
-    <row r="605" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="6:21" ht="13">
       <c r="F605" s="4"/>
       <c r="I605" s="4"/>
       <c r="L605" s="4"/>
@@ -11483,7 +11476,7 @@
       <c r="R605" s="4"/>
       <c r="U605" s="4"/>
     </row>
-    <row r="606" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="6:21" ht="13">
       <c r="F606" s="4"/>
       <c r="I606" s="4"/>
       <c r="L606" s="4"/>
@@ -11491,7 +11484,7 @@
       <c r="R606" s="4"/>
       <c r="U606" s="4"/>
     </row>
-    <row r="607" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="6:21" ht="13">
       <c r="F607" s="4"/>
       <c r="I607" s="4"/>
       <c r="L607" s="4"/>
@@ -11499,7 +11492,7 @@
       <c r="R607" s="4"/>
       <c r="U607" s="4"/>
     </row>
-    <row r="608" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="6:21" ht="13">
       <c r="F608" s="4"/>
       <c r="I608" s="4"/>
       <c r="L608" s="4"/>
@@ -11507,7 +11500,7 @@
       <c r="R608" s="4"/>
       <c r="U608" s="4"/>
     </row>
-    <row r="609" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="6:21" ht="13">
       <c r="F609" s="4"/>
       <c r="I609" s="4"/>
       <c r="L609" s="4"/>
@@ -11515,7 +11508,7 @@
       <c r="R609" s="4"/>
       <c r="U609" s="4"/>
     </row>
-    <row r="610" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="6:21" ht="13">
       <c r="F610" s="4"/>
       <c r="I610" s="4"/>
       <c r="L610" s="4"/>
@@ -11523,7 +11516,7 @@
       <c r="R610" s="4"/>
       <c r="U610" s="4"/>
     </row>
-    <row r="611" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="6:21" ht="13">
       <c r="F611" s="4"/>
       <c r="I611" s="4"/>
       <c r="L611" s="4"/>
@@ -11531,7 +11524,7 @@
       <c r="R611" s="4"/>
       <c r="U611" s="4"/>
     </row>
-    <row r="612" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="6:21" ht="13">
       <c r="F612" s="4"/>
       <c r="I612" s="4"/>
       <c r="L612" s="4"/>
@@ -11539,7 +11532,7 @@
       <c r="R612" s="4"/>
       <c r="U612" s="4"/>
     </row>
-    <row r="613" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="6:21" ht="13">
       <c r="F613" s="4"/>
       <c r="I613" s="4"/>
       <c r="L613" s="4"/>
@@ -11547,7 +11540,7 @@
       <c r="R613" s="4"/>
       <c r="U613" s="4"/>
     </row>
-    <row r="614" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="6:21" ht="13">
       <c r="F614" s="4"/>
       <c r="I614" s="4"/>
       <c r="L614" s="4"/>
@@ -11555,7 +11548,7 @@
       <c r="R614" s="4"/>
       <c r="U614" s="4"/>
     </row>
-    <row r="615" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="6:21" ht="13">
       <c r="F615" s="4"/>
       <c r="I615" s="4"/>
       <c r="L615" s="4"/>
@@ -11563,7 +11556,7 @@
       <c r="R615" s="4"/>
       <c r="U615" s="4"/>
     </row>
-    <row r="616" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="6:21" ht="13">
       <c r="F616" s="4"/>
       <c r="I616" s="4"/>
       <c r="L616" s="4"/>
@@ -11571,7 +11564,7 @@
       <c r="R616" s="4"/>
       <c r="U616" s="4"/>
     </row>
-    <row r="617" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="6:21" ht="13">
       <c r="F617" s="4"/>
       <c r="I617" s="4"/>
       <c r="L617" s="4"/>
@@ -11579,7 +11572,7 @@
       <c r="R617" s="4"/>
       <c r="U617" s="4"/>
     </row>
-    <row r="618" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="6:21" ht="13">
       <c r="F618" s="4"/>
       <c r="I618" s="4"/>
       <c r="L618" s="4"/>
@@ -11587,7 +11580,7 @@
       <c r="R618" s="4"/>
       <c r="U618" s="4"/>
     </row>
-    <row r="619" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="6:21" ht="13">
       <c r="F619" s="4"/>
       <c r="I619" s="4"/>
       <c r="L619" s="4"/>
@@ -11595,7 +11588,7 @@
       <c r="R619" s="4"/>
       <c r="U619" s="4"/>
     </row>
-    <row r="620" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="6:21" ht="13">
       <c r="F620" s="4"/>
       <c r="I620" s="4"/>
       <c r="L620" s="4"/>
@@ -11603,7 +11596,7 @@
       <c r="R620" s="4"/>
       <c r="U620" s="4"/>
     </row>
-    <row r="621" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="6:21" ht="13">
       <c r="F621" s="4"/>
       <c r="I621" s="4"/>
       <c r="L621" s="4"/>
@@ -11611,7 +11604,7 @@
       <c r="R621" s="4"/>
       <c r="U621" s="4"/>
     </row>
-    <row r="622" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="6:21" ht="13">
       <c r="F622" s="4"/>
       <c r="I622" s="4"/>
       <c r="L622" s="4"/>
@@ -11619,7 +11612,7 @@
       <c r="R622" s="4"/>
       <c r="U622" s="4"/>
     </row>
-    <row r="623" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="6:21" ht="13">
       <c r="F623" s="4"/>
       <c r="I623" s="4"/>
       <c r="L623" s="4"/>
@@ -11627,7 +11620,7 @@
       <c r="R623" s="4"/>
       <c r="U623" s="4"/>
     </row>
-    <row r="624" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="6:21" ht="13">
       <c r="F624" s="4"/>
       <c r="I624" s="4"/>
       <c r="L624" s="4"/>
@@ -11635,7 +11628,7 @@
       <c r="R624" s="4"/>
       <c r="U624" s="4"/>
     </row>
-    <row r="625" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="6:21" ht="13">
       <c r="F625" s="4"/>
       <c r="I625" s="4"/>
       <c r="L625" s="4"/>
@@ -11643,7 +11636,7 @@
       <c r="R625" s="4"/>
       <c r="U625" s="4"/>
     </row>
-    <row r="626" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="6:21" ht="13">
       <c r="F626" s="4"/>
       <c r="I626" s="4"/>
       <c r="L626" s="4"/>
@@ -11651,7 +11644,7 @@
       <c r="R626" s="4"/>
       <c r="U626" s="4"/>
     </row>
-    <row r="627" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="6:21" ht="13">
       <c r="F627" s="4"/>
       <c r="I627" s="4"/>
       <c r="L627" s="4"/>
@@ -11659,7 +11652,7 @@
       <c r="R627" s="4"/>
       <c r="U627" s="4"/>
     </row>
-    <row r="628" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="6:21" ht="13">
       <c r="F628" s="4"/>
       <c r="I628" s="4"/>
       <c r="L628" s="4"/>
@@ -11667,7 +11660,7 @@
       <c r="R628" s="4"/>
       <c r="U628" s="4"/>
     </row>
-    <row r="629" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="6:21" ht="13">
       <c r="F629" s="4"/>
       <c r="I629" s="4"/>
       <c r="L629" s="4"/>
@@ -11675,7 +11668,7 @@
       <c r="R629" s="4"/>
       <c r="U629" s="4"/>
     </row>
-    <row r="630" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="6:21" ht="13">
       <c r="F630" s="4"/>
       <c r="I630" s="4"/>
       <c r="L630" s="4"/>
@@ -11683,7 +11676,7 @@
       <c r="R630" s="4"/>
       <c r="U630" s="4"/>
     </row>
-    <row r="631" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="6:21" ht="13">
       <c r="F631" s="4"/>
       <c r="I631" s="4"/>
       <c r="L631" s="4"/>
@@ -11691,7 +11684,7 @@
       <c r="R631" s="4"/>
       <c r="U631" s="4"/>
     </row>
-    <row r="632" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="6:21" ht="13">
       <c r="F632" s="4"/>
       <c r="I632" s="4"/>
       <c r="L632" s="4"/>
@@ -11699,7 +11692,7 @@
       <c r="R632" s="4"/>
       <c r="U632" s="4"/>
     </row>
-    <row r="633" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="6:21" ht="13">
       <c r="F633" s="4"/>
       <c r="I633" s="4"/>
       <c r="L633" s="4"/>
@@ -11707,7 +11700,7 @@
       <c r="R633" s="4"/>
       <c r="U633" s="4"/>
     </row>
-    <row r="634" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="6:21" ht="13">
       <c r="F634" s="4"/>
       <c r="I634" s="4"/>
       <c r="L634" s="4"/>
@@ -11715,7 +11708,7 @@
       <c r="R634" s="4"/>
       <c r="U634" s="4"/>
     </row>
-    <row r="635" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="6:21" ht="13">
       <c r="F635" s="4"/>
       <c r="I635" s="4"/>
       <c r="L635" s="4"/>
@@ -11723,7 +11716,7 @@
       <c r="R635" s="4"/>
       <c r="U635" s="4"/>
     </row>
-    <row r="636" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="6:21" ht="13">
       <c r="F636" s="4"/>
       <c r="I636" s="4"/>
       <c r="L636" s="4"/>
@@ -11731,7 +11724,7 @@
       <c r="R636" s="4"/>
       <c r="U636" s="4"/>
     </row>
-    <row r="637" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="6:21" ht="13">
       <c r="F637" s="4"/>
       <c r="I637" s="4"/>
       <c r="L637" s="4"/>
@@ -11739,7 +11732,7 @@
       <c r="R637" s="4"/>
       <c r="U637" s="4"/>
     </row>
-    <row r="638" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="6:21" ht="13">
       <c r="F638" s="4"/>
       <c r="I638" s="4"/>
       <c r="L638" s="4"/>
@@ -11747,7 +11740,7 @@
       <c r="R638" s="4"/>
       <c r="U638" s="4"/>
     </row>
-    <row r="639" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="6:21" ht="13">
       <c r="F639" s="4"/>
       <c r="I639" s="4"/>
       <c r="L639" s="4"/>
@@ -11755,7 +11748,7 @@
       <c r="R639" s="4"/>
       <c r="U639" s="4"/>
     </row>
-    <row r="640" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="6:21" ht="13">
       <c r="F640" s="4"/>
       <c r="I640" s="4"/>
       <c r="L640" s="4"/>
@@ -11763,7 +11756,7 @@
       <c r="R640" s="4"/>
       <c r="U640" s="4"/>
     </row>
-    <row r="641" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="6:21" ht="13">
       <c r="F641" s="4"/>
       <c r="I641" s="4"/>
       <c r="L641" s="4"/>
@@ -11771,7 +11764,7 @@
       <c r="R641" s="4"/>
       <c r="U641" s="4"/>
     </row>
-    <row r="642" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="6:21" ht="13">
       <c r="F642" s="4"/>
       <c r="I642" s="4"/>
       <c r="L642" s="4"/>
@@ -11779,7 +11772,7 @@
       <c r="R642" s="4"/>
       <c r="U642" s="4"/>
     </row>
-    <row r="643" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="6:21" ht="13">
       <c r="F643" s="4"/>
       <c r="I643" s="4"/>
       <c r="L643" s="4"/>
@@ -11787,7 +11780,7 @@
       <c r="R643" s="4"/>
       <c r="U643" s="4"/>
     </row>
-    <row r="644" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="6:21" ht="13">
       <c r="F644" s="4"/>
       <c r="I644" s="4"/>
       <c r="L644" s="4"/>
@@ -11795,7 +11788,7 @@
       <c r="R644" s="4"/>
       <c r="U644" s="4"/>
     </row>
-    <row r="645" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="6:21" ht="13">
       <c r="F645" s="4"/>
       <c r="I645" s="4"/>
       <c r="L645" s="4"/>
@@ -11803,7 +11796,7 @@
       <c r="R645" s="4"/>
       <c r="U645" s="4"/>
     </row>
-    <row r="646" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="6:21" ht="13">
       <c r="F646" s="4"/>
       <c r="I646" s="4"/>
       <c r="L646" s="4"/>
@@ -11811,7 +11804,7 @@
       <c r="R646" s="4"/>
       <c r="U646" s="4"/>
     </row>
-    <row r="647" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="6:21" ht="13">
       <c r="F647" s="4"/>
       <c r="I647" s="4"/>
       <c r="L647" s="4"/>
@@ -11819,7 +11812,7 @@
       <c r="R647" s="4"/>
       <c r="U647" s="4"/>
     </row>
-    <row r="648" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="6:21" ht="13">
       <c r="F648" s="4"/>
       <c r="I648" s="4"/>
       <c r="L648" s="4"/>
@@ -11827,7 +11820,7 @@
       <c r="R648" s="4"/>
       <c r="U648" s="4"/>
     </row>
-    <row r="649" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="6:21" ht="13">
       <c r="F649" s="4"/>
       <c r="I649" s="4"/>
       <c r="L649" s="4"/>
@@ -11835,7 +11828,7 @@
       <c r="R649" s="4"/>
       <c r="U649" s="4"/>
     </row>
-    <row r="650" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="6:21" ht="13">
       <c r="F650" s="4"/>
       <c r="I650" s="4"/>
       <c r="L650" s="4"/>
@@ -11843,7 +11836,7 @@
       <c r="R650" s="4"/>
       <c r="U650" s="4"/>
     </row>
-    <row r="651" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="6:21" ht="13">
       <c r="F651" s="4"/>
       <c r="I651" s="4"/>
       <c r="L651" s="4"/>
@@ -11851,7 +11844,7 @@
       <c r="R651" s="4"/>
       <c r="U651" s="4"/>
     </row>
-    <row r="652" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="6:21" ht="13">
       <c r="F652" s="4"/>
       <c r="I652" s="4"/>
       <c r="L652" s="4"/>
@@ -11859,7 +11852,7 @@
       <c r="R652" s="4"/>
       <c r="U652" s="4"/>
     </row>
-    <row r="653" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="6:21" ht="13">
       <c r="F653" s="4"/>
       <c r="I653" s="4"/>
       <c r="L653" s="4"/>
@@ -11867,7 +11860,7 @@
       <c r="R653" s="4"/>
       <c r="U653" s="4"/>
     </row>
-    <row r="654" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="6:21" ht="13">
       <c r="F654" s="4"/>
       <c r="I654" s="4"/>
       <c r="L654" s="4"/>
@@ -11875,7 +11868,7 @@
       <c r="R654" s="4"/>
       <c r="U654" s="4"/>
     </row>
-    <row r="655" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="6:21" ht="13">
       <c r="F655" s="4"/>
       <c r="I655" s="4"/>
       <c r="L655" s="4"/>
@@ -11883,7 +11876,7 @@
       <c r="R655" s="4"/>
       <c r="U655" s="4"/>
     </row>
-    <row r="656" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="6:21" ht="13">
       <c r="F656" s="4"/>
       <c r="I656" s="4"/>
       <c r="L656" s="4"/>
@@ -11891,7 +11884,7 @@
       <c r="R656" s="4"/>
       <c r="U656" s="4"/>
     </row>
-    <row r="657" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="6:21" ht="13">
       <c r="F657" s="4"/>
       <c r="I657" s="4"/>
       <c r="L657" s="4"/>
@@ -11899,7 +11892,7 @@
       <c r="R657" s="4"/>
       <c r="U657" s="4"/>
     </row>
-    <row r="658" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="6:21" ht="13">
       <c r="F658" s="4"/>
       <c r="I658" s="4"/>
       <c r="L658" s="4"/>
@@ -11907,7 +11900,7 @@
       <c r="R658" s="4"/>
       <c r="U658" s="4"/>
     </row>
-    <row r="659" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="6:21" ht="13">
       <c r="F659" s="4"/>
       <c r="I659" s="4"/>
       <c r="L659" s="4"/>
@@ -11915,7 +11908,7 @@
       <c r="R659" s="4"/>
       <c r="U659" s="4"/>
     </row>
-    <row r="660" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="6:21" ht="13">
       <c r="F660" s="4"/>
       <c r="I660" s="4"/>
       <c r="L660" s="4"/>
@@ -11923,7 +11916,7 @@
       <c r="R660" s="4"/>
       <c r="U660" s="4"/>
     </row>
-    <row r="661" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="6:21" ht="13">
       <c r="F661" s="4"/>
       <c r="I661" s="4"/>
       <c r="L661" s="4"/>
@@ -11931,7 +11924,7 @@
       <c r="R661" s="4"/>
       <c r="U661" s="4"/>
     </row>
-    <row r="662" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="6:21" ht="13">
       <c r="F662" s="4"/>
       <c r="I662" s="4"/>
       <c r="L662" s="4"/>
@@ -11939,7 +11932,7 @@
       <c r="R662" s="4"/>
       <c r="U662" s="4"/>
     </row>
-    <row r="663" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="6:21" ht="13">
       <c r="F663" s="4"/>
       <c r="I663" s="4"/>
       <c r="L663" s="4"/>
@@ -11947,7 +11940,7 @@
       <c r="R663" s="4"/>
       <c r="U663" s="4"/>
     </row>
-    <row r="664" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="6:21" ht="13">
       <c r="F664" s="4"/>
       <c r="I664" s="4"/>
       <c r="L664" s="4"/>
@@ -11955,7 +11948,7 @@
       <c r="R664" s="4"/>
       <c r="U664" s="4"/>
     </row>
-    <row r="665" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="6:21" ht="13">
       <c r="F665" s="4"/>
       <c r="I665" s="4"/>
       <c r="L665" s="4"/>
@@ -11963,7 +11956,7 @@
       <c r="R665" s="4"/>
       <c r="U665" s="4"/>
     </row>
-    <row r="666" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="6:21" ht="13">
       <c r="F666" s="4"/>
       <c r="I666" s="4"/>
       <c r="L666" s="4"/>
@@ -11971,7 +11964,7 @@
       <c r="R666" s="4"/>
       <c r="U666" s="4"/>
     </row>
-    <row r="667" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="6:21" ht="13">
       <c r="F667" s="4"/>
       <c r="I667" s="4"/>
       <c r="L667" s="4"/>
@@ -11979,7 +11972,7 @@
       <c r="R667" s="4"/>
       <c r="U667" s="4"/>
     </row>
-    <row r="668" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="6:21" ht="13">
       <c r="F668" s="4"/>
       <c r="I668" s="4"/>
       <c r="L668" s="4"/>
@@ -11987,7 +11980,7 @@
       <c r="R668" s="4"/>
       <c r="U668" s="4"/>
     </row>
-    <row r="669" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="6:21" ht="13">
       <c r="F669" s="4"/>
       <c r="I669" s="4"/>
       <c r="L669" s="4"/>
@@ -11995,7 +11988,7 @@
       <c r="R669" s="4"/>
       <c r="U669" s="4"/>
     </row>
-    <row r="670" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="6:21" ht="13">
       <c r="F670" s="4"/>
       <c r="I670" s="4"/>
       <c r="L670" s="4"/>
@@ -12003,7 +11996,7 @@
       <c r="R670" s="4"/>
       <c r="U670" s="4"/>
     </row>
-    <row r="671" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="6:21" ht="13">
       <c r="F671" s="4"/>
       <c r="I671" s="4"/>
       <c r="L671" s="4"/>
@@ -12011,7 +12004,7 @@
       <c r="R671" s="4"/>
       <c r="U671" s="4"/>
     </row>
-    <row r="672" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="6:21" ht="13">
       <c r="F672" s="4"/>
       <c r="I672" s="4"/>
       <c r="L672" s="4"/>
@@ -12019,7 +12012,7 @@
       <c r="R672" s="4"/>
       <c r="U672" s="4"/>
     </row>
-    <row r="673" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="6:21" ht="13">
       <c r="F673" s="4"/>
       <c r="I673" s="4"/>
       <c r="L673" s="4"/>
@@ -12027,7 +12020,7 @@
       <c r="R673" s="4"/>
       <c r="U673" s="4"/>
     </row>
-    <row r="674" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="6:21" ht="13">
       <c r="F674" s="4"/>
       <c r="I674" s="4"/>
       <c r="L674" s="4"/>
@@ -12035,7 +12028,7 @@
       <c r="R674" s="4"/>
       <c r="U674" s="4"/>
     </row>
-    <row r="675" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="6:21" ht="13">
       <c r="F675" s="4"/>
       <c r="I675" s="4"/>
       <c r="L675" s="4"/>
@@ -12043,7 +12036,7 @@
       <c r="R675" s="4"/>
       <c r="U675" s="4"/>
     </row>
-    <row r="676" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="6:21" ht="13">
       <c r="F676" s="4"/>
       <c r="I676" s="4"/>
       <c r="L676" s="4"/>
@@ -12051,7 +12044,7 @@
       <c r="R676" s="4"/>
       <c r="U676" s="4"/>
     </row>
-    <row r="677" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="6:21" ht="13">
       <c r="F677" s="4"/>
       <c r="I677" s="4"/>
       <c r="L677" s="4"/>
@@ -12059,7 +12052,7 @@
       <c r="R677" s="4"/>
       <c r="U677" s="4"/>
     </row>
-    <row r="678" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="6:21" ht="13">
       <c r="F678" s="4"/>
       <c r="I678" s="4"/>
       <c r="L678" s="4"/>
@@ -12067,7 +12060,7 @@
       <c r="R678" s="4"/>
       <c r="U678" s="4"/>
     </row>
-    <row r="679" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="6:21" ht="13">
       <c r="F679" s="4"/>
       <c r="I679" s="4"/>
       <c r="L679" s="4"/>
@@ -12075,7 +12068,7 @@
       <c r="R679" s="4"/>
       <c r="U679" s="4"/>
     </row>
-    <row r="680" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="6:21" ht="13">
       <c r="F680" s="4"/>
       <c r="I680" s="4"/>
       <c r="L680" s="4"/>
@@ -12083,7 +12076,7 @@
       <c r="R680" s="4"/>
       <c r="U680" s="4"/>
     </row>
-    <row r="681" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="6:21" ht="13">
       <c r="F681" s="4"/>
       <c r="I681" s="4"/>
       <c r="L681" s="4"/>
@@ -12091,7 +12084,7 @@
       <c r="R681" s="4"/>
       <c r="U681" s="4"/>
     </row>
-    <row r="682" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="6:21" ht="13">
       <c r="F682" s="4"/>
       <c r="I682" s="4"/>
       <c r="L682" s="4"/>
@@ -12099,7 +12092,7 @@
       <c r="R682" s="4"/>
       <c r="U682" s="4"/>
     </row>
-    <row r="683" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="6:21" ht="13">
       <c r="F683" s="4"/>
       <c r="I683" s="4"/>
       <c r="L683" s="4"/>
@@ -12107,7 +12100,7 @@
       <c r="R683" s="4"/>
       <c r="U683" s="4"/>
     </row>
-    <row r="684" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="6:21" ht="13">
       <c r="F684" s="4"/>
       <c r="I684" s="4"/>
       <c r="L684" s="4"/>
@@ -12115,7 +12108,7 @@
       <c r="R684" s="4"/>
       <c r="U684" s="4"/>
     </row>
-    <row r="685" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="6:21" ht="13">
       <c r="F685" s="4"/>
       <c r="I685" s="4"/>
       <c r="L685" s="4"/>
@@ -12123,7 +12116,7 @@
       <c r="R685" s="4"/>
       <c r="U685" s="4"/>
     </row>
-    <row r="686" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="6:21" ht="13">
       <c r="F686" s="4"/>
       <c r="I686" s="4"/>
       <c r="L686" s="4"/>
@@ -12131,7 +12124,7 @@
       <c r="R686" s="4"/>
       <c r="U686" s="4"/>
     </row>
-    <row r="687" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="6:21" ht="13">
       <c r="F687" s="4"/>
       <c r="I687" s="4"/>
       <c r="L687" s="4"/>
@@ -12139,7 +12132,7 @@
       <c r="R687" s="4"/>
       <c r="U687" s="4"/>
     </row>
-    <row r="688" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="6:21" ht="13">
       <c r="F688" s="4"/>
       <c r="I688" s="4"/>
       <c r="L688" s="4"/>
@@ -12147,7 +12140,7 @@
       <c r="R688" s="4"/>
       <c r="U688" s="4"/>
     </row>
-    <row r="689" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="6:21" ht="13">
       <c r="F689" s="4"/>
       <c r="I689" s="4"/>
       <c r="L689" s="4"/>
@@ -12155,7 +12148,7 @@
       <c r="R689" s="4"/>
       <c r="U689" s="4"/>
     </row>
-    <row r="690" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="6:21" ht="13">
       <c r="F690" s="4"/>
       <c r="I690" s="4"/>
       <c r="L690" s="4"/>
@@ -12163,7 +12156,7 @@
       <c r="R690" s="4"/>
       <c r="U690" s="4"/>
     </row>
-    <row r="691" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="6:21" ht="13">
       <c r="F691" s="4"/>
       <c r="I691" s="4"/>
       <c r="L691" s="4"/>
@@ -12171,7 +12164,7 @@
       <c r="R691" s="4"/>
       <c r="U691" s="4"/>
     </row>
-    <row r="692" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="6:21" ht="13">
       <c r="F692" s="4"/>
       <c r="I692" s="4"/>
       <c r="L692" s="4"/>
@@ -12179,7 +12172,7 @@
       <c r="R692" s="4"/>
       <c r="U692" s="4"/>
     </row>
-    <row r="693" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="6:21" ht="13">
       <c r="F693" s="4"/>
       <c r="I693" s="4"/>
       <c r="L693" s="4"/>
@@ -12187,7 +12180,7 @@
       <c r="R693" s="4"/>
       <c r="U693" s="4"/>
     </row>
-    <row r="694" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="6:21" ht="13">
       <c r="F694" s="4"/>
       <c r="I694" s="4"/>
       <c r="L694" s="4"/>
@@ -12195,7 +12188,7 @@
       <c r="R694" s="4"/>
       <c r="U694" s="4"/>
     </row>
-    <row r="695" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="6:21" ht="13">
       <c r="F695" s="4"/>
       <c r="I695" s="4"/>
       <c r="L695" s="4"/>
@@ -12203,7 +12196,7 @@
       <c r="R695" s="4"/>
       <c r="U695" s="4"/>
     </row>
-    <row r="696" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="6:21" ht="13">
       <c r="F696" s="4"/>
       <c r="I696" s="4"/>
       <c r="L696" s="4"/>
@@ -12211,7 +12204,7 @@
       <c r="R696" s="4"/>
       <c r="U696" s="4"/>
     </row>
-    <row r="697" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="6:21" ht="13">
       <c r="F697" s="4"/>
       <c r="I697" s="4"/>
       <c r="L697" s="4"/>
@@ -12219,7 +12212,7 @@
       <c r="R697" s="4"/>
       <c r="U697" s="4"/>
     </row>
-    <row r="698" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="6:21" ht="13">
       <c r="F698" s="4"/>
       <c r="I698" s="4"/>
       <c r="L698" s="4"/>
@@ -12227,7 +12220,7 @@
       <c r="R698" s="4"/>
       <c r="U698" s="4"/>
     </row>
-    <row r="699" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="6:21" ht="13">
       <c r="F699" s="4"/>
       <c r="I699" s="4"/>
       <c r="L699" s="4"/>
@@ -12235,7 +12228,7 @@
       <c r="R699" s="4"/>
       <c r="U699" s="4"/>
     </row>
-    <row r="700" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="6:21" ht="13">
       <c r="F700" s="4"/>
       <c r="I700" s="4"/>
       <c r="L700" s="4"/>
@@ -12243,7 +12236,7 @@
       <c r="R700" s="4"/>
       <c r="U700" s="4"/>
     </row>
-    <row r="701" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="6:21" ht="13">
       <c r="F701" s="4"/>
       <c r="I701" s="4"/>
       <c r="L701" s="4"/>
@@ -12251,7 +12244,7 @@
       <c r="R701" s="4"/>
       <c r="U701" s="4"/>
     </row>
-    <row r="702" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="6:21" ht="13">
       <c r="F702" s="4"/>
       <c r="I702" s="4"/>
       <c r="L702" s="4"/>
@@ -12259,7 +12252,7 @@
       <c r="R702" s="4"/>
       <c r="U702" s="4"/>
     </row>
-    <row r="703" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="6:21" ht="13">
       <c r="F703" s="4"/>
       <c r="I703" s="4"/>
       <c r="L703" s="4"/>
@@ -12267,7 +12260,7 @@
       <c r="R703" s="4"/>
       <c r="U703" s="4"/>
     </row>
-    <row r="704" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="6:21" ht="13">
       <c r="F704" s="4"/>
       <c r="I704" s="4"/>
       <c r="L704" s="4"/>
@@ -12275,7 +12268,7 @@
       <c r="R704" s="4"/>
       <c r="U704" s="4"/>
     </row>
-    <row r="705" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="6:21" ht="13">
       <c r="F705" s="4"/>
       <c r="I705" s="4"/>
       <c r="L705" s="4"/>
@@ -12283,7 +12276,7 @@
       <c r="R705" s="4"/>
       <c r="U705" s="4"/>
     </row>
-    <row r="706" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="6:21" ht="13">
       <c r="F706" s="4"/>
       <c r="I706" s="4"/>
       <c r="L706" s="4"/>
@@ -12291,7 +12284,7 @@
       <c r="R706" s="4"/>
       <c r="U706" s="4"/>
     </row>
-    <row r="707" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="6:21" ht="13">
       <c r="F707" s="4"/>
       <c r="I707" s="4"/>
       <c r="L707" s="4"/>
@@ -12299,7 +12292,7 @@
       <c r="R707" s="4"/>
       <c r="U707" s="4"/>
     </row>
-    <row r="708" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="6:21" ht="13">
       <c r="F708" s="4"/>
       <c r="I708" s="4"/>
       <c r="L708" s="4"/>
@@ -12307,7 +12300,7 @@
       <c r="R708" s="4"/>
       <c r="U708" s="4"/>
     </row>
-    <row r="709" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="6:21" ht="13">
       <c r="F709" s="4"/>
       <c r="I709" s="4"/>
       <c r="L709" s="4"/>
@@ -12315,7 +12308,7 @@
       <c r="R709" s="4"/>
       <c r="U709" s="4"/>
     </row>
-    <row r="710" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="6:21" ht="13">
       <c r="F710" s="4"/>
       <c r="I710" s="4"/>
       <c r="L710" s="4"/>
@@ -12323,7 +12316,7 @@
       <c r="R710" s="4"/>
       <c r="U710" s="4"/>
     </row>
-    <row r="711" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="6:21" ht="13">
       <c r="F711" s="4"/>
       <c r="I711" s="4"/>
       <c r="L711" s="4"/>
@@ -12331,7 +12324,7 @@
       <c r="R711" s="4"/>
       <c r="U711" s="4"/>
     </row>
-    <row r="712" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="6:21" ht="13">
       <c r="F712" s="4"/>
       <c r="I712" s="4"/>
       <c r="L712" s="4"/>
@@ -12339,7 +12332,7 @@
       <c r="R712" s="4"/>
       <c r="U712" s="4"/>
     </row>
-    <row r="713" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="6:21" ht="13">
       <c r="F713" s="4"/>
       <c r="I713" s="4"/>
       <c r="L713" s="4"/>
@@ -12347,7 +12340,7 @@
       <c r="R713" s="4"/>
       <c r="U713" s="4"/>
     </row>
-    <row r="714" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="6:21" ht="13">
       <c r="F714" s="4"/>
       <c r="I714" s="4"/>
       <c r="L714" s="4"/>
@@ -12355,7 +12348,7 @@
       <c r="R714" s="4"/>
       <c r="U714" s="4"/>
     </row>
-    <row r="715" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="6:21" ht="13">
       <c r="F715" s="4"/>
       <c r="I715" s="4"/>
       <c r="L715" s="4"/>
@@ -12363,7 +12356,7 @@
       <c r="R715" s="4"/>
       <c r="U715" s="4"/>
     </row>
-    <row r="716" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="6:21" ht="13">
       <c r="F716" s="4"/>
       <c r="I716" s="4"/>
       <c r="L716" s="4"/>
@@ -12371,7 +12364,7 @@
       <c r="R716" s="4"/>
       <c r="U716" s="4"/>
     </row>
-    <row r="717" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="6:21" ht="13">
       <c r="F717" s="4"/>
       <c r="I717" s="4"/>
       <c r="L717" s="4"/>
@@ -12379,7 +12372,7 @@
       <c r="R717" s="4"/>
       <c r="U717" s="4"/>
     </row>
-    <row r="718" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="6:21" ht="13">
       <c r="F718" s="4"/>
       <c r="I718" s="4"/>
       <c r="L718" s="4"/>
@@ -12387,7 +12380,7 @@
       <c r="R718" s="4"/>
       <c r="U718" s="4"/>
     </row>
-    <row r="719" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="6:21" ht="13">
       <c r="F719" s="4"/>
       <c r="I719" s="4"/>
       <c r="L719" s="4"/>
@@ -12395,7 +12388,7 @@
       <c r="R719" s="4"/>
       <c r="U719" s="4"/>
     </row>
-    <row r="720" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="6:21" ht="13">
       <c r="F720" s="4"/>
       <c r="I720" s="4"/>
       <c r="L720" s="4"/>
@@ -12403,7 +12396,7 @@
       <c r="R720" s="4"/>
       <c r="U720" s="4"/>
     </row>
-    <row r="721" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="6:21" ht="13">
       <c r="F721" s="4"/>
       <c r="I721" s="4"/>
       <c r="L721" s="4"/>
@@ -12411,7 +12404,7 @@
       <c r="R721" s="4"/>
       <c r="U721" s="4"/>
     </row>
-    <row r="722" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="6:21" ht="13">
       <c r="F722" s="4"/>
       <c r="I722" s="4"/>
       <c r="L722" s="4"/>
@@ -12419,7 +12412,7 @@
       <c r="R722" s="4"/>
       <c r="U722" s="4"/>
     </row>
-    <row r="723" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="6:21" ht="13">
       <c r="F723" s="4"/>
       <c r="I723" s="4"/>
       <c r="L723" s="4"/>
@@ -12427,7 +12420,7 @@
       <c r="R723" s="4"/>
       <c r="U723" s="4"/>
     </row>
-    <row r="724" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="6:21" ht="13">
       <c r="F724" s="4"/>
       <c r="I724" s="4"/>
       <c r="L724" s="4"/>
@@ -12435,7 +12428,7 @@
       <c r="R724" s="4"/>
       <c r="U724" s="4"/>
     </row>
-    <row r="725" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="6:21" ht="13">
       <c r="F725" s="4"/>
       <c r="I725" s="4"/>
       <c r="L725" s="4"/>
@@ -12443,7 +12436,7 @@
       <c r="R725" s="4"/>
       <c r="U725" s="4"/>
     </row>
-    <row r="726" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="6:21" ht="13">
       <c r="F726" s="4"/>
       <c r="I726" s="4"/>
       <c r="L726" s="4"/>
@@ -12451,7 +12444,7 @@
       <c r="R726" s="4"/>
       <c r="U726" s="4"/>
     </row>
-    <row r="727" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="6:21" ht="13">
       <c r="F727" s="4"/>
       <c r="I727" s="4"/>
       <c r="L727" s="4"/>
@@ -12459,7 +12452,7 @@
       <c r="R727" s="4"/>
       <c r="U727" s="4"/>
     </row>
-    <row r="728" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="6:21" ht="13">
       <c r="F728" s="4"/>
       <c r="I728" s="4"/>
       <c r="L728" s="4"/>
@@ -12467,7 +12460,7 @@
       <c r="R728" s="4"/>
       <c r="U728" s="4"/>
     </row>
-    <row r="729" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="6:21" ht="13">
       <c r="F729" s="4"/>
       <c r="I729" s="4"/>
       <c r="L729" s="4"/>
@@ -12475,7 +12468,7 @@
       <c r="R729" s="4"/>
       <c r="U729" s="4"/>
     </row>
-    <row r="730" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="6:21" ht="13">
       <c r="F730" s="4"/>
       <c r="I730" s="4"/>
       <c r="L730" s="4"/>
@@ -12483,7 +12476,7 @@
       <c r="R730" s="4"/>
       <c r="U730" s="4"/>
     </row>
-    <row r="731" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="6:21" ht="13">
       <c r="F731" s="4"/>
       <c r="I731" s="4"/>
       <c r="L731" s="4"/>
@@ -12491,7 +12484,7 @@
       <c r="R731" s="4"/>
       <c r="U731" s="4"/>
     </row>
-    <row r="732" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="6:21" ht="13">
       <c r="F732" s="4"/>
       <c r="I732" s="4"/>
       <c r="L732" s="4"/>
@@ -12499,7 +12492,7 @@
       <c r="R732" s="4"/>
       <c r="U732" s="4"/>
     </row>
-    <row r="733" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="6:21" ht="13">
       <c r="F733" s="4"/>
       <c r="I733" s="4"/>
       <c r="L733" s="4"/>
@@ -12507,7 +12500,7 @@
       <c r="R733" s="4"/>
       <c r="U733" s="4"/>
     </row>
-    <row r="734" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="6:21" ht="13">
       <c r="F734" s="4"/>
       <c r="I734" s="4"/>
       <c r="L734" s="4"/>
@@ -12515,7 +12508,7 @@
       <c r="R734" s="4"/>
       <c r="U734" s="4"/>
     </row>
-    <row r="735" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="6:21" ht="13">
       <c r="F735" s="4"/>
       <c r="I735" s="4"/>
       <c r="L735" s="4"/>
@@ -12523,7 +12516,7 @@
       <c r="R735" s="4"/>
       <c r="U735" s="4"/>
     </row>
-    <row r="736" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="6:21" ht="13">
       <c r="F736" s="4"/>
       <c r="I736" s="4"/>
       <c r="L736" s="4"/>
@@ -12531,7 +12524,7 @@
       <c r="R736" s="4"/>
       <c r="U736" s="4"/>
     </row>
-    <row r="737" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="6:21" ht="13">
       <c r="F737" s="4"/>
       <c r="I737" s="4"/>
       <c r="L737" s="4"/>
@@ -12539,7 +12532,7 @@
       <c r="R737" s="4"/>
       <c r="U737" s="4"/>
     </row>
-    <row r="738" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="6:21" ht="13">
       <c r="F738" s="4"/>
       <c r="I738" s="4"/>
       <c r="L738" s="4"/>
@@ -12547,7 +12540,7 @@
       <c r="R738" s="4"/>
       <c r="U738" s="4"/>
     </row>
-    <row r="739" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="6:21" ht="13">
       <c r="F739" s="4"/>
       <c r="I739" s="4"/>
       <c r="L739" s="4"/>
@@ -12555,7 +12548,7 @@
       <c r="R739" s="4"/>
       <c r="U739" s="4"/>
     </row>
-    <row r="740" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="6:21" ht="13">
       <c r="F740" s="4"/>
       <c r="I740" s="4"/>
       <c r="L740" s="4"/>
@@ -12563,7 +12556,7 @@
       <c r="R740" s="4"/>
       <c r="U740" s="4"/>
     </row>
-    <row r="741" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="6:21" ht="13">
       <c r="F741" s="4"/>
       <c r="I741" s="4"/>
       <c r="L741" s="4"/>
@@ -12571,7 +12564,7 @@
       <c r="R741" s="4"/>
       <c r="U741" s="4"/>
     </row>
-    <row r="742" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="6:21" ht="13">
       <c r="F742" s="4"/>
       <c r="I742" s="4"/>
       <c r="L742" s="4"/>
@@ -12579,7 +12572,7 @@
       <c r="R742" s="4"/>
       <c r="U742" s="4"/>
     </row>
-    <row r="743" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="6:21" ht="13">
       <c r="F743" s="4"/>
       <c r="I743" s="4"/>
       <c r="L743" s="4"/>
@@ -12587,7 +12580,7 @@
       <c r="R743" s="4"/>
       <c r="U743" s="4"/>
     </row>
-    <row r="744" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="6:21" ht="13">
       <c r="F744" s="4"/>
       <c r="I744" s="4"/>
       <c r="L744" s="4"/>
@@ -12595,7 +12588,7 @@
       <c r="R744" s="4"/>
       <c r="U744" s="4"/>
     </row>
-    <row r="745" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="6:21" ht="13">
       <c r="F745" s="4"/>
       <c r="I745" s="4"/>
       <c r="L745" s="4"/>
@@ -12603,7 +12596,7 @@
       <c r="R745" s="4"/>
       <c r="U745" s="4"/>
     </row>
-    <row r="746" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="6:21" ht="13">
       <c r="F746" s="4"/>
       <c r="I746" s="4"/>
       <c r="L746" s="4"/>
@@ -12611,7 +12604,7 @@
       <c r="R746" s="4"/>
       <c r="U746" s="4"/>
     </row>
-    <row r="747" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="6:21" ht="13">
       <c r="F747" s="4"/>
       <c r="I747" s="4"/>
       <c r="L747" s="4"/>
@@ -12619,7 +12612,7 @@
       <c r="R747" s="4"/>
       <c r="U747" s="4"/>
     </row>
-    <row r="748" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="6:21" ht="13">
       <c r="F748" s="4"/>
       <c r="I748" s="4"/>
       <c r="L748" s="4"/>
@@ -12627,7 +12620,7 @@
       <c r="R748" s="4"/>
       <c r="U748" s="4"/>
     </row>
-    <row r="749" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="6:21" ht="13">
       <c r="F749" s="4"/>
       <c r="I749" s="4"/>
       <c r="L749" s="4"/>
@@ -12635,7 +12628,7 @@
       <c r="R749" s="4"/>
       <c r="U749" s="4"/>
     </row>
-    <row r="750" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="6:21" ht="13">
       <c r="F750" s="4"/>
       <c r="I750" s="4"/>
       <c r="L750" s="4"/>
@@ -12643,7 +12636,7 @@
       <c r="R750" s="4"/>
       <c r="U750" s="4"/>
     </row>
-    <row r="751" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="6:21" ht="13">
       <c r="F751" s="4"/>
       <c r="I751" s="4"/>
       <c r="L751" s="4"/>
@@ -12651,7 +12644,7 @@
       <c r="R751" s="4"/>
       <c r="U751" s="4"/>
     </row>
-    <row r="752" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="6:21" ht="13">
       <c r="F752" s="4"/>
       <c r="I752" s="4"/>
       <c r="L752" s="4"/>
@@ -12659,7 +12652,7 @@
       <c r="R752" s="4"/>
       <c r="U752" s="4"/>
     </row>
-    <row r="753" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="6:21" ht="13">
       <c r="F753" s="4"/>
       <c r="I753" s="4"/>
       <c r="L753" s="4"/>
@@ -12667,7 +12660,7 @@
       <c r="R753" s="4"/>
       <c r="U753" s="4"/>
     </row>
-    <row r="754" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="6:21" ht="13">
       <c r="F754" s="4"/>
       <c r="I754" s="4"/>
       <c r="L754" s="4"/>
@@ -12675,7 +12668,7 @@
       <c r="R754" s="4"/>
       <c r="U754" s="4"/>
     </row>
-    <row r="755" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="6:21" ht="13">
       <c r="F755" s="4"/>
       <c r="I755" s="4"/>
       <c r="L755" s="4"/>
@@ -12683,7 +12676,7 @@
       <c r="R755" s="4"/>
       <c r="U755" s="4"/>
     </row>
-    <row r="756" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="6:21" ht="13">
       <c r="F756" s="4"/>
       <c r="I756" s="4"/>
       <c r="L756" s="4"/>
@@ -12691,7 +12684,7 @@
       <c r="R756" s="4"/>
       <c r="U756" s="4"/>
     </row>
-    <row r="757" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="6:21" ht="13">
       <c r="F757" s="4"/>
       <c r="I757" s="4"/>
       <c r="L757" s="4"/>
@@ -12699,7 +12692,7 @@
       <c r="R757" s="4"/>
       <c r="U757" s="4"/>
     </row>
-    <row r="758" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="6:21" ht="13">
       <c r="F758" s="4"/>
       <c r="I758" s="4"/>
       <c r="L758" s="4"/>
@@ -12707,7 +12700,7 @@
       <c r="R758" s="4"/>
       <c r="U758" s="4"/>
     </row>
-    <row r="759" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="6:21" ht="13">
       <c r="F759" s="4"/>
       <c r="I759" s="4"/>
       <c r="L759" s="4"/>
@@ -12715,7 +12708,7 @@
       <c r="R759" s="4"/>
       <c r="U759" s="4"/>
     </row>
-    <row r="760" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="6:21" ht="13">
       <c r="F760" s="4"/>
       <c r="I760" s="4"/>
       <c r="L760" s="4"/>
@@ -12723,7 +12716,7 @@
       <c r="R760" s="4"/>
       <c r="U760" s="4"/>
     </row>
-    <row r="761" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="6:21" ht="13">
       <c r="F761" s="4"/>
       <c r="I761" s="4"/>
       <c r="L761" s="4"/>
@@ -12731,7 +12724,7 @@
       <c r="R761" s="4"/>
       <c r="U761" s="4"/>
     </row>
-    <row r="762" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="6:21" ht="13">
       <c r="F762" s="4"/>
       <c r="I762" s="4"/>
       <c r="L762" s="4"/>
@@ -12739,7 +12732,7 @@
       <c r="R762" s="4"/>
       <c r="U762" s="4"/>
     </row>
-    <row r="763" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="6:21" ht="13">
       <c r="F763" s="4"/>
       <c r="I763" s="4"/>
       <c r="L763" s="4"/>
@@ -12747,7 +12740,7 @@
       <c r="R763" s="4"/>
       <c r="U763" s="4"/>
     </row>
-    <row r="764" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="6:21" ht="13">
       <c r="F764" s="4"/>
       <c r="I764" s="4"/>
       <c r="L764" s="4"/>
@@ -12755,7 +12748,7 @@
       <c r="R764" s="4"/>
       <c r="U764" s="4"/>
     </row>
-    <row r="765" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="6:21" ht="13">
       <c r="F765" s="4"/>
       <c r="I765" s="4"/>
       <c r="L765" s="4"/>
@@ -12763,7 +12756,7 @@
       <c r="R765" s="4"/>
       <c r="U765" s="4"/>
     </row>
-    <row r="766" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="6:21" ht="13">
       <c r="F766" s="4"/>
       <c r="I766" s="4"/>
       <c r="L766" s="4"/>
@@ -12771,7 +12764,7 @@
       <c r="R766" s="4"/>
       <c r="U766" s="4"/>
     </row>
-    <row r="767" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="6:21" ht="13">
       <c r="F767" s="4"/>
       <c r="I767" s="4"/>
       <c r="L767" s="4"/>
@@ -12779,7 +12772,7 @@
       <c r="R767" s="4"/>
       <c r="U767" s="4"/>
     </row>
-    <row r="768" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="6:21" ht="13">
       <c r="F768" s="4"/>
       <c r="I768" s="4"/>
       <c r="L768" s="4"/>
@@ -12787,7 +12780,7 @@
       <c r="R768" s="4"/>
       <c r="U768" s="4"/>
     </row>
-    <row r="769" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="6:21" ht="13">
       <c r="F769" s="4"/>
       <c r="I769" s="4"/>
       <c r="L769" s="4"/>
@@ -12795,7 +12788,7 @@
       <c r="R769" s="4"/>
       <c r="U769" s="4"/>
     </row>
-    <row r="770" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="6:21" ht="13">
       <c r="F770" s="4"/>
       <c r="I770" s="4"/>
       <c r="L770" s="4"/>
@@ -12803,7 +12796,7 @@
       <c r="R770" s="4"/>
       <c r="U770" s="4"/>
     </row>
-    <row r="771" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="6:21" ht="13">
       <c r="F771" s="4"/>
       <c r="I771" s="4"/>
       <c r="L771" s="4"/>
@@ -12811,7 +12804,7 @@
       <c r="R771" s="4"/>
       <c r="U771" s="4"/>
     </row>
-    <row r="772" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="6:21" ht="13">
       <c r="F772" s="4"/>
       <c r="I772" s="4"/>
       <c r="L772" s="4"/>
@@ -12819,7 +12812,7 @@
       <c r="R772" s="4"/>
       <c r="U772" s="4"/>
     </row>
-    <row r="773" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="6:21" ht="13">
       <c r="F773" s="4"/>
       <c r="I773" s="4"/>
       <c r="L773" s="4"/>
@@ -12827,7 +12820,7 @@
       <c r="R773" s="4"/>
       <c r="U773" s="4"/>
     </row>
-    <row r="774" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="6:21" ht="13">
       <c r="F774" s="4"/>
       <c r="I774" s="4"/>
       <c r="L774" s="4"/>
@@ -12835,7 +12828,7 @@
       <c r="R774" s="4"/>
       <c r="U774" s="4"/>
     </row>
-    <row r="775" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="6:21" ht="13">
       <c r="F775" s="4"/>
       <c r="I775" s="4"/>
       <c r="L775" s="4"/>
@@ -12843,7 +12836,7 @@
       <c r="R775" s="4"/>
       <c r="U775" s="4"/>
     </row>
-    <row r="776" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="6:21" ht="13">
       <c r="F776" s="4"/>
       <c r="I776" s="4"/>
       <c r="L776" s="4"/>
@@ -12851,7 +12844,7 @@
       <c r="R776" s="4"/>
       <c r="U776" s="4"/>
     </row>
-    <row r="777" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="6:21" ht="13">
       <c r="F777" s="4"/>
       <c r="I777" s="4"/>
       <c r="L777" s="4"/>
@@ -12859,7 +12852,7 @@
       <c r="R777" s="4"/>
       <c r="U777" s="4"/>
     </row>
-    <row r="778" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="6:21" ht="13">
       <c r="F778" s="4"/>
       <c r="I778" s="4"/>
       <c r="L778" s="4"/>
@@ -12867,7 +12860,7 @@
       <c r="R778" s="4"/>
       <c r="U778" s="4"/>
     </row>
-    <row r="779" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="6:21" ht="13">
       <c r="F779" s="4"/>
       <c r="I779" s="4"/>
       <c r="L779" s="4"/>
@@ -12875,7 +12868,7 @@
       <c r="R779" s="4"/>
       <c r="U779" s="4"/>
     </row>
-    <row r="780" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="6:21" ht="13">
       <c r="F780" s="4"/>
       <c r="I780" s="4"/>
       <c r="L780" s="4"/>
@@ -12883,7 +12876,7 @@
       <c r="R780" s="4"/>
       <c r="U780" s="4"/>
     </row>
-    <row r="781" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="6:21" ht="13">
       <c r="F781" s="4"/>
       <c r="I781" s="4"/>
       <c r="L781" s="4"/>
@@ -12891,7 +12884,7 @@
       <c r="R781" s="4"/>
       <c r="U781" s="4"/>
     </row>
-    <row r="782" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="6:21" ht="13">
       <c r="F782" s="4"/>
       <c r="I782" s="4"/>
       <c r="L782" s="4"/>
@@ -12899,7 +12892,7 @@
       <c r="R782" s="4"/>
       <c r="U782" s="4"/>
     </row>
-    <row r="783" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="6:21" ht="13">
       <c r="F783" s="4"/>
       <c r="I783" s="4"/>
       <c r="L783" s="4"/>
@@ -12907,7 +12900,7 @@
       <c r="R783" s="4"/>
       <c r="U783" s="4"/>
     </row>
-    <row r="784" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="6:21" ht="13">
       <c r="F784" s="4"/>
       <c r="I784" s="4"/>
       <c r="L784" s="4"/>
@@ -12915,7 +12908,7 @@
       <c r="R784" s="4"/>
       <c r="U784" s="4"/>
     </row>
-    <row r="785" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="6:21" ht="13">
       <c r="F785" s="4"/>
       <c r="I785" s="4"/>
       <c r="L785" s="4"/>
@@ -12923,7 +12916,7 @@
       <c r="R785" s="4"/>
       <c r="U785" s="4"/>
     </row>
-    <row r="786" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="6:21" ht="13">
       <c r="F786" s="4"/>
       <c r="I786" s="4"/>
       <c r="L786" s="4"/>
@@ -12931,7 +12924,7 @@
       <c r="R786" s="4"/>
       <c r="U786" s="4"/>
     </row>
-    <row r="787" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="6:21" ht="13">
       <c r="F787" s="4"/>
       <c r="I787" s="4"/>
       <c r="L787" s="4"/>
@@ -12939,7 +12932,7 @@
       <c r="R787" s="4"/>
       <c r="U787" s="4"/>
     </row>
-    <row r="788" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="6:21" ht="13">
       <c r="F788" s="4"/>
       <c r="I788" s="4"/>
       <c r="L788" s="4"/>
@@ -12947,7 +12940,7 @@
       <c r="R788" s="4"/>
       <c r="U788" s="4"/>
     </row>
-    <row r="789" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="6:21" ht="13">
       <c r="F789" s="4"/>
       <c r="I789" s="4"/>
       <c r="L789" s="4"/>
@@ -12955,7 +12948,7 @@
       <c r="R789" s="4"/>
       <c r="U789" s="4"/>
     </row>
-    <row r="790" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="6:21" ht="13">
       <c r="F790" s="4"/>
       <c r="I790" s="4"/>
       <c r="L790" s="4"/>
@@ -12963,7 +12956,7 @@
       <c r="R790" s="4"/>
       <c r="U790" s="4"/>
     </row>
-    <row r="791" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="6:21" ht="13">
       <c r="F791" s="4"/>
       <c r="I791" s="4"/>
       <c r="L791" s="4"/>
@@ -12971,7 +12964,7 @@
       <c r="R791" s="4"/>
       <c r="U791" s="4"/>
     </row>
-    <row r="792" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="6:21" ht="13">
       <c r="F792" s="4"/>
       <c r="I792" s="4"/>
       <c r="L792" s="4"/>
@@ -12979,7 +12972,7 @@
       <c r="R792" s="4"/>
       <c r="U792" s="4"/>
     </row>
-    <row r="793" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="6:21" ht="13">
       <c r="F793" s="4"/>
       <c r="I793" s="4"/>
       <c r="L793" s="4"/>
@@ -12987,7 +12980,7 @@
       <c r="R793" s="4"/>
       <c r="U793" s="4"/>
     </row>
-    <row r="794" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="6:21" ht="13">
       <c r="F794" s="4"/>
       <c r="I794" s="4"/>
       <c r="L794" s="4"/>
@@ -12995,7 +12988,7 @@
       <c r="R794" s="4"/>
       <c r="U794" s="4"/>
     </row>
-    <row r="795" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="6:21" ht="13">
       <c r="F795" s="4"/>
       <c r="I795" s="4"/>
       <c r="L795" s="4"/>
@@ -13003,7 +12996,7 @@
       <c r="R795" s="4"/>
       <c r="U795" s="4"/>
     </row>
-    <row r="796" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="6:21" ht="13">
       <c r="F796" s="4"/>
       <c r="I796" s="4"/>
       <c r="L796" s="4"/>
@@ -13011,7 +13004,7 @@
       <c r="R796" s="4"/>
       <c r="U796" s="4"/>
     </row>
-    <row r="797" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="6:21" ht="13">
       <c r="F797" s="4"/>
       <c r="I797" s="4"/>
       <c r="L797" s="4"/>
@@ -13019,7 +13012,7 @@
       <c r="R797" s="4"/>
       <c r="U797" s="4"/>
     </row>
-    <row r="798" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="6:21" ht="13">
       <c r="F798" s="4"/>
       <c r="I798" s="4"/>
       <c r="L798" s="4"/>
@@ -13027,7 +13020,7 @@
       <c r="R798" s="4"/>
       <c r="U798" s="4"/>
     </row>
-    <row r="799" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="6:21" ht="13">
       <c r="F799" s="4"/>
       <c r="I799" s="4"/>
       <c r="L799" s="4"/>
@@ -13035,7 +13028,7 @@
       <c r="R799" s="4"/>
       <c r="U799" s="4"/>
     </row>
-    <row r="800" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="6:21" ht="13">
       <c r="F800" s="4"/>
       <c r="I800" s="4"/>
       <c r="L800" s="4"/>
@@ -13043,7 +13036,7 @@
       <c r="R800" s="4"/>
       <c r="U800" s="4"/>
     </row>
-    <row r="801" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="6:21" ht="13">
       <c r="F801" s="4"/>
       <c r="I801" s="4"/>
       <c r="L801" s="4"/>
@@ -13051,7 +13044,7 @@
       <c r="R801" s="4"/>
       <c r="U801" s="4"/>
     </row>
-    <row r="802" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="6:21" ht="13">
       <c r="F802" s="4"/>
       <c r="I802" s="4"/>
       <c r="L802" s="4"/>
@@ -13059,7 +13052,7 @@
       <c r="R802" s="4"/>
       <c r="U802" s="4"/>
     </row>
-    <row r="803" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="6:21" ht="13">
       <c r="F803" s="4"/>
       <c r="I803" s="4"/>
       <c r="L803" s="4"/>
@@ -13067,7 +13060,7 @@
       <c r="R803" s="4"/>
       <c r="U803" s="4"/>
     </row>
-    <row r="804" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="6:21" ht="13">
       <c r="F804" s="4"/>
       <c r="I804" s="4"/>
       <c r="L804" s="4"/>
@@ -13075,7 +13068,7 @@
       <c r="R804" s="4"/>
       <c r="U804" s="4"/>
     </row>
-    <row r="805" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="6:21" ht="13">
       <c r="F805" s="4"/>
       <c r="I805" s="4"/>
       <c r="L805" s="4"/>
@@ -13083,7 +13076,7 @@
       <c r="R805" s="4"/>
       <c r="U805" s="4"/>
     </row>
-    <row r="806" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="6:21" ht="13">
       <c r="F806" s="4"/>
       <c r="I806" s="4"/>
       <c r="L806" s="4"/>
@@ -13091,7 +13084,7 @@
       <c r="R806" s="4"/>
       <c r="U806" s="4"/>
     </row>
-    <row r="807" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="6:21" ht="13">
       <c r="F807" s="4"/>
       <c r="I807" s="4"/>
       <c r="L807" s="4"/>
@@ -13099,7 +13092,7 @@
       <c r="R807" s="4"/>
       <c r="U807" s="4"/>
     </row>
-    <row r="808" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="6:21" ht="13">
       <c r="F808" s="4"/>
       <c r="I808" s="4"/>
       <c r="L808" s="4"/>
@@ -13107,7 +13100,7 @@
       <c r="R808" s="4"/>
       <c r="U808" s="4"/>
     </row>
-    <row r="809" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="6:21" ht="13">
       <c r="F809" s="4"/>
       <c r="I809" s="4"/>
       <c r="L809" s="4"/>
@@ -13115,7 +13108,7 @@
       <c r="R809" s="4"/>
       <c r="U809" s="4"/>
     </row>
-    <row r="810" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="6:21" ht="13">
       <c r="F810" s="4"/>
       <c r="I810" s="4"/>
       <c r="L810" s="4"/>
@@ -13123,7 +13116,7 @@
       <c r="R810" s="4"/>
       <c r="U810" s="4"/>
     </row>
-    <row r="811" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="6:21" ht="13">
       <c r="F811" s="4"/>
       <c r="I811" s="4"/>
       <c r="L811" s="4"/>
@@ -13131,7 +13124,7 @@
       <c r="R811" s="4"/>
       <c r="U811" s="4"/>
     </row>
-    <row r="812" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="6:21" ht="13">
       <c r="F812" s="4"/>
       <c r="I812" s="4"/>
       <c r="L812" s="4"/>
@@ -13139,7 +13132,7 @@
       <c r="R812" s="4"/>
       <c r="U812" s="4"/>
     </row>
-    <row r="813" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="6:21" ht="13">
       <c r="F813" s="4"/>
       <c r="I813" s="4"/>
       <c r="L813" s="4"/>
@@ -13147,7 +13140,7 @@
       <c r="R813" s="4"/>
       <c r="U813" s="4"/>
     </row>
-    <row r="814" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="6:21" ht="13">
       <c r="F814" s="4"/>
       <c r="I814" s="4"/>
       <c r="L814" s="4"/>
@@ -13155,7 +13148,7 @@
       <c r="R814" s="4"/>
       <c r="U814" s="4"/>
     </row>
-    <row r="815" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="6:21" ht="13">
       <c r="F815" s="4"/>
       <c r="I815" s="4"/>
       <c r="L815" s="4"/>
@@ -13163,7 +13156,7 @@
       <c r="R815" s="4"/>
       <c r="U815" s="4"/>
     </row>
-    <row r="816" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="6:21" ht="13">
       <c r="F816" s="4"/>
       <c r="I816" s="4"/>
       <c r="L816" s="4"/>
@@ -13171,7 +13164,7 @@
       <c r="R816" s="4"/>
       <c r="U816" s="4"/>
     </row>
-    <row r="817" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="6:21" ht="13">
       <c r="F817" s="4"/>
       <c r="I817" s="4"/>
       <c r="L817" s="4"/>
@@ -13179,7 +13172,7 @@
       <c r="R817" s="4"/>
       <c r="U817" s="4"/>
     </row>
-    <row r="818" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="6:21" ht="13">
       <c r="F818" s="4"/>
       <c r="I818" s="4"/>
       <c r="L818" s="4"/>
@@ -13187,7 +13180,7 @@
       <c r="R818" s="4"/>
       <c r="U818" s="4"/>
     </row>
-    <row r="819" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="6:21" ht="13">
       <c r="F819" s="4"/>
       <c r="I819" s="4"/>
       <c r="L819" s="4"/>
@@ -13195,7 +13188,7 @@
       <c r="R819" s="4"/>
       <c r="U819" s="4"/>
     </row>
-    <row r="820" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="6:21" ht="13">
       <c r="F820" s="4"/>
       <c r="I820" s="4"/>
       <c r="L820" s="4"/>
@@ -13203,7 +13196,7 @@
       <c r="R820" s="4"/>
       <c r="U820" s="4"/>
     </row>
-    <row r="821" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="6:21" ht="13">
       <c r="F821" s="4"/>
       <c r="I821" s="4"/>
       <c r="L821" s="4"/>
@@ -13211,7 +13204,7 @@
       <c r="R821" s="4"/>
       <c r="U821" s="4"/>
     </row>
-    <row r="822" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="6:21" ht="13">
       <c r="F822" s="4"/>
       <c r="I822" s="4"/>
       <c r="L822" s="4"/>
@@ -13219,7 +13212,7 @@
       <c r="R822" s="4"/>
       <c r="U822" s="4"/>
     </row>
-    <row r="823" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="6:21" ht="13">
       <c r="F823" s="4"/>
       <c r="I823" s="4"/>
       <c r="L823" s="4"/>
@@ -13227,7 +13220,7 @@
       <c r="R823" s="4"/>
       <c r="U823" s="4"/>
     </row>
-    <row r="824" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="6:21" ht="13">
       <c r="F824" s="4"/>
       <c r="I824" s="4"/>
       <c r="L824" s="4"/>
@@ -13235,7 +13228,7 @@
       <c r="R824" s="4"/>
       <c r="U824" s="4"/>
     </row>
-    <row r="825" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="6:21" ht="13">
       <c r="F825" s="4"/>
       <c r="I825" s="4"/>
       <c r="L825" s="4"/>
@@ -13243,7 +13236,7 @@
       <c r="R825" s="4"/>
       <c r="U825" s="4"/>
     </row>
-    <row r="826" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="6:21" ht="13">
       <c r="F826" s="4"/>
       <c r="I826" s="4"/>
       <c r="L826" s="4"/>
@@ -13251,7 +13244,7 @@
       <c r="R826" s="4"/>
       <c r="U826" s="4"/>
     </row>
-    <row r="827" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="6:21" ht="13">
       <c r="F827" s="4"/>
       <c r="I827" s="4"/>
       <c r="L827" s="4"/>
@@ -13259,7 +13252,7 @@
       <c r="R827" s="4"/>
       <c r="U827" s="4"/>
     </row>
-    <row r="828" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="6:21" ht="13">
       <c r="F828" s="4"/>
       <c r="I828" s="4"/>
       <c r="L828" s="4"/>
@@ -13267,7 +13260,7 @@
       <c r="R828" s="4"/>
       <c r="U828" s="4"/>
     </row>
-    <row r="829" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="6:21" ht="13">
       <c r="F829" s="4"/>
       <c r="I829" s="4"/>
       <c r="L829" s="4"/>
@@ -13275,7 +13268,7 @@
       <c r="R829" s="4"/>
       <c r="U829" s="4"/>
     </row>
-    <row r="830" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="6:21" ht="13">
       <c r="F830" s="4"/>
       <c r="I830" s="4"/>
       <c r="L830" s="4"/>
@@ -13283,7 +13276,7 @@
       <c r="R830" s="4"/>
       <c r="U830" s="4"/>
     </row>
-    <row r="831" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="6:21" ht="13">
       <c r="F831" s="4"/>
       <c r="I831" s="4"/>
       <c r="L831" s="4"/>
@@ -13291,7 +13284,7 @@
       <c r="R831" s="4"/>
       <c r="U831" s="4"/>
     </row>
-    <row r="832" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="6:21" ht="13">
       <c r="F832" s="4"/>
       <c r="I832" s="4"/>
       <c r="L832" s="4"/>
@@ -13299,7 +13292,7 @@
       <c r="R832" s="4"/>
       <c r="U832" s="4"/>
     </row>
-    <row r="833" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="6:21" ht="13">
       <c r="F833" s="4"/>
       <c r="I833" s="4"/>
       <c r="L833" s="4"/>
@@ -13307,7 +13300,7 @@
       <c r="R833" s="4"/>
       <c r="U833" s="4"/>
     </row>
-    <row r="834" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="6:21" ht="13">
       <c r="F834" s="4"/>
       <c r="I834" s="4"/>
       <c r="L834" s="4"/>
@@ -13315,7 +13308,7 @@
       <c r="R834" s="4"/>
       <c r="U834" s="4"/>
     </row>
-    <row r="835" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="6:21" ht="13">
       <c r="F835" s="4"/>
       <c r="I835" s="4"/>
       <c r="L835" s="4"/>
@@ -13323,7 +13316,7 @@
       <c r="R835" s="4"/>
       <c r="U835" s="4"/>
     </row>
-    <row r="836" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="6:21" ht="13">
       <c r="F836" s="4"/>
       <c r="I836" s="4"/>
       <c r="L836" s="4"/>
@@ -13331,7 +13324,7 @@
       <c r="R836" s="4"/>
       <c r="U836" s="4"/>
     </row>
-    <row r="837" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="6:21" ht="13">
       <c r="F837" s="4"/>
       <c r="I837" s="4"/>
       <c r="L837" s="4"/>
@@ -13339,7 +13332,7 @@
       <c r="R837" s="4"/>
       <c r="U837" s="4"/>
     </row>
-    <row r="838" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="6:21" ht="13">
       <c r="F838" s="4"/>
       <c r="I838" s="4"/>
       <c r="L838" s="4"/>
@@ -13347,7 +13340,7 @@
       <c r="R838" s="4"/>
       <c r="U838" s="4"/>
     </row>
-    <row r="839" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="6:21" ht="13">
       <c r="F839" s="4"/>
       <c r="I839" s="4"/>
       <c r="L839" s="4"/>
@@ -13355,7 +13348,7 @@
       <c r="R839" s="4"/>
       <c r="U839" s="4"/>
     </row>
-    <row r="840" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="6:21" ht="13">
       <c r="F840" s="4"/>
       <c r="I840" s="4"/>
       <c r="L840" s="4"/>
@@ -13363,7 +13356,7 @@
       <c r="R840" s="4"/>
       <c r="U840" s="4"/>
     </row>
-    <row r="841" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="6:21" ht="13">
       <c r="F841" s="4"/>
       <c r="I841" s="4"/>
       <c r="L841" s="4"/>
@@ -13371,7 +13364,7 @@
       <c r="R841" s="4"/>
       <c r="U841" s="4"/>
     </row>
-    <row r="842" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="6:21" ht="13">
       <c r="F842" s="4"/>
       <c r="I842" s="4"/>
       <c r="L842" s="4"/>
@@ -13379,7 +13372,7 @@
       <c r="R842" s="4"/>
       <c r="U842" s="4"/>
     </row>
-    <row r="843" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="6:21" ht="13">
       <c r="F843" s="4"/>
       <c r="I843" s="4"/>
       <c r="L843" s="4"/>
@@ -13387,7 +13380,7 @@
       <c r="R843" s="4"/>
       <c r="U843" s="4"/>
     </row>
-    <row r="844" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="6:21" ht="13">
       <c r="F844" s="4"/>
       <c r="I844" s="4"/>
       <c r="L844" s="4"/>
@@ -13395,7 +13388,7 @@
       <c r="R844" s="4"/>
       <c r="U844" s="4"/>
     </row>
-    <row r="845" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="6:21" ht="13">
       <c r="F845" s="4"/>
       <c r="I845" s="4"/>
       <c r="L845" s="4"/>
@@ -13403,7 +13396,7 @@
       <c r="R845" s="4"/>
       <c r="U845" s="4"/>
     </row>
-    <row r="846" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="6:21" ht="13">
       <c r="F846" s="4"/>
       <c r="I846" s="4"/>
       <c r="L846" s="4"/>
@@ -13411,7 +13404,7 @@
       <c r="R846" s="4"/>
       <c r="U846" s="4"/>
     </row>
-    <row r="847" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="6:21" ht="13">
       <c r="F847" s="4"/>
       <c r="I847" s="4"/>
       <c r="L847" s="4"/>
@@ -13419,7 +13412,7 @@
       <c r="R847" s="4"/>
       <c r="U847" s="4"/>
     </row>
-    <row r="848" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="6:21" ht="13">
       <c r="F848" s="4"/>
       <c r="I848" s="4"/>
       <c r="L848" s="4"/>
@@ -13427,7 +13420,7 @@
       <c r="R848" s="4"/>
       <c r="U848" s="4"/>
     </row>
-    <row r="849" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="6:21" ht="13">
       <c r="F849" s="4"/>
       <c r="I849" s="4"/>
       <c r="L849" s="4"/>
@@ -13435,7 +13428,7 @@
       <c r="R849" s="4"/>
       <c r="U849" s="4"/>
     </row>
-    <row r="850" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="6:21" ht="13">
       <c r="F850" s="4"/>
       <c r="I850" s="4"/>
       <c r="L850" s="4"/>
@@ -13443,7 +13436,7 @@
       <c r="R850" s="4"/>
       <c r="U850" s="4"/>
     </row>
-    <row r="851" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="6:21" ht="13">
       <c r="F851" s="4"/>
       <c r="I851" s="4"/>
       <c r="L851" s="4"/>
@@ -13451,7 +13444,7 @@
       <c r="R851" s="4"/>
       <c r="U851" s="4"/>
     </row>
-    <row r="852" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="6:21" ht="13">
       <c r="F852" s="4"/>
       <c r="I852" s="4"/>
       <c r="L852" s="4"/>
@@ -13459,7 +13452,7 @@
       <c r="R852" s="4"/>
       <c r="U852" s="4"/>
     </row>
-    <row r="853" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="6:21" ht="13">
       <c r="F853" s="4"/>
       <c r="I853" s="4"/>
       <c r="L853" s="4"/>
@@ -13467,7 +13460,7 @@
       <c r="R853" s="4"/>
       <c r="U853" s="4"/>
     </row>
-    <row r="854" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="6:21" ht="13">
       <c r="F854" s="4"/>
       <c r="I854" s="4"/>
       <c r="L854" s="4"/>
@@ -13475,7 +13468,7 @@
       <c r="R854" s="4"/>
       <c r="U854" s="4"/>
     </row>
-    <row r="855" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="6:21" ht="13">
       <c r="F855" s="4"/>
       <c r="I855" s="4"/>
       <c r="L855" s="4"/>
@@ -13483,7 +13476,7 @@
       <c r="R855" s="4"/>
       <c r="U855" s="4"/>
     </row>
-    <row r="856" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="6:21" ht="13">
       <c r="F856" s="4"/>
       <c r="I856" s="4"/>
       <c r="L856" s="4"/>
@@ -13491,7 +13484,7 @@
       <c r="R856" s="4"/>
       <c r="U856" s="4"/>
     </row>
-    <row r="857" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="6:21" ht="13">
       <c r="F857" s="4"/>
       <c r="I857" s="4"/>
       <c r="L857" s="4"/>
@@ -13499,7 +13492,7 @@
       <c r="R857" s="4"/>
       <c r="U857" s="4"/>
     </row>
-    <row r="858" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="6:21" ht="13">
       <c r="F858" s="4"/>
       <c r="I858" s="4"/>
       <c r="L858" s="4"/>
@@ -13507,7 +13500,7 @@
       <c r="R858" s="4"/>
       <c r="U858" s="4"/>
     </row>
-    <row r="859" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="6:21" ht="13">
       <c r="F859" s="4"/>
       <c r="I859" s="4"/>
       <c r="L859" s="4"/>
@@ -13515,7 +13508,7 @@
       <c r="R859" s="4"/>
       <c r="U859" s="4"/>
     </row>
-    <row r="860" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="6:21" ht="13">
       <c r="F860" s="4"/>
       <c r="I860" s="4"/>
       <c r="L860" s="4"/>
@@ -13523,7 +13516,7 @@
       <c r="R860" s="4"/>
       <c r="U860" s="4"/>
     </row>
-    <row r="861" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="6:21" ht="13">
       <c r="F861" s="4"/>
       <c r="I861" s="4"/>
       <c r="L861" s="4"/>
@@ -13531,7 +13524,7 @@
       <c r="R861" s="4"/>
       <c r="U861" s="4"/>
     </row>
-    <row r="862" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="6:21" ht="13">
       <c r="F862" s="4"/>
       <c r="I862" s="4"/>
       <c r="L862" s="4"/>
@@ -13539,7 +13532,7 @@
       <c r="R862" s="4"/>
       <c r="U862" s="4"/>
     </row>
-    <row r="863" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="6:21" ht="13">
       <c r="F863" s="4"/>
       <c r="I863" s="4"/>
       <c r="L863" s="4"/>
@@ -13547,7 +13540,7 @@
       <c r="R863" s="4"/>
       <c r="U863" s="4"/>
     </row>
-    <row r="864" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="6:21" ht="13">
       <c r="F864" s="4"/>
       <c r="I864" s="4"/>
       <c r="L864" s="4"/>
@@ -13555,7 +13548,7 @@
       <c r="R864" s="4"/>
       <c r="U864" s="4"/>
     </row>
-    <row r="865" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="6:21" ht="13">
       <c r="F865" s="4"/>
       <c r="I865" s="4"/>
       <c r="L865" s="4"/>
@@ -13563,7 +13556,7 @@
       <c r="R865" s="4"/>
       <c r="U865" s="4"/>
     </row>
-    <row r="866" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="6:21" ht="13">
       <c r="F866" s="4"/>
       <c r="I866" s="4"/>
       <c r="L866" s="4"/>
@@ -13571,7 +13564,7 @@
       <c r="R866" s="4"/>
       <c r="U866" s="4"/>
     </row>
-    <row r="867" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="6:21" ht="13">
       <c r="F867" s="4"/>
       <c r="I867" s="4"/>
       <c r="L867" s="4"/>
@@ -13579,7 +13572,7 @@
       <c r="R867" s="4"/>
       <c r="U867" s="4"/>
     </row>
-    <row r="868" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="6:21" ht="13">
       <c r="F868" s="4"/>
       <c r="I868" s="4"/>
       <c r="L868" s="4"/>
@@ -13587,7 +13580,7 @@
       <c r="R868" s="4"/>
       <c r="U868" s="4"/>
     </row>
-    <row r="869" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="6:21" ht="13">
       <c r="F869" s="4"/>
       <c r="I869" s="4"/>
       <c r="L869" s="4"/>
@@ -13595,7 +13588,7 @@
       <c r="R869" s="4"/>
       <c r="U869" s="4"/>
     </row>
-    <row r="870" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="6:21" ht="13">
       <c r="F870" s="4"/>
       <c r="I870" s="4"/>
       <c r="L870" s="4"/>
@@ -13603,7 +13596,7 @@
       <c r="R870" s="4"/>
       <c r="U870" s="4"/>
     </row>
-    <row r="871" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="6:21" ht="13">
       <c r="F871" s="4"/>
       <c r="I871" s="4"/>
       <c r="L871" s="4"/>
@@ -13611,7 +13604,7 @@
       <c r="R871" s="4"/>
       <c r="U871" s="4"/>
     </row>
-    <row r="872" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="6:21" ht="13">
       <c r="F872" s="4"/>
       <c r="I872" s="4"/>
       <c r="L872" s="4"/>
@@ -13619,7 +13612,7 @@
       <c r="R872" s="4"/>
       <c r="U872" s="4"/>
     </row>
-    <row r="873" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="6:21" ht="13">
       <c r="F873" s="4"/>
       <c r="I873" s="4"/>
       <c r="L873" s="4"/>
@@ -13627,7 +13620,7 @@
       <c r="R873" s="4"/>
       <c r="U873" s="4"/>
     </row>
-    <row r="874" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="6:21" ht="13">
       <c r="F874" s="4"/>
       <c r="I874" s="4"/>
       <c r="L874" s="4"/>
@@ -13635,7 +13628,7 @@
       <c r="R874" s="4"/>
       <c r="U874" s="4"/>
     </row>
-    <row r="875" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="6:21" ht="13">
       <c r="F875" s="4"/>
       <c r="I875" s="4"/>
       <c r="L875" s="4"/>
@@ -13643,7 +13636,7 @@
       <c r="R875" s="4"/>
       <c r="U875" s="4"/>
     </row>
-    <row r="876" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="6:21" ht="13">
       <c r="F876" s="4"/>
       <c r="I876" s="4"/>
       <c r="L876" s="4"/>
@@ -13651,7 +13644,7 @@
       <c r="R876" s="4"/>
       <c r="U876" s="4"/>
     </row>
-    <row r="877" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="6:21" ht="13">
       <c r="F877" s="4"/>
       <c r="I877" s="4"/>
       <c r="L877" s="4"/>
@@ -13659,7 +13652,7 @@
       <c r="R877" s="4"/>
       <c r="U877" s="4"/>
     </row>
-    <row r="878" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="6:21" ht="13">
       <c r="F878" s="4"/>
       <c r="I878" s="4"/>
       <c r="L878" s="4"/>
@@ -13667,7 +13660,7 @@
       <c r="R878" s="4"/>
       <c r="U878" s="4"/>
     </row>
-    <row r="879" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="6:21" ht="13">
       <c r="F879" s="4"/>
       <c r="I879" s="4"/>
       <c r="L879" s="4"/>
@@ -13675,7 +13668,7 @@
       <c r="R879" s="4"/>
       <c r="U879" s="4"/>
     </row>
-    <row r="880" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="6:21" ht="13">
       <c r="F880" s="4"/>
       <c r="I880" s="4"/>
       <c r="L880" s="4"/>
@@ -13683,7 +13676,7 @@
       <c r="R880" s="4"/>
       <c r="U880" s="4"/>
     </row>
-    <row r="881" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="6:21" ht="13">
       <c r="F881" s="4"/>
       <c r="I881" s="4"/>
       <c r="L881" s="4"/>
@@ -13691,7 +13684,7 @@
       <c r="R881" s="4"/>
       <c r="U881" s="4"/>
     </row>
-    <row r="882" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="6:21" ht="13">
       <c r="F882" s="4"/>
       <c r="I882" s="4"/>
       <c r="L882" s="4"/>
@@ -13699,7 +13692,7 @@
       <c r="R882" s="4"/>
       <c r="U882" s="4"/>
     </row>
-    <row r="883" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="6:21" ht="13">
       <c r="F883" s="4"/>
       <c r="I883" s="4"/>
       <c r="L883" s="4"/>
@@ -13707,7 +13700,7 @@
       <c r="R883" s="4"/>
       <c r="U883" s="4"/>
     </row>
-    <row r="884" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="6:21" ht="13">
       <c r="F884" s="4"/>
       <c r="I884" s="4"/>
       <c r="L884" s="4"/>
@@ -13715,7 +13708,7 @@
       <c r="R884" s="4"/>
       <c r="U884" s="4"/>
     </row>
-    <row r="885" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="6:21" ht="13">
       <c r="F885" s="4"/>
       <c r="I885" s="4"/>
       <c r="L885" s="4"/>
@@ -13723,7 +13716,7 @@
       <c r="R885" s="4"/>
       <c r="U885" s="4"/>
     </row>
-    <row r="886" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="6:21" ht="13">
       <c r="F886" s="4"/>
       <c r="I886" s="4"/>
       <c r="L886" s="4"/>
@@ -13731,7 +13724,7 @@
       <c r="R886" s="4"/>
       <c r="U886" s="4"/>
     </row>
-    <row r="887" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="6:21" ht="13">
       <c r="F887" s="4"/>
       <c r="I887" s="4"/>
       <c r="L887" s="4"/>
@@ -13739,7 +13732,7 @@
       <c r="R887" s="4"/>
       <c r="U887" s="4"/>
     </row>
-    <row r="888" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="6:21" ht="13">
       <c r="F888" s="4"/>
       <c r="I888" s="4"/>
       <c r="L888" s="4"/>
@@ -13747,7 +13740,7 @@
       <c r="R888" s="4"/>
       <c r="U888" s="4"/>
     </row>
-    <row r="889" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="6:21" ht="13">
       <c r="F889" s="4"/>
       <c r="I889" s="4"/>
       <c r="L889" s="4"/>
@@ -13755,7 +13748,7 @@
       <c r="R889" s="4"/>
       <c r="U889" s="4"/>
     </row>
-    <row r="890" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="6:21" ht="13">
       <c r="F890" s="4"/>
       <c r="I890" s="4"/>
       <c r="L890" s="4"/>
@@ -13763,7 +13756,7 @@
       <c r="R890" s="4"/>
       <c r="U890" s="4"/>
     </row>
-    <row r="891" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="6:21" ht="13">
       <c r="F891" s="4"/>
       <c r="I891" s="4"/>
       <c r="L891" s="4"/>
@@ -13771,7 +13764,7 @@
       <c r="R891" s="4"/>
       <c r="U891" s="4"/>
     </row>
-    <row r="892" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="6:21" ht="13">
       <c r="F892" s="4"/>
       <c r="I892" s="4"/>
       <c r="L892" s="4"/>
@@ -13779,7 +13772,7 @@
       <c r="R892" s="4"/>
       <c r="U892" s="4"/>
     </row>
-    <row r="893" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="6:21" ht="13">
       <c r="F893" s="4"/>
       <c r="I893" s="4"/>
       <c r="L893" s="4"/>
@@ -13787,7 +13780,7 @@
       <c r="R893" s="4"/>
       <c r="U893" s="4"/>
     </row>
-    <row r="894" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="6:21" ht="13">
       <c r="F894" s="4"/>
       <c r="I894" s="4"/>
       <c r="L894" s="4"/>
@@ -13795,7 +13788,7 @@
       <c r="R894" s="4"/>
       <c r="U894" s="4"/>
     </row>
-    <row r="895" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="6:21" ht="13">
       <c r="F895" s="4"/>
       <c r="I895" s="4"/>
       <c r="L895" s="4"/>
@@ -13803,7 +13796,7 @@
       <c r="R895" s="4"/>
       <c r="U895" s="4"/>
     </row>
-    <row r="896" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="6:21" ht="13">
       <c r="F896" s="4"/>
       <c r="I896" s="4"/>
       <c r="L896" s="4"/>
@@ -13811,7 +13804,7 @@
       <c r="R896" s="4"/>
       <c r="U896" s="4"/>
     </row>
-    <row r="897" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="6:21" ht="13">
       <c r="F897" s="4"/>
       <c r="I897" s="4"/>
       <c r="L897" s="4"/>
@@ -13819,7 +13812,7 @@
       <c r="R897" s="4"/>
       <c r="U897" s="4"/>
     </row>
-    <row r="898" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="6:21" ht="13">
       <c r="F898" s="4"/>
       <c r="I898" s="4"/>
       <c r="L898" s="4"/>
@@ -13827,7 +13820,7 @@
       <c r="R898" s="4"/>
       <c r="U898" s="4"/>
     </row>
-    <row r="899" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="6:21" ht="13">
       <c r="F899" s="4"/>
       <c r="I899" s="4"/>
       <c r="L899" s="4"/>
@@ -13835,7 +13828,7 @@
       <c r="R899" s="4"/>
       <c r="U899" s="4"/>
     </row>
-    <row r="900" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="6:21" ht="13">
       <c r="F900" s="4"/>
       <c r="I900" s="4"/>
       <c r="L900" s="4"/>
@@ -13843,7 +13836,7 @@
       <c r="R900" s="4"/>
       <c r="U900" s="4"/>
     </row>
-    <row r="901" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="6:21" ht="13">
       <c r="F901" s="4"/>
       <c r="I901" s="4"/>
       <c r="L901" s="4"/>
@@ -13851,7 +13844,7 @@
       <c r="R901" s="4"/>
       <c r="U901" s="4"/>
     </row>
-    <row r="902" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="6:21" ht="13">
       <c r="F902" s="4"/>
       <c r="I902" s="4"/>
       <c r="L902" s="4"/>
@@ -13859,7 +13852,7 @@
       <c r="R902" s="4"/>
       <c r="U902" s="4"/>
     </row>
-    <row r="903" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="6:21" ht="13">
       <c r="F903" s="4"/>
       <c r="I903" s="4"/>
       <c r="L903" s="4"/>
@@ -13867,7 +13860,7 @@
       <c r="R903" s="4"/>
       <c r="U903" s="4"/>
     </row>
-    <row r="904" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="6:21" ht="13">
       <c r="F904" s="4"/>
       <c r="I904" s="4"/>
       <c r="L904" s="4"/>
@@ -13875,7 +13868,7 @@
       <c r="R904" s="4"/>
       <c r="U904" s="4"/>
     </row>
-    <row r="905" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="6:21" ht="13">
       <c r="F905" s="4"/>
       <c r="I905" s="4"/>
       <c r="L905" s="4"/>
@@ -13883,7 +13876,7 @@
       <c r="R905" s="4"/>
       <c r="U905" s="4"/>
     </row>
-    <row r="906" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="6:21" ht="13">
       <c r="F906" s="4"/>
       <c r="I906" s="4"/>
       <c r="L906" s="4"/>
@@ -13891,7 +13884,7 @@
       <c r="R906" s="4"/>
       <c r="U906" s="4"/>
     </row>
-    <row r="907" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="6:21" ht="13">
       <c r="F907" s="4"/>
       <c r="I907" s="4"/>
       <c r="L907" s="4"/>
@@ -13899,7 +13892,7 @@
       <c r="R907" s="4"/>
       <c r="U907" s="4"/>
     </row>
-    <row r="908" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="6:21" ht="13">
       <c r="F908" s="4"/>
       <c r="I908" s="4"/>
       <c r="L908" s="4"/>
@@ -13907,7 +13900,7 @@
       <c r="R908" s="4"/>
       <c r="U908" s="4"/>
     </row>
-    <row r="909" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="6:21" ht="13">
       <c r="F909" s="4"/>
       <c r="I909" s="4"/>
       <c r="L909" s="4"/>
@@ -13915,7 +13908,7 @@
       <c r="R909" s="4"/>
       <c r="U909" s="4"/>
     </row>
-    <row r="910" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="6:21" ht="13">
       <c r="F910" s="4"/>
       <c r="I910" s="4"/>
       <c r="L910" s="4"/>
@@ -13923,7 +13916,7 @@
       <c r="R910" s="4"/>
       <c r="U910" s="4"/>
     </row>
-    <row r="911" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="6:21" ht="13">
       <c r="F911" s="4"/>
       <c r="I911" s="4"/>
       <c r="L911" s="4"/>
@@ -13931,7 +13924,7 @@
       <c r="R911" s="4"/>
       <c r="U911" s="4"/>
     </row>
-    <row r="912" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="6:21" ht="13">
       <c r="F912" s="4"/>
       <c r="I912" s="4"/>
       <c r="L912" s="4"/>
@@ -13939,7 +13932,7 @@
       <c r="R912" s="4"/>
       <c r="U912" s="4"/>
     </row>
-    <row r="913" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="6:21" ht="13">
       <c r="F913" s="4"/>
       <c r="I913" s="4"/>
       <c r="L913" s="4"/>
@@ -13947,7 +13940,7 @@
       <c r="R913" s="4"/>
       <c r="U913" s="4"/>
     </row>
-    <row r="914" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="6:21" ht="13">
       <c r="F914" s="4"/>
       <c r="I914" s="4"/>
       <c r="L914" s="4"/>
@@ -13955,7 +13948,7 @@
       <c r="R914" s="4"/>
       <c r="U914" s="4"/>
     </row>
-    <row r="915" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="6:21" ht="13">
       <c r="F915" s="4"/>
       <c r="I915" s="4"/>
       <c r="L915" s="4"/>
@@ -13963,7 +13956,7 @@
       <c r="R915" s="4"/>
       <c r="U915" s="4"/>
     </row>
-    <row r="916" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="6:21" ht="13">
       <c r="F916" s="4"/>
       <c r="I916" s="4"/>
       <c r="L916" s="4"/>
@@ -13971,7 +13964,7 @@
       <c r="R916" s="4"/>
       <c r="U916" s="4"/>
     </row>
-    <row r="917" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="6:21" ht="13">
       <c r="F917" s="4"/>
       <c r="I917" s="4"/>
       <c r="L917" s="4"/>
@@ -13979,7 +13972,7 @@
       <c r="R917" s="4"/>
       <c r="U917" s="4"/>
     </row>
-    <row r="918" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="6:21" ht="13">
       <c r="F918" s="4"/>
       <c r="I918" s="4"/>
       <c r="L918" s="4"/>
@@ -13987,7 +13980,7 @@
       <c r="R918" s="4"/>
       <c r="U918" s="4"/>
     </row>
-    <row r="919" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="6:21" ht="13">
       <c r="F919" s="4"/>
       <c r="I919" s="4"/>
       <c r="L919" s="4"/>
@@ -13995,7 +13988,7 @@
       <c r="R919" s="4"/>
       <c r="U919" s="4"/>
     </row>
-    <row r="920" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="6:21" ht="13">
       <c r="F920" s="4"/>
       <c r="I920" s="4"/>
       <c r="L920" s="4"/>
@@ -14003,7 +13996,7 @@
       <c r="R920" s="4"/>
       <c r="U920" s="4"/>
     </row>
-    <row r="921" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="6:21" ht="13">
       <c r="F921" s="4"/>
       <c r="I921" s="4"/>
       <c r="L921" s="4"/>
@@ -14011,7 +14004,7 @@
       <c r="R921" s="4"/>
       <c r="U921" s="4"/>
     </row>
-    <row r="922" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="6:21" ht="13">
       <c r="F922" s="4"/>
       <c r="I922" s="4"/>
       <c r="L922" s="4"/>
@@ -14019,7 +14012,7 @@
       <c r="R922" s="4"/>
       <c r="U922" s="4"/>
     </row>
-    <row r="923" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="6:21" ht="13">
       <c r="F923" s="4"/>
       <c r="I923" s="4"/>
       <c r="L923" s="4"/>
@@ -14027,7 +14020,7 @@
       <c r="R923" s="4"/>
       <c r="U923" s="4"/>
     </row>
-    <row r="924" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="6:21" ht="13">
       <c r="F924" s="4"/>
       <c r="I924" s="4"/>
       <c r="L924" s="4"/>
@@ -14035,7 +14028,7 @@
       <c r="R924" s="4"/>
       <c r="U924" s="4"/>
     </row>
-    <row r="925" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="6:21" ht="13">
       <c r="F925" s="4"/>
       <c r="I925" s="4"/>
       <c r="L925" s="4"/>
@@ -14043,7 +14036,7 @@
       <c r="R925" s="4"/>
       <c r="U925" s="4"/>
     </row>
-    <row r="926" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="6:21" ht="13">
       <c r="F926" s="4"/>
       <c r="I926" s="4"/>
       <c r="L926" s="4"/>
@@ -14051,7 +14044,7 @@
       <c r="R926" s="4"/>
       <c r="U926" s="4"/>
     </row>
-    <row r="927" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="6:21" ht="13">
       <c r="F927" s="4"/>
       <c r="I927" s="4"/>
       <c r="L927" s="4"/>
@@ -14059,7 +14052,7 @@
       <c r="R927" s="4"/>
       <c r="U927" s="4"/>
     </row>
-    <row r="928" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="6:21" ht="13">
       <c r="F928" s="4"/>
       <c r="I928" s="4"/>
       <c r="L928" s="4"/>
@@ -14067,7 +14060,7 @@
       <c r="R928" s="4"/>
       <c r="U928" s="4"/>
     </row>
-    <row r="929" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="6:21" ht="13">
       <c r="F929" s="4"/>
       <c r="I929" s="4"/>
       <c r="L929" s="4"/>
@@ -14075,7 +14068,7 @@
       <c r="R929" s="4"/>
       <c r="U929" s="4"/>
     </row>
-    <row r="930" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="6:21" ht="13">
       <c r="F930" s="4"/>
       <c r="I930" s="4"/>
       <c r="L930" s="4"/>
@@ -14083,7 +14076,7 @@
       <c r="R930" s="4"/>
       <c r="U930" s="4"/>
     </row>
-    <row r="931" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="6:21" ht="13">
       <c r="F931" s="4"/>
       <c r="I931" s="4"/>
       <c r="L931" s="4"/>
@@ -14091,7 +14084,7 @@
       <c r="R931" s="4"/>
       <c r="U931" s="4"/>
     </row>
-    <row r="932" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="6:21" ht="13">
       <c r="F932" s="4"/>
       <c r="I932" s="4"/>
       <c r="L932" s="4"/>
@@ -14099,7 +14092,7 @@
       <c r="R932" s="4"/>
       <c r="U932" s="4"/>
     </row>
-    <row r="933" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="6:21" ht="13">
       <c r="F933" s="4"/>
       <c r="I933" s="4"/>
       <c r="L933" s="4"/>
@@ -14107,7 +14100,7 @@
       <c r="R933" s="4"/>
       <c r="U933" s="4"/>
     </row>
-    <row r="934" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="6:21" ht="13">
       <c r="F934" s="4"/>
       <c r="I934" s="4"/>
       <c r="L934" s="4"/>
@@ -14115,7 +14108,7 @@
       <c r="R934" s="4"/>
       <c r="U934" s="4"/>
     </row>
-    <row r="935" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="6:21" ht="13">
       <c r="F935" s="4"/>
       <c r="I935" s="4"/>
       <c r="L935" s="4"/>
@@ -14123,7 +14116,7 @@
       <c r="R935" s="4"/>
       <c r="U935" s="4"/>
     </row>
-    <row r="936" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="6:21" ht="13">
       <c r="F936" s="4"/>
       <c r="I936" s="4"/>
       <c r="L936" s="4"/>
@@ -14131,7 +14124,7 @@
       <c r="R936" s="4"/>
       <c r="U936" s="4"/>
     </row>
-    <row r="937" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="6:21" ht="13">
       <c r="F937" s="4"/>
       <c r="I937" s="4"/>
       <c r="L937" s="4"/>
@@ -14139,7 +14132,7 @@
       <c r="R937" s="4"/>
       <c r="U937" s="4"/>
     </row>
-    <row r="938" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="6:21" ht="13">
       <c r="F938" s="4"/>
       <c r="I938" s="4"/>
       <c r="L938" s="4"/>
@@ -14147,7 +14140,7 @@
       <c r="R938" s="4"/>
       <c r="U938" s="4"/>
     </row>
-    <row r="939" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="6:21" ht="13">
       <c r="F939" s="4"/>
       <c r="I939" s="4"/>
       <c r="L939" s="4"/>
@@ -14155,7 +14148,7 @@
       <c r="R939" s="4"/>
       <c r="U939" s="4"/>
     </row>
-    <row r="940" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="6:21" ht="13">
       <c r="F940" s="4"/>
       <c r="I940" s="4"/>
       <c r="L940" s="4"/>
@@ -14163,7 +14156,7 @@
       <c r="R940" s="4"/>
       <c r="U940" s="4"/>
     </row>
-    <row r="941" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="6:21" ht="13">
       <c r="F941" s="4"/>
       <c r="I941" s="4"/>
       <c r="L941" s="4"/>
@@ -14171,7 +14164,7 @@
       <c r="R941" s="4"/>
       <c r="U941" s="4"/>
     </row>
-    <row r="942" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="6:21" ht="13">
       <c r="F942" s="4"/>
       <c r="I942" s="4"/>
       <c r="L942" s="4"/>
@@ -14179,7 +14172,7 @@
       <c r="R942" s="4"/>
       <c r="U942" s="4"/>
     </row>
-    <row r="943" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="6:21" ht="13">
       <c r="F943" s="4"/>
       <c r="I943" s="4"/>
       <c r="L943" s="4"/>
@@ -14187,7 +14180,7 @@
       <c r="R943" s="4"/>
       <c r="U943" s="4"/>
     </row>
-    <row r="944" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="6:21" ht="13">
       <c r="F944" s="4"/>
       <c r="I944" s="4"/>
       <c r="L944" s="4"/>
@@ -14195,7 +14188,7 @@
       <c r="R944" s="4"/>
       <c r="U944" s="4"/>
     </row>
-    <row r="945" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="6:21" ht="13">
       <c r="F945" s="4"/>
       <c r="I945" s="4"/>
       <c r="L945" s="4"/>
@@ -14203,7 +14196,7 @@
       <c r="R945" s="4"/>
       <c r="U945" s="4"/>
     </row>
-    <row r="946" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="6:21" ht="13">
       <c r="F946" s="4"/>
       <c r="I946" s="4"/>
       <c r="L946" s="4"/>
@@ -14211,7 +14204,7 @@
       <c r="R946" s="4"/>
       <c r="U946" s="4"/>
     </row>
-    <row r="947" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="6:21" ht="13">
       <c r="F947" s="4"/>
       <c r="I947" s="4"/>
       <c r="L947" s="4"/>
@@ -14219,7 +14212,7 @@
       <c r="R947" s="4"/>
       <c r="U947" s="4"/>
     </row>
-    <row r="948" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="6:21" ht="13">
       <c r="F948" s="4"/>
       <c r="I948" s="4"/>
       <c r="L948" s="4"/>
@@ -14227,7 +14220,7 @@
       <c r="R948" s="4"/>
       <c r="U948" s="4"/>
     </row>
-    <row r="949" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="6:21" ht="13">
       <c r="F949" s="4"/>
       <c r="I949" s="4"/>
       <c r="L949" s="4"/>
@@ -14235,7 +14228,7 @@
       <c r="R949" s="4"/>
       <c r="U949" s="4"/>
     </row>
-    <row r="950" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="6:21" ht="13">
       <c r="F950" s="4"/>
       <c r="I950" s="4"/>
       <c r="L950" s="4"/>
@@ -14243,7 +14236,7 @@
       <c r="R950" s="4"/>
       <c r="U950" s="4"/>
     </row>
-    <row r="951" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="6:21" ht="13">
       <c r="F951" s="4"/>
       <c r="I951" s="4"/>
       <c r="L951" s="4"/>
@@ -14251,7 +14244,7 @@
       <c r="R951" s="4"/>
       <c r="U951" s="4"/>
     </row>
-    <row r="952" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="6:21" ht="13">
       <c r="F952" s="4"/>
       <c r="I952" s="4"/>
       <c r="L952" s="4"/>
@@ -14259,7 +14252,7 @@
       <c r="R952" s="4"/>
       <c r="U952" s="4"/>
     </row>
-    <row r="953" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="6:21" ht="13">
       <c r="F953" s="4"/>
       <c r="I953" s="4"/>
       <c r="L953" s="4"/>
@@ -14267,7 +14260,7 @@
       <c r="R953" s="4"/>
       <c r="U953" s="4"/>
     </row>
-    <row r="954" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="6:21" ht="13">
       <c r="F954" s="4"/>
       <c r="I954" s="4"/>
       <c r="L954" s="4"/>
@@ -14275,7 +14268,7 @@
       <c r="R954" s="4"/>
       <c r="U954" s="4"/>
     </row>
-    <row r="955" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="6:21" ht="13">
       <c r="F955" s="4"/>
       <c r="I955" s="4"/>
       <c r="L955" s="4"/>
@@ -14283,7 +14276,7 @@
       <c r="R955" s="4"/>
       <c r="U955" s="4"/>
     </row>
-    <row r="956" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="6:21" ht="13">
       <c r="F956" s="4"/>
       <c r="I956" s="4"/>
       <c r="L956" s="4"/>
@@ -14291,7 +14284,7 @@
       <c r="R956" s="4"/>
       <c r="U956" s="4"/>
     </row>
-    <row r="957" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="6:21" ht="13">
       <c r="F957" s="4"/>
       <c r="I957" s="4"/>
       <c r="L957" s="4"/>
@@ -14299,7 +14292,7 @@
       <c r="R957" s="4"/>
       <c r="U957" s="4"/>
     </row>
-    <row r="958" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="6:21" ht="13">
       <c r="F958" s="4"/>
       <c r="I958" s="4"/>
       <c r="L958" s="4"/>
@@ -14307,7 +14300,7 @@
       <c r="R958" s="4"/>
       <c r="U958" s="4"/>
     </row>
-    <row r="959" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="6:21" ht="13">
       <c r="F959" s="4"/>
       <c r="I959" s="4"/>
       <c r="L959" s="4"/>
@@ -14315,7 +14308,7 @@
       <c r="R959" s="4"/>
       <c r="U959" s="4"/>
     </row>
-    <row r="960" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="6:21" ht="13">
       <c r="F960" s="4"/>
       <c r="I960" s="4"/>
       <c r="L960" s="4"/>
@@ -14323,7 +14316,7 @@
       <c r="R960" s="4"/>
       <c r="U960" s="4"/>
     </row>
-    <row r="961" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="6:21" ht="13">
       <c r="F961" s="4"/>
       <c r="I961" s="4"/>
       <c r="L961" s="4"/>
@@ -14331,7 +14324,7 @@
       <c r="R961" s="4"/>
       <c r="U961" s="4"/>
     </row>
-    <row r="962" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="6:21" ht="13">
       <c r="F962" s="4"/>
       <c r="I962" s="4"/>
       <c r="L962" s="4"/>
@@ -14339,7 +14332,7 @@
       <c r="R962" s="4"/>
       <c r="U962" s="4"/>
     </row>
-    <row r="963" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="6:21" ht="13">
       <c r="F963" s="4"/>
       <c r="I963" s="4"/>
       <c r="L963" s="4"/>
@@ -14347,7 +14340,7 @@
       <c r="R963" s="4"/>
       <c r="U963" s="4"/>
     </row>
-    <row r="964" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="6:21" ht="13">
       <c r="F964" s="4"/>
       <c r="I964" s="4"/>
       <c r="L964" s="4"/>
@@ -14355,7 +14348,7 @@
       <c r="R964" s="4"/>
       <c r="U964" s="4"/>
     </row>
-    <row r="965" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="6:21" ht="13">
       <c r="F965" s="4"/>
       <c r="I965" s="4"/>
       <c r="L965" s="4"/>
@@ -14363,7 +14356,7 @@
       <c r="R965" s="4"/>
       <c r="U965" s="4"/>
     </row>
-    <row r="966" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="6:21" ht="13">
       <c r="F966" s="4"/>
       <c r="I966" s="4"/>
       <c r="L966" s="4"/>
@@ -14371,7 +14364,7 @@
       <c r="R966" s="4"/>
       <c r="U966" s="4"/>
     </row>
-    <row r="967" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="6:21" ht="13">
       <c r="F967" s="4"/>
       <c r="I967" s="4"/>
       <c r="L967" s="4"/>
@@ -14379,7 +14372,7 @@
       <c r="R967" s="4"/>
       <c r="U967" s="4"/>
     </row>
-    <row r="968" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="6:21" ht="13">
       <c r="F968" s="4"/>
       <c r="I968" s="4"/>
       <c r="L968" s="4"/>
@@ -14387,7 +14380,7 @@
       <c r="R968" s="4"/>
       <c r="U968" s="4"/>
     </row>
-    <row r="969" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="6:21" ht="13">
       <c r="F969" s="4"/>
       <c r="I969" s="4"/>
       <c r="L969" s="4"/>
@@ -14395,7 +14388,7 @@
       <c r="R969" s="4"/>
       <c r="U969" s="4"/>
     </row>
-    <row r="970" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="6:21" ht="13">
       <c r="F970" s="4"/>
       <c r="I970" s="4"/>
       <c r="L970" s="4"/>
@@ -14403,7 +14396,7 @@
       <c r="R970" s="4"/>
       <c r="U970" s="4"/>
     </row>
-    <row r="971" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="6:21" ht="13">
       <c r="F971" s="4"/>
       <c r="I971" s="4"/>
       <c r="L971" s="4"/>
@@ -14411,7 +14404,7 @@
       <c r="R971" s="4"/>
       <c r="U971" s="4"/>
     </row>
-    <row r="972" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="6:21" ht="13">
       <c r="F972" s="4"/>
       <c r="I972" s="4"/>
       <c r="L972" s="4"/>
@@ -14419,7 +14412,7 @@
       <c r="R972" s="4"/>
       <c r="U972" s="4"/>
     </row>
-    <row r="973" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="6:21" ht="13">
       <c r="F973" s="4"/>
       <c r="I973" s="4"/>
       <c r="L973" s="4"/>
@@ -14427,7 +14420,7 @@
       <c r="R973" s="4"/>
       <c r="U973" s="4"/>
     </row>
-    <row r="974" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="6:21" ht="13">
       <c r="F974" s="4"/>
       <c r="I974" s="4"/>
       <c r="L974" s="4"/>
@@ -14435,7 +14428,7 @@
       <c r="R974" s="4"/>
       <c r="U974" s="4"/>
     </row>
-    <row r="975" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="6:21" ht="13">
       <c r="F975" s="4"/>
       <c r="I975" s="4"/>
       <c r="L975" s="4"/>
@@ -14443,7 +14436,7 @@
       <c r="R975" s="4"/>
       <c r="U975" s="4"/>
     </row>
-    <row r="976" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="6:21" ht="13">
       <c r="F976" s="4"/>
       <c r="I976" s="4"/>
       <c r="L976" s="4"/>
@@ -14451,7 +14444,7 @@
       <c r="R976" s="4"/>
       <c r="U976" s="4"/>
     </row>
-    <row r="977" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="6:21" ht="13">
       <c r="F977" s="4"/>
       <c r="I977" s="4"/>
       <c r="L977" s="4"/>
@@ -14459,7 +14452,7 @@
       <c r="R977" s="4"/>
       <c r="U977" s="4"/>
     </row>
-    <row r="978" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="6:21" ht="13">
       <c r="F978" s="4"/>
       <c r="I978" s="4"/>
       <c r="L978" s="4"/>
@@ -14467,7 +14460,7 @@
       <c r="R978" s="4"/>
       <c r="U978" s="4"/>
     </row>
-    <row r="979" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="6:21" ht="13">
       <c r="F979" s="4"/>
       <c r="I979" s="4"/>
       <c r="L979" s="4"/>
@@ -14475,7 +14468,7 @@
       <c r="R979" s="4"/>
       <c r="U979" s="4"/>
     </row>
-    <row r="980" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="6:21" ht="13">
       <c r="F980" s="4"/>
       <c r="I980" s="4"/>
       <c r="L980" s="4"/>
@@ -14483,7 +14476,7 @@
       <c r="R980" s="4"/>
       <c r="U980" s="4"/>
     </row>
-    <row r="981" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="6:21" ht="13">
       <c r="F981" s="4"/>
       <c r="I981" s="4"/>
       <c r="L981" s="4"/>
@@ -14491,7 +14484,7 @@
       <c r="R981" s="4"/>
       <c r="U981" s="4"/>
     </row>
-    <row r="982" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="6:21" ht="13">
       <c r="F982" s="4"/>
       <c r="I982" s="4"/>
       <c r="L982" s="4"/>
@@ -14499,7 +14492,7 @@
       <c r="R982" s="4"/>
       <c r="U982" s="4"/>
     </row>
-    <row r="983" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="6:21" ht="13">
       <c r="F983" s="4"/>
       <c r="I983" s="4"/>
       <c r="L983" s="4"/>
@@ -14507,7 +14500,7 @@
       <c r="R983" s="4"/>
       <c r="U983" s="4"/>
     </row>
-    <row r="984" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="6:21" ht="13">
       <c r="F984" s="4"/>
       <c r="I984" s="4"/>
       <c r="L984" s="4"/>
@@ -14515,7 +14508,7 @@
       <c r="R984" s="4"/>
       <c r="U984" s="4"/>
     </row>
-    <row r="985" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="6:21" ht="13">
       <c r="F985" s="4"/>
       <c r="I985" s="4"/>
       <c r="L985" s="4"/>
@@ -14523,7 +14516,7 @@
       <c r="R985" s="4"/>
       <c r="U985" s="4"/>
     </row>
-    <row r="986" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="6:21" ht="13">
       <c r="F986" s="4"/>
       <c r="I986" s="4"/>
       <c r="L986" s="4"/>
@@ -14531,7 +14524,7 @@
       <c r="R986" s="4"/>
       <c r="U986" s="4"/>
     </row>
-    <row r="987" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="6:21" ht="13">
       <c r="F987" s="4"/>
       <c r="I987" s="4"/>
       <c r="L987" s="4"/>
@@ -14539,7 +14532,7 @@
       <c r="R987" s="4"/>
       <c r="U987" s="4"/>
     </row>
-    <row r="988" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="6:21" ht="13">
       <c r="F988" s="4"/>
       <c r="I988" s="4"/>
       <c r="L988" s="4"/>
@@ -14547,7 +14540,7 @@
       <c r="R988" s="4"/>
       <c r="U988" s="4"/>
     </row>
-    <row r="989" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="6:21" ht="13">
       <c r="F989" s="4"/>
       <c r="I989" s="4"/>
       <c r="L989" s="4"/>
@@ -14555,7 +14548,7 @@
       <c r="R989" s="4"/>
       <c r="U989" s="4"/>
     </row>
-    <row r="990" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="6:21" ht="13">
       <c r="F990" s="4"/>
       <c r="I990" s="4"/>
       <c r="L990" s="4"/>
@@ -14563,7 +14556,7 @@
       <c r="R990" s="4"/>
       <c r="U990" s="4"/>
     </row>
-    <row r="991" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="6:21" ht="13">
       <c r="F991" s="4"/>
       <c r="I991" s="4"/>
       <c r="L991" s="4"/>
@@ -14571,7 +14564,7 @@
       <c r="R991" s="4"/>
       <c r="U991" s="4"/>
     </row>
-    <row r="992" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="6:21" ht="13">
       <c r="F992" s="4"/>
       <c r="I992" s="4"/>
       <c r="L992" s="4"/>
@@ -14579,7 +14572,7 @@
       <c r="R992" s="4"/>
       <c r="U992" s="4"/>
     </row>
-    <row r="993" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="6:21" ht="13">
       <c r="F993" s="4"/>
       <c r="I993" s="4"/>
       <c r="L993" s="4"/>
@@ -14587,7 +14580,7 @@
       <c r="R993" s="4"/>
       <c r="U993" s="4"/>
     </row>
-    <row r="994" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="6:21" ht="13">
       <c r="F994" s="4"/>
       <c r="I994" s="4"/>
       <c r="L994" s="4"/>
@@ -14595,7 +14588,7 @@
       <c r="R994" s="4"/>
       <c r="U994" s="4"/>
     </row>
-    <row r="995" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="6:21" ht="13">
       <c r="F995" s="4"/>
       <c r="I995" s="4"/>
       <c r="L995" s="4"/>
@@ -14603,7 +14596,7 @@
       <c r="R995" s="4"/>
       <c r="U995" s="4"/>
     </row>
-    <row r="996" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="6:21" ht="13">
       <c r="F996" s="4"/>
       <c r="I996" s="4"/>
       <c r="L996" s="4"/>
@@ -14611,7 +14604,7 @@
       <c r="R996" s="4"/>
       <c r="U996" s="4"/>
     </row>
-    <row r="997" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="6:21" ht="13">
       <c r="F997" s="4"/>
       <c r="I997" s="4"/>
       <c r="L997" s="4"/>
@@ -14619,7 +14612,7 @@
       <c r="R997" s="4"/>
       <c r="U997" s="4"/>
     </row>
-    <row r="998" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="6:21" ht="13">
       <c r="F998" s="4"/>
       <c r="I998" s="4"/>
       <c r="L998" s="4"/>

--- a/DB_homicidios.xlsx
+++ b/DB_homicidios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunopimentel/Documents/Iteso/6 Semestre/Simulacion de procesos financieross/Proyecto/Proyecto_Modulo1-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\OneDrive\Documentos\Ingenieria Financiera\6to Semestre\Simulacion de Procesos financieros\Proyecto_Modulo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DCC6DC-33F8-E74F-961E-F9FD7202E677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="6_{B02D7020-4B3A-445E-B896-C931B242C551}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{45077035-9188-4256-B3C8-F5E46739ED1A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -87,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -420,21 +418,21 @@
   </sheetPr>
   <dimension ref="A1:U998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K85" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P87" sqref="P87"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" customWidth="1"/>
+    <col min="12" max="12" width="18.1796875" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" customWidth="1"/>
+    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -496,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16">
+    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="19">
         <v>40179</v>
       </c>
@@ -561,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16">
+    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>40210</v>
       </c>
@@ -626,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16">
+    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>40238</v>
       </c>
@@ -691,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16">
+    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>40269</v>
       </c>
@@ -756,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16">
+    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>40299</v>
       </c>
@@ -821,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16">
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>40330</v>
       </c>
@@ -886,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16">
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>40360</v>
       </c>
@@ -951,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16">
+    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>40391</v>
       </c>
@@ -1016,7 +1014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16">
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>40422</v>
       </c>
@@ -1081,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16">
+    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>40452</v>
       </c>
@@ -1146,7 +1144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16">
+    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>40483</v>
       </c>
@@ -1211,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16">
+    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>40513</v>
       </c>
@@ -1276,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16">
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>40544</v>
       </c>
@@ -1341,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16">
+    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>40575</v>
       </c>
@@ -1406,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16">
+    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>40603</v>
       </c>
@@ -1471,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16">
+    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>40634</v>
       </c>
@@ -1536,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16">
+    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <v>40664</v>
       </c>
@@ -1601,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16">
+    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>40695</v>
       </c>
@@ -1666,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16">
+    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <v>40725</v>
       </c>
@@ -1731,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16">
+    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <v>40756</v>
       </c>
@@ -1796,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16">
+    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="19">
         <v>40787</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16">
+    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="19">
         <v>40817</v>
       </c>
@@ -1926,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16">
+    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="19">
         <v>40848</v>
       </c>
@@ -1991,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16">
+    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
         <v>40878</v>
       </c>
@@ -2056,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16">
+    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="19">
         <v>40909</v>
       </c>
@@ -2121,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16">
+    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="19">
         <v>40940</v>
       </c>
@@ -2186,7 +2184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16">
+    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="19">
         <v>40969</v>
       </c>
@@ -2251,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16">
+    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="19">
         <v>41000</v>
       </c>
@@ -2316,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16">
+    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="19">
         <v>41030</v>
       </c>
@@ -2381,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16">
+    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="19">
         <v>41061</v>
       </c>
@@ -2446,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16">
+    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="19">
         <v>41091</v>
       </c>
@@ -2511,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16">
+    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="19">
         <v>41122</v>
       </c>
@@ -2576,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16">
+    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="19">
         <v>41153</v>
       </c>
@@ -2641,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16">
+    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="19">
         <v>41183</v>
       </c>
@@ -2706,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="16">
+    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="19">
         <v>41214</v>
       </c>
@@ -2771,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="16">
+    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="19">
         <v>41244</v>
       </c>
@@ -2836,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="16">
+    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="19">
         <v>41275</v>
       </c>
@@ -2901,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="16">
+    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="19">
         <v>41306</v>
       </c>
@@ -2966,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="16">
+    <row r="40" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="19">
         <v>41334</v>
       </c>
@@ -3031,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16">
+    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="19">
         <v>41365</v>
       </c>
@@ -3096,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="16">
+    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="19">
         <v>41395</v>
       </c>
@@ -3161,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="16">
+    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="19">
         <v>41426</v>
       </c>
@@ -3226,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="16">
+    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="19">
         <v>41456</v>
       </c>
@@ -3291,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="16">
+    <row r="45" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <v>41487</v>
       </c>
@@ -3356,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="16">
+    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="19">
         <v>41518</v>
       </c>
@@ -3421,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="16">
+    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="19">
         <v>41548</v>
       </c>
@@ -3486,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="16">
+    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="19">
         <v>41579</v>
       </c>
@@ -3551,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16">
+    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="19">
         <v>41609</v>
       </c>
@@ -3616,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16">
+    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="19">
         <v>41640</v>
       </c>
@@ -3681,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16">
+    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="19">
         <v>41671</v>
       </c>
@@ -3746,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="16">
+    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="19">
         <v>41699</v>
       </c>
@@ -3811,7 +3809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="16">
+    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="19">
         <v>41730</v>
       </c>
@@ -3876,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16">
+    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="19">
         <v>41760</v>
       </c>
@@ -3941,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16">
+    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="19">
         <v>41791</v>
       </c>
@@ -4006,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="16">
+    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="19">
         <v>41821</v>
       </c>
@@ -4071,7 +4069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="16">
+    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="19">
         <v>41852</v>
       </c>
@@ -4136,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="16">
+    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="19">
         <v>41883</v>
       </c>
@@ -4201,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="16">
+    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="19">
         <v>41913</v>
       </c>
@@ -4266,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="16">
+    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="19">
         <v>41944</v>
       </c>
@@ -4331,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="16">
+    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="19">
         <v>41974</v>
       </c>
@@ -4396,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="16">
+    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="19">
         <v>42005</v>
       </c>
@@ -4461,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="16">
+    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="19">
         <v>42036</v>
       </c>
@@ -4526,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16">
+    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="19">
         <v>42064</v>
       </c>
@@ -4591,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="16">
+    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="19">
         <v>42095</v>
       </c>
@@ -4656,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="16">
+    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="19">
         <v>42125</v>
       </c>
@@ -4721,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="16">
+    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="19">
         <v>42156</v>
       </c>
@@ -4786,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="16">
+    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="19">
         <v>42186</v>
       </c>
@@ -4851,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="16">
+    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="19">
         <v>42217</v>
       </c>
@@ -4916,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="16">
+    <row r="70" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="19">
         <v>42248</v>
       </c>
@@ -4981,7 +4979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16">
+    <row r="71" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="19">
         <v>42278</v>
       </c>
@@ -5046,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="16">
+    <row r="72" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="19">
         <v>42309</v>
       </c>
@@ -5111,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="16">
+    <row r="73" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="19">
         <v>42339</v>
       </c>
@@ -5176,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="16">
+    <row r="74" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="19">
         <v>42370</v>
       </c>
@@ -5241,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="16">
+    <row r="75" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="19">
         <v>42401</v>
       </c>
@@ -5291,7 +5289,7 @@
         <v>108</v>
       </c>
       <c r="Q75" s="12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="R75" s="3">
         <v>0</v>
@@ -5306,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="16">
+    <row r="76" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="19">
         <v>42430</v>
       </c>
@@ -5371,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="16">
+    <row r="77" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="19">
         <v>42461</v>
       </c>
@@ -5436,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="16">
+    <row r="78" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="19">
         <v>42491</v>
       </c>
@@ -5486,7 +5484,7 @@
         <v>115</v>
       </c>
       <c r="Q78" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="R78" s="3">
         <v>0</v>
@@ -5501,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="16">
+    <row r="79" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="19">
         <v>42522</v>
       </c>
@@ -5566,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="16">
+    <row r="80" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="19">
         <v>42552</v>
       </c>
@@ -5616,7 +5614,7 @@
         <v>140</v>
       </c>
       <c r="Q80" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="R80" s="3">
         <v>0</v>
@@ -5631,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="16">
+    <row r="81" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="19">
         <v>42583</v>
       </c>
@@ -5696,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="16">
+    <row r="82" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="19">
         <v>42614</v>
       </c>
@@ -5761,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="16">
+    <row r="83" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="19">
         <v>42644</v>
       </c>
@@ -5811,7 +5809,7 @@
         <v>107</v>
       </c>
       <c r="Q83" s="12">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5826,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="16">
+    <row r="84" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="19">
         <v>42675</v>
       </c>
@@ -5876,7 +5874,7 @@
         <v>130</v>
       </c>
       <c r="Q84" s="12">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="R84" s="3">
         <v>0</v>
@@ -5891,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="16">
+    <row r="85" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="19">
         <v>42705</v>
       </c>
@@ -5956,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="16">
+    <row r="86" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="19">
         <v>42736</v>
       </c>
@@ -6019,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="16">
+    <row r="87" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="19">
         <v>42767</v>
       </c>
@@ -6082,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="16">
+    <row r="88" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="19">
         <v>42795</v>
       </c>
@@ -6145,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="16">
+    <row r="89" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="19">
         <v>42826</v>
       </c>
@@ -6208,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="16">
+    <row r="90" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="19">
         <v>42856</v>
       </c>
@@ -6256,7 +6254,7 @@
         <v>404</v>
       </c>
       <c r="Q90" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="R90" s="3">
         <v>0</v>
@@ -6271,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="16">
+    <row r="91" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="19">
         <v>42887</v>
       </c>
@@ -6334,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="16">
+    <row r="92" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="19">
         <v>42917</v>
       </c>
@@ -6399,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="16">
+    <row r="93" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="19">
         <v>42948</v>
       </c>
@@ -6462,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="16">
+    <row r="94" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="19">
         <v>42979</v>
       </c>
@@ -6527,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="16">
+    <row r="95" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="19">
         <v>43009</v>
       </c>
@@ -6590,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="16">
+    <row r="96" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="19">
         <v>43040</v>
       </c>
@@ -6653,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="16">
+    <row r="97" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="19">
         <v>43070</v>
       </c>
@@ -6716,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="16">
+    <row r="98" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="19">
         <v>43101</v>
       </c>
@@ -6781,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="16">
+    <row r="99" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="19">
         <v>43132</v>
       </c>
@@ -6846,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="16">
+    <row r="100" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="19">
         <v>43160</v>
       </c>
@@ -6909,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="16">
+    <row r="101" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="19">
         <v>43191</v>
       </c>
@@ -6974,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16">
+    <row r="102" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="19">
         <v>43221</v>
       </c>
@@ -7039,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="16">
+    <row r="103" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="19">
         <v>43252</v>
       </c>
@@ -7102,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="16">
+    <row r="104" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="19">
         <v>43282</v>
       </c>
@@ -7165,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="16">
+    <row r="105" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="19">
         <v>43313</v>
       </c>
@@ -7228,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="16">
+    <row r="106" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="19">
         <v>43344</v>
       </c>
@@ -7291,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="16">
+    <row r="107" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="19">
         <v>43374</v>
       </c>
@@ -7354,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="16">
+    <row r="108" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="19">
         <v>43405</v>
       </c>
@@ -7417,7 +7415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="16">
+    <row r="109" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="19">
         <v>43435</v>
       </c>
@@ -7480,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="15">
+    <row r="110" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="17"/>
       <c r="F110" s="4"/>
       <c r="I110" s="4"/>
@@ -7491,7 +7489,7 @@
       <c r="R110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="13">
+    <row r="111" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="F111" s="4"/>
       <c r="I111" s="4"/>
@@ -7500,7 +7498,7 @@
       <c r="R111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="13">
+    <row r="112" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
       <c r="F112" s="4"/>
       <c r="I112" s="4"/>
@@ -7509,7 +7507,7 @@
       <c r="R112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="13">
+    <row r="113" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="F113" s="4"/>
       <c r="I113" s="4"/>
@@ -7518,7 +7516,7 @@
       <c r="R113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="13">
+    <row r="114" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="F114" s="4"/>
       <c r="I114" s="4"/>
@@ -7527,7 +7525,7 @@
       <c r="R114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="13">
+    <row r="115" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
       <c r="F115" s="4"/>
       <c r="I115" s="4"/>
@@ -7536,7 +7534,7 @@
       <c r="R115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="13">
+    <row r="116" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="F116" s="4"/>
       <c r="I116" s="4"/>
@@ -7545,7 +7543,7 @@
       <c r="R116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="13">
+    <row r="117" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="F117" s="4"/>
       <c r="I117" s="4"/>
@@ -7554,7 +7552,7 @@
       <c r="R117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="13">
+    <row r="118" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="F118" s="4"/>
       <c r="I118" s="4"/>
@@ -7563,7 +7561,7 @@
       <c r="R118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="13">
+    <row r="119" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
       <c r="F119" s="4"/>
       <c r="I119" s="4"/>
@@ -7572,7 +7570,7 @@
       <c r="R119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="13">
+    <row r="120" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="F120" s="4"/>
       <c r="I120" s="4"/>
@@ -7581,7 +7579,7 @@
       <c r="R120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="13">
+    <row r="121" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="F121" s="4"/>
       <c r="I121" s="4"/>
@@ -7590,7 +7588,7 @@
       <c r="R121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="13">
+    <row r="122" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="F122" s="4"/>
       <c r="I122" s="4"/>
@@ -7599,7 +7597,7 @@
       <c r="R122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="13">
+    <row r="123" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="F123" s="4"/>
       <c r="I123" s="4"/>
@@ -7608,7 +7606,7 @@
       <c r="R123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="13">
+    <row r="124" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="F124" s="4"/>
       <c r="I124" s="4"/>
@@ -7617,7 +7615,7 @@
       <c r="R124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="13">
+    <row r="125" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="F125" s="4"/>
       <c r="I125" s="4"/>
@@ -7626,7 +7624,7 @@
       <c r="R125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="13">
+    <row r="126" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="17"/>
       <c r="F126" s="4"/>
       <c r="I126" s="4"/>
@@ -7635,7 +7633,7 @@
       <c r="R126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="13">
+    <row r="127" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="F127" s="4"/>
       <c r="I127" s="4"/>
@@ -7644,7 +7642,7 @@
       <c r="R127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="13">
+    <row r="128" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="F128" s="4"/>
       <c r="I128" s="4"/>
@@ -7653,7 +7651,7 @@
       <c r="R128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="13">
+    <row r="129" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="F129" s="4"/>
       <c r="I129" s="4"/>
@@ -7662,7 +7660,7 @@
       <c r="R129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="13">
+    <row r="130" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="F130" s="4"/>
       <c r="I130" s="4"/>
@@ -7671,7 +7669,7 @@
       <c r="R130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="13">
+    <row r="131" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="F131" s="4"/>
       <c r="I131" s="4"/>
@@ -7680,7 +7678,7 @@
       <c r="R131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="13">
+    <row r="132" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="F132" s="4"/>
       <c r="I132" s="4"/>
@@ -7689,7 +7687,7 @@
       <c r="R132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="13">
+    <row r="133" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="F133" s="4"/>
       <c r="I133" s="4"/>
@@ -7698,7 +7696,7 @@
       <c r="R133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="13">
+    <row r="134" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="F134" s="4"/>
       <c r="I134" s="4"/>
@@ -7707,7 +7705,7 @@
       <c r="R134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" ht="13">
+    <row r="135" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="F135" s="4"/>
       <c r="I135" s="4"/>
@@ -7716,7 +7714,7 @@
       <c r="R135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21" ht="13">
+    <row r="136" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F136" s="4"/>
       <c r="I136" s="4"/>
       <c r="L136" s="4"/>
@@ -7724,7 +7722,7 @@
       <c r="R136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" ht="13">
+    <row r="137" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F137" s="4"/>
       <c r="I137" s="4"/>
       <c r="L137" s="4"/>
@@ -7732,7 +7730,7 @@
       <c r="R137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21" ht="13">
+    <row r="138" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F138" s="4"/>
       <c r="I138" s="4"/>
       <c r="L138" s="4"/>
@@ -7740,7 +7738,7 @@
       <c r="R138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21" ht="13">
+    <row r="139" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F139" s="4"/>
       <c r="I139" s="4"/>
       <c r="L139" s="4"/>
@@ -7748,7 +7746,7 @@
       <c r="R139" s="4"/>
       <c r="U139" s="4"/>
     </row>
-    <row r="140" spans="1:21" ht="13">
+    <row r="140" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F140" s="4"/>
       <c r="I140" s="4"/>
       <c r="L140" s="4"/>
@@ -7756,7 +7754,7 @@
       <c r="R140" s="4"/>
       <c r="U140" s="4"/>
     </row>
-    <row r="141" spans="1:21" ht="13">
+    <row r="141" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F141" s="4"/>
       <c r="I141" s="4"/>
       <c r="L141" s="4"/>
@@ -7764,7 +7762,7 @@
       <c r="R141" s="4"/>
       <c r="U141" s="4"/>
     </row>
-    <row r="142" spans="1:21" ht="13">
+    <row r="142" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F142" s="4"/>
       <c r="I142" s="4"/>
       <c r="L142" s="4"/>
@@ -7772,7 +7770,7 @@
       <c r="R142" s="4"/>
       <c r="U142" s="4"/>
     </row>
-    <row r="143" spans="1:21" ht="13">
+    <row r="143" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F143" s="4"/>
       <c r="I143" s="4"/>
       <c r="L143" s="4"/>
@@ -7780,7 +7778,7 @@
       <c r="R143" s="4"/>
       <c r="U143" s="4"/>
     </row>
-    <row r="144" spans="1:21" ht="13">
+    <row r="144" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F144" s="4"/>
       <c r="I144" s="4"/>
       <c r="L144" s="4"/>
@@ -7788,7 +7786,7 @@
       <c r="R144" s="4"/>
       <c r="U144" s="4"/>
     </row>
-    <row r="145" spans="6:21" ht="13">
+    <row r="145" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F145" s="4"/>
       <c r="I145" s="4"/>
       <c r="L145" s="4"/>
@@ -7796,7 +7794,7 @@
       <c r="R145" s="4"/>
       <c r="U145" s="4"/>
     </row>
-    <row r="146" spans="6:21" ht="13">
+    <row r="146" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F146" s="4"/>
       <c r="I146" s="4"/>
       <c r="L146" s="4"/>
@@ -7804,7 +7802,7 @@
       <c r="R146" s="4"/>
       <c r="U146" s="4"/>
     </row>
-    <row r="147" spans="6:21" ht="13">
+    <row r="147" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F147" s="4"/>
       <c r="I147" s="4"/>
       <c r="L147" s="4"/>
@@ -7812,7 +7810,7 @@
       <c r="R147" s="4"/>
       <c r="U147" s="4"/>
     </row>
-    <row r="148" spans="6:21" ht="13">
+    <row r="148" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F148" s="4"/>
       <c r="I148" s="4"/>
       <c r="L148" s="4"/>
@@ -7820,7 +7818,7 @@
       <c r="R148" s="4"/>
       <c r="U148" s="4"/>
     </row>
-    <row r="149" spans="6:21" ht="13">
+    <row r="149" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F149" s="4"/>
       <c r="I149" s="4"/>
       <c r="L149" s="4"/>
@@ -7828,7 +7826,7 @@
       <c r="R149" s="4"/>
       <c r="U149" s="4"/>
     </row>
-    <row r="150" spans="6:21" ht="13">
+    <row r="150" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F150" s="4"/>
       <c r="I150" s="4"/>
       <c r="L150" s="4"/>
@@ -7836,7 +7834,7 @@
       <c r="R150" s="4"/>
       <c r="U150" s="4"/>
     </row>
-    <row r="151" spans="6:21" ht="13">
+    <row r="151" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F151" s="4"/>
       <c r="I151" s="4"/>
       <c r="L151" s="4"/>
@@ -7844,7 +7842,7 @@
       <c r="R151" s="4"/>
       <c r="U151" s="4"/>
     </row>
-    <row r="152" spans="6:21" ht="13">
+    <row r="152" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F152" s="4"/>
       <c r="I152" s="4"/>
       <c r="L152" s="4"/>
@@ -7852,7 +7850,7 @@
       <c r="R152" s="4"/>
       <c r="U152" s="4"/>
     </row>
-    <row r="153" spans="6:21" ht="13">
+    <row r="153" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F153" s="4"/>
       <c r="I153" s="4"/>
       <c r="L153" s="4"/>
@@ -7860,7 +7858,7 @@
       <c r="R153" s="4"/>
       <c r="U153" s="4"/>
     </row>
-    <row r="154" spans="6:21" ht="13">
+    <row r="154" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F154" s="4"/>
       <c r="I154" s="4"/>
       <c r="L154" s="4"/>
@@ -7868,7 +7866,7 @@
       <c r="R154" s="4"/>
       <c r="U154" s="4"/>
     </row>
-    <row r="155" spans="6:21" ht="13">
+    <row r="155" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F155" s="4"/>
       <c r="I155" s="4"/>
       <c r="L155" s="4"/>
@@ -7876,7 +7874,7 @@
       <c r="R155" s="4"/>
       <c r="U155" s="4"/>
     </row>
-    <row r="156" spans="6:21" ht="13">
+    <row r="156" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F156" s="4"/>
       <c r="I156" s="4"/>
       <c r="L156" s="4"/>
@@ -7884,7 +7882,7 @@
       <c r="R156" s="4"/>
       <c r="U156" s="4"/>
     </row>
-    <row r="157" spans="6:21" ht="13">
+    <row r="157" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F157" s="4"/>
       <c r="I157" s="4"/>
       <c r="L157" s="4"/>
@@ -7892,7 +7890,7 @@
       <c r="R157" s="4"/>
       <c r="U157" s="4"/>
     </row>
-    <row r="158" spans="6:21" ht="13">
+    <row r="158" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F158" s="4"/>
       <c r="I158" s="4"/>
       <c r="L158" s="4"/>
@@ -7900,7 +7898,7 @@
       <c r="R158" s="4"/>
       <c r="U158" s="4"/>
     </row>
-    <row r="159" spans="6:21" ht="13">
+    <row r="159" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F159" s="4"/>
       <c r="I159" s="4"/>
       <c r="L159" s="4"/>
@@ -7908,7 +7906,7 @@
       <c r="R159" s="4"/>
       <c r="U159" s="4"/>
     </row>
-    <row r="160" spans="6:21" ht="13">
+    <row r="160" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F160" s="4"/>
       <c r="I160" s="4"/>
       <c r="L160" s="4"/>
@@ -7916,7 +7914,7 @@
       <c r="R160" s="4"/>
       <c r="U160" s="4"/>
     </row>
-    <row r="161" spans="6:21" ht="13">
+    <row r="161" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F161" s="4"/>
       <c r="I161" s="4"/>
       <c r="L161" s="4"/>
@@ -7924,7 +7922,7 @@
       <c r="R161" s="4"/>
       <c r="U161" s="4"/>
     </row>
-    <row r="162" spans="6:21" ht="13">
+    <row r="162" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F162" s="4"/>
       <c r="I162" s="4"/>
       <c r="L162" s="4"/>
@@ -7932,7 +7930,7 @@
       <c r="R162" s="4"/>
       <c r="U162" s="4"/>
     </row>
-    <row r="163" spans="6:21" ht="13">
+    <row r="163" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F163" s="4"/>
       <c r="I163" s="4"/>
       <c r="L163" s="4"/>
@@ -7940,7 +7938,7 @@
       <c r="R163" s="4"/>
       <c r="U163" s="4"/>
     </row>
-    <row r="164" spans="6:21" ht="13">
+    <row r="164" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F164" s="4"/>
       <c r="I164" s="4"/>
       <c r="L164" s="4"/>
@@ -7948,7 +7946,7 @@
       <c r="R164" s="4"/>
       <c r="U164" s="4"/>
     </row>
-    <row r="165" spans="6:21" ht="13">
+    <row r="165" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F165" s="4"/>
       <c r="I165" s="4"/>
       <c r="L165" s="4"/>
@@ -7956,7 +7954,7 @@
       <c r="R165" s="4"/>
       <c r="U165" s="4"/>
     </row>
-    <row r="166" spans="6:21" ht="13">
+    <row r="166" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F166" s="4"/>
       <c r="I166" s="4"/>
       <c r="L166" s="4"/>
@@ -7964,7 +7962,7 @@
       <c r="R166" s="4"/>
       <c r="U166" s="4"/>
     </row>
-    <row r="167" spans="6:21" ht="13">
+    <row r="167" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F167" s="4"/>
       <c r="I167" s="4"/>
       <c r="L167" s="4"/>
@@ -7972,7 +7970,7 @@
       <c r="R167" s="4"/>
       <c r="U167" s="4"/>
     </row>
-    <row r="168" spans="6:21" ht="13">
+    <row r="168" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F168" s="4"/>
       <c r="I168" s="4"/>
       <c r="L168" s="4"/>
@@ -7980,7 +7978,7 @@
       <c r="R168" s="4"/>
       <c r="U168" s="4"/>
     </row>
-    <row r="169" spans="6:21" ht="13">
+    <row r="169" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F169" s="4"/>
       <c r="I169" s="4"/>
       <c r="L169" s="4"/>
@@ -7988,7 +7986,7 @@
       <c r="R169" s="4"/>
       <c r="U169" s="4"/>
     </row>
-    <row r="170" spans="6:21" ht="13">
+    <row r="170" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F170" s="4"/>
       <c r="I170" s="4"/>
       <c r="L170" s="4"/>
@@ -7996,7 +7994,7 @@
       <c r="R170" s="4"/>
       <c r="U170" s="4"/>
     </row>
-    <row r="171" spans="6:21" ht="13">
+    <row r="171" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F171" s="4"/>
       <c r="I171" s="4"/>
       <c r="L171" s="4"/>
@@ -8004,7 +8002,7 @@
       <c r="R171" s="4"/>
       <c r="U171" s="4"/>
     </row>
-    <row r="172" spans="6:21" ht="13">
+    <row r="172" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F172" s="4"/>
       <c r="I172" s="4"/>
       <c r="L172" s="4"/>
@@ -8012,7 +8010,7 @@
       <c r="R172" s="4"/>
       <c r="U172" s="4"/>
     </row>
-    <row r="173" spans="6:21" ht="13">
+    <row r="173" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F173" s="4"/>
       <c r="I173" s="4"/>
       <c r="L173" s="4"/>
@@ -8020,7 +8018,7 @@
       <c r="R173" s="4"/>
       <c r="U173" s="4"/>
     </row>
-    <row r="174" spans="6:21" ht="13">
+    <row r="174" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F174" s="4"/>
       <c r="I174" s="4"/>
       <c r="L174" s="4"/>
@@ -8028,7 +8026,7 @@
       <c r="R174" s="4"/>
       <c r="U174" s="4"/>
     </row>
-    <row r="175" spans="6:21" ht="13">
+    <row r="175" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F175" s="4"/>
       <c r="I175" s="4"/>
       <c r="L175" s="4"/>
@@ -8036,7 +8034,7 @@
       <c r="R175" s="4"/>
       <c r="U175" s="4"/>
     </row>
-    <row r="176" spans="6:21" ht="13">
+    <row r="176" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F176" s="4"/>
       <c r="I176" s="4"/>
       <c r="L176" s="4"/>
@@ -8044,7 +8042,7 @@
       <c r="R176" s="4"/>
       <c r="U176" s="4"/>
     </row>
-    <row r="177" spans="6:21" ht="13">
+    <row r="177" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F177" s="4"/>
       <c r="I177" s="4"/>
       <c r="L177" s="4"/>
@@ -8052,7 +8050,7 @@
       <c r="R177" s="4"/>
       <c r="U177" s="4"/>
     </row>
-    <row r="178" spans="6:21" ht="13">
+    <row r="178" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F178" s="4"/>
       <c r="I178" s="4"/>
       <c r="L178" s="4"/>
@@ -8060,7 +8058,7 @@
       <c r="R178" s="4"/>
       <c r="U178" s="4"/>
     </row>
-    <row r="179" spans="6:21" ht="13">
+    <row r="179" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F179" s="4"/>
       <c r="I179" s="4"/>
       <c r="L179" s="4"/>
@@ -8068,7 +8066,7 @@
       <c r="R179" s="4"/>
       <c r="U179" s="4"/>
     </row>
-    <row r="180" spans="6:21" ht="13">
+    <row r="180" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F180" s="4"/>
       <c r="I180" s="4"/>
       <c r="L180" s="4"/>
@@ -8076,7 +8074,7 @@
       <c r="R180" s="4"/>
       <c r="U180" s="4"/>
     </row>
-    <row r="181" spans="6:21" ht="13">
+    <row r="181" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F181" s="4"/>
       <c r="I181" s="4"/>
       <c r="L181" s="4"/>
@@ -8084,7 +8082,7 @@
       <c r="R181" s="4"/>
       <c r="U181" s="4"/>
     </row>
-    <row r="182" spans="6:21" ht="13">
+    <row r="182" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F182" s="4"/>
       <c r="I182" s="4"/>
       <c r="L182" s="4"/>
@@ -8092,7 +8090,7 @@
       <c r="R182" s="4"/>
       <c r="U182" s="4"/>
     </row>
-    <row r="183" spans="6:21" ht="13">
+    <row r="183" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F183" s="4"/>
       <c r="I183" s="4"/>
       <c r="L183" s="4"/>
@@ -8100,7 +8098,7 @@
       <c r="R183" s="4"/>
       <c r="U183" s="4"/>
     </row>
-    <row r="184" spans="6:21" ht="13">
+    <row r="184" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F184" s="4"/>
       <c r="I184" s="4"/>
       <c r="L184" s="4"/>
@@ -8108,7 +8106,7 @@
       <c r="R184" s="4"/>
       <c r="U184" s="4"/>
     </row>
-    <row r="185" spans="6:21" ht="13">
+    <row r="185" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F185" s="4"/>
       <c r="I185" s="4"/>
       <c r="L185" s="4"/>
@@ -8116,7 +8114,7 @@
       <c r="R185" s="4"/>
       <c r="U185" s="4"/>
     </row>
-    <row r="186" spans="6:21" ht="13">
+    <row r="186" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F186" s="4"/>
       <c r="I186" s="4"/>
       <c r="L186" s="4"/>
@@ -8124,7 +8122,7 @@
       <c r="R186" s="4"/>
       <c r="U186" s="4"/>
     </row>
-    <row r="187" spans="6:21" ht="13">
+    <row r="187" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F187" s="4"/>
       <c r="I187" s="4"/>
       <c r="L187" s="4"/>
@@ -8132,7 +8130,7 @@
       <c r="R187" s="4"/>
       <c r="U187" s="4"/>
     </row>
-    <row r="188" spans="6:21" ht="13">
+    <row r="188" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F188" s="4"/>
       <c r="I188" s="4"/>
       <c r="L188" s="4"/>
@@ -8140,7 +8138,7 @@
       <c r="R188" s="4"/>
       <c r="U188" s="4"/>
     </row>
-    <row r="189" spans="6:21" ht="13">
+    <row r="189" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F189" s="4"/>
       <c r="I189" s="4"/>
       <c r="L189" s="4"/>
@@ -8148,7 +8146,7 @@
       <c r="R189" s="4"/>
       <c r="U189" s="4"/>
     </row>
-    <row r="190" spans="6:21" ht="13">
+    <row r="190" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F190" s="4"/>
       <c r="I190" s="4"/>
       <c r="L190" s="4"/>
@@ -8156,7 +8154,7 @@
       <c r="R190" s="4"/>
       <c r="U190" s="4"/>
     </row>
-    <row r="191" spans="6:21" ht="13">
+    <row r="191" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F191" s="4"/>
       <c r="I191" s="4"/>
       <c r="L191" s="4"/>
@@ -8164,7 +8162,7 @@
       <c r="R191" s="4"/>
       <c r="U191" s="4"/>
     </row>
-    <row r="192" spans="6:21" ht="13">
+    <row r="192" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F192" s="4"/>
       <c r="I192" s="4"/>
       <c r="L192" s="4"/>
@@ -8172,7 +8170,7 @@
       <c r="R192" s="4"/>
       <c r="U192" s="4"/>
     </row>
-    <row r="193" spans="6:21" ht="13">
+    <row r="193" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F193" s="4"/>
       <c r="I193" s="4"/>
       <c r="L193" s="4"/>
@@ -8180,7 +8178,7 @@
       <c r="R193" s="4"/>
       <c r="U193" s="4"/>
     </row>
-    <row r="194" spans="6:21" ht="13">
+    <row r="194" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F194" s="4"/>
       <c r="I194" s="4"/>
       <c r="L194" s="4"/>
@@ -8188,7 +8186,7 @@
       <c r="R194" s="4"/>
       <c r="U194" s="4"/>
     </row>
-    <row r="195" spans="6:21" ht="13">
+    <row r="195" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F195" s="4"/>
       <c r="I195" s="4"/>
       <c r="L195" s="4"/>
@@ -8196,7 +8194,7 @@
       <c r="R195" s="4"/>
       <c r="U195" s="4"/>
     </row>
-    <row r="196" spans="6:21" ht="13">
+    <row r="196" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F196" s="4"/>
       <c r="I196" s="4"/>
       <c r="L196" s="4"/>
@@ -8204,7 +8202,7 @@
       <c r="R196" s="4"/>
       <c r="U196" s="4"/>
     </row>
-    <row r="197" spans="6:21" ht="13">
+    <row r="197" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F197" s="4"/>
       <c r="I197" s="4"/>
       <c r="L197" s="4"/>
@@ -8212,7 +8210,7 @@
       <c r="R197" s="4"/>
       <c r="U197" s="4"/>
     </row>
-    <row r="198" spans="6:21" ht="13">
+    <row r="198" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F198" s="4"/>
       <c r="I198" s="4"/>
       <c r="L198" s="4"/>
@@ -8220,7 +8218,7 @@
       <c r="R198" s="4"/>
       <c r="U198" s="4"/>
     </row>
-    <row r="199" spans="6:21" ht="13">
+    <row r="199" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F199" s="4"/>
       <c r="I199" s="4"/>
       <c r="L199" s="4"/>
@@ -8228,7 +8226,7 @@
       <c r="R199" s="4"/>
       <c r="U199" s="4"/>
     </row>
-    <row r="200" spans="6:21" ht="13">
+    <row r="200" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F200" s="4"/>
       <c r="I200" s="4"/>
       <c r="L200" s="4"/>
@@ -8236,7 +8234,7 @@
       <c r="R200" s="4"/>
       <c r="U200" s="4"/>
     </row>
-    <row r="201" spans="6:21" ht="13">
+    <row r="201" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F201" s="4"/>
       <c r="I201" s="4"/>
       <c r="L201" s="4"/>
@@ -8244,7 +8242,7 @@
       <c r="R201" s="4"/>
       <c r="U201" s="4"/>
     </row>
-    <row r="202" spans="6:21" ht="13">
+    <row r="202" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F202" s="4"/>
       <c r="I202" s="4"/>
       <c r="L202" s="4"/>
@@ -8252,7 +8250,7 @@
       <c r="R202" s="4"/>
       <c r="U202" s="4"/>
     </row>
-    <row r="203" spans="6:21" ht="13">
+    <row r="203" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F203" s="4"/>
       <c r="I203" s="4"/>
       <c r="L203" s="4"/>
@@ -8260,7 +8258,7 @@
       <c r="R203" s="4"/>
       <c r="U203" s="4"/>
     </row>
-    <row r="204" spans="6:21" ht="13">
+    <row r="204" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F204" s="4"/>
       <c r="I204" s="4"/>
       <c r="L204" s="4"/>
@@ -8268,7 +8266,7 @@
       <c r="R204" s="4"/>
       <c r="U204" s="4"/>
     </row>
-    <row r="205" spans="6:21" ht="13">
+    <row r="205" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F205" s="4"/>
       <c r="I205" s="4"/>
       <c r="L205" s="4"/>
@@ -8276,7 +8274,7 @@
       <c r="R205" s="4"/>
       <c r="U205" s="4"/>
     </row>
-    <row r="206" spans="6:21" ht="13">
+    <row r="206" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F206" s="4"/>
       <c r="I206" s="4"/>
       <c r="L206" s="4"/>
@@ -8284,7 +8282,7 @@
       <c r="R206" s="4"/>
       <c r="U206" s="4"/>
     </row>
-    <row r="207" spans="6:21" ht="13">
+    <row r="207" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F207" s="4"/>
       <c r="I207" s="4"/>
       <c r="L207" s="4"/>
@@ -8292,7 +8290,7 @@
       <c r="R207" s="4"/>
       <c r="U207" s="4"/>
     </row>
-    <row r="208" spans="6:21" ht="13">
+    <row r="208" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F208" s="4"/>
       <c r="I208" s="4"/>
       <c r="L208" s="4"/>
@@ -8300,7 +8298,7 @@
       <c r="R208" s="4"/>
       <c r="U208" s="4"/>
     </row>
-    <row r="209" spans="6:21" ht="13">
+    <row r="209" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F209" s="4"/>
       <c r="I209" s="4"/>
       <c r="L209" s="4"/>
@@ -8308,7 +8306,7 @@
       <c r="R209" s="4"/>
       <c r="U209" s="4"/>
     </row>
-    <row r="210" spans="6:21" ht="13">
+    <row r="210" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F210" s="4"/>
       <c r="I210" s="4"/>
       <c r="L210" s="4"/>
@@ -8316,7 +8314,7 @@
       <c r="R210" s="4"/>
       <c r="U210" s="4"/>
     </row>
-    <row r="211" spans="6:21" ht="13">
+    <row r="211" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F211" s="4"/>
       <c r="I211" s="4"/>
       <c r="L211" s="4"/>
@@ -8324,7 +8322,7 @@
       <c r="R211" s="4"/>
       <c r="U211" s="4"/>
     </row>
-    <row r="212" spans="6:21" ht="13">
+    <row r="212" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F212" s="4"/>
       <c r="I212" s="4"/>
       <c r="L212" s="4"/>
@@ -8332,7 +8330,7 @@
       <c r="R212" s="4"/>
       <c r="U212" s="4"/>
     </row>
-    <row r="213" spans="6:21" ht="13">
+    <row r="213" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F213" s="4"/>
       <c r="I213" s="4"/>
       <c r="L213" s="4"/>
@@ -8340,7 +8338,7 @@
       <c r="R213" s="4"/>
       <c r="U213" s="4"/>
     </row>
-    <row r="214" spans="6:21" ht="13">
+    <row r="214" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F214" s="4"/>
       <c r="I214" s="4"/>
       <c r="L214" s="4"/>
@@ -8348,7 +8346,7 @@
       <c r="R214" s="4"/>
       <c r="U214" s="4"/>
     </row>
-    <row r="215" spans="6:21" ht="13">
+    <row r="215" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F215" s="4"/>
       <c r="I215" s="4"/>
       <c r="L215" s="4"/>
@@ -8356,7 +8354,7 @@
       <c r="R215" s="4"/>
       <c r="U215" s="4"/>
     </row>
-    <row r="216" spans="6:21" ht="13">
+    <row r="216" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F216" s="4"/>
       <c r="I216" s="4"/>
       <c r="L216" s="4"/>
@@ -8364,7 +8362,7 @@
       <c r="R216" s="4"/>
       <c r="U216" s="4"/>
     </row>
-    <row r="217" spans="6:21" ht="13">
+    <row r="217" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F217" s="4"/>
       <c r="I217" s="4"/>
       <c r="L217" s="4"/>
@@ -8372,7 +8370,7 @@
       <c r="R217" s="4"/>
       <c r="U217" s="4"/>
     </row>
-    <row r="218" spans="6:21" ht="13">
+    <row r="218" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F218" s="4"/>
       <c r="I218" s="4"/>
       <c r="L218" s="4"/>
@@ -8380,7 +8378,7 @@
       <c r="R218" s="4"/>
       <c r="U218" s="4"/>
     </row>
-    <row r="219" spans="6:21" ht="13">
+    <row r="219" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F219" s="4"/>
       <c r="I219" s="4"/>
       <c r="L219" s="4"/>
@@ -8388,7 +8386,7 @@
       <c r="R219" s="4"/>
       <c r="U219" s="4"/>
     </row>
-    <row r="220" spans="6:21" ht="13">
+    <row r="220" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F220" s="4"/>
       <c r="I220" s="4"/>
       <c r="L220" s="4"/>
@@ -8396,7 +8394,7 @@
       <c r="R220" s="4"/>
       <c r="U220" s="4"/>
     </row>
-    <row r="221" spans="6:21" ht="13">
+    <row r="221" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F221" s="4"/>
       <c r="I221" s="4"/>
       <c r="L221" s="4"/>
@@ -8404,7 +8402,7 @@
       <c r="R221" s="4"/>
       <c r="U221" s="4"/>
     </row>
-    <row r="222" spans="6:21" ht="13">
+    <row r="222" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F222" s="4"/>
       <c r="I222" s="4"/>
       <c r="L222" s="4"/>
@@ -8412,7 +8410,7 @@
       <c r="R222" s="4"/>
       <c r="U222" s="4"/>
     </row>
-    <row r="223" spans="6:21" ht="13">
+    <row r="223" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F223" s="4"/>
       <c r="I223" s="4"/>
       <c r="L223" s="4"/>
@@ -8420,7 +8418,7 @@
       <c r="R223" s="4"/>
       <c r="U223" s="4"/>
     </row>
-    <row r="224" spans="6:21" ht="13">
+    <row r="224" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F224" s="4"/>
       <c r="I224" s="4"/>
       <c r="L224" s="4"/>
@@ -8428,7 +8426,7 @@
       <c r="R224" s="4"/>
       <c r="U224" s="4"/>
     </row>
-    <row r="225" spans="6:21" ht="13">
+    <row r="225" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F225" s="4"/>
       <c r="I225" s="4"/>
       <c r="L225" s="4"/>
@@ -8436,7 +8434,7 @@
       <c r="R225" s="4"/>
       <c r="U225" s="4"/>
     </row>
-    <row r="226" spans="6:21" ht="13">
+    <row r="226" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F226" s="4"/>
       <c r="I226" s="4"/>
       <c r="L226" s="4"/>
@@ -8444,7 +8442,7 @@
       <c r="R226" s="4"/>
       <c r="U226" s="4"/>
     </row>
-    <row r="227" spans="6:21" ht="13">
+    <row r="227" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F227" s="4"/>
       <c r="I227" s="4"/>
       <c r="L227" s="4"/>
@@ -8452,7 +8450,7 @@
       <c r="R227" s="4"/>
       <c r="U227" s="4"/>
     </row>
-    <row r="228" spans="6:21" ht="13">
+    <row r="228" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F228" s="4"/>
       <c r="I228" s="4"/>
       <c r="L228" s="4"/>
@@ -8460,7 +8458,7 @@
       <c r="R228" s="4"/>
       <c r="U228" s="4"/>
     </row>
-    <row r="229" spans="6:21" ht="13">
+    <row r="229" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F229" s="4"/>
       <c r="I229" s="4"/>
       <c r="L229" s="4"/>
@@ -8468,7 +8466,7 @@
       <c r="R229" s="4"/>
       <c r="U229" s="4"/>
     </row>
-    <row r="230" spans="6:21" ht="13">
+    <row r="230" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F230" s="4"/>
       <c r="I230" s="4"/>
       <c r="L230" s="4"/>
@@ -8476,7 +8474,7 @@
       <c r="R230" s="4"/>
       <c r="U230" s="4"/>
     </row>
-    <row r="231" spans="6:21" ht="13">
+    <row r="231" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F231" s="4"/>
       <c r="I231" s="4"/>
       <c r="L231" s="4"/>
@@ -8484,7 +8482,7 @@
       <c r="R231" s="4"/>
       <c r="U231" s="4"/>
     </row>
-    <row r="232" spans="6:21" ht="13">
+    <row r="232" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F232" s="4"/>
       <c r="I232" s="4"/>
       <c r="L232" s="4"/>
@@ -8492,7 +8490,7 @@
       <c r="R232" s="4"/>
       <c r="U232" s="4"/>
     </row>
-    <row r="233" spans="6:21" ht="13">
+    <row r="233" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F233" s="4"/>
       <c r="I233" s="4"/>
       <c r="L233" s="4"/>
@@ -8500,7 +8498,7 @@
       <c r="R233" s="4"/>
       <c r="U233" s="4"/>
     </row>
-    <row r="234" spans="6:21" ht="13">
+    <row r="234" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F234" s="4"/>
       <c r="I234" s="4"/>
       <c r="L234" s="4"/>
@@ -8508,7 +8506,7 @@
       <c r="R234" s="4"/>
       <c r="U234" s="4"/>
     </row>
-    <row r="235" spans="6:21" ht="13">
+    <row r="235" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F235" s="4"/>
       <c r="I235" s="4"/>
       <c r="L235" s="4"/>
@@ -8516,7 +8514,7 @@
       <c r="R235" s="4"/>
       <c r="U235" s="4"/>
     </row>
-    <row r="236" spans="6:21" ht="13">
+    <row r="236" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F236" s="4"/>
       <c r="I236" s="4"/>
       <c r="L236" s="4"/>
@@ -8524,7 +8522,7 @@
       <c r="R236" s="4"/>
       <c r="U236" s="4"/>
     </row>
-    <row r="237" spans="6:21" ht="13">
+    <row r="237" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F237" s="4"/>
       <c r="I237" s="4"/>
       <c r="L237" s="4"/>
@@ -8532,7 +8530,7 @@
       <c r="R237" s="4"/>
       <c r="U237" s="4"/>
     </row>
-    <row r="238" spans="6:21" ht="13">
+    <row r="238" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F238" s="4"/>
       <c r="I238" s="4"/>
       <c r="L238" s="4"/>
@@ -8540,7 +8538,7 @@
       <c r="R238" s="4"/>
       <c r="U238" s="4"/>
     </row>
-    <row r="239" spans="6:21" ht="13">
+    <row r="239" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F239" s="4"/>
       <c r="I239" s="4"/>
       <c r="L239" s="4"/>
@@ -8548,7 +8546,7 @@
       <c r="R239" s="4"/>
       <c r="U239" s="4"/>
     </row>
-    <row r="240" spans="6:21" ht="13">
+    <row r="240" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F240" s="4"/>
       <c r="I240" s="4"/>
       <c r="L240" s="4"/>
@@ -8556,7 +8554,7 @@
       <c r="R240" s="4"/>
       <c r="U240" s="4"/>
     </row>
-    <row r="241" spans="6:21" ht="13">
+    <row r="241" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F241" s="4"/>
       <c r="I241" s="4"/>
       <c r="L241" s="4"/>
@@ -8564,7 +8562,7 @@
       <c r="R241" s="4"/>
       <c r="U241" s="4"/>
     </row>
-    <row r="242" spans="6:21" ht="13">
+    <row r="242" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F242" s="4"/>
       <c r="I242" s="4"/>
       <c r="L242" s="4"/>
@@ -8572,7 +8570,7 @@
       <c r="R242" s="4"/>
       <c r="U242" s="4"/>
     </row>
-    <row r="243" spans="6:21" ht="13">
+    <row r="243" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F243" s="4"/>
       <c r="I243" s="4"/>
       <c r="L243" s="4"/>
@@ -8580,7 +8578,7 @@
       <c r="R243" s="4"/>
       <c r="U243" s="4"/>
     </row>
-    <row r="244" spans="6:21" ht="13">
+    <row r="244" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F244" s="4"/>
       <c r="I244" s="4"/>
       <c r="L244" s="4"/>
@@ -8588,7 +8586,7 @@
       <c r="R244" s="4"/>
       <c r="U244" s="4"/>
     </row>
-    <row r="245" spans="6:21" ht="13">
+    <row r="245" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F245" s="4"/>
       <c r="I245" s="4"/>
       <c r="L245" s="4"/>
@@ -8596,7 +8594,7 @@
       <c r="R245" s="4"/>
       <c r="U245" s="4"/>
     </row>
-    <row r="246" spans="6:21" ht="13">
+    <row r="246" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F246" s="4"/>
       <c r="I246" s="4"/>
       <c r="L246" s="4"/>
@@ -8604,7 +8602,7 @@
       <c r="R246" s="4"/>
       <c r="U246" s="4"/>
     </row>
-    <row r="247" spans="6:21" ht="13">
+    <row r="247" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F247" s="4"/>
       <c r="I247" s="4"/>
       <c r="L247" s="4"/>
@@ -8612,7 +8610,7 @@
       <c r="R247" s="4"/>
       <c r="U247" s="4"/>
     </row>
-    <row r="248" spans="6:21" ht="13">
+    <row r="248" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F248" s="4"/>
       <c r="I248" s="4"/>
       <c r="L248" s="4"/>
@@ -8620,7 +8618,7 @@
       <c r="R248" s="4"/>
       <c r="U248" s="4"/>
     </row>
-    <row r="249" spans="6:21" ht="13">
+    <row r="249" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F249" s="4"/>
       <c r="I249" s="4"/>
       <c r="L249" s="4"/>
@@ -8628,7 +8626,7 @@
       <c r="R249" s="4"/>
       <c r="U249" s="4"/>
     </row>
-    <row r="250" spans="6:21" ht="13">
+    <row r="250" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F250" s="4"/>
       <c r="I250" s="4"/>
       <c r="L250" s="4"/>
@@ -8636,7 +8634,7 @@
       <c r="R250" s="4"/>
       <c r="U250" s="4"/>
     </row>
-    <row r="251" spans="6:21" ht="13">
+    <row r="251" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F251" s="4"/>
       <c r="I251" s="4"/>
       <c r="L251" s="4"/>
@@ -8644,7 +8642,7 @@
       <c r="R251" s="4"/>
       <c r="U251" s="4"/>
     </row>
-    <row r="252" spans="6:21" ht="13">
+    <row r="252" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F252" s="4"/>
       <c r="I252" s="4"/>
       <c r="L252" s="4"/>
@@ -8652,7 +8650,7 @@
       <c r="R252" s="4"/>
       <c r="U252" s="4"/>
     </row>
-    <row r="253" spans="6:21" ht="13">
+    <row r="253" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F253" s="4"/>
       <c r="I253" s="4"/>
       <c r="L253" s="4"/>
@@ -8660,7 +8658,7 @@
       <c r="R253" s="4"/>
       <c r="U253" s="4"/>
     </row>
-    <row r="254" spans="6:21" ht="13">
+    <row r="254" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F254" s="4"/>
       <c r="I254" s="4"/>
       <c r="L254" s="4"/>
@@ -8668,7 +8666,7 @@
       <c r="R254" s="4"/>
       <c r="U254" s="4"/>
     </row>
-    <row r="255" spans="6:21" ht="13">
+    <row r="255" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F255" s="4"/>
       <c r="I255" s="4"/>
       <c r="L255" s="4"/>
@@ -8676,7 +8674,7 @@
       <c r="R255" s="4"/>
       <c r="U255" s="4"/>
     </row>
-    <row r="256" spans="6:21" ht="13">
+    <row r="256" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F256" s="4"/>
       <c r="I256" s="4"/>
       <c r="L256" s="4"/>
@@ -8684,7 +8682,7 @@
       <c r="R256" s="4"/>
       <c r="U256" s="4"/>
     </row>
-    <row r="257" spans="6:21" ht="13">
+    <row r="257" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F257" s="4"/>
       <c r="I257" s="4"/>
       <c r="L257" s="4"/>
@@ -8692,7 +8690,7 @@
       <c r="R257" s="4"/>
       <c r="U257" s="4"/>
     </row>
-    <row r="258" spans="6:21" ht="13">
+    <row r="258" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F258" s="4"/>
       <c r="I258" s="4"/>
       <c r="L258" s="4"/>
@@ -8700,7 +8698,7 @@
       <c r="R258" s="4"/>
       <c r="U258" s="4"/>
     </row>
-    <row r="259" spans="6:21" ht="13">
+    <row r="259" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F259" s="4"/>
       <c r="I259" s="4"/>
       <c r="L259" s="4"/>
@@ -8708,7 +8706,7 @@
       <c r="R259" s="4"/>
       <c r="U259" s="4"/>
     </row>
-    <row r="260" spans="6:21" ht="13">
+    <row r="260" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F260" s="4"/>
       <c r="I260" s="4"/>
       <c r="L260" s="4"/>
@@ -8716,7 +8714,7 @@
       <c r="R260" s="4"/>
       <c r="U260" s="4"/>
     </row>
-    <row r="261" spans="6:21" ht="13">
+    <row r="261" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F261" s="4"/>
       <c r="I261" s="4"/>
       <c r="L261" s="4"/>
@@ -8724,7 +8722,7 @@
       <c r="R261" s="4"/>
       <c r="U261" s="4"/>
     </row>
-    <row r="262" spans="6:21" ht="13">
+    <row r="262" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F262" s="4"/>
       <c r="I262" s="4"/>
       <c r="L262" s="4"/>
@@ -8732,7 +8730,7 @@
       <c r="R262" s="4"/>
       <c r="U262" s="4"/>
     </row>
-    <row r="263" spans="6:21" ht="13">
+    <row r="263" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F263" s="4"/>
       <c r="I263" s="4"/>
       <c r="L263" s="4"/>
@@ -8740,7 +8738,7 @@
       <c r="R263" s="4"/>
       <c r="U263" s="4"/>
     </row>
-    <row r="264" spans="6:21" ht="13">
+    <row r="264" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F264" s="4"/>
       <c r="I264" s="4"/>
       <c r="L264" s="4"/>
@@ -8748,7 +8746,7 @@
       <c r="R264" s="4"/>
       <c r="U264" s="4"/>
     </row>
-    <row r="265" spans="6:21" ht="13">
+    <row r="265" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F265" s="4"/>
       <c r="I265" s="4"/>
       <c r="L265" s="4"/>
@@ -8756,7 +8754,7 @@
       <c r="R265" s="4"/>
       <c r="U265" s="4"/>
     </row>
-    <row r="266" spans="6:21" ht="13">
+    <row r="266" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F266" s="4"/>
       <c r="I266" s="4"/>
       <c r="L266" s="4"/>
@@ -8764,7 +8762,7 @@
       <c r="R266" s="4"/>
       <c r="U266" s="4"/>
     </row>
-    <row r="267" spans="6:21" ht="13">
+    <row r="267" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F267" s="4"/>
       <c r="I267" s="4"/>
       <c r="L267" s="4"/>
@@ -8772,7 +8770,7 @@
       <c r="R267" s="4"/>
       <c r="U267" s="4"/>
     </row>
-    <row r="268" spans="6:21" ht="13">
+    <row r="268" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F268" s="4"/>
       <c r="I268" s="4"/>
       <c r="L268" s="4"/>
@@ -8780,7 +8778,7 @@
       <c r="R268" s="4"/>
       <c r="U268" s="4"/>
     </row>
-    <row r="269" spans="6:21" ht="13">
+    <row r="269" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F269" s="4"/>
       <c r="I269" s="4"/>
       <c r="L269" s="4"/>
@@ -8788,7 +8786,7 @@
       <c r="R269" s="4"/>
       <c r="U269" s="4"/>
     </row>
-    <row r="270" spans="6:21" ht="13">
+    <row r="270" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F270" s="4"/>
       <c r="I270" s="4"/>
       <c r="L270" s="4"/>
@@ -8796,7 +8794,7 @@
       <c r="R270" s="4"/>
       <c r="U270" s="4"/>
     </row>
-    <row r="271" spans="6:21" ht="13">
+    <row r="271" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F271" s="4"/>
       <c r="I271" s="4"/>
       <c r="L271" s="4"/>
@@ -8804,7 +8802,7 @@
       <c r="R271" s="4"/>
       <c r="U271" s="4"/>
     </row>
-    <row r="272" spans="6:21" ht="13">
+    <row r="272" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F272" s="4"/>
       <c r="I272" s="4"/>
       <c r="L272" s="4"/>
@@ -8812,7 +8810,7 @@
       <c r="R272" s="4"/>
       <c r="U272" s="4"/>
     </row>
-    <row r="273" spans="6:21" ht="13">
+    <row r="273" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F273" s="4"/>
       <c r="I273" s="4"/>
       <c r="L273" s="4"/>
@@ -8820,7 +8818,7 @@
       <c r="R273" s="4"/>
       <c r="U273" s="4"/>
     </row>
-    <row r="274" spans="6:21" ht="13">
+    <row r="274" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F274" s="4"/>
       <c r="I274" s="4"/>
       <c r="L274" s="4"/>
@@ -8828,7 +8826,7 @@
       <c r="R274" s="4"/>
       <c r="U274" s="4"/>
     </row>
-    <row r="275" spans="6:21" ht="13">
+    <row r="275" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F275" s="4"/>
       <c r="I275" s="4"/>
       <c r="L275" s="4"/>
@@ -8836,7 +8834,7 @@
       <c r="R275" s="4"/>
       <c r="U275" s="4"/>
     </row>
-    <row r="276" spans="6:21" ht="13">
+    <row r="276" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F276" s="4"/>
       <c r="I276" s="4"/>
       <c r="L276" s="4"/>
@@ -8844,7 +8842,7 @@
       <c r="R276" s="4"/>
       <c r="U276" s="4"/>
     </row>
-    <row r="277" spans="6:21" ht="13">
+    <row r="277" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F277" s="4"/>
       <c r="I277" s="4"/>
       <c r="L277" s="4"/>
@@ -8852,7 +8850,7 @@
       <c r="R277" s="4"/>
       <c r="U277" s="4"/>
     </row>
-    <row r="278" spans="6:21" ht="13">
+    <row r="278" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F278" s="4"/>
       <c r="I278" s="4"/>
       <c r="L278" s="4"/>
@@ -8860,7 +8858,7 @@
       <c r="R278" s="4"/>
       <c r="U278" s="4"/>
     </row>
-    <row r="279" spans="6:21" ht="13">
+    <row r="279" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F279" s="4"/>
       <c r="I279" s="4"/>
       <c r="L279" s="4"/>
@@ -8868,7 +8866,7 @@
       <c r="R279" s="4"/>
       <c r="U279" s="4"/>
     </row>
-    <row r="280" spans="6:21" ht="13">
+    <row r="280" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F280" s="4"/>
       <c r="I280" s="4"/>
       <c r="L280" s="4"/>
@@ -8876,7 +8874,7 @@
       <c r="R280" s="4"/>
       <c r="U280" s="4"/>
     </row>
-    <row r="281" spans="6:21" ht="13">
+    <row r="281" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F281" s="4"/>
       <c r="I281" s="4"/>
       <c r="L281" s="4"/>
@@ -8884,7 +8882,7 @@
       <c r="R281" s="4"/>
       <c r="U281" s="4"/>
     </row>
-    <row r="282" spans="6:21" ht="13">
+    <row r="282" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F282" s="4"/>
       <c r="I282" s="4"/>
       <c r="L282" s="4"/>
@@ -8892,7 +8890,7 @@
       <c r="R282" s="4"/>
       <c r="U282" s="4"/>
     </row>
-    <row r="283" spans="6:21" ht="13">
+    <row r="283" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F283" s="4"/>
       <c r="I283" s="4"/>
       <c r="L283" s="4"/>
@@ -8900,7 +8898,7 @@
       <c r="R283" s="4"/>
       <c r="U283" s="4"/>
     </row>
-    <row r="284" spans="6:21" ht="13">
+    <row r="284" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F284" s="4"/>
       <c r="I284" s="4"/>
       <c r="L284" s="4"/>
@@ -8908,7 +8906,7 @@
       <c r="R284" s="4"/>
       <c r="U284" s="4"/>
     </row>
-    <row r="285" spans="6:21" ht="13">
+    <row r="285" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F285" s="4"/>
       <c r="I285" s="4"/>
       <c r="L285" s="4"/>
@@ -8916,7 +8914,7 @@
       <c r="R285" s="4"/>
       <c r="U285" s="4"/>
     </row>
-    <row r="286" spans="6:21" ht="13">
+    <row r="286" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F286" s="4"/>
       <c r="I286" s="4"/>
       <c r="L286" s="4"/>
@@ -8924,7 +8922,7 @@
       <c r="R286" s="4"/>
       <c r="U286" s="4"/>
     </row>
-    <row r="287" spans="6:21" ht="13">
+    <row r="287" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F287" s="4"/>
       <c r="I287" s="4"/>
       <c r="L287" s="4"/>
@@ -8932,7 +8930,7 @@
       <c r="R287" s="4"/>
       <c r="U287" s="4"/>
     </row>
-    <row r="288" spans="6:21" ht="13">
+    <row r="288" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F288" s="4"/>
       <c r="I288" s="4"/>
       <c r="L288" s="4"/>
@@ -8940,7 +8938,7 @@
       <c r="R288" s="4"/>
       <c r="U288" s="4"/>
     </row>
-    <row r="289" spans="6:21" ht="13">
+    <row r="289" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F289" s="4"/>
       <c r="I289" s="4"/>
       <c r="L289" s="4"/>
@@ -8948,7 +8946,7 @@
       <c r="R289" s="4"/>
       <c r="U289" s="4"/>
     </row>
-    <row r="290" spans="6:21" ht="13">
+    <row r="290" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F290" s="4"/>
       <c r="I290" s="4"/>
       <c r="L290" s="4"/>
@@ -8956,7 +8954,7 @@
       <c r="R290" s="4"/>
       <c r="U290" s="4"/>
     </row>
-    <row r="291" spans="6:21" ht="13">
+    <row r="291" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F291" s="4"/>
       <c r="I291" s="4"/>
       <c r="L291" s="4"/>
@@ -8964,7 +8962,7 @@
       <c r="R291" s="4"/>
       <c r="U291" s="4"/>
     </row>
-    <row r="292" spans="6:21" ht="13">
+    <row r="292" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F292" s="4"/>
       <c r="I292" s="4"/>
       <c r="L292" s="4"/>
@@ -8972,7 +8970,7 @@
       <c r="R292" s="4"/>
       <c r="U292" s="4"/>
     </row>
-    <row r="293" spans="6:21" ht="13">
+    <row r="293" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F293" s="4"/>
       <c r="I293" s="4"/>
       <c r="L293" s="4"/>
@@ -8980,7 +8978,7 @@
       <c r="R293" s="4"/>
       <c r="U293" s="4"/>
     </row>
-    <row r="294" spans="6:21" ht="13">
+    <row r="294" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F294" s="4"/>
       <c r="I294" s="4"/>
       <c r="L294" s="4"/>
@@ -8988,7 +8986,7 @@
       <c r="R294" s="4"/>
       <c r="U294" s="4"/>
     </row>
-    <row r="295" spans="6:21" ht="13">
+    <row r="295" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F295" s="4"/>
       <c r="I295" s="4"/>
       <c r="L295" s="4"/>
@@ -8996,7 +8994,7 @@
       <c r="R295" s="4"/>
       <c r="U295" s="4"/>
     </row>
-    <row r="296" spans="6:21" ht="13">
+    <row r="296" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F296" s="4"/>
       <c r="I296" s="4"/>
       <c r="L296" s="4"/>
@@ -9004,7 +9002,7 @@
       <c r="R296" s="4"/>
       <c r="U296" s="4"/>
     </row>
-    <row r="297" spans="6:21" ht="13">
+    <row r="297" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F297" s="4"/>
       <c r="I297" s="4"/>
       <c r="L297" s="4"/>
@@ -9012,7 +9010,7 @@
       <c r="R297" s="4"/>
       <c r="U297" s="4"/>
     </row>
-    <row r="298" spans="6:21" ht="13">
+    <row r="298" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F298" s="4"/>
       <c r="I298" s="4"/>
       <c r="L298" s="4"/>
@@ -9020,7 +9018,7 @@
       <c r="R298" s="4"/>
       <c r="U298" s="4"/>
     </row>
-    <row r="299" spans="6:21" ht="13">
+    <row r="299" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F299" s="4"/>
       <c r="I299" s="4"/>
       <c r="L299" s="4"/>
@@ -9028,7 +9026,7 @@
       <c r="R299" s="4"/>
       <c r="U299" s="4"/>
     </row>
-    <row r="300" spans="6:21" ht="13">
+    <row r="300" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F300" s="4"/>
       <c r="I300" s="4"/>
       <c r="L300" s="4"/>
@@ -9036,7 +9034,7 @@
       <c r="R300" s="4"/>
       <c r="U300" s="4"/>
     </row>
-    <row r="301" spans="6:21" ht="13">
+    <row r="301" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F301" s="4"/>
       <c r="I301" s="4"/>
       <c r="L301" s="4"/>
@@ -9044,7 +9042,7 @@
       <c r="R301" s="4"/>
       <c r="U301" s="4"/>
     </row>
-    <row r="302" spans="6:21" ht="13">
+    <row r="302" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F302" s="4"/>
       <c r="I302" s="4"/>
       <c r="L302" s="4"/>
@@ -9052,7 +9050,7 @@
       <c r="R302" s="4"/>
       <c r="U302" s="4"/>
     </row>
-    <row r="303" spans="6:21" ht="13">
+    <row r="303" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F303" s="4"/>
       <c r="I303" s="4"/>
       <c r="L303" s="4"/>
@@ -9060,7 +9058,7 @@
       <c r="R303" s="4"/>
       <c r="U303" s="4"/>
     </row>
-    <row r="304" spans="6:21" ht="13">
+    <row r="304" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F304" s="4"/>
       <c r="I304" s="4"/>
       <c r="L304" s="4"/>
@@ -9068,7 +9066,7 @@
       <c r="R304" s="4"/>
       <c r="U304" s="4"/>
     </row>
-    <row r="305" spans="6:21" ht="13">
+    <row r="305" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F305" s="4"/>
       <c r="I305" s="4"/>
       <c r="L305" s="4"/>
@@ -9076,7 +9074,7 @@
       <c r="R305" s="4"/>
       <c r="U305" s="4"/>
     </row>
-    <row r="306" spans="6:21" ht="13">
+    <row r="306" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F306" s="4"/>
       <c r="I306" s="4"/>
       <c r="L306" s="4"/>
@@ -9084,7 +9082,7 @@
       <c r="R306" s="4"/>
       <c r="U306" s="4"/>
     </row>
-    <row r="307" spans="6:21" ht="13">
+    <row r="307" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F307" s="4"/>
       <c r="I307" s="4"/>
       <c r="L307" s="4"/>
@@ -9092,7 +9090,7 @@
       <c r="R307" s="4"/>
       <c r="U307" s="4"/>
     </row>
-    <row r="308" spans="6:21" ht="13">
+    <row r="308" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F308" s="4"/>
       <c r="I308" s="4"/>
       <c r="L308" s="4"/>
@@ -9100,7 +9098,7 @@
       <c r="R308" s="4"/>
       <c r="U308" s="4"/>
     </row>
-    <row r="309" spans="6:21" ht="13">
+    <row r="309" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F309" s="4"/>
       <c r="I309" s="4"/>
       <c r="L309" s="4"/>
@@ -9108,7 +9106,7 @@
       <c r="R309" s="4"/>
       <c r="U309" s="4"/>
     </row>
-    <row r="310" spans="6:21" ht="13">
+    <row r="310" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F310" s="4"/>
       <c r="I310" s="4"/>
       <c r="L310" s="4"/>
@@ -9116,7 +9114,7 @@
       <c r="R310" s="4"/>
       <c r="U310" s="4"/>
     </row>
-    <row r="311" spans="6:21" ht="13">
+    <row r="311" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F311" s="4"/>
       <c r="I311" s="4"/>
       <c r="L311" s="4"/>
@@ -9124,7 +9122,7 @@
       <c r="R311" s="4"/>
       <c r="U311" s="4"/>
     </row>
-    <row r="312" spans="6:21" ht="13">
+    <row r="312" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F312" s="4"/>
       <c r="I312" s="4"/>
       <c r="L312" s="4"/>
@@ -9132,7 +9130,7 @@
       <c r="R312" s="4"/>
       <c r="U312" s="4"/>
     </row>
-    <row r="313" spans="6:21" ht="13">
+    <row r="313" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F313" s="4"/>
       <c r="I313" s="4"/>
       <c r="L313" s="4"/>
@@ -9140,7 +9138,7 @@
       <c r="R313" s="4"/>
       <c r="U313" s="4"/>
     </row>
-    <row r="314" spans="6:21" ht="13">
+    <row r="314" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F314" s="4"/>
       <c r="I314" s="4"/>
       <c r="L314" s="4"/>
@@ -9148,7 +9146,7 @@
       <c r="R314" s="4"/>
       <c r="U314" s="4"/>
     </row>
-    <row r="315" spans="6:21" ht="13">
+    <row r="315" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F315" s="4"/>
       <c r="I315" s="4"/>
       <c r="L315" s="4"/>
@@ -9156,7 +9154,7 @@
       <c r="R315" s="4"/>
       <c r="U315" s="4"/>
     </row>
-    <row r="316" spans="6:21" ht="13">
+    <row r="316" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F316" s="4"/>
       <c r="I316" s="4"/>
       <c r="L316" s="4"/>
@@ -9164,7 +9162,7 @@
       <c r="R316" s="4"/>
       <c r="U316" s="4"/>
     </row>
-    <row r="317" spans="6:21" ht="13">
+    <row r="317" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F317" s="4"/>
       <c r="I317" s="4"/>
       <c r="L317" s="4"/>
@@ -9172,7 +9170,7 @@
       <c r="R317" s="4"/>
       <c r="U317" s="4"/>
     </row>
-    <row r="318" spans="6:21" ht="13">
+    <row r="318" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F318" s="4"/>
       <c r="I318" s="4"/>
       <c r="L318" s="4"/>
@@ -9180,7 +9178,7 @@
       <c r="R318" s="4"/>
       <c r="U318" s="4"/>
     </row>
-    <row r="319" spans="6:21" ht="13">
+    <row r="319" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F319" s="4"/>
       <c r="I319" s="4"/>
       <c r="L319" s="4"/>
@@ -9188,7 +9186,7 @@
       <c r="R319" s="4"/>
       <c r="U319" s="4"/>
     </row>
-    <row r="320" spans="6:21" ht="13">
+    <row r="320" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F320" s="4"/>
       <c r="I320" s="4"/>
       <c r="L320" s="4"/>
@@ -9196,7 +9194,7 @@
       <c r="R320" s="4"/>
       <c r="U320" s="4"/>
     </row>
-    <row r="321" spans="6:21" ht="13">
+    <row r="321" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F321" s="4"/>
       <c r="I321" s="4"/>
       <c r="L321" s="4"/>
@@ -9204,7 +9202,7 @@
       <c r="R321" s="4"/>
       <c r="U321" s="4"/>
     </row>
-    <row r="322" spans="6:21" ht="13">
+    <row r="322" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F322" s="4"/>
       <c r="I322" s="4"/>
       <c r="L322" s="4"/>
@@ -9212,7 +9210,7 @@
       <c r="R322" s="4"/>
       <c r="U322" s="4"/>
     </row>
-    <row r="323" spans="6:21" ht="13">
+    <row r="323" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F323" s="4"/>
       <c r="I323" s="4"/>
       <c r="L323" s="4"/>
@@ -9220,7 +9218,7 @@
       <c r="R323" s="4"/>
       <c r="U323" s="4"/>
     </row>
-    <row r="324" spans="6:21" ht="13">
+    <row r="324" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F324" s="4"/>
       <c r="I324" s="4"/>
       <c r="L324" s="4"/>
@@ -9228,7 +9226,7 @@
       <c r="R324" s="4"/>
       <c r="U324" s="4"/>
     </row>
-    <row r="325" spans="6:21" ht="13">
+    <row r="325" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F325" s="4"/>
       <c r="I325" s="4"/>
       <c r="L325" s="4"/>
@@ -9236,7 +9234,7 @@
       <c r="R325" s="4"/>
       <c r="U325" s="4"/>
     </row>
-    <row r="326" spans="6:21" ht="13">
+    <row r="326" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F326" s="4"/>
       <c r="I326" s="4"/>
       <c r="L326" s="4"/>
@@ -9244,7 +9242,7 @@
       <c r="R326" s="4"/>
       <c r="U326" s="4"/>
     </row>
-    <row r="327" spans="6:21" ht="13">
+    <row r="327" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F327" s="4"/>
       <c r="I327" s="4"/>
       <c r="L327" s="4"/>
@@ -9252,7 +9250,7 @@
       <c r="R327" s="4"/>
       <c r="U327" s="4"/>
     </row>
-    <row r="328" spans="6:21" ht="13">
+    <row r="328" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F328" s="4"/>
       <c r="I328" s="4"/>
       <c r="L328" s="4"/>
@@ -9260,7 +9258,7 @@
       <c r="R328" s="4"/>
       <c r="U328" s="4"/>
     </row>
-    <row r="329" spans="6:21" ht="13">
+    <row r="329" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F329" s="4"/>
       <c r="I329" s="4"/>
       <c r="L329" s="4"/>
@@ -9268,7 +9266,7 @@
       <c r="R329" s="4"/>
       <c r="U329" s="4"/>
     </row>
-    <row r="330" spans="6:21" ht="13">
+    <row r="330" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F330" s="4"/>
       <c r="I330" s="4"/>
       <c r="L330" s="4"/>
@@ -9276,7 +9274,7 @@
       <c r="R330" s="4"/>
       <c r="U330" s="4"/>
     </row>
-    <row r="331" spans="6:21" ht="13">
+    <row r="331" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F331" s="4"/>
       <c r="I331" s="4"/>
       <c r="L331" s="4"/>
@@ -9284,7 +9282,7 @@
       <c r="R331" s="4"/>
       <c r="U331" s="4"/>
     </row>
-    <row r="332" spans="6:21" ht="13">
+    <row r="332" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F332" s="4"/>
       <c r="I332" s="4"/>
       <c r="L332" s="4"/>
@@ -9292,7 +9290,7 @@
       <c r="R332" s="4"/>
       <c r="U332" s="4"/>
     </row>
-    <row r="333" spans="6:21" ht="13">
+    <row r="333" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F333" s="4"/>
       <c r="I333" s="4"/>
       <c r="L333" s="4"/>
@@ -9300,7 +9298,7 @@
       <c r="R333" s="4"/>
       <c r="U333" s="4"/>
     </row>
-    <row r="334" spans="6:21" ht="13">
+    <row r="334" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F334" s="4"/>
       <c r="I334" s="4"/>
       <c r="L334" s="4"/>
@@ -9308,7 +9306,7 @@
       <c r="R334" s="4"/>
       <c r="U334" s="4"/>
     </row>
-    <row r="335" spans="6:21" ht="13">
+    <row r="335" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F335" s="4"/>
       <c r="I335" s="4"/>
       <c r="L335" s="4"/>
@@ -9316,7 +9314,7 @@
       <c r="R335" s="4"/>
       <c r="U335" s="4"/>
     </row>
-    <row r="336" spans="6:21" ht="13">
+    <row r="336" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F336" s="4"/>
       <c r="I336" s="4"/>
       <c r="L336" s="4"/>
@@ -9324,7 +9322,7 @@
       <c r="R336" s="4"/>
       <c r="U336" s="4"/>
     </row>
-    <row r="337" spans="6:21" ht="13">
+    <row r="337" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F337" s="4"/>
       <c r="I337" s="4"/>
       <c r="L337" s="4"/>
@@ -9332,7 +9330,7 @@
       <c r="R337" s="4"/>
       <c r="U337" s="4"/>
     </row>
-    <row r="338" spans="6:21" ht="13">
+    <row r="338" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F338" s="4"/>
       <c r="I338" s="4"/>
       <c r="L338" s="4"/>
@@ -9340,7 +9338,7 @@
       <c r="R338" s="4"/>
       <c r="U338" s="4"/>
     </row>
-    <row r="339" spans="6:21" ht="13">
+    <row r="339" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F339" s="4"/>
       <c r="I339" s="4"/>
       <c r="L339" s="4"/>
@@ -9348,7 +9346,7 @@
       <c r="R339" s="4"/>
       <c r="U339" s="4"/>
     </row>
-    <row r="340" spans="6:21" ht="13">
+    <row r="340" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F340" s="4"/>
       <c r="I340" s="4"/>
       <c r="L340" s="4"/>
@@ -9356,7 +9354,7 @@
       <c r="R340" s="4"/>
       <c r="U340" s="4"/>
     </row>
-    <row r="341" spans="6:21" ht="13">
+    <row r="341" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F341" s="4"/>
       <c r="I341" s="4"/>
       <c r="L341" s="4"/>
@@ -9364,7 +9362,7 @@
       <c r="R341" s="4"/>
       <c r="U341" s="4"/>
     </row>
-    <row r="342" spans="6:21" ht="13">
+    <row r="342" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F342" s="4"/>
       <c r="I342" s="4"/>
       <c r="L342" s="4"/>
@@ -9372,7 +9370,7 @@
       <c r="R342" s="4"/>
       <c r="U342" s="4"/>
     </row>
-    <row r="343" spans="6:21" ht="13">
+    <row r="343" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F343" s="4"/>
       <c r="I343" s="4"/>
       <c r="L343" s="4"/>
@@ -9380,7 +9378,7 @@
       <c r="R343" s="4"/>
       <c r="U343" s="4"/>
     </row>
-    <row r="344" spans="6:21" ht="13">
+    <row r="344" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F344" s="4"/>
       <c r="I344" s="4"/>
       <c r="L344" s="4"/>
@@ -9388,7 +9386,7 @@
       <c r="R344" s="4"/>
       <c r="U344" s="4"/>
     </row>
-    <row r="345" spans="6:21" ht="13">
+    <row r="345" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F345" s="4"/>
       <c r="I345" s="4"/>
       <c r="L345" s="4"/>
@@ -9396,7 +9394,7 @@
       <c r="R345" s="4"/>
       <c r="U345" s="4"/>
     </row>
-    <row r="346" spans="6:21" ht="13">
+    <row r="346" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F346" s="4"/>
       <c r="I346" s="4"/>
       <c r="L346" s="4"/>
@@ -9404,7 +9402,7 @@
       <c r="R346" s="4"/>
       <c r="U346" s="4"/>
     </row>
-    <row r="347" spans="6:21" ht="13">
+    <row r="347" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F347" s="4"/>
       <c r="I347" s="4"/>
       <c r="L347" s="4"/>
@@ -9412,7 +9410,7 @@
       <c r="R347" s="4"/>
       <c r="U347" s="4"/>
     </row>
-    <row r="348" spans="6:21" ht="13">
+    <row r="348" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F348" s="4"/>
       <c r="I348" s="4"/>
       <c r="L348" s="4"/>
@@ -9420,7 +9418,7 @@
       <c r="R348" s="4"/>
       <c r="U348" s="4"/>
     </row>
-    <row r="349" spans="6:21" ht="13">
+    <row r="349" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F349" s="4"/>
       <c r="I349" s="4"/>
       <c r="L349" s="4"/>
@@ -9428,7 +9426,7 @@
       <c r="R349" s="4"/>
       <c r="U349" s="4"/>
     </row>
-    <row r="350" spans="6:21" ht="13">
+    <row r="350" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F350" s="4"/>
       <c r="I350" s="4"/>
       <c r="L350" s="4"/>
@@ -9436,7 +9434,7 @@
       <c r="R350" s="4"/>
       <c r="U350" s="4"/>
     </row>
-    <row r="351" spans="6:21" ht="13">
+    <row r="351" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F351" s="4"/>
       <c r="I351" s="4"/>
       <c r="L351" s="4"/>
@@ -9444,7 +9442,7 @@
       <c r="R351" s="4"/>
       <c r="U351" s="4"/>
     </row>
-    <row r="352" spans="6:21" ht="13">
+    <row r="352" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F352" s="4"/>
       <c r="I352" s="4"/>
       <c r="L352" s="4"/>
@@ -9452,7 +9450,7 @@
       <c r="R352" s="4"/>
       <c r="U352" s="4"/>
     </row>
-    <row r="353" spans="6:21" ht="13">
+    <row r="353" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F353" s="4"/>
       <c r="I353" s="4"/>
       <c r="L353" s="4"/>
@@ -9460,7 +9458,7 @@
       <c r="R353" s="4"/>
       <c r="U353" s="4"/>
     </row>
-    <row r="354" spans="6:21" ht="13">
+    <row r="354" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F354" s="4"/>
       <c r="I354" s="4"/>
       <c r="L354" s="4"/>
@@ -9468,7 +9466,7 @@
       <c r="R354" s="4"/>
       <c r="U354" s="4"/>
     </row>
-    <row r="355" spans="6:21" ht="13">
+    <row r="355" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F355" s="4"/>
       <c r="I355" s="4"/>
       <c r="L355" s="4"/>
@@ -9476,7 +9474,7 @@
       <c r="R355" s="4"/>
       <c r="U355" s="4"/>
     </row>
-    <row r="356" spans="6:21" ht="13">
+    <row r="356" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F356" s="4"/>
       <c r="I356" s="4"/>
       <c r="L356" s="4"/>
@@ -9484,7 +9482,7 @@
       <c r="R356" s="4"/>
       <c r="U356" s="4"/>
     </row>
-    <row r="357" spans="6:21" ht="13">
+    <row r="357" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F357" s="4"/>
       <c r="I357" s="4"/>
       <c r="L357" s="4"/>
@@ -9492,7 +9490,7 @@
       <c r="R357" s="4"/>
       <c r="U357" s="4"/>
     </row>
-    <row r="358" spans="6:21" ht="13">
+    <row r="358" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F358" s="4"/>
       <c r="I358" s="4"/>
       <c r="L358" s="4"/>
@@ -9500,7 +9498,7 @@
       <c r="R358" s="4"/>
       <c r="U358" s="4"/>
     </row>
-    <row r="359" spans="6:21" ht="13">
+    <row r="359" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F359" s="4"/>
       <c r="I359" s="4"/>
       <c r="L359" s="4"/>
@@ -9508,7 +9506,7 @@
       <c r="R359" s="4"/>
       <c r="U359" s="4"/>
     </row>
-    <row r="360" spans="6:21" ht="13">
+    <row r="360" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F360" s="4"/>
       <c r="I360" s="4"/>
       <c r="L360" s="4"/>
@@ -9516,7 +9514,7 @@
       <c r="R360" s="4"/>
       <c r="U360" s="4"/>
     </row>
-    <row r="361" spans="6:21" ht="13">
+    <row r="361" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F361" s="4"/>
       <c r="I361" s="4"/>
       <c r="L361" s="4"/>
@@ -9524,7 +9522,7 @@
       <c r="R361" s="4"/>
       <c r="U361" s="4"/>
     </row>
-    <row r="362" spans="6:21" ht="13">
+    <row r="362" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F362" s="4"/>
       <c r="I362" s="4"/>
       <c r="L362" s="4"/>
@@ -9532,7 +9530,7 @@
       <c r="R362" s="4"/>
       <c r="U362" s="4"/>
     </row>
-    <row r="363" spans="6:21" ht="13">
+    <row r="363" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F363" s="4"/>
       <c r="I363" s="4"/>
       <c r="L363" s="4"/>
@@ -9540,7 +9538,7 @@
       <c r="R363" s="4"/>
       <c r="U363" s="4"/>
     </row>
-    <row r="364" spans="6:21" ht="13">
+    <row r="364" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F364" s="4"/>
       <c r="I364" s="4"/>
       <c r="L364" s="4"/>
@@ -9548,7 +9546,7 @@
       <c r="R364" s="4"/>
       <c r="U364" s="4"/>
     </row>
-    <row r="365" spans="6:21" ht="13">
+    <row r="365" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F365" s="4"/>
       <c r="I365" s="4"/>
       <c r="L365" s="4"/>
@@ -9556,7 +9554,7 @@
       <c r="R365" s="4"/>
       <c r="U365" s="4"/>
     </row>
-    <row r="366" spans="6:21" ht="13">
+    <row r="366" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F366" s="4"/>
       <c r="I366" s="4"/>
       <c r="L366" s="4"/>
@@ -9564,7 +9562,7 @@
       <c r="R366" s="4"/>
       <c r="U366" s="4"/>
     </row>
-    <row r="367" spans="6:21" ht="13">
+    <row r="367" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F367" s="4"/>
       <c r="I367" s="4"/>
       <c r="L367" s="4"/>
@@ -9572,7 +9570,7 @@
       <c r="R367" s="4"/>
       <c r="U367" s="4"/>
     </row>
-    <row r="368" spans="6:21" ht="13">
+    <row r="368" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F368" s="4"/>
       <c r="I368" s="4"/>
       <c r="L368" s="4"/>
@@ -9580,7 +9578,7 @@
       <c r="R368" s="4"/>
       <c r="U368" s="4"/>
     </row>
-    <row r="369" spans="6:21" ht="13">
+    <row r="369" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F369" s="4"/>
       <c r="I369" s="4"/>
       <c r="L369" s="4"/>
@@ -9588,7 +9586,7 @@
       <c r="R369" s="4"/>
       <c r="U369" s="4"/>
     </row>
-    <row r="370" spans="6:21" ht="13">
+    <row r="370" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F370" s="4"/>
       <c r="I370" s="4"/>
       <c r="L370" s="4"/>
@@ -9596,7 +9594,7 @@
       <c r="R370" s="4"/>
       <c r="U370" s="4"/>
     </row>
-    <row r="371" spans="6:21" ht="13">
+    <row r="371" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F371" s="4"/>
       <c r="I371" s="4"/>
       <c r="L371" s="4"/>
@@ -9604,7 +9602,7 @@
       <c r="R371" s="4"/>
       <c r="U371" s="4"/>
     </row>
-    <row r="372" spans="6:21" ht="13">
+    <row r="372" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F372" s="4"/>
       <c r="I372" s="4"/>
       <c r="L372" s="4"/>
@@ -9612,7 +9610,7 @@
       <c r="R372" s="4"/>
       <c r="U372" s="4"/>
     </row>
-    <row r="373" spans="6:21" ht="13">
+    <row r="373" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F373" s="4"/>
       <c r="I373" s="4"/>
       <c r="L373" s="4"/>
@@ -9620,7 +9618,7 @@
       <c r="R373" s="4"/>
       <c r="U373" s="4"/>
     </row>
-    <row r="374" spans="6:21" ht="13">
+    <row r="374" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F374" s="4"/>
       <c r="I374" s="4"/>
       <c r="L374" s="4"/>
@@ -9628,7 +9626,7 @@
       <c r="R374" s="4"/>
       <c r="U374" s="4"/>
     </row>
-    <row r="375" spans="6:21" ht="13">
+    <row r="375" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F375" s="4"/>
       <c r="I375" s="4"/>
       <c r="L375" s="4"/>
@@ -9636,7 +9634,7 @@
       <c r="R375" s="4"/>
       <c r="U375" s="4"/>
     </row>
-    <row r="376" spans="6:21" ht="13">
+    <row r="376" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F376" s="4"/>
       <c r="I376" s="4"/>
       <c r="L376" s="4"/>
@@ -9644,7 +9642,7 @@
       <c r="R376" s="4"/>
       <c r="U376" s="4"/>
     </row>
-    <row r="377" spans="6:21" ht="13">
+    <row r="377" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F377" s="4"/>
       <c r="I377" s="4"/>
       <c r="L377" s="4"/>
@@ -9652,7 +9650,7 @@
       <c r="R377" s="4"/>
       <c r="U377" s="4"/>
     </row>
-    <row r="378" spans="6:21" ht="13">
+    <row r="378" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F378" s="4"/>
       <c r="I378" s="4"/>
       <c r="L378" s="4"/>
@@ -9660,7 +9658,7 @@
       <c r="R378" s="4"/>
       <c r="U378" s="4"/>
     </row>
-    <row r="379" spans="6:21" ht="13">
+    <row r="379" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F379" s="4"/>
       <c r="I379" s="4"/>
       <c r="L379" s="4"/>
@@ -9668,7 +9666,7 @@
       <c r="R379" s="4"/>
       <c r="U379" s="4"/>
     </row>
-    <row r="380" spans="6:21" ht="13">
+    <row r="380" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F380" s="4"/>
       <c r="I380" s="4"/>
       <c r="L380" s="4"/>
@@ -9676,7 +9674,7 @@
       <c r="R380" s="4"/>
       <c r="U380" s="4"/>
     </row>
-    <row r="381" spans="6:21" ht="13">
+    <row r="381" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F381" s="4"/>
       <c r="I381" s="4"/>
       <c r="L381" s="4"/>
@@ -9684,7 +9682,7 @@
       <c r="R381" s="4"/>
       <c r="U381" s="4"/>
     </row>
-    <row r="382" spans="6:21" ht="13">
+    <row r="382" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F382" s="4"/>
       <c r="I382" s="4"/>
       <c r="L382" s="4"/>
@@ -9692,7 +9690,7 @@
       <c r="R382" s="4"/>
       <c r="U382" s="4"/>
     </row>
-    <row r="383" spans="6:21" ht="13">
+    <row r="383" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F383" s="4"/>
       <c r="I383" s="4"/>
       <c r="L383" s="4"/>
@@ -9700,7 +9698,7 @@
       <c r="R383" s="4"/>
       <c r="U383" s="4"/>
     </row>
-    <row r="384" spans="6:21" ht="13">
+    <row r="384" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F384" s="4"/>
       <c r="I384" s="4"/>
       <c r="L384" s="4"/>
@@ -9708,7 +9706,7 @@
       <c r="R384" s="4"/>
       <c r="U384" s="4"/>
     </row>
-    <row r="385" spans="6:21" ht="13">
+    <row r="385" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F385" s="4"/>
       <c r="I385" s="4"/>
       <c r="L385" s="4"/>
@@ -9716,7 +9714,7 @@
       <c r="R385" s="4"/>
       <c r="U385" s="4"/>
     </row>
-    <row r="386" spans="6:21" ht="13">
+    <row r="386" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F386" s="4"/>
       <c r="I386" s="4"/>
       <c r="L386" s="4"/>
@@ -9724,7 +9722,7 @@
       <c r="R386" s="4"/>
       <c r="U386" s="4"/>
     </row>
-    <row r="387" spans="6:21" ht="13">
+    <row r="387" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F387" s="4"/>
       <c r="I387" s="4"/>
       <c r="L387" s="4"/>
@@ -9732,7 +9730,7 @@
       <c r="R387" s="4"/>
       <c r="U387" s="4"/>
     </row>
-    <row r="388" spans="6:21" ht="13">
+    <row r="388" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F388" s="4"/>
       <c r="I388" s="4"/>
       <c r="L388" s="4"/>
@@ -9740,7 +9738,7 @@
       <c r="R388" s="4"/>
       <c r="U388" s="4"/>
     </row>
-    <row r="389" spans="6:21" ht="13">
+    <row r="389" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F389" s="4"/>
       <c r="I389" s="4"/>
       <c r="L389" s="4"/>
@@ -9748,7 +9746,7 @@
       <c r="R389" s="4"/>
       <c r="U389" s="4"/>
     </row>
-    <row r="390" spans="6:21" ht="13">
+    <row r="390" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F390" s="4"/>
       <c r="I390" s="4"/>
       <c r="L390" s="4"/>
@@ -9756,7 +9754,7 @@
       <c r="R390" s="4"/>
       <c r="U390" s="4"/>
     </row>
-    <row r="391" spans="6:21" ht="13">
+    <row r="391" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F391" s="4"/>
       <c r="I391" s="4"/>
       <c r="L391" s="4"/>
@@ -9764,7 +9762,7 @@
       <c r="R391" s="4"/>
       <c r="U391" s="4"/>
     </row>
-    <row r="392" spans="6:21" ht="13">
+    <row r="392" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F392" s="4"/>
       <c r="I392" s="4"/>
       <c r="L392" s="4"/>
@@ -9772,7 +9770,7 @@
       <c r="R392" s="4"/>
       <c r="U392" s="4"/>
     </row>
-    <row r="393" spans="6:21" ht="13">
+    <row r="393" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F393" s="4"/>
       <c r="I393" s="4"/>
       <c r="L393" s="4"/>
@@ -9780,7 +9778,7 @@
       <c r="R393" s="4"/>
       <c r="U393" s="4"/>
     </row>
-    <row r="394" spans="6:21" ht="13">
+    <row r="394" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F394" s="4"/>
       <c r="I394" s="4"/>
       <c r="L394" s="4"/>
@@ -9788,7 +9786,7 @@
       <c r="R394" s="4"/>
       <c r="U394" s="4"/>
     </row>
-    <row r="395" spans="6:21" ht="13">
+    <row r="395" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F395" s="4"/>
       <c r="I395" s="4"/>
       <c r="L395" s="4"/>
@@ -9796,7 +9794,7 @@
       <c r="R395" s="4"/>
       <c r="U395" s="4"/>
     </row>
-    <row r="396" spans="6:21" ht="13">
+    <row r="396" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F396" s="4"/>
       <c r="I396" s="4"/>
       <c r="L396" s="4"/>
@@ -9804,7 +9802,7 @@
       <c r="R396" s="4"/>
       <c r="U396" s="4"/>
     </row>
-    <row r="397" spans="6:21" ht="13">
+    <row r="397" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F397" s="4"/>
       <c r="I397" s="4"/>
       <c r="L397" s="4"/>
@@ -9812,7 +9810,7 @@
       <c r="R397" s="4"/>
       <c r="U397" s="4"/>
     </row>
-    <row r="398" spans="6:21" ht="13">
+    <row r="398" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F398" s="4"/>
       <c r="I398" s="4"/>
       <c r="L398" s="4"/>
@@ -9820,7 +9818,7 @@
       <c r="R398" s="4"/>
       <c r="U398" s="4"/>
     </row>
-    <row r="399" spans="6:21" ht="13">
+    <row r="399" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F399" s="4"/>
       <c r="I399" s="4"/>
       <c r="L399" s="4"/>
@@ -9828,7 +9826,7 @@
       <c r="R399" s="4"/>
       <c r="U399" s="4"/>
     </row>
-    <row r="400" spans="6:21" ht="13">
+    <row r="400" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F400" s="4"/>
       <c r="I400" s="4"/>
       <c r="L400" s="4"/>
@@ -9836,7 +9834,7 @@
       <c r="R400" s="4"/>
       <c r="U400" s="4"/>
     </row>
-    <row r="401" spans="6:21" ht="13">
+    <row r="401" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F401" s="4"/>
       <c r="I401" s="4"/>
       <c r="L401" s="4"/>
@@ -9844,7 +9842,7 @@
       <c r="R401" s="4"/>
       <c r="U401" s="4"/>
     </row>
-    <row r="402" spans="6:21" ht="13">
+    <row r="402" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F402" s="4"/>
       <c r="I402" s="4"/>
       <c r="L402" s="4"/>
@@ -9852,7 +9850,7 @@
       <c r="R402" s="4"/>
       <c r="U402" s="4"/>
     </row>
-    <row r="403" spans="6:21" ht="13">
+    <row r="403" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F403" s="4"/>
       <c r="I403" s="4"/>
       <c r="L403" s="4"/>
@@ -9860,7 +9858,7 @@
       <c r="R403" s="4"/>
       <c r="U403" s="4"/>
     </row>
-    <row r="404" spans="6:21" ht="13">
+    <row r="404" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F404" s="4"/>
       <c r="I404" s="4"/>
       <c r="L404" s="4"/>
@@ -9868,7 +9866,7 @@
       <c r="R404" s="4"/>
       <c r="U404" s="4"/>
     </row>
-    <row r="405" spans="6:21" ht="13">
+    <row r="405" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F405" s="4"/>
       <c r="I405" s="4"/>
       <c r="L405" s="4"/>
@@ -9876,7 +9874,7 @@
       <c r="R405" s="4"/>
       <c r="U405" s="4"/>
     </row>
-    <row r="406" spans="6:21" ht="13">
+    <row r="406" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F406" s="4"/>
       <c r="I406" s="4"/>
       <c r="L406" s="4"/>
@@ -9884,7 +9882,7 @@
       <c r="R406" s="4"/>
       <c r="U406" s="4"/>
     </row>
-    <row r="407" spans="6:21" ht="13">
+    <row r="407" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F407" s="4"/>
       <c r="I407" s="4"/>
       <c r="L407" s="4"/>
@@ -9892,7 +9890,7 @@
       <c r="R407" s="4"/>
       <c r="U407" s="4"/>
     </row>
-    <row r="408" spans="6:21" ht="13">
+    <row r="408" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F408" s="4"/>
       <c r="I408" s="4"/>
       <c r="L408" s="4"/>
@@ -9900,7 +9898,7 @@
       <c r="R408" s="4"/>
       <c r="U408" s="4"/>
     </row>
-    <row r="409" spans="6:21" ht="13">
+    <row r="409" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F409" s="4"/>
       <c r="I409" s="4"/>
       <c r="L409" s="4"/>
@@ -9908,7 +9906,7 @@
       <c r="R409" s="4"/>
       <c r="U409" s="4"/>
     </row>
-    <row r="410" spans="6:21" ht="13">
+    <row r="410" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F410" s="4"/>
       <c r="I410" s="4"/>
       <c r="L410" s="4"/>
@@ -9916,7 +9914,7 @@
       <c r="R410" s="4"/>
       <c r="U410" s="4"/>
     </row>
-    <row r="411" spans="6:21" ht="13">
+    <row r="411" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F411" s="4"/>
       <c r="I411" s="4"/>
       <c r="L411" s="4"/>
@@ -9924,7 +9922,7 @@
       <c r="R411" s="4"/>
       <c r="U411" s="4"/>
     </row>
-    <row r="412" spans="6:21" ht="13">
+    <row r="412" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F412" s="4"/>
       <c r="I412" s="4"/>
       <c r="L412" s="4"/>
@@ -9932,7 +9930,7 @@
       <c r="R412" s="4"/>
       <c r="U412" s="4"/>
     </row>
-    <row r="413" spans="6:21" ht="13">
+    <row r="413" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F413" s="4"/>
       <c r="I413" s="4"/>
       <c r="L413" s="4"/>
@@ -9940,7 +9938,7 @@
       <c r="R413" s="4"/>
       <c r="U413" s="4"/>
     </row>
-    <row r="414" spans="6:21" ht="13">
+    <row r="414" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F414" s="4"/>
       <c r="I414" s="4"/>
       <c r="L414" s="4"/>
@@ -9948,7 +9946,7 @@
       <c r="R414" s="4"/>
       <c r="U414" s="4"/>
     </row>
-    <row r="415" spans="6:21" ht="13">
+    <row r="415" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F415" s="4"/>
       <c r="I415" s="4"/>
       <c r="L415" s="4"/>
@@ -9956,7 +9954,7 @@
       <c r="R415" s="4"/>
       <c r="U415" s="4"/>
     </row>
-    <row r="416" spans="6:21" ht="13">
+    <row r="416" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F416" s="4"/>
       <c r="I416" s="4"/>
       <c r="L416" s="4"/>
@@ -9964,7 +9962,7 @@
       <c r="R416" s="4"/>
       <c r="U416" s="4"/>
     </row>
-    <row r="417" spans="6:21" ht="13">
+    <row r="417" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F417" s="4"/>
       <c r="I417" s="4"/>
       <c r="L417" s="4"/>
@@ -9972,7 +9970,7 @@
       <c r="R417" s="4"/>
       <c r="U417" s="4"/>
     </row>
-    <row r="418" spans="6:21" ht="13">
+    <row r="418" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F418" s="4"/>
       <c r="I418" s="4"/>
       <c r="L418" s="4"/>
@@ -9980,7 +9978,7 @@
       <c r="R418" s="4"/>
       <c r="U418" s="4"/>
     </row>
-    <row r="419" spans="6:21" ht="13">
+    <row r="419" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F419" s="4"/>
       <c r="I419" s="4"/>
       <c r="L419" s="4"/>
@@ -9988,7 +9986,7 @@
       <c r="R419" s="4"/>
       <c r="U419" s="4"/>
     </row>
-    <row r="420" spans="6:21" ht="13">
+    <row r="420" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F420" s="4"/>
       <c r="I420" s="4"/>
       <c r="L420" s="4"/>
@@ -9996,7 +9994,7 @@
       <c r="R420" s="4"/>
       <c r="U420" s="4"/>
     </row>
-    <row r="421" spans="6:21" ht="13">
+    <row r="421" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F421" s="4"/>
       <c r="I421" s="4"/>
       <c r="L421" s="4"/>
@@ -10004,7 +10002,7 @@
       <c r="R421" s="4"/>
       <c r="U421" s="4"/>
     </row>
-    <row r="422" spans="6:21" ht="13">
+    <row r="422" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F422" s="4"/>
       <c r="I422" s="4"/>
       <c r="L422" s="4"/>
@@ -10012,7 +10010,7 @@
       <c r="R422" s="4"/>
       <c r="U422" s="4"/>
     </row>
-    <row r="423" spans="6:21" ht="13">
+    <row r="423" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F423" s="4"/>
       <c r="I423" s="4"/>
       <c r="L423" s="4"/>
@@ -10020,7 +10018,7 @@
       <c r="R423" s="4"/>
       <c r="U423" s="4"/>
     </row>
-    <row r="424" spans="6:21" ht="13">
+    <row r="424" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F424" s="4"/>
       <c r="I424" s="4"/>
       <c r="L424" s="4"/>
@@ -10028,7 +10026,7 @@
       <c r="R424" s="4"/>
       <c r="U424" s="4"/>
     </row>
-    <row r="425" spans="6:21" ht="13">
+    <row r="425" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F425" s="4"/>
       <c r="I425" s="4"/>
       <c r="L425" s="4"/>
@@ -10036,7 +10034,7 @@
       <c r="R425" s="4"/>
       <c r="U425" s="4"/>
     </row>
-    <row r="426" spans="6:21" ht="13">
+    <row r="426" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F426" s="4"/>
       <c r="I426" s="4"/>
       <c r="L426" s="4"/>
@@ -10044,7 +10042,7 @@
       <c r="R426" s="4"/>
       <c r="U426" s="4"/>
     </row>
-    <row r="427" spans="6:21" ht="13">
+    <row r="427" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F427" s="4"/>
       <c r="I427" s="4"/>
       <c r="L427" s="4"/>
@@ -10052,7 +10050,7 @@
       <c r="R427" s="4"/>
       <c r="U427" s="4"/>
     </row>
-    <row r="428" spans="6:21" ht="13">
+    <row r="428" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F428" s="4"/>
       <c r="I428" s="4"/>
       <c r="L428" s="4"/>
@@ -10060,7 +10058,7 @@
       <c r="R428" s="4"/>
       <c r="U428" s="4"/>
     </row>
-    <row r="429" spans="6:21" ht="13">
+    <row r="429" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F429" s="4"/>
       <c r="I429" s="4"/>
       <c r="L429" s="4"/>
@@ -10068,7 +10066,7 @@
       <c r="R429" s="4"/>
       <c r="U429" s="4"/>
     </row>
-    <row r="430" spans="6:21" ht="13">
+    <row r="430" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F430" s="4"/>
       <c r="I430" s="4"/>
       <c r="L430" s="4"/>
@@ -10076,7 +10074,7 @@
       <c r="R430" s="4"/>
       <c r="U430" s="4"/>
     </row>
-    <row r="431" spans="6:21" ht="13">
+    <row r="431" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F431" s="4"/>
       <c r="I431" s="4"/>
       <c r="L431" s="4"/>
@@ -10084,7 +10082,7 @@
       <c r="R431" s="4"/>
       <c r="U431" s="4"/>
     </row>
-    <row r="432" spans="6:21" ht="13">
+    <row r="432" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F432" s="4"/>
       <c r="I432" s="4"/>
       <c r="L432" s="4"/>
@@ -10092,7 +10090,7 @@
       <c r="R432" s="4"/>
       <c r="U432" s="4"/>
     </row>
-    <row r="433" spans="6:21" ht="13">
+    <row r="433" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F433" s="4"/>
       <c r="I433" s="4"/>
       <c r="L433" s="4"/>
@@ -10100,7 +10098,7 @@
       <c r="R433" s="4"/>
       <c r="U433" s="4"/>
     </row>
-    <row r="434" spans="6:21" ht="13">
+    <row r="434" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F434" s="4"/>
       <c r="I434" s="4"/>
       <c r="L434" s="4"/>
@@ -10108,7 +10106,7 @@
       <c r="R434" s="4"/>
       <c r="U434" s="4"/>
     </row>
-    <row r="435" spans="6:21" ht="13">
+    <row r="435" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F435" s="4"/>
       <c r="I435" s="4"/>
       <c r="L435" s="4"/>
@@ -10116,7 +10114,7 @@
       <c r="R435" s="4"/>
       <c r="U435" s="4"/>
     </row>
-    <row r="436" spans="6:21" ht="13">
+    <row r="436" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F436" s="4"/>
       <c r="I436" s="4"/>
       <c r="L436" s="4"/>
@@ -10124,7 +10122,7 @@
       <c r="R436" s="4"/>
       <c r="U436" s="4"/>
     </row>
-    <row r="437" spans="6:21" ht="13">
+    <row r="437" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F437" s="4"/>
       <c r="I437" s="4"/>
       <c r="L437" s="4"/>
@@ -10132,7 +10130,7 @@
       <c r="R437" s="4"/>
       <c r="U437" s="4"/>
     </row>
-    <row r="438" spans="6:21" ht="13">
+    <row r="438" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F438" s="4"/>
       <c r="I438" s="4"/>
       <c r="L438" s="4"/>
@@ -10140,7 +10138,7 @@
       <c r="R438" s="4"/>
       <c r="U438" s="4"/>
     </row>
-    <row r="439" spans="6:21" ht="13">
+    <row r="439" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F439" s="4"/>
       <c r="I439" s="4"/>
       <c r="L439" s="4"/>
@@ -10148,7 +10146,7 @@
       <c r="R439" s="4"/>
       <c r="U439" s="4"/>
     </row>
-    <row r="440" spans="6:21" ht="13">
+    <row r="440" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F440" s="4"/>
       <c r="I440" s="4"/>
       <c r="L440" s="4"/>
@@ -10156,7 +10154,7 @@
       <c r="R440" s="4"/>
       <c r="U440" s="4"/>
     </row>
-    <row r="441" spans="6:21" ht="13">
+    <row r="441" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F441" s="4"/>
       <c r="I441" s="4"/>
       <c r="L441" s="4"/>
@@ -10164,7 +10162,7 @@
       <c r="R441" s="4"/>
       <c r="U441" s="4"/>
     </row>
-    <row r="442" spans="6:21" ht="13">
+    <row r="442" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F442" s="4"/>
       <c r="I442" s="4"/>
       <c r="L442" s="4"/>
@@ -10172,7 +10170,7 @@
       <c r="R442" s="4"/>
       <c r="U442" s="4"/>
     </row>
-    <row r="443" spans="6:21" ht="13">
+    <row r="443" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F443" s="4"/>
       <c r="I443" s="4"/>
       <c r="L443" s="4"/>
@@ -10180,7 +10178,7 @@
       <c r="R443" s="4"/>
       <c r="U443" s="4"/>
     </row>
-    <row r="444" spans="6:21" ht="13">
+    <row r="444" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F444" s="4"/>
       <c r="I444" s="4"/>
       <c r="L444" s="4"/>
@@ -10188,7 +10186,7 @@
       <c r="R444" s="4"/>
       <c r="U444" s="4"/>
     </row>
-    <row r="445" spans="6:21" ht="13">
+    <row r="445" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F445" s="4"/>
       <c r="I445" s="4"/>
       <c r="L445" s="4"/>
@@ -10196,7 +10194,7 @@
       <c r="R445" s="4"/>
       <c r="U445" s="4"/>
     </row>
-    <row r="446" spans="6:21" ht="13">
+    <row r="446" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F446" s="4"/>
       <c r="I446" s="4"/>
       <c r="L446" s="4"/>
@@ -10204,7 +10202,7 @@
       <c r="R446" s="4"/>
       <c r="U446" s="4"/>
     </row>
-    <row r="447" spans="6:21" ht="13">
+    <row r="447" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F447" s="4"/>
       <c r="I447" s="4"/>
       <c r="L447" s="4"/>
@@ -10212,7 +10210,7 @@
       <c r="R447" s="4"/>
       <c r="U447" s="4"/>
     </row>
-    <row r="448" spans="6:21" ht="13">
+    <row r="448" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F448" s="4"/>
       <c r="I448" s="4"/>
       <c r="L448" s="4"/>
@@ -10220,7 +10218,7 @@
       <c r="R448" s="4"/>
       <c r="U448" s="4"/>
     </row>
-    <row r="449" spans="6:21" ht="13">
+    <row r="449" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F449" s="4"/>
       <c r="I449" s="4"/>
       <c r="L449" s="4"/>
@@ -10228,7 +10226,7 @@
       <c r="R449" s="4"/>
       <c r="U449" s="4"/>
     </row>
-    <row r="450" spans="6:21" ht="13">
+    <row r="450" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F450" s="4"/>
       <c r="I450" s="4"/>
       <c r="L450" s="4"/>
@@ -10236,7 +10234,7 @@
       <c r="R450" s="4"/>
       <c r="U450" s="4"/>
     </row>
-    <row r="451" spans="6:21" ht="13">
+    <row r="451" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F451" s="4"/>
       <c r="I451" s="4"/>
       <c r="L451" s="4"/>
@@ -10244,7 +10242,7 @@
       <c r="R451" s="4"/>
       <c r="U451" s="4"/>
     </row>
-    <row r="452" spans="6:21" ht="13">
+    <row r="452" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F452" s="4"/>
       <c r="I452" s="4"/>
       <c r="L452" s="4"/>
@@ -10252,7 +10250,7 @@
       <c r="R452" s="4"/>
       <c r="U452" s="4"/>
     </row>
-    <row r="453" spans="6:21" ht="13">
+    <row r="453" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F453" s="4"/>
       <c r="I453" s="4"/>
       <c r="L453" s="4"/>
@@ -10260,7 +10258,7 @@
       <c r="R453" s="4"/>
       <c r="U453" s="4"/>
     </row>
-    <row r="454" spans="6:21" ht="13">
+    <row r="454" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F454" s="4"/>
       <c r="I454" s="4"/>
       <c r="L454" s="4"/>
@@ -10268,7 +10266,7 @@
       <c r="R454" s="4"/>
       <c r="U454" s="4"/>
     </row>
-    <row r="455" spans="6:21" ht="13">
+    <row r="455" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F455" s="4"/>
       <c r="I455" s="4"/>
       <c r="L455" s="4"/>
@@ -10276,7 +10274,7 @@
       <c r="R455" s="4"/>
       <c r="U455" s="4"/>
     </row>
-    <row r="456" spans="6:21" ht="13">
+    <row r="456" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F456" s="4"/>
       <c r="I456" s="4"/>
       <c r="L456" s="4"/>
@@ -10284,7 +10282,7 @@
       <c r="R456" s="4"/>
       <c r="U456" s="4"/>
     </row>
-    <row r="457" spans="6:21" ht="13">
+    <row r="457" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F457" s="4"/>
       <c r="I457" s="4"/>
       <c r="L457" s="4"/>
@@ -10292,7 +10290,7 @@
       <c r="R457" s="4"/>
       <c r="U457" s="4"/>
     </row>
-    <row r="458" spans="6:21" ht="13">
+    <row r="458" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F458" s="4"/>
       <c r="I458" s="4"/>
       <c r="L458" s="4"/>
@@ -10300,7 +10298,7 @@
       <c r="R458" s="4"/>
       <c r="U458" s="4"/>
     </row>
-    <row r="459" spans="6:21" ht="13">
+    <row r="459" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F459" s="4"/>
       <c r="I459" s="4"/>
       <c r="L459" s="4"/>
@@ -10308,7 +10306,7 @@
       <c r="R459" s="4"/>
       <c r="U459" s="4"/>
     </row>
-    <row r="460" spans="6:21" ht="13">
+    <row r="460" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F460" s="4"/>
       <c r="I460" s="4"/>
       <c r="L460" s="4"/>
@@ -10316,7 +10314,7 @@
       <c r="R460" s="4"/>
       <c r="U460" s="4"/>
     </row>
-    <row r="461" spans="6:21" ht="13">
+    <row r="461" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F461" s="4"/>
       <c r="I461" s="4"/>
       <c r="L461" s="4"/>
@@ -10324,7 +10322,7 @@
       <c r="R461" s="4"/>
       <c r="U461" s="4"/>
     </row>
-    <row r="462" spans="6:21" ht="13">
+    <row r="462" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F462" s="4"/>
       <c r="I462" s="4"/>
       <c r="L462" s="4"/>
@@ -10332,7 +10330,7 @@
       <c r="R462" s="4"/>
       <c r="U462" s="4"/>
     </row>
-    <row r="463" spans="6:21" ht="13">
+    <row r="463" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F463" s="4"/>
       <c r="I463" s="4"/>
       <c r="L463" s="4"/>
@@ -10340,7 +10338,7 @@
       <c r="R463" s="4"/>
       <c r="U463" s="4"/>
     </row>
-    <row r="464" spans="6:21" ht="13">
+    <row r="464" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F464" s="4"/>
       <c r="I464" s="4"/>
       <c r="L464" s="4"/>
@@ -10348,7 +10346,7 @@
       <c r="R464" s="4"/>
       <c r="U464" s="4"/>
     </row>
-    <row r="465" spans="6:21" ht="13">
+    <row r="465" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F465" s="4"/>
       <c r="I465" s="4"/>
       <c r="L465" s="4"/>
@@ -10356,7 +10354,7 @@
       <c r="R465" s="4"/>
       <c r="U465" s="4"/>
     </row>
-    <row r="466" spans="6:21" ht="13">
+    <row r="466" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F466" s="4"/>
       <c r="I466" s="4"/>
       <c r="L466" s="4"/>
@@ -10364,7 +10362,7 @@
       <c r="R466" s="4"/>
       <c r="U466" s="4"/>
     </row>
-    <row r="467" spans="6:21" ht="13">
+    <row r="467" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F467" s="4"/>
       <c r="I467" s="4"/>
       <c r="L467" s="4"/>
@@ -10372,7 +10370,7 @@
       <c r="R467" s="4"/>
       <c r="U467" s="4"/>
     </row>
-    <row r="468" spans="6:21" ht="13">
+    <row r="468" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F468" s="4"/>
       <c r="I468" s="4"/>
       <c r="L468" s="4"/>
@@ -10380,7 +10378,7 @@
       <c r="R468" s="4"/>
       <c r="U468" s="4"/>
     </row>
-    <row r="469" spans="6:21" ht="13">
+    <row r="469" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F469" s="4"/>
       <c r="I469" s="4"/>
       <c r="L469" s="4"/>
@@ -10388,7 +10386,7 @@
       <c r="R469" s="4"/>
       <c r="U469" s="4"/>
     </row>
-    <row r="470" spans="6:21" ht="13">
+    <row r="470" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F470" s="4"/>
       <c r="I470" s="4"/>
       <c r="L470" s="4"/>
@@ -10396,7 +10394,7 @@
       <c r="R470" s="4"/>
       <c r="U470" s="4"/>
     </row>
-    <row r="471" spans="6:21" ht="13">
+    <row r="471" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F471" s="4"/>
       <c r="I471" s="4"/>
       <c r="L471" s="4"/>
@@ -10404,7 +10402,7 @@
       <c r="R471" s="4"/>
       <c r="U471" s="4"/>
     </row>
-    <row r="472" spans="6:21" ht="13">
+    <row r="472" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F472" s="4"/>
       <c r="I472" s="4"/>
       <c r="L472" s="4"/>
@@ -10412,7 +10410,7 @@
       <c r="R472" s="4"/>
       <c r="U472" s="4"/>
     </row>
-    <row r="473" spans="6:21" ht="13">
+    <row r="473" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F473" s="4"/>
       <c r="I473" s="4"/>
       <c r="L473" s="4"/>
@@ -10420,7 +10418,7 @@
       <c r="R473" s="4"/>
       <c r="U473" s="4"/>
     </row>
-    <row r="474" spans="6:21" ht="13">
+    <row r="474" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F474" s="4"/>
       <c r="I474" s="4"/>
       <c r="L474" s="4"/>
@@ -10428,7 +10426,7 @@
       <c r="R474" s="4"/>
       <c r="U474" s="4"/>
     </row>
-    <row r="475" spans="6:21" ht="13">
+    <row r="475" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F475" s="4"/>
       <c r="I475" s="4"/>
       <c r="L475" s="4"/>
@@ -10436,7 +10434,7 @@
       <c r="R475" s="4"/>
       <c r="U475" s="4"/>
     </row>
-    <row r="476" spans="6:21" ht="13">
+    <row r="476" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F476" s="4"/>
       <c r="I476" s="4"/>
       <c r="L476" s="4"/>
@@ -10444,7 +10442,7 @@
       <c r="R476" s="4"/>
       <c r="U476" s="4"/>
     </row>
-    <row r="477" spans="6:21" ht="13">
+    <row r="477" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F477" s="4"/>
       <c r="I477" s="4"/>
       <c r="L477" s="4"/>
@@ -10452,7 +10450,7 @@
       <c r="R477" s="4"/>
       <c r="U477" s="4"/>
     </row>
-    <row r="478" spans="6:21" ht="13">
+    <row r="478" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F478" s="4"/>
       <c r="I478" s="4"/>
       <c r="L478" s="4"/>
@@ -10460,7 +10458,7 @@
       <c r="R478" s="4"/>
       <c r="U478" s="4"/>
     </row>
-    <row r="479" spans="6:21" ht="13">
+    <row r="479" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F479" s="4"/>
       <c r="I479" s="4"/>
       <c r="L479" s="4"/>
@@ -10468,7 +10466,7 @@
       <c r="R479" s="4"/>
       <c r="U479" s="4"/>
     </row>
-    <row r="480" spans="6:21" ht="13">
+    <row r="480" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F480" s="4"/>
       <c r="I480" s="4"/>
       <c r="L480" s="4"/>
@@ -10476,7 +10474,7 @@
       <c r="R480" s="4"/>
       <c r="U480" s="4"/>
     </row>
-    <row r="481" spans="6:21" ht="13">
+    <row r="481" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F481" s="4"/>
       <c r="I481" s="4"/>
       <c r="L481" s="4"/>
@@ -10484,7 +10482,7 @@
       <c r="R481" s="4"/>
       <c r="U481" s="4"/>
     </row>
-    <row r="482" spans="6:21" ht="13">
+    <row r="482" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F482" s="4"/>
       <c r="I482" s="4"/>
       <c r="L482" s="4"/>
@@ -10492,7 +10490,7 @@
       <c r="R482" s="4"/>
       <c r="U482" s="4"/>
     </row>
-    <row r="483" spans="6:21" ht="13">
+    <row r="483" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F483" s="4"/>
       <c r="I483" s="4"/>
       <c r="L483" s="4"/>
@@ -10500,7 +10498,7 @@
       <c r="R483" s="4"/>
       <c r="U483" s="4"/>
     </row>
-    <row r="484" spans="6:21" ht="13">
+    <row r="484" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F484" s="4"/>
       <c r="I484" s="4"/>
       <c r="L484" s="4"/>
@@ -10508,7 +10506,7 @@
       <c r="R484" s="4"/>
       <c r="U484" s="4"/>
     </row>
-    <row r="485" spans="6:21" ht="13">
+    <row r="485" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F485" s="4"/>
       <c r="I485" s="4"/>
       <c r="L485" s="4"/>
@@ -10516,7 +10514,7 @@
       <c r="R485" s="4"/>
       <c r="U485" s="4"/>
     </row>
-    <row r="486" spans="6:21" ht="13">
+    <row r="486" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F486" s="4"/>
       <c r="I486" s="4"/>
       <c r="L486" s="4"/>
@@ -10524,7 +10522,7 @@
       <c r="R486" s="4"/>
       <c r="U486" s="4"/>
     </row>
-    <row r="487" spans="6:21" ht="13">
+    <row r="487" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F487" s="4"/>
       <c r="I487" s="4"/>
       <c r="L487" s="4"/>
@@ -10532,7 +10530,7 @@
       <c r="R487" s="4"/>
       <c r="U487" s="4"/>
     </row>
-    <row r="488" spans="6:21" ht="13">
+    <row r="488" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F488" s="4"/>
       <c r="I488" s="4"/>
       <c r="L488" s="4"/>
@@ -10540,7 +10538,7 @@
       <c r="R488" s="4"/>
       <c r="U488" s="4"/>
     </row>
-    <row r="489" spans="6:21" ht="13">
+    <row r="489" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F489" s="4"/>
       <c r="I489" s="4"/>
       <c r="L489" s="4"/>
@@ -10548,7 +10546,7 @@
       <c r="R489" s="4"/>
       <c r="U489" s="4"/>
     </row>
-    <row r="490" spans="6:21" ht="13">
+    <row r="490" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F490" s="4"/>
       <c r="I490" s="4"/>
       <c r="L490" s="4"/>
@@ -10556,7 +10554,7 @@
       <c r="R490" s="4"/>
       <c r="U490" s="4"/>
     </row>
-    <row r="491" spans="6:21" ht="13">
+    <row r="491" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F491" s="4"/>
       <c r="I491" s="4"/>
       <c r="L491" s="4"/>
@@ -10564,7 +10562,7 @@
       <c r="R491" s="4"/>
       <c r="U491" s="4"/>
     </row>
-    <row r="492" spans="6:21" ht="13">
+    <row r="492" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F492" s="4"/>
       <c r="I492" s="4"/>
       <c r="L492" s="4"/>
@@ -10572,7 +10570,7 @@
       <c r="R492" s="4"/>
       <c r="U492" s="4"/>
     </row>
-    <row r="493" spans="6:21" ht="13">
+    <row r="493" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F493" s="4"/>
       <c r="I493" s="4"/>
       <c r="L493" s="4"/>
@@ -10580,7 +10578,7 @@
       <c r="R493" s="4"/>
       <c r="U493" s="4"/>
     </row>
-    <row r="494" spans="6:21" ht="13">
+    <row r="494" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F494" s="4"/>
       <c r="I494" s="4"/>
       <c r="L494" s="4"/>
@@ -10588,7 +10586,7 @@
       <c r="R494" s="4"/>
       <c r="U494" s="4"/>
     </row>
-    <row r="495" spans="6:21" ht="13">
+    <row r="495" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F495" s="4"/>
       <c r="I495" s="4"/>
       <c r="L495" s="4"/>
@@ -10596,7 +10594,7 @@
       <c r="R495" s="4"/>
       <c r="U495" s="4"/>
     </row>
-    <row r="496" spans="6:21" ht="13">
+    <row r="496" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F496" s="4"/>
       <c r="I496" s="4"/>
       <c r="L496" s="4"/>
@@ -10604,7 +10602,7 @@
       <c r="R496" s="4"/>
       <c r="U496" s="4"/>
     </row>
-    <row r="497" spans="6:21" ht="13">
+    <row r="497" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F497" s="4"/>
       <c r="I497" s="4"/>
       <c r="L497" s="4"/>
@@ -10612,7 +10610,7 @@
       <c r="R497" s="4"/>
       <c r="U497" s="4"/>
     </row>
-    <row r="498" spans="6:21" ht="13">
+    <row r="498" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F498" s="4"/>
       <c r="I498" s="4"/>
       <c r="L498" s="4"/>
@@ -10620,7 +10618,7 @@
       <c r="R498" s="4"/>
       <c r="U498" s="4"/>
     </row>
-    <row r="499" spans="6:21" ht="13">
+    <row r="499" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F499" s="4"/>
       <c r="I499" s="4"/>
       <c r="L499" s="4"/>
@@ -10628,7 +10626,7 @@
       <c r="R499" s="4"/>
       <c r="U499" s="4"/>
     </row>
-    <row r="500" spans="6:21" ht="13">
+    <row r="500" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F500" s="4"/>
       <c r="I500" s="4"/>
       <c r="L500" s="4"/>
@@ -10636,7 +10634,7 @@
       <c r="R500" s="4"/>
       <c r="U500" s="4"/>
     </row>
-    <row r="501" spans="6:21" ht="13">
+    <row r="501" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F501" s="4"/>
       <c r="I501" s="4"/>
       <c r="L501" s="4"/>
@@ -10644,7 +10642,7 @@
       <c r="R501" s="4"/>
       <c r="U501" s="4"/>
     </row>
-    <row r="502" spans="6:21" ht="13">
+    <row r="502" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F502" s="4"/>
       <c r="I502" s="4"/>
       <c r="L502" s="4"/>
@@ -10652,7 +10650,7 @@
       <c r="R502" s="4"/>
       <c r="U502" s="4"/>
     </row>
-    <row r="503" spans="6:21" ht="13">
+    <row r="503" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F503" s="4"/>
       <c r="I503" s="4"/>
       <c r="L503" s="4"/>
@@ -10660,7 +10658,7 @@
       <c r="R503" s="4"/>
       <c r="U503" s="4"/>
     </row>
-    <row r="504" spans="6:21" ht="13">
+    <row r="504" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F504" s="4"/>
       <c r="I504" s="4"/>
       <c r="L504" s="4"/>
@@ -10668,7 +10666,7 @@
       <c r="R504" s="4"/>
       <c r="U504" s="4"/>
     </row>
-    <row r="505" spans="6:21" ht="13">
+    <row r="505" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F505" s="4"/>
       <c r="I505" s="4"/>
       <c r="L505" s="4"/>
@@ -10676,7 +10674,7 @@
       <c r="R505" s="4"/>
       <c r="U505" s="4"/>
     </row>
-    <row r="506" spans="6:21" ht="13">
+    <row r="506" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F506" s="4"/>
       <c r="I506" s="4"/>
       <c r="L506" s="4"/>
@@ -10684,7 +10682,7 @@
       <c r="R506" s="4"/>
       <c r="U506" s="4"/>
     </row>
-    <row r="507" spans="6:21" ht="13">
+    <row r="507" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F507" s="4"/>
       <c r="I507" s="4"/>
       <c r="L507" s="4"/>
@@ -10692,7 +10690,7 @@
       <c r="R507" s="4"/>
       <c r="U507" s="4"/>
     </row>
-    <row r="508" spans="6:21" ht="13">
+    <row r="508" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F508" s="4"/>
       <c r="I508" s="4"/>
       <c r="L508" s="4"/>
@@ -10700,7 +10698,7 @@
       <c r="R508" s="4"/>
       <c r="U508" s="4"/>
     </row>
-    <row r="509" spans="6:21" ht="13">
+    <row r="509" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F509" s="4"/>
       <c r="I509" s="4"/>
       <c r="L509" s="4"/>
@@ -10708,7 +10706,7 @@
       <c r="R509" s="4"/>
       <c r="U509" s="4"/>
     </row>
-    <row r="510" spans="6:21" ht="13">
+    <row r="510" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F510" s="4"/>
       <c r="I510" s="4"/>
       <c r="L510" s="4"/>
@@ -10716,7 +10714,7 @@
       <c r="R510" s="4"/>
       <c r="U510" s="4"/>
     </row>
-    <row r="511" spans="6:21" ht="13">
+    <row r="511" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F511" s="4"/>
       <c r="I511" s="4"/>
       <c r="L511" s="4"/>
@@ -10724,7 +10722,7 @@
       <c r="R511" s="4"/>
       <c r="U511" s="4"/>
     </row>
-    <row r="512" spans="6:21" ht="13">
+    <row r="512" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F512" s="4"/>
       <c r="I512" s="4"/>
       <c r="L512" s="4"/>
@@ -10732,7 +10730,7 @@
       <c r="R512" s="4"/>
       <c r="U512" s="4"/>
     </row>
-    <row r="513" spans="6:21" ht="13">
+    <row r="513" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F513" s="4"/>
       <c r="I513" s="4"/>
       <c r="L513" s="4"/>
@@ -10740,7 +10738,7 @@
       <c r="R513" s="4"/>
       <c r="U513" s="4"/>
     </row>
-    <row r="514" spans="6:21" ht="13">
+    <row r="514" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F514" s="4"/>
       <c r="I514" s="4"/>
       <c r="L514" s="4"/>
@@ -10748,7 +10746,7 @@
       <c r="R514" s="4"/>
       <c r="U514" s="4"/>
     </row>
-    <row r="515" spans="6:21" ht="13">
+    <row r="515" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F515" s="4"/>
       <c r="I515" s="4"/>
       <c r="L515" s="4"/>
@@ -10756,7 +10754,7 @@
       <c r="R515" s="4"/>
       <c r="U515" s="4"/>
     </row>
-    <row r="516" spans="6:21" ht="13">
+    <row r="516" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F516" s="4"/>
       <c r="I516" s="4"/>
       <c r="L516" s="4"/>
@@ -10764,7 +10762,7 @@
       <c r="R516" s="4"/>
       <c r="U516" s="4"/>
     </row>
-    <row r="517" spans="6:21" ht="13">
+    <row r="517" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F517" s="4"/>
       <c r="I517" s="4"/>
       <c r="L517" s="4"/>
@@ -10772,7 +10770,7 @@
       <c r="R517" s="4"/>
       <c r="U517" s="4"/>
     </row>
-    <row r="518" spans="6:21" ht="13">
+    <row r="518" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F518" s="4"/>
       <c r="I518" s="4"/>
       <c r="L518" s="4"/>
@@ -10780,7 +10778,7 @@
       <c r="R518" s="4"/>
       <c r="U518" s="4"/>
     </row>
-    <row r="519" spans="6:21" ht="13">
+    <row r="519" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F519" s="4"/>
       <c r="I519" s="4"/>
       <c r="L519" s="4"/>
@@ -10788,7 +10786,7 @@
       <c r="R519" s="4"/>
       <c r="U519" s="4"/>
     </row>
-    <row r="520" spans="6:21" ht="13">
+    <row r="520" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F520" s="4"/>
       <c r="I520" s="4"/>
       <c r="L520" s="4"/>
@@ -10796,7 +10794,7 @@
       <c r="R520" s="4"/>
       <c r="U520" s="4"/>
     </row>
-    <row r="521" spans="6:21" ht="13">
+    <row r="521" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F521" s="4"/>
       <c r="I521" s="4"/>
       <c r="L521" s="4"/>
@@ -10804,7 +10802,7 @@
       <c r="R521" s="4"/>
       <c r="U521" s="4"/>
     </row>
-    <row r="522" spans="6:21" ht="13">
+    <row r="522" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F522" s="4"/>
       <c r="I522" s="4"/>
       <c r="L522" s="4"/>
@@ -10812,7 +10810,7 @@
       <c r="R522" s="4"/>
       <c r="U522" s="4"/>
     </row>
-    <row r="523" spans="6:21" ht="13">
+    <row r="523" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F523" s="4"/>
       <c r="I523" s="4"/>
       <c r="L523" s="4"/>
@@ -10820,7 +10818,7 @@
       <c r="R523" s="4"/>
       <c r="U523" s="4"/>
     </row>
-    <row r="524" spans="6:21" ht="13">
+    <row r="524" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F524" s="4"/>
       <c r="I524" s="4"/>
       <c r="L524" s="4"/>
@@ -10828,7 +10826,7 @@
       <c r="R524" s="4"/>
       <c r="U524" s="4"/>
     </row>
-    <row r="525" spans="6:21" ht="13">
+    <row r="525" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F525" s="4"/>
       <c r="I525" s="4"/>
       <c r="L525" s="4"/>
@@ -10836,7 +10834,7 @@
       <c r="R525" s="4"/>
       <c r="U525" s="4"/>
     </row>
-    <row r="526" spans="6:21" ht="13">
+    <row r="526" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F526" s="4"/>
       <c r="I526" s="4"/>
       <c r="L526" s="4"/>
@@ -10844,7 +10842,7 @@
       <c r="R526" s="4"/>
       <c r="U526" s="4"/>
     </row>
-    <row r="527" spans="6:21" ht="13">
+    <row r="527" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F527" s="4"/>
       <c r="I527" s="4"/>
       <c r="L527" s="4"/>
@@ -10852,7 +10850,7 @@
       <c r="R527" s="4"/>
       <c r="U527" s="4"/>
     </row>
-    <row r="528" spans="6:21" ht="13">
+    <row r="528" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F528" s="4"/>
       <c r="I528" s="4"/>
       <c r="L528" s="4"/>
@@ -10860,7 +10858,7 @@
       <c r="R528" s="4"/>
       <c r="U528" s="4"/>
     </row>
-    <row r="529" spans="6:21" ht="13">
+    <row r="529" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F529" s="4"/>
       <c r="I529" s="4"/>
       <c r="L529" s="4"/>
@@ -10868,7 +10866,7 @@
       <c r="R529" s="4"/>
       <c r="U529" s="4"/>
     </row>
-    <row r="530" spans="6:21" ht="13">
+    <row r="530" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F530" s="4"/>
       <c r="I530" s="4"/>
       <c r="L530" s="4"/>
@@ -10876,7 +10874,7 @@
       <c r="R530" s="4"/>
       <c r="U530" s="4"/>
     </row>
-    <row r="531" spans="6:21" ht="13">
+    <row r="531" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F531" s="4"/>
       <c r="I531" s="4"/>
       <c r="L531" s="4"/>
@@ -10884,7 +10882,7 @@
       <c r="R531" s="4"/>
       <c r="U531" s="4"/>
     </row>
-    <row r="532" spans="6:21" ht="13">
+    <row r="532" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F532" s="4"/>
       <c r="I532" s="4"/>
       <c r="L532" s="4"/>
@@ -10892,7 +10890,7 @@
       <c r="R532" s="4"/>
       <c r="U532" s="4"/>
     </row>
-    <row r="533" spans="6:21" ht="13">
+    <row r="533" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F533" s="4"/>
       <c r="I533" s="4"/>
       <c r="L533" s="4"/>
@@ -10900,7 +10898,7 @@
       <c r="R533" s="4"/>
       <c r="U533" s="4"/>
     </row>
-    <row r="534" spans="6:21" ht="13">
+    <row r="534" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F534" s="4"/>
       <c r="I534" s="4"/>
       <c r="L534" s="4"/>
@@ -10908,7 +10906,7 @@
       <c r="R534" s="4"/>
       <c r="U534" s="4"/>
     </row>
-    <row r="535" spans="6:21" ht="13">
+    <row r="535" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F535" s="4"/>
       <c r="I535" s="4"/>
       <c r="L535" s="4"/>
@@ -10916,7 +10914,7 @@
       <c r="R535" s="4"/>
       <c r="U535" s="4"/>
     </row>
-    <row r="536" spans="6:21" ht="13">
+    <row r="536" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F536" s="4"/>
       <c r="I536" s="4"/>
       <c r="L536" s="4"/>
@@ -10924,7 +10922,7 @@
       <c r="R536" s="4"/>
       <c r="U536" s="4"/>
     </row>
-    <row r="537" spans="6:21" ht="13">
+    <row r="537" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F537" s="4"/>
       <c r="I537" s="4"/>
       <c r="L537" s="4"/>
@@ -10932,7 +10930,7 @@
       <c r="R537" s="4"/>
       <c r="U537" s="4"/>
     </row>
-    <row r="538" spans="6:21" ht="13">
+    <row r="538" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F538" s="4"/>
       <c r="I538" s="4"/>
       <c r="L538" s="4"/>
@@ -10940,7 +10938,7 @@
       <c r="R538" s="4"/>
       <c r="U538" s="4"/>
     </row>
-    <row r="539" spans="6:21" ht="13">
+    <row r="539" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F539" s="4"/>
       <c r="I539" s="4"/>
       <c r="L539" s="4"/>
@@ -10948,7 +10946,7 @@
       <c r="R539" s="4"/>
       <c r="U539" s="4"/>
     </row>
-    <row r="540" spans="6:21" ht="13">
+    <row r="540" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F540" s="4"/>
       <c r="I540" s="4"/>
       <c r="L540" s="4"/>
@@ -10956,7 +10954,7 @@
       <c r="R540" s="4"/>
       <c r="U540" s="4"/>
     </row>
-    <row r="541" spans="6:21" ht="13">
+    <row r="541" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F541" s="4"/>
       <c r="I541" s="4"/>
       <c r="L541" s="4"/>
@@ -10964,7 +10962,7 @@
       <c r="R541" s="4"/>
       <c r="U541" s="4"/>
     </row>
-    <row r="542" spans="6:21" ht="13">
+    <row r="542" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F542" s="4"/>
       <c r="I542" s="4"/>
       <c r="L542" s="4"/>
@@ -10972,7 +10970,7 @@
       <c r="R542" s="4"/>
       <c r="U542" s="4"/>
     </row>
-    <row r="543" spans="6:21" ht="13">
+    <row r="543" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F543" s="4"/>
       <c r="I543" s="4"/>
       <c r="L543" s="4"/>
@@ -10980,7 +10978,7 @@
       <c r="R543" s="4"/>
       <c r="U543" s="4"/>
     </row>
-    <row r="544" spans="6:21" ht="13">
+    <row r="544" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F544" s="4"/>
       <c r="I544" s="4"/>
       <c r="L544" s="4"/>
@@ -10988,7 +10986,7 @@
       <c r="R544" s="4"/>
       <c r="U544" s="4"/>
     </row>
-    <row r="545" spans="6:21" ht="13">
+    <row r="545" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F545" s="4"/>
       <c r="I545" s="4"/>
       <c r="L545" s="4"/>
@@ -10996,7 +10994,7 @@
       <c r="R545" s="4"/>
       <c r="U545" s="4"/>
     </row>
-    <row r="546" spans="6:21" ht="13">
+    <row r="546" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F546" s="4"/>
       <c r="I546" s="4"/>
       <c r="L546" s="4"/>
@@ -11004,7 +11002,7 @@
       <c r="R546" s="4"/>
       <c r="U546" s="4"/>
     </row>
-    <row r="547" spans="6:21" ht="13">
+    <row r="547" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F547" s="4"/>
       <c r="I547" s="4"/>
       <c r="L547" s="4"/>
@@ -11012,7 +11010,7 @@
       <c r="R547" s="4"/>
       <c r="U547" s="4"/>
     </row>
-    <row r="548" spans="6:21" ht="13">
+    <row r="548" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F548" s="4"/>
       <c r="I548" s="4"/>
       <c r="L548" s="4"/>
@@ -11020,7 +11018,7 @@
       <c r="R548" s="4"/>
       <c r="U548" s="4"/>
     </row>
-    <row r="549" spans="6:21" ht="13">
+    <row r="549" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F549" s="4"/>
       <c r="I549" s="4"/>
       <c r="L549" s="4"/>
@@ -11028,7 +11026,7 @@
       <c r="R549" s="4"/>
       <c r="U549" s="4"/>
     </row>
-    <row r="550" spans="6:21" ht="13">
+    <row r="550" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F550" s="4"/>
       <c r="I550" s="4"/>
       <c r="L550" s="4"/>
@@ -11036,7 +11034,7 @@
       <c r="R550" s="4"/>
       <c r="U550" s="4"/>
     </row>
-    <row r="551" spans="6:21" ht="13">
+    <row r="551" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F551" s="4"/>
       <c r="I551" s="4"/>
       <c r="L551" s="4"/>
@@ -11044,7 +11042,7 @@
       <c r="R551" s="4"/>
       <c r="U551" s="4"/>
     </row>
-    <row r="552" spans="6:21" ht="13">
+    <row r="552" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F552" s="4"/>
       <c r="I552" s="4"/>
       <c r="L552" s="4"/>
@@ -11052,7 +11050,7 @@
       <c r="R552" s="4"/>
       <c r="U552" s="4"/>
     </row>
-    <row r="553" spans="6:21" ht="13">
+    <row r="553" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F553" s="4"/>
       <c r="I553" s="4"/>
       <c r="L553" s="4"/>
@@ -11060,7 +11058,7 @@
       <c r="R553" s="4"/>
       <c r="U553" s="4"/>
     </row>
-    <row r="554" spans="6:21" ht="13">
+    <row r="554" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F554" s="4"/>
       <c r="I554" s="4"/>
       <c r="L554" s="4"/>
@@ -11068,7 +11066,7 @@
       <c r="R554" s="4"/>
       <c r="U554" s="4"/>
     </row>
-    <row r="555" spans="6:21" ht="13">
+    <row r="555" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F555" s="4"/>
       <c r="I555" s="4"/>
       <c r="L555" s="4"/>
@@ -11076,7 +11074,7 @@
       <c r="R555" s="4"/>
       <c r="U555" s="4"/>
     </row>
-    <row r="556" spans="6:21" ht="13">
+    <row r="556" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F556" s="4"/>
       <c r="I556" s="4"/>
       <c r="L556" s="4"/>
@@ -11084,7 +11082,7 @@
       <c r="R556" s="4"/>
       <c r="U556" s="4"/>
     </row>
-    <row r="557" spans="6:21" ht="13">
+    <row r="557" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F557" s="4"/>
       <c r="I557" s="4"/>
       <c r="L557" s="4"/>
@@ -11092,7 +11090,7 @@
       <c r="R557" s="4"/>
       <c r="U557" s="4"/>
     </row>
-    <row r="558" spans="6:21" ht="13">
+    <row r="558" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F558" s="4"/>
       <c r="I558" s="4"/>
       <c r="L558" s="4"/>
@@ -11100,7 +11098,7 @@
       <c r="R558" s="4"/>
       <c r="U558" s="4"/>
     </row>
-    <row r="559" spans="6:21" ht="13">
+    <row r="559" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F559" s="4"/>
       <c r="I559" s="4"/>
       <c r="L559" s="4"/>
@@ -11108,7 +11106,7 @@
       <c r="R559" s="4"/>
       <c r="U559" s="4"/>
     </row>
-    <row r="560" spans="6:21" ht="13">
+    <row r="560" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F560" s="4"/>
       <c r="I560" s="4"/>
       <c r="L560" s="4"/>
@@ -11116,7 +11114,7 @@
       <c r="R560" s="4"/>
       <c r="U560" s="4"/>
     </row>
-    <row r="561" spans="6:21" ht="13">
+    <row r="561" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F561" s="4"/>
       <c r="I561" s="4"/>
       <c r="L561" s="4"/>
@@ -11124,7 +11122,7 @@
       <c r="R561" s="4"/>
       <c r="U561" s="4"/>
     </row>
-    <row r="562" spans="6:21" ht="13">
+    <row r="562" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F562" s="4"/>
       <c r="I562" s="4"/>
       <c r="L562" s="4"/>
@@ -11132,7 +11130,7 @@
       <c r="R562" s="4"/>
       <c r="U562" s="4"/>
     </row>
-    <row r="563" spans="6:21" ht="13">
+    <row r="563" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F563" s="4"/>
       <c r="I563" s="4"/>
       <c r="L563" s="4"/>
@@ -11140,7 +11138,7 @@
       <c r="R563" s="4"/>
       <c r="U563" s="4"/>
     </row>
-    <row r="564" spans="6:21" ht="13">
+    <row r="564" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F564" s="4"/>
       <c r="I564" s="4"/>
       <c r="L564" s="4"/>
@@ -11148,7 +11146,7 @@
       <c r="R564" s="4"/>
       <c r="U564" s="4"/>
     </row>
-    <row r="565" spans="6:21" ht="13">
+    <row r="565" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F565" s="4"/>
       <c r="I565" s="4"/>
       <c r="L565" s="4"/>
@@ -11156,7 +11154,7 @@
       <c r="R565" s="4"/>
       <c r="U565" s="4"/>
     </row>
-    <row r="566" spans="6:21" ht="13">
+    <row r="566" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F566" s="4"/>
       <c r="I566" s="4"/>
       <c r="L566" s="4"/>
@@ -11164,7 +11162,7 @@
       <c r="R566" s="4"/>
       <c r="U566" s="4"/>
     </row>
-    <row r="567" spans="6:21" ht="13">
+    <row r="567" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F567" s="4"/>
       <c r="I567" s="4"/>
       <c r="L567" s="4"/>
@@ -11172,7 +11170,7 @@
       <c r="R567" s="4"/>
       <c r="U567" s="4"/>
     </row>
-    <row r="568" spans="6:21" ht="13">
+    <row r="568" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F568" s="4"/>
       <c r="I568" s="4"/>
       <c r="L568" s="4"/>
@@ -11180,7 +11178,7 @@
       <c r="R568" s="4"/>
       <c r="U568" s="4"/>
     </row>
-    <row r="569" spans="6:21" ht="13">
+    <row r="569" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F569" s="4"/>
       <c r="I569" s="4"/>
       <c r="L569" s="4"/>
@@ -11188,7 +11186,7 @@
       <c r="R569" s="4"/>
       <c r="U569" s="4"/>
     </row>
-    <row r="570" spans="6:21" ht="13">
+    <row r="570" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F570" s="4"/>
       <c r="I570" s="4"/>
       <c r="L570" s="4"/>
@@ -11196,7 +11194,7 @@
       <c r="R570" s="4"/>
       <c r="U570" s="4"/>
     </row>
-    <row r="571" spans="6:21" ht="13">
+    <row r="571" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F571" s="4"/>
       <c r="I571" s="4"/>
       <c r="L571" s="4"/>
@@ -11204,7 +11202,7 @@
       <c r="R571" s="4"/>
       <c r="U571" s="4"/>
     </row>
-    <row r="572" spans="6:21" ht="13">
+    <row r="572" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F572" s="4"/>
       <c r="I572" s="4"/>
       <c r="L572" s="4"/>
@@ -11212,7 +11210,7 @@
       <c r="R572" s="4"/>
       <c r="U572" s="4"/>
     </row>
-    <row r="573" spans="6:21" ht="13">
+    <row r="573" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F573" s="4"/>
       <c r="I573" s="4"/>
       <c r="L573" s="4"/>
@@ -11220,7 +11218,7 @@
       <c r="R573" s="4"/>
       <c r="U573" s="4"/>
     </row>
-    <row r="574" spans="6:21" ht="13">
+    <row r="574" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F574" s="4"/>
       <c r="I574" s="4"/>
       <c r="L574" s="4"/>
@@ -11228,7 +11226,7 @@
       <c r="R574" s="4"/>
       <c r="U574" s="4"/>
     </row>
-    <row r="575" spans="6:21" ht="13">
+    <row r="575" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F575" s="4"/>
       <c r="I575" s="4"/>
       <c r="L575" s="4"/>
@@ -11236,7 +11234,7 @@
       <c r="R575" s="4"/>
       <c r="U575" s="4"/>
     </row>
-    <row r="576" spans="6:21" ht="13">
+    <row r="576" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F576" s="4"/>
       <c r="I576" s="4"/>
       <c r="L576" s="4"/>
@@ -11244,7 +11242,7 @@
       <c r="R576" s="4"/>
       <c r="U576" s="4"/>
     </row>
-    <row r="577" spans="6:21" ht="13">
+    <row r="577" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F577" s="4"/>
       <c r="I577" s="4"/>
       <c r="L577" s="4"/>
@@ -11252,7 +11250,7 @@
       <c r="R577" s="4"/>
       <c r="U577" s="4"/>
     </row>
-    <row r="578" spans="6:21" ht="13">
+    <row r="578" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F578" s="4"/>
       <c r="I578" s="4"/>
       <c r="L578" s="4"/>
@@ -11260,7 +11258,7 @@
       <c r="R578" s="4"/>
       <c r="U578" s="4"/>
     </row>
-    <row r="579" spans="6:21" ht="13">
+    <row r="579" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F579" s="4"/>
       <c r="I579" s="4"/>
       <c r="L579" s="4"/>
@@ -11268,7 +11266,7 @@
       <c r="R579" s="4"/>
       <c r="U579" s="4"/>
     </row>
-    <row r="580" spans="6:21" ht="13">
+    <row r="580" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F580" s="4"/>
       <c r="I580" s="4"/>
       <c r="L580" s="4"/>
@@ -11276,7 +11274,7 @@
       <c r="R580" s="4"/>
       <c r="U580" s="4"/>
     </row>
-    <row r="581" spans="6:21" ht="13">
+    <row r="581" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F581" s="4"/>
       <c r="I581" s="4"/>
       <c r="L581" s="4"/>
@@ -11284,7 +11282,7 @@
       <c r="R581" s="4"/>
       <c r="U581" s="4"/>
     </row>
-    <row r="582" spans="6:21" ht="13">
+    <row r="582" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F582" s="4"/>
       <c r="I582" s="4"/>
       <c r="L582" s="4"/>
@@ -11292,7 +11290,7 @@
       <c r="R582" s="4"/>
       <c r="U582" s="4"/>
     </row>
-    <row r="583" spans="6:21" ht="13">
+    <row r="583" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F583" s="4"/>
       <c r="I583" s="4"/>
       <c r="L583" s="4"/>
@@ -11300,7 +11298,7 @@
       <c r="R583" s="4"/>
       <c r="U583" s="4"/>
     </row>
-    <row r="584" spans="6:21" ht="13">
+    <row r="584" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F584" s="4"/>
       <c r="I584" s="4"/>
       <c r="L584" s="4"/>
@@ -11308,7 +11306,7 @@
       <c r="R584" s="4"/>
       <c r="U584" s="4"/>
     </row>
-    <row r="585" spans="6:21" ht="13">
+    <row r="585" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F585" s="4"/>
       <c r="I585" s="4"/>
       <c r="L585" s="4"/>
@@ -11316,7 +11314,7 @@
       <c r="R585" s="4"/>
       <c r="U585" s="4"/>
     </row>
-    <row r="586" spans="6:21" ht="13">
+    <row r="586" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F586" s="4"/>
       <c r="I586" s="4"/>
       <c r="L586" s="4"/>
@@ -11324,7 +11322,7 @@
       <c r="R586" s="4"/>
       <c r="U586" s="4"/>
     </row>
-    <row r="587" spans="6:21" ht="13">
+    <row r="587" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F587" s="4"/>
       <c r="I587" s="4"/>
       <c r="L587" s="4"/>
@@ -11332,7 +11330,7 @@
       <c r="R587" s="4"/>
       <c r="U587" s="4"/>
     </row>
-    <row r="588" spans="6:21" ht="13">
+    <row r="588" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F588" s="4"/>
       <c r="I588" s="4"/>
       <c r="L588" s="4"/>
@@ -11340,7 +11338,7 @@
       <c r="R588" s="4"/>
       <c r="U588" s="4"/>
     </row>
-    <row r="589" spans="6:21" ht="13">
+    <row r="589" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F589" s="4"/>
       <c r="I589" s="4"/>
       <c r="L589" s="4"/>
@@ -11348,7 +11346,7 @@
       <c r="R589" s="4"/>
       <c r="U589" s="4"/>
     </row>
-    <row r="590" spans="6:21" ht="13">
+    <row r="590" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F590" s="4"/>
       <c r="I590" s="4"/>
       <c r="L590" s="4"/>
@@ -11356,7 +11354,7 @@
       <c r="R590" s="4"/>
       <c r="U590" s="4"/>
     </row>
-    <row r="591" spans="6:21" ht="13">
+    <row r="591" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F591" s="4"/>
       <c r="I591" s="4"/>
       <c r="L591" s="4"/>
@@ -11364,7 +11362,7 @@
       <c r="R591" s="4"/>
       <c r="U591" s="4"/>
     </row>
-    <row r="592" spans="6:21" ht="13">
+    <row r="592" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F592" s="4"/>
       <c r="I592" s="4"/>
       <c r="L592" s="4"/>
@@ -11372,7 +11370,7 @@
       <c r="R592" s="4"/>
       <c r="U592" s="4"/>
     </row>
-    <row r="593" spans="6:21" ht="13">
+    <row r="593" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F593" s="4"/>
       <c r="I593" s="4"/>
       <c r="L593" s="4"/>
@@ -11380,7 +11378,7 @@
       <c r="R593" s="4"/>
       <c r="U593" s="4"/>
     </row>
-    <row r="594" spans="6:21" ht="13">
+    <row r="594" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F594" s="4"/>
       <c r="I594" s="4"/>
       <c r="L594" s="4"/>
@@ -11388,7 +11386,7 @@
       <c r="R594" s="4"/>
       <c r="U594" s="4"/>
     </row>
-    <row r="595" spans="6:21" ht="13">
+    <row r="595" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F595" s="4"/>
       <c r="I595" s="4"/>
       <c r="L595" s="4"/>
@@ -11396,7 +11394,7 @@
       <c r="R595" s="4"/>
       <c r="U595" s="4"/>
     </row>
-    <row r="596" spans="6:21" ht="13">
+    <row r="596" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F596" s="4"/>
       <c r="I596" s="4"/>
       <c r="L596" s="4"/>
@@ -11404,7 +11402,7 @@
       <c r="R596" s="4"/>
       <c r="U596" s="4"/>
     </row>
-    <row r="597" spans="6:21" ht="13">
+    <row r="597" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F597" s="4"/>
       <c r="I597" s="4"/>
       <c r="L597" s="4"/>
@@ -11412,7 +11410,7 @@
       <c r="R597" s="4"/>
       <c r="U597" s="4"/>
     </row>
-    <row r="598" spans="6:21" ht="13">
+    <row r="598" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F598" s="4"/>
       <c r="I598" s="4"/>
       <c r="L598" s="4"/>
@@ -11420,7 +11418,7 @@
       <c r="R598" s="4"/>
       <c r="U598" s="4"/>
     </row>
-    <row r="599" spans="6:21" ht="13">
+    <row r="599" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F599" s="4"/>
       <c r="I599" s="4"/>
       <c r="L599" s="4"/>
@@ -11428,7 +11426,7 @@
       <c r="R599" s="4"/>
       <c r="U599" s="4"/>
     </row>
-    <row r="600" spans="6:21" ht="13">
+    <row r="600" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F600" s="4"/>
       <c r="I600" s="4"/>
       <c r="L600" s="4"/>
@@ -11436,7 +11434,7 @@
       <c r="R600" s="4"/>
       <c r="U600" s="4"/>
     </row>
-    <row r="601" spans="6:21" ht="13">
+    <row r="601" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F601" s="4"/>
       <c r="I601" s="4"/>
       <c r="L601" s="4"/>
@@ -11444,7 +11442,7 @@
       <c r="R601" s="4"/>
       <c r="U601" s="4"/>
     </row>
-    <row r="602" spans="6:21" ht="13">
+    <row r="602" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F602" s="4"/>
       <c r="I602" s="4"/>
       <c r="L602" s="4"/>
@@ -11452,7 +11450,7 @@
       <c r="R602" s="4"/>
       <c r="U602" s="4"/>
     </row>
-    <row r="603" spans="6:21" ht="13">
+    <row r="603" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F603" s="4"/>
       <c r="I603" s="4"/>
       <c r="L603" s="4"/>
@@ -11460,7 +11458,7 @@
       <c r="R603" s="4"/>
       <c r="U603" s="4"/>
     </row>
-    <row r="604" spans="6:21" ht="13">
+    <row r="604" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F604" s="4"/>
       <c r="I604" s="4"/>
       <c r="L604" s="4"/>
@@ -11468,7 +11466,7 @@
       <c r="R604" s="4"/>
       <c r="U604" s="4"/>
     </row>
-    <row r="605" spans="6:21" ht="13">
+    <row r="605" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F605" s="4"/>
       <c r="I605" s="4"/>
       <c r="L605" s="4"/>
@@ -11476,7 +11474,7 @@
       <c r="R605" s="4"/>
       <c r="U605" s="4"/>
     </row>
-    <row r="606" spans="6:21" ht="13">
+    <row r="606" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F606" s="4"/>
       <c r="I606" s="4"/>
       <c r="L606" s="4"/>
@@ -11484,7 +11482,7 @@
       <c r="R606" s="4"/>
       <c r="U606" s="4"/>
     </row>
-    <row r="607" spans="6:21" ht="13">
+    <row r="607" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F607" s="4"/>
       <c r="I607" s="4"/>
       <c r="L607" s="4"/>
@@ -11492,7 +11490,7 @@
       <c r="R607" s="4"/>
       <c r="U607" s="4"/>
     </row>
-    <row r="608" spans="6:21" ht="13">
+    <row r="608" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F608" s="4"/>
       <c r="I608" s="4"/>
       <c r="L608" s="4"/>
@@ -11500,7 +11498,7 @@
       <c r="R608" s="4"/>
       <c r="U608" s="4"/>
     </row>
-    <row r="609" spans="6:21" ht="13">
+    <row r="609" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F609" s="4"/>
       <c r="I609" s="4"/>
       <c r="L609" s="4"/>
@@ -11508,7 +11506,7 @@
       <c r="R609" s="4"/>
       <c r="U609" s="4"/>
     </row>
-    <row r="610" spans="6:21" ht="13">
+    <row r="610" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F610" s="4"/>
       <c r="I610" s="4"/>
       <c r="L610" s="4"/>
@@ -11516,7 +11514,7 @@
       <c r="R610" s="4"/>
       <c r="U610" s="4"/>
     </row>
-    <row r="611" spans="6:21" ht="13">
+    <row r="611" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F611" s="4"/>
       <c r="I611" s="4"/>
       <c r="L611" s="4"/>
@@ -11524,7 +11522,7 @@
       <c r="R611" s="4"/>
       <c r="U611" s="4"/>
     </row>
-    <row r="612" spans="6:21" ht="13">
+    <row r="612" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F612" s="4"/>
       <c r="I612" s="4"/>
       <c r="L612" s="4"/>
@@ -11532,7 +11530,7 @@
       <c r="R612" s="4"/>
       <c r="U612" s="4"/>
     </row>
-    <row r="613" spans="6:21" ht="13">
+    <row r="613" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F613" s="4"/>
       <c r="I613" s="4"/>
       <c r="L613" s="4"/>
@@ -11540,7 +11538,7 @@
       <c r="R613" s="4"/>
       <c r="U613" s="4"/>
     </row>
-    <row r="614" spans="6:21" ht="13">
+    <row r="614" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F614" s="4"/>
       <c r="I614" s="4"/>
       <c r="L614" s="4"/>
@@ -11548,7 +11546,7 @@
       <c r="R614" s="4"/>
       <c r="U614" s="4"/>
     </row>
-    <row r="615" spans="6:21" ht="13">
+    <row r="615" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F615" s="4"/>
       <c r="I615" s="4"/>
       <c r="L615" s="4"/>
@@ -11556,7 +11554,7 @@
       <c r="R615" s="4"/>
       <c r="U615" s="4"/>
     </row>
-    <row r="616" spans="6:21" ht="13">
+    <row r="616" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F616" s="4"/>
       <c r="I616" s="4"/>
       <c r="L616" s="4"/>
@@ -11564,7 +11562,7 @@
       <c r="R616" s="4"/>
       <c r="U616" s="4"/>
     </row>
-    <row r="617" spans="6:21" ht="13">
+    <row r="617" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F617" s="4"/>
       <c r="I617" s="4"/>
       <c r="L617" s="4"/>
@@ -11572,7 +11570,7 @@
       <c r="R617" s="4"/>
       <c r="U617" s="4"/>
     </row>
-    <row r="618" spans="6:21" ht="13">
+    <row r="618" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F618" s="4"/>
       <c r="I618" s="4"/>
       <c r="L618" s="4"/>
@@ -11580,7 +11578,7 @@
       <c r="R618" s="4"/>
       <c r="U618" s="4"/>
     </row>
-    <row r="619" spans="6:21" ht="13">
+    <row r="619" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F619" s="4"/>
       <c r="I619" s="4"/>
       <c r="L619" s="4"/>
@@ -11588,7 +11586,7 @@
       <c r="R619" s="4"/>
       <c r="U619" s="4"/>
     </row>
-    <row r="620" spans="6:21" ht="13">
+    <row r="620" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F620" s="4"/>
       <c r="I620" s="4"/>
       <c r="L620" s="4"/>
@@ -11596,7 +11594,7 @@
       <c r="R620" s="4"/>
       <c r="U620" s="4"/>
     </row>
-    <row r="621" spans="6:21" ht="13">
+    <row r="621" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F621" s="4"/>
       <c r="I621" s="4"/>
       <c r="L621" s="4"/>
@@ -11604,7 +11602,7 @@
       <c r="R621" s="4"/>
       <c r="U621" s="4"/>
     </row>
-    <row r="622" spans="6:21" ht="13">
+    <row r="622" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F622" s="4"/>
       <c r="I622" s="4"/>
       <c r="L622" s="4"/>
@@ -11612,7 +11610,7 @@
       <c r="R622" s="4"/>
       <c r="U622" s="4"/>
     </row>
-    <row r="623" spans="6:21" ht="13">
+    <row r="623" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F623" s="4"/>
       <c r="I623" s="4"/>
       <c r="L623" s="4"/>
@@ -11620,7 +11618,7 @@
       <c r="R623" s="4"/>
       <c r="U623" s="4"/>
     </row>
-    <row r="624" spans="6:21" ht="13">
+    <row r="624" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F624" s="4"/>
       <c r="I624" s="4"/>
       <c r="L624" s="4"/>
@@ -11628,7 +11626,7 @@
       <c r="R624" s="4"/>
       <c r="U624" s="4"/>
     </row>
-    <row r="625" spans="6:21" ht="13">
+    <row r="625" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F625" s="4"/>
       <c r="I625" s="4"/>
       <c r="L625" s="4"/>
@@ -11636,7 +11634,7 @@
       <c r="R625" s="4"/>
       <c r="U625" s="4"/>
     </row>
-    <row r="626" spans="6:21" ht="13">
+    <row r="626" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F626" s="4"/>
       <c r="I626" s="4"/>
       <c r="L626" s="4"/>
@@ -11644,7 +11642,7 @@
       <c r="R626" s="4"/>
       <c r="U626" s="4"/>
     </row>
-    <row r="627" spans="6:21" ht="13">
+    <row r="627" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F627" s="4"/>
       <c r="I627" s="4"/>
       <c r="L627" s="4"/>
@@ -11652,7 +11650,7 @@
       <c r="R627" s="4"/>
       <c r="U627" s="4"/>
     </row>
-    <row r="628" spans="6:21" ht="13">
+    <row r="628" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F628" s="4"/>
       <c r="I628" s="4"/>
       <c r="L628" s="4"/>
@@ -11660,7 +11658,7 @@
       <c r="R628" s="4"/>
       <c r="U628" s="4"/>
     </row>
-    <row r="629" spans="6:21" ht="13">
+    <row r="629" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F629" s="4"/>
       <c r="I629" s="4"/>
       <c r="L629" s="4"/>
@@ -11668,7 +11666,7 @@
       <c r="R629" s="4"/>
       <c r="U629" s="4"/>
     </row>
-    <row r="630" spans="6:21" ht="13">
+    <row r="630" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F630" s="4"/>
       <c r="I630" s="4"/>
       <c r="L630" s="4"/>
@@ -11676,7 +11674,7 @@
       <c r="R630" s="4"/>
       <c r="U630" s="4"/>
     </row>
-    <row r="631" spans="6:21" ht="13">
+    <row r="631" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F631" s="4"/>
       <c r="I631" s="4"/>
       <c r="L631" s="4"/>
@@ -11684,7 +11682,7 @@
       <c r="R631" s="4"/>
       <c r="U631" s="4"/>
     </row>
-    <row r="632" spans="6:21" ht="13">
+    <row r="632" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F632" s="4"/>
       <c r="I632" s="4"/>
       <c r="L632" s="4"/>
@@ -11692,7 +11690,7 @@
       <c r="R632" s="4"/>
       <c r="U632" s="4"/>
     </row>
-    <row r="633" spans="6:21" ht="13">
+    <row r="633" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F633" s="4"/>
       <c r="I633" s="4"/>
       <c r="L633" s="4"/>
@@ -11700,7 +11698,7 @@
       <c r="R633" s="4"/>
       <c r="U633" s="4"/>
     </row>
-    <row r="634" spans="6:21" ht="13">
+    <row r="634" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F634" s="4"/>
       <c r="I634" s="4"/>
       <c r="L634" s="4"/>
@@ -11708,7 +11706,7 @@
       <c r="R634" s="4"/>
       <c r="U634" s="4"/>
     </row>
-    <row r="635" spans="6:21" ht="13">
+    <row r="635" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F635" s="4"/>
       <c r="I635" s="4"/>
       <c r="L635" s="4"/>
@@ -11716,7 +11714,7 @@
       <c r="R635" s="4"/>
       <c r="U635" s="4"/>
     </row>
-    <row r="636" spans="6:21" ht="13">
+    <row r="636" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F636" s="4"/>
       <c r="I636" s="4"/>
       <c r="L636" s="4"/>
@@ -11724,7 +11722,7 @@
       <c r="R636" s="4"/>
       <c r="U636" s="4"/>
     </row>
-    <row r="637" spans="6:21" ht="13">
+    <row r="637" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F637" s="4"/>
       <c r="I637" s="4"/>
       <c r="L637" s="4"/>
@@ -11732,7 +11730,7 @@
       <c r="R637" s="4"/>
       <c r="U637" s="4"/>
     </row>
-    <row r="638" spans="6:21" ht="13">
+    <row r="638" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F638" s="4"/>
       <c r="I638" s="4"/>
       <c r="L638" s="4"/>
@@ -11740,7 +11738,7 @@
       <c r="R638" s="4"/>
       <c r="U638" s="4"/>
     </row>
-    <row r="639" spans="6:21" ht="13">
+    <row r="639" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F639" s="4"/>
       <c r="I639" s="4"/>
       <c r="L639" s="4"/>
@@ -11748,7 +11746,7 @@
       <c r="R639" s="4"/>
       <c r="U639" s="4"/>
     </row>
-    <row r="640" spans="6:21" ht="13">
+    <row r="640" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F640" s="4"/>
       <c r="I640" s="4"/>
       <c r="L640" s="4"/>
@@ -11756,7 +11754,7 @@
       <c r="R640" s="4"/>
       <c r="U640" s="4"/>
     </row>
-    <row r="641" spans="6:21" ht="13">
+    <row r="641" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F641" s="4"/>
       <c r="I641" s="4"/>
       <c r="L641" s="4"/>
@@ -11764,7 +11762,7 @@
       <c r="R641" s="4"/>
       <c r="U641" s="4"/>
     </row>
-    <row r="642" spans="6:21" ht="13">
+    <row r="642" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F642" s="4"/>
       <c r="I642" s="4"/>
       <c r="L642" s="4"/>
@@ -11772,7 +11770,7 @@
       <c r="R642" s="4"/>
       <c r="U642" s="4"/>
     </row>
-    <row r="643" spans="6:21" ht="13">
+    <row r="643" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F643" s="4"/>
       <c r="I643" s="4"/>
       <c r="L643" s="4"/>
@@ -11780,7 +11778,7 @@
       <c r="R643" s="4"/>
       <c r="U643" s="4"/>
     </row>
-    <row r="644" spans="6:21" ht="13">
+    <row r="644" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F644" s="4"/>
       <c r="I644" s="4"/>
       <c r="L644" s="4"/>
@@ -11788,7 +11786,7 @@
       <c r="R644" s="4"/>
       <c r="U644" s="4"/>
     </row>
-    <row r="645" spans="6:21" ht="13">
+    <row r="645" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F645" s="4"/>
       <c r="I645" s="4"/>
       <c r="L645" s="4"/>
@@ -11796,7 +11794,7 @@
       <c r="R645" s="4"/>
       <c r="U645" s="4"/>
     </row>
-    <row r="646" spans="6:21" ht="13">
+    <row r="646" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F646" s="4"/>
       <c r="I646" s="4"/>
       <c r="L646" s="4"/>
@@ -11804,7 +11802,7 @@
       <c r="R646" s="4"/>
       <c r="U646" s="4"/>
     </row>
-    <row r="647" spans="6:21" ht="13">
+    <row r="647" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F647" s="4"/>
       <c r="I647" s="4"/>
       <c r="L647" s="4"/>
@@ -11812,7 +11810,7 @@
       <c r="R647" s="4"/>
       <c r="U647" s="4"/>
     </row>
-    <row r="648" spans="6:21" ht="13">
+    <row r="648" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F648" s="4"/>
       <c r="I648" s="4"/>
       <c r="L648" s="4"/>
@@ -11820,7 +11818,7 @@
       <c r="R648" s="4"/>
       <c r="U648" s="4"/>
     </row>
-    <row r="649" spans="6:21" ht="13">
+    <row r="649" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F649" s="4"/>
       <c r="I649" s="4"/>
       <c r="L649" s="4"/>
@@ -11828,7 +11826,7 @@
       <c r="R649" s="4"/>
       <c r="U649" s="4"/>
     </row>
-    <row r="650" spans="6:21" ht="13">
+    <row r="650" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F650" s="4"/>
       <c r="I650" s="4"/>
       <c r="L650" s="4"/>
@@ -11836,7 +11834,7 @@
       <c r="R650" s="4"/>
       <c r="U650" s="4"/>
     </row>
-    <row r="651" spans="6:21" ht="13">
+    <row r="651" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F651" s="4"/>
       <c r="I651" s="4"/>
       <c r="L651" s="4"/>
@@ -11844,7 +11842,7 @@
       <c r="R651" s="4"/>
       <c r="U651" s="4"/>
     </row>
-    <row r="652" spans="6:21" ht="13">
+    <row r="652" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F652" s="4"/>
       <c r="I652" s="4"/>
       <c r="L652" s="4"/>
@@ -11852,7 +11850,7 @@
       <c r="R652" s="4"/>
       <c r="U652" s="4"/>
     </row>
-    <row r="653" spans="6:21" ht="13">
+    <row r="653" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F653" s="4"/>
       <c r="I653" s="4"/>
       <c r="L653" s="4"/>
@@ -11860,7 +11858,7 @@
       <c r="R653" s="4"/>
       <c r="U653" s="4"/>
     </row>
-    <row r="654" spans="6:21" ht="13">
+    <row r="654" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F654" s="4"/>
       <c r="I654" s="4"/>
       <c r="L654" s="4"/>
@@ -11868,7 +11866,7 @@
       <c r="R654" s="4"/>
       <c r="U654" s="4"/>
     </row>
-    <row r="655" spans="6:21" ht="13">
+    <row r="655" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F655" s="4"/>
       <c r="I655" s="4"/>
       <c r="L655" s="4"/>
@@ -11876,7 +11874,7 @@
       <c r="R655" s="4"/>
       <c r="U655" s="4"/>
     </row>
-    <row r="656" spans="6:21" ht="13">
+    <row r="656" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F656" s="4"/>
       <c r="I656" s="4"/>
       <c r="L656" s="4"/>
@@ -11884,7 +11882,7 @@
       <c r="R656" s="4"/>
       <c r="U656" s="4"/>
     </row>
-    <row r="657" spans="6:21" ht="13">
+    <row r="657" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F657" s="4"/>
       <c r="I657" s="4"/>
       <c r="L657" s="4"/>
@@ -11892,7 +11890,7 @@
       <c r="R657" s="4"/>
       <c r="U657" s="4"/>
     </row>
-    <row r="658" spans="6:21" ht="13">
+    <row r="658" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F658" s="4"/>
       <c r="I658" s="4"/>
       <c r="L658" s="4"/>
@@ -11900,7 +11898,7 @@
       <c r="R658" s="4"/>
       <c r="U658" s="4"/>
     </row>
-    <row r="659" spans="6:21" ht="13">
+    <row r="659" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F659" s="4"/>
       <c r="I659" s="4"/>
       <c r="L659" s="4"/>
@@ -11908,7 +11906,7 @@
       <c r="R659" s="4"/>
       <c r="U659" s="4"/>
     </row>
-    <row r="660" spans="6:21" ht="13">
+    <row r="660" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F660" s="4"/>
       <c r="I660" s="4"/>
       <c r="L660" s="4"/>
@@ -11916,7 +11914,7 @@
       <c r="R660" s="4"/>
       <c r="U660" s="4"/>
     </row>
-    <row r="661" spans="6:21" ht="13">
+    <row r="661" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F661" s="4"/>
       <c r="I661" s="4"/>
       <c r="L661" s="4"/>
@@ -11924,7 +11922,7 @@
       <c r="R661" s="4"/>
       <c r="U661" s="4"/>
     </row>
-    <row r="662" spans="6:21" ht="13">
+    <row r="662" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F662" s="4"/>
       <c r="I662" s="4"/>
       <c r="L662" s="4"/>
@@ -11932,7 +11930,7 @@
       <c r="R662" s="4"/>
       <c r="U662" s="4"/>
     </row>
-    <row r="663" spans="6:21" ht="13">
+    <row r="663" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F663" s="4"/>
       <c r="I663" s="4"/>
       <c r="L663" s="4"/>
@@ -11940,7 +11938,7 @@
       <c r="R663" s="4"/>
       <c r="U663" s="4"/>
     </row>
-    <row r="664" spans="6:21" ht="13">
+    <row r="664" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F664" s="4"/>
       <c r="I664" s="4"/>
       <c r="L664" s="4"/>
@@ -11948,7 +11946,7 @@
       <c r="R664" s="4"/>
       <c r="U664" s="4"/>
     </row>
-    <row r="665" spans="6:21" ht="13">
+    <row r="665" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F665" s="4"/>
       <c r="I665" s="4"/>
       <c r="L665" s="4"/>
@@ -11956,7 +11954,7 @@
       <c r="R665" s="4"/>
       <c r="U665" s="4"/>
     </row>
-    <row r="666" spans="6:21" ht="13">
+    <row r="666" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F666" s="4"/>
       <c r="I666" s="4"/>
       <c r="L666" s="4"/>
@@ -11964,7 +11962,7 @@
       <c r="R666" s="4"/>
       <c r="U666" s="4"/>
     </row>
-    <row r="667" spans="6:21" ht="13">
+    <row r="667" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F667" s="4"/>
       <c r="I667" s="4"/>
       <c r="L667" s="4"/>
@@ -11972,7 +11970,7 @@
       <c r="R667" s="4"/>
       <c r="U667" s="4"/>
     </row>
-    <row r="668" spans="6:21" ht="13">
+    <row r="668" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F668" s="4"/>
       <c r="I668" s="4"/>
       <c r="L668" s="4"/>
@@ -11980,7 +11978,7 @@
       <c r="R668" s="4"/>
       <c r="U668" s="4"/>
     </row>
-    <row r="669" spans="6:21" ht="13">
+    <row r="669" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F669" s="4"/>
       <c r="I669" s="4"/>
       <c r="L669" s="4"/>
@@ -11988,7 +11986,7 @@
       <c r="R669" s="4"/>
       <c r="U669" s="4"/>
     </row>
-    <row r="670" spans="6:21" ht="13">
+    <row r="670" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F670" s="4"/>
       <c r="I670" s="4"/>
       <c r="L670" s="4"/>
@@ -11996,7 +11994,7 @@
       <c r="R670" s="4"/>
       <c r="U670" s="4"/>
     </row>
-    <row r="671" spans="6:21" ht="13">
+    <row r="671" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F671" s="4"/>
       <c r="I671" s="4"/>
       <c r="L671" s="4"/>
@@ -12004,7 +12002,7 @@
       <c r="R671" s="4"/>
       <c r="U671" s="4"/>
     </row>
-    <row r="672" spans="6:21" ht="13">
+    <row r="672" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F672" s="4"/>
       <c r="I672" s="4"/>
       <c r="L672" s="4"/>
@@ -12012,7 +12010,7 @@
       <c r="R672" s="4"/>
       <c r="U672" s="4"/>
     </row>
-    <row r="673" spans="6:21" ht="13">
+    <row r="673" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F673" s="4"/>
       <c r="I673" s="4"/>
       <c r="L673" s="4"/>
@@ -12020,7 +12018,7 @@
       <c r="R673" s="4"/>
       <c r="U673" s="4"/>
     </row>
-    <row r="674" spans="6:21" ht="13">
+    <row r="674" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F674" s="4"/>
       <c r="I674" s="4"/>
       <c r="L674" s="4"/>
@@ -12028,7 +12026,7 @@
       <c r="R674" s="4"/>
       <c r="U674" s="4"/>
     </row>
-    <row r="675" spans="6:21" ht="13">
+    <row r="675" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F675" s="4"/>
       <c r="I675" s="4"/>
       <c r="L675" s="4"/>
@@ -12036,7 +12034,7 @@
       <c r="R675" s="4"/>
       <c r="U675" s="4"/>
     </row>
-    <row r="676" spans="6:21" ht="13">
+    <row r="676" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F676" s="4"/>
       <c r="I676" s="4"/>
       <c r="L676" s="4"/>
@@ -12044,7 +12042,7 @@
       <c r="R676" s="4"/>
       <c r="U676" s="4"/>
     </row>
-    <row r="677" spans="6:21" ht="13">
+    <row r="677" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F677" s="4"/>
       <c r="I677" s="4"/>
       <c r="L677" s="4"/>
@@ -12052,7 +12050,7 @@
       <c r="R677" s="4"/>
       <c r="U677" s="4"/>
     </row>
-    <row r="678" spans="6:21" ht="13">
+    <row r="678" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F678" s="4"/>
       <c r="I678" s="4"/>
       <c r="L678" s="4"/>
@@ -12060,7 +12058,7 @@
       <c r="R678" s="4"/>
       <c r="U678" s="4"/>
     </row>
-    <row r="679" spans="6:21" ht="13">
+    <row r="679" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F679" s="4"/>
       <c r="I679" s="4"/>
       <c r="L679" s="4"/>
@@ -12068,7 +12066,7 @@
       <c r="R679" s="4"/>
       <c r="U679" s="4"/>
     </row>
-    <row r="680" spans="6:21" ht="13">
+    <row r="680" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F680" s="4"/>
       <c r="I680" s="4"/>
       <c r="L680" s="4"/>
@@ -12076,7 +12074,7 @@
       <c r="R680" s="4"/>
       <c r="U680" s="4"/>
     </row>
-    <row r="681" spans="6:21" ht="13">
+    <row r="681" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F681" s="4"/>
       <c r="I681" s="4"/>
       <c r="L681" s="4"/>
@@ -12084,7 +12082,7 @@
       <c r="R681" s="4"/>
       <c r="U681" s="4"/>
     </row>
-    <row r="682" spans="6:21" ht="13">
+    <row r="682" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F682" s="4"/>
       <c r="I682" s="4"/>
       <c r="L682" s="4"/>
@@ -12092,7 +12090,7 @@
       <c r="R682" s="4"/>
       <c r="U682" s="4"/>
     </row>
-    <row r="683" spans="6:21" ht="13">
+    <row r="683" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F683" s="4"/>
       <c r="I683" s="4"/>
       <c r="L683" s="4"/>
@@ -12100,7 +12098,7 @@
       <c r="R683" s="4"/>
       <c r="U683" s="4"/>
     </row>
-    <row r="684" spans="6:21" ht="13">
+    <row r="684" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F684" s="4"/>
       <c r="I684" s="4"/>
       <c r="L684" s="4"/>
@@ -12108,7 +12106,7 @@
       <c r="R684" s="4"/>
       <c r="U684" s="4"/>
     </row>
-    <row r="685" spans="6:21" ht="13">
+    <row r="685" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F685" s="4"/>
       <c r="I685" s="4"/>
       <c r="L685" s="4"/>
@@ -12116,7 +12114,7 @@
       <c r="R685" s="4"/>
       <c r="U685" s="4"/>
     </row>
-    <row r="686" spans="6:21" ht="13">
+    <row r="686" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F686" s="4"/>
       <c r="I686" s="4"/>
       <c r="L686" s="4"/>
@@ -12124,7 +12122,7 @@
       <c r="R686" s="4"/>
       <c r="U686" s="4"/>
     </row>
-    <row r="687" spans="6:21" ht="13">
+    <row r="687" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F687" s="4"/>
       <c r="I687" s="4"/>
       <c r="L687" s="4"/>
@@ -12132,7 +12130,7 @@
       <c r="R687" s="4"/>
       <c r="U687" s="4"/>
     </row>
-    <row r="688" spans="6:21" ht="13">
+    <row r="688" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F688" s="4"/>
       <c r="I688" s="4"/>
       <c r="L688" s="4"/>
@@ -12140,7 +12138,7 @@
       <c r="R688" s="4"/>
       <c r="U688" s="4"/>
     </row>
-    <row r="689" spans="6:21" ht="13">
+    <row r="689" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F689" s="4"/>
       <c r="I689" s="4"/>
       <c r="L689" s="4"/>
@@ -12148,7 +12146,7 @@
       <c r="R689" s="4"/>
       <c r="U689" s="4"/>
     </row>
-    <row r="690" spans="6:21" ht="13">
+    <row r="690" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F690" s="4"/>
       <c r="I690" s="4"/>
       <c r="L690" s="4"/>
@@ -12156,7 +12154,7 @@
       <c r="R690" s="4"/>
       <c r="U690" s="4"/>
     </row>
-    <row r="691" spans="6:21" ht="13">
+    <row r="691" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F691" s="4"/>
       <c r="I691" s="4"/>
       <c r="L691" s="4"/>
@@ -12164,7 +12162,7 @@
       <c r="R691" s="4"/>
       <c r="U691" s="4"/>
     </row>
-    <row r="692" spans="6:21" ht="13">
+    <row r="692" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F692" s="4"/>
       <c r="I692" s="4"/>
       <c r="L692" s="4"/>
@@ -12172,7 +12170,7 @@
       <c r="R692" s="4"/>
       <c r="U692" s="4"/>
     </row>
-    <row r="693" spans="6:21" ht="13">
+    <row r="693" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F693" s="4"/>
       <c r="I693" s="4"/>
       <c r="L693" s="4"/>
@@ -12180,7 +12178,7 @@
       <c r="R693" s="4"/>
       <c r="U693" s="4"/>
     </row>
-    <row r="694" spans="6:21" ht="13">
+    <row r="694" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F694" s="4"/>
       <c r="I694" s="4"/>
       <c r="L694" s="4"/>
@@ -12188,7 +12186,7 @@
       <c r="R694" s="4"/>
       <c r="U694" s="4"/>
     </row>
-    <row r="695" spans="6:21" ht="13">
+    <row r="695" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F695" s="4"/>
       <c r="I695" s="4"/>
       <c r="L695" s="4"/>
@@ -12196,7 +12194,7 @@
       <c r="R695" s="4"/>
       <c r="U695" s="4"/>
     </row>
-    <row r="696" spans="6:21" ht="13">
+    <row r="696" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F696" s="4"/>
       <c r="I696" s="4"/>
       <c r="L696" s="4"/>
@@ -12204,7 +12202,7 @@
       <c r="R696" s="4"/>
       <c r="U696" s="4"/>
     </row>
-    <row r="697" spans="6:21" ht="13">
+    <row r="697" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F697" s="4"/>
       <c r="I697" s="4"/>
       <c r="L697" s="4"/>
@@ -12212,7 +12210,7 @@
       <c r="R697" s="4"/>
       <c r="U697" s="4"/>
     </row>
-    <row r="698" spans="6:21" ht="13">
+    <row r="698" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F698" s="4"/>
       <c r="I698" s="4"/>
       <c r="L698" s="4"/>
@@ -12220,7 +12218,7 @@
       <c r="R698" s="4"/>
       <c r="U698" s="4"/>
     </row>
-    <row r="699" spans="6:21" ht="13">
+    <row r="699" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F699" s="4"/>
       <c r="I699" s="4"/>
       <c r="L699" s="4"/>
@@ -12228,7 +12226,7 @@
       <c r="R699" s="4"/>
       <c r="U699" s="4"/>
     </row>
-    <row r="700" spans="6:21" ht="13">
+    <row r="700" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F700" s="4"/>
       <c r="I700" s="4"/>
       <c r="L700" s="4"/>
@@ -12236,7 +12234,7 @@
       <c r="R700" s="4"/>
       <c r="U700" s="4"/>
     </row>
-    <row r="701" spans="6:21" ht="13">
+    <row r="701" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F701" s="4"/>
       <c r="I701" s="4"/>
       <c r="L701" s="4"/>
@@ -12244,7 +12242,7 @@
       <c r="R701" s="4"/>
       <c r="U701" s="4"/>
     </row>
-    <row r="702" spans="6:21" ht="13">
+    <row r="702" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F702" s="4"/>
       <c r="I702" s="4"/>
       <c r="L702" s="4"/>
@@ -12252,7 +12250,7 @@
       <c r="R702" s="4"/>
       <c r="U702" s="4"/>
     </row>
-    <row r="703" spans="6:21" ht="13">
+    <row r="703" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F703" s="4"/>
       <c r="I703" s="4"/>
       <c r="L703" s="4"/>
@@ -12260,7 +12258,7 @@
       <c r="R703" s="4"/>
       <c r="U703" s="4"/>
     </row>
-    <row r="704" spans="6:21" ht="13">
+    <row r="704" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F704" s="4"/>
       <c r="I704" s="4"/>
       <c r="L704" s="4"/>
@@ -12268,7 +12266,7 @@
       <c r="R704" s="4"/>
       <c r="U704" s="4"/>
     </row>
-    <row r="705" spans="6:21" ht="13">
+    <row r="705" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F705" s="4"/>
       <c r="I705" s="4"/>
       <c r="L705" s="4"/>
@@ -12276,7 +12274,7 @@
       <c r="R705" s="4"/>
       <c r="U705" s="4"/>
     </row>
-    <row r="706" spans="6:21" ht="13">
+    <row r="706" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F706" s="4"/>
       <c r="I706" s="4"/>
       <c r="L706" s="4"/>
@@ -12284,7 +12282,7 @@
       <c r="R706" s="4"/>
       <c r="U706" s="4"/>
     </row>
-    <row r="707" spans="6:21" ht="13">
+    <row r="707" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F707" s="4"/>
       <c r="I707" s="4"/>
       <c r="L707" s="4"/>
@@ -12292,7 +12290,7 @@
       <c r="R707" s="4"/>
       <c r="U707" s="4"/>
     </row>
-    <row r="708" spans="6:21" ht="13">
+    <row r="708" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F708" s="4"/>
       <c r="I708" s="4"/>
       <c r="L708" s="4"/>
@@ -12300,7 +12298,7 @@
       <c r="R708" s="4"/>
       <c r="U708" s="4"/>
     </row>
-    <row r="709" spans="6:21" ht="13">
+    <row r="709" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F709" s="4"/>
       <c r="I709" s="4"/>
       <c r="L709" s="4"/>
@@ -12308,7 +12306,7 @@
       <c r="R709" s="4"/>
       <c r="U709" s="4"/>
     </row>
-    <row r="710" spans="6:21" ht="13">
+    <row r="710" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F710" s="4"/>
       <c r="I710" s="4"/>
       <c r="L710" s="4"/>
@@ -12316,7 +12314,7 @@
       <c r="R710" s="4"/>
       <c r="U710" s="4"/>
     </row>
-    <row r="711" spans="6:21" ht="13">
+    <row r="711" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F711" s="4"/>
       <c r="I711" s="4"/>
       <c r="L711" s="4"/>
@@ -12324,7 +12322,7 @@
       <c r="R711" s="4"/>
       <c r="U711" s="4"/>
     </row>
-    <row r="712" spans="6:21" ht="13">
+    <row r="712" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F712" s="4"/>
       <c r="I712" s="4"/>
       <c r="L712" s="4"/>
@@ -12332,7 +12330,7 @@
       <c r="R712" s="4"/>
       <c r="U712" s="4"/>
     </row>
-    <row r="713" spans="6:21" ht="13">
+    <row r="713" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F713" s="4"/>
       <c r="I713" s="4"/>
       <c r="L713" s="4"/>
@@ -12340,7 +12338,7 @@
       <c r="R713" s="4"/>
       <c r="U713" s="4"/>
     </row>
-    <row r="714" spans="6:21" ht="13">
+    <row r="714" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F714" s="4"/>
       <c r="I714" s="4"/>
       <c r="L714" s="4"/>
@@ -12348,7 +12346,7 @@
       <c r="R714" s="4"/>
       <c r="U714" s="4"/>
     </row>
-    <row r="715" spans="6:21" ht="13">
+    <row r="715" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F715" s="4"/>
       <c r="I715" s="4"/>
       <c r="L715" s="4"/>
@@ -12356,7 +12354,7 @@
       <c r="R715" s="4"/>
       <c r="U715" s="4"/>
     </row>
-    <row r="716" spans="6:21" ht="13">
+    <row r="716" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F716" s="4"/>
       <c r="I716" s="4"/>
       <c r="L716" s="4"/>
@@ -12364,7 +12362,7 @@
       <c r="R716" s="4"/>
       <c r="U716" s="4"/>
     </row>
-    <row r="717" spans="6:21" ht="13">
+    <row r="717" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F717" s="4"/>
       <c r="I717" s="4"/>
       <c r="L717" s="4"/>
@@ -12372,7 +12370,7 @@
       <c r="R717" s="4"/>
       <c r="U717" s="4"/>
     </row>
-    <row r="718" spans="6:21" ht="13">
+    <row r="718" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F718" s="4"/>
       <c r="I718" s="4"/>
       <c r="L718" s="4"/>
@@ -12380,7 +12378,7 @@
       <c r="R718" s="4"/>
       <c r="U718" s="4"/>
     </row>
-    <row r="719" spans="6:21" ht="13">
+    <row r="719" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F719" s="4"/>
       <c r="I719" s="4"/>
       <c r="L719" s="4"/>
@@ -12388,7 +12386,7 @@
       <c r="R719" s="4"/>
       <c r="U719" s="4"/>
     </row>
-    <row r="720" spans="6:21" ht="13">
+    <row r="720" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F720" s="4"/>
       <c r="I720" s="4"/>
       <c r="L720" s="4"/>
@@ -12396,7 +12394,7 @@
       <c r="R720" s="4"/>
       <c r="U720" s="4"/>
     </row>
-    <row r="721" spans="6:21" ht="13">
+    <row r="721" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F721" s="4"/>
       <c r="I721" s="4"/>
       <c r="L721" s="4"/>
@@ -12404,7 +12402,7 @@
       <c r="R721" s="4"/>
       <c r="U721" s="4"/>
     </row>
-    <row r="722" spans="6:21" ht="13">
+    <row r="722" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F722" s="4"/>
       <c r="I722" s="4"/>
       <c r="L722" s="4"/>
@@ -12412,7 +12410,7 @@
       <c r="R722" s="4"/>
       <c r="U722" s="4"/>
     </row>
-    <row r="723" spans="6:21" ht="13">
+    <row r="723" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F723" s="4"/>
       <c r="I723" s="4"/>
       <c r="L723" s="4"/>
@@ -12420,7 +12418,7 @@
       <c r="R723" s="4"/>
       <c r="U723" s="4"/>
     </row>
-    <row r="724" spans="6:21" ht="13">
+    <row r="724" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F724" s="4"/>
       <c r="I724" s="4"/>
       <c r="L724" s="4"/>
@@ -12428,7 +12426,7 @@
       <c r="R724" s="4"/>
       <c r="U724" s="4"/>
     </row>
-    <row r="725" spans="6:21" ht="13">
+    <row r="725" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F725" s="4"/>
       <c r="I725" s="4"/>
       <c r="L725" s="4"/>
@@ -12436,7 +12434,7 @@
       <c r="R725" s="4"/>
       <c r="U725" s="4"/>
     </row>
-    <row r="726" spans="6:21" ht="13">
+    <row r="726" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F726" s="4"/>
       <c r="I726" s="4"/>
       <c r="L726" s="4"/>
@@ -12444,7 +12442,7 @@
       <c r="R726" s="4"/>
       <c r="U726" s="4"/>
     </row>
-    <row r="727" spans="6:21" ht="13">
+    <row r="727" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F727" s="4"/>
       <c r="I727" s="4"/>
       <c r="L727" s="4"/>
@@ -12452,7 +12450,7 @@
       <c r="R727" s="4"/>
       <c r="U727" s="4"/>
     </row>
-    <row r="728" spans="6:21" ht="13">
+    <row r="728" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F728" s="4"/>
       <c r="I728" s="4"/>
       <c r="L728" s="4"/>
@@ -12460,7 +12458,7 @@
       <c r="R728" s="4"/>
       <c r="U728" s="4"/>
     </row>
-    <row r="729" spans="6:21" ht="13">
+    <row r="729" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F729" s="4"/>
       <c r="I729" s="4"/>
       <c r="L729" s="4"/>
@@ -12468,7 +12466,7 @@
       <c r="R729" s="4"/>
       <c r="U729" s="4"/>
     </row>
-    <row r="730" spans="6:21" ht="13">
+    <row r="730" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F730" s="4"/>
       <c r="I730" s="4"/>
       <c r="L730" s="4"/>
@@ -12476,7 +12474,7 @@
       <c r="R730" s="4"/>
       <c r="U730" s="4"/>
     </row>
-    <row r="731" spans="6:21" ht="13">
+    <row r="731" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F731" s="4"/>
       <c r="I731" s="4"/>
       <c r="L731" s="4"/>
@@ -12484,7 +12482,7 @@
       <c r="R731" s="4"/>
       <c r="U731" s="4"/>
     </row>
-    <row r="732" spans="6:21" ht="13">
+    <row r="732" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F732" s="4"/>
       <c r="I732" s="4"/>
       <c r="L732" s="4"/>
@@ -12492,7 +12490,7 @@
       <c r="R732" s="4"/>
       <c r="U732" s="4"/>
     </row>
-    <row r="733" spans="6:21" ht="13">
+    <row r="733" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F733" s="4"/>
       <c r="I733" s="4"/>
       <c r="L733" s="4"/>
@@ -12500,7 +12498,7 @@
       <c r="R733" s="4"/>
       <c r="U733" s="4"/>
     </row>
-    <row r="734" spans="6:21" ht="13">
+    <row r="734" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F734" s="4"/>
       <c r="I734" s="4"/>
       <c r="L734" s="4"/>
@@ -12508,7 +12506,7 @@
       <c r="R734" s="4"/>
       <c r="U734" s="4"/>
     </row>
-    <row r="735" spans="6:21" ht="13">
+    <row r="735" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F735" s="4"/>
       <c r="I735" s="4"/>
       <c r="L735" s="4"/>
@@ -12516,7 +12514,7 @@
       <c r="R735" s="4"/>
       <c r="U735" s="4"/>
     </row>
-    <row r="736" spans="6:21" ht="13">
+    <row r="736" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F736" s="4"/>
       <c r="I736" s="4"/>
       <c r="L736" s="4"/>
@@ -12524,7 +12522,7 @@
       <c r="R736" s="4"/>
       <c r="U736" s="4"/>
     </row>
-    <row r="737" spans="6:21" ht="13">
+    <row r="737" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F737" s="4"/>
       <c r="I737" s="4"/>
       <c r="L737" s="4"/>
@@ -12532,7 +12530,7 @@
       <c r="R737" s="4"/>
       <c r="U737" s="4"/>
     </row>
-    <row r="738" spans="6:21" ht="13">
+    <row r="738" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F738" s="4"/>
       <c r="I738" s="4"/>
       <c r="L738" s="4"/>
@@ -12540,7 +12538,7 @@
       <c r="R738" s="4"/>
       <c r="U738" s="4"/>
     </row>
-    <row r="739" spans="6:21" ht="13">
+    <row r="739" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F739" s="4"/>
       <c r="I739" s="4"/>
       <c r="L739" s="4"/>
@@ -12548,7 +12546,7 @@
       <c r="R739" s="4"/>
       <c r="U739" s="4"/>
     </row>
-    <row r="740" spans="6:21" ht="13">
+    <row r="740" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F740" s="4"/>
       <c r="I740" s="4"/>
       <c r="L740" s="4"/>
@@ -12556,7 +12554,7 @@
       <c r="R740" s="4"/>
       <c r="U740" s="4"/>
     </row>
-    <row r="741" spans="6:21" ht="13">
+    <row r="741" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F741" s="4"/>
       <c r="I741" s="4"/>
       <c r="L741" s="4"/>
@@ -12564,7 +12562,7 @@
       <c r="R741" s="4"/>
       <c r="U741" s="4"/>
     </row>
-    <row r="742" spans="6:21" ht="13">
+    <row r="742" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F742" s="4"/>
       <c r="I742" s="4"/>
       <c r="L742" s="4"/>
@@ -12572,7 +12570,7 @@
       <c r="R742" s="4"/>
       <c r="U742" s="4"/>
     </row>
-    <row r="743" spans="6:21" ht="13">
+    <row r="743" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F743" s="4"/>
       <c r="I743" s="4"/>
       <c r="L743" s="4"/>
@@ -12580,7 +12578,7 @@
       <c r="R743" s="4"/>
       <c r="U743" s="4"/>
     </row>
-    <row r="744" spans="6:21" ht="13">
+    <row r="744" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F744" s="4"/>
       <c r="I744" s="4"/>
       <c r="L744" s="4"/>
@@ -12588,7 +12586,7 @@
       <c r="R744" s="4"/>
       <c r="U744" s="4"/>
     </row>
-    <row r="745" spans="6:21" ht="13">
+    <row r="745" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F745" s="4"/>
       <c r="I745" s="4"/>
       <c r="L745" s="4"/>
@@ -12596,7 +12594,7 @@
       <c r="R745" s="4"/>
       <c r="U745" s="4"/>
     </row>
-    <row r="746" spans="6:21" ht="13">
+    <row r="746" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F746" s="4"/>
       <c r="I746" s="4"/>
       <c r="L746" s="4"/>
@@ -12604,7 +12602,7 @@
       <c r="R746" s="4"/>
       <c r="U746" s="4"/>
     </row>
-    <row r="747" spans="6:21" ht="13">
+    <row r="747" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F747" s="4"/>
       <c r="I747" s="4"/>
       <c r="L747" s="4"/>
@@ -12612,7 +12610,7 @@
       <c r="R747" s="4"/>
       <c r="U747" s="4"/>
     </row>
-    <row r="748" spans="6:21" ht="13">
+    <row r="748" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F748" s="4"/>
       <c r="I748" s="4"/>
       <c r="L748" s="4"/>
@@ -12620,7 +12618,7 @@
       <c r="R748" s="4"/>
       <c r="U748" s="4"/>
     </row>
-    <row r="749" spans="6:21" ht="13">
+    <row r="749" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F749" s="4"/>
       <c r="I749" s="4"/>
       <c r="L749" s="4"/>
@@ -12628,7 +12626,7 @@
       <c r="R749" s="4"/>
       <c r="U749" s="4"/>
     </row>
-    <row r="750" spans="6:21" ht="13">
+    <row r="750" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F750" s="4"/>
       <c r="I750" s="4"/>
       <c r="L750" s="4"/>
@@ -12636,7 +12634,7 @@
       <c r="R750" s="4"/>
       <c r="U750" s="4"/>
     </row>
-    <row r="751" spans="6:21" ht="13">
+    <row r="751" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F751" s="4"/>
       <c r="I751" s="4"/>
       <c r="L751" s="4"/>
@@ -12644,7 +12642,7 @@
       <c r="R751" s="4"/>
       <c r="U751" s="4"/>
     </row>
-    <row r="752" spans="6:21" ht="13">
+    <row r="752" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F752" s="4"/>
       <c r="I752" s="4"/>
       <c r="L752" s="4"/>
@@ -12652,7 +12650,7 @@
       <c r="R752" s="4"/>
       <c r="U752" s="4"/>
     </row>
-    <row r="753" spans="6:21" ht="13">
+    <row r="753" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F753" s="4"/>
       <c r="I753" s="4"/>
       <c r="L753" s="4"/>
@@ -12660,7 +12658,7 @@
       <c r="R753" s="4"/>
       <c r="U753" s="4"/>
     </row>
-    <row r="754" spans="6:21" ht="13">
+    <row r="754" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F754" s="4"/>
       <c r="I754" s="4"/>
       <c r="L754" s="4"/>
@@ -12668,7 +12666,7 @@
       <c r="R754" s="4"/>
       <c r="U754" s="4"/>
     </row>
-    <row r="755" spans="6:21" ht="13">
+    <row r="755" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F755" s="4"/>
       <c r="I755" s="4"/>
       <c r="L755" s="4"/>
@@ -12676,7 +12674,7 @@
       <c r="R755" s="4"/>
       <c r="U755" s="4"/>
     </row>
-    <row r="756" spans="6:21" ht="13">
+    <row r="756" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F756" s="4"/>
       <c r="I756" s="4"/>
       <c r="L756" s="4"/>
@@ -12684,7 +12682,7 @@
       <c r="R756" s="4"/>
       <c r="U756" s="4"/>
     </row>
-    <row r="757" spans="6:21" ht="13">
+    <row r="757" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F757" s="4"/>
       <c r="I757" s="4"/>
       <c r="L757" s="4"/>
@@ -12692,7 +12690,7 @@
       <c r="R757" s="4"/>
       <c r="U757" s="4"/>
     </row>
-    <row r="758" spans="6:21" ht="13">
+    <row r="758" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F758" s="4"/>
       <c r="I758" s="4"/>
       <c r="L758" s="4"/>
@@ -12700,7 +12698,7 @@
       <c r="R758" s="4"/>
       <c r="U758" s="4"/>
     </row>
-    <row r="759" spans="6:21" ht="13">
+    <row r="759" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F759" s="4"/>
       <c r="I759" s="4"/>
       <c r="L759" s="4"/>
@@ -12708,7 +12706,7 @@
       <c r="R759" s="4"/>
       <c r="U759" s="4"/>
     </row>
-    <row r="760" spans="6:21" ht="13">
+    <row r="760" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F760" s="4"/>
       <c r="I760" s="4"/>
       <c r="L760" s="4"/>
@@ -12716,7 +12714,7 @@
       <c r="R760" s="4"/>
       <c r="U760" s="4"/>
     </row>
-    <row r="761" spans="6:21" ht="13">
+    <row r="761" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F761" s="4"/>
       <c r="I761" s="4"/>
       <c r="L761" s="4"/>
@@ -12724,7 +12722,7 @@
       <c r="R761" s="4"/>
       <c r="U761" s="4"/>
     </row>
-    <row r="762" spans="6:21" ht="13">
+    <row r="762" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F762" s="4"/>
       <c r="I762" s="4"/>
       <c r="L762" s="4"/>
@@ -12732,7 +12730,7 @@
       <c r="R762" s="4"/>
       <c r="U762" s="4"/>
     </row>
-    <row r="763" spans="6:21" ht="13">
+    <row r="763" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F763" s="4"/>
       <c r="I763" s="4"/>
       <c r="L763" s="4"/>
@@ -12740,7 +12738,7 @@
       <c r="R763" s="4"/>
       <c r="U763" s="4"/>
     </row>
-    <row r="764" spans="6:21" ht="13">
+    <row r="764" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F764" s="4"/>
       <c r="I764" s="4"/>
       <c r="L764" s="4"/>
@@ -12748,7 +12746,7 @@
       <c r="R764" s="4"/>
       <c r="U764" s="4"/>
     </row>
-    <row r="765" spans="6:21" ht="13">
+    <row r="765" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F765" s="4"/>
       <c r="I765" s="4"/>
       <c r="L765" s="4"/>
@@ -12756,7 +12754,7 @@
       <c r="R765" s="4"/>
       <c r="U765" s="4"/>
     </row>
-    <row r="766" spans="6:21" ht="13">
+    <row r="766" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F766" s="4"/>
       <c r="I766" s="4"/>
       <c r="L766" s="4"/>
@@ -12764,7 +12762,7 @@
       <c r="R766" s="4"/>
       <c r="U766" s="4"/>
     </row>
-    <row r="767" spans="6:21" ht="13">
+    <row r="767" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F767" s="4"/>
       <c r="I767" s="4"/>
       <c r="L767" s="4"/>
@@ -12772,7 +12770,7 @@
       <c r="R767" s="4"/>
       <c r="U767" s="4"/>
     </row>
-    <row r="768" spans="6:21" ht="13">
+    <row r="768" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F768" s="4"/>
       <c r="I768" s="4"/>
       <c r="L768" s="4"/>
@@ -12780,7 +12778,7 @@
       <c r="R768" s="4"/>
       <c r="U768" s="4"/>
     </row>
-    <row r="769" spans="6:21" ht="13">
+    <row r="769" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F769" s="4"/>
       <c r="I769" s="4"/>
       <c r="L769" s="4"/>
@@ -12788,7 +12786,7 @@
       <c r="R769" s="4"/>
       <c r="U769" s="4"/>
     </row>
-    <row r="770" spans="6:21" ht="13">
+    <row r="770" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F770" s="4"/>
       <c r="I770" s="4"/>
       <c r="L770" s="4"/>
@@ -12796,7 +12794,7 @@
       <c r="R770" s="4"/>
       <c r="U770" s="4"/>
     </row>
-    <row r="771" spans="6:21" ht="13">
+    <row r="771" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F771" s="4"/>
       <c r="I771" s="4"/>
       <c r="L771" s="4"/>
@@ -12804,7 +12802,7 @@
       <c r="R771" s="4"/>
       <c r="U771" s="4"/>
     </row>
-    <row r="772" spans="6:21" ht="13">
+    <row r="772" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F772" s="4"/>
       <c r="I772" s="4"/>
       <c r="L772" s="4"/>
@@ -12812,7 +12810,7 @@
       <c r="R772" s="4"/>
       <c r="U772" s="4"/>
     </row>
-    <row r="773" spans="6:21" ht="13">
+    <row r="773" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F773" s="4"/>
       <c r="I773" s="4"/>
       <c r="L773" s="4"/>
@@ -12820,7 +12818,7 @@
       <c r="R773" s="4"/>
       <c r="U773" s="4"/>
     </row>
-    <row r="774" spans="6:21" ht="13">
+    <row r="774" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F774" s="4"/>
       <c r="I774" s="4"/>
       <c r="L774" s="4"/>
@@ -12828,7 +12826,7 @@
       <c r="R774" s="4"/>
       <c r="U774" s="4"/>
     </row>
-    <row r="775" spans="6:21" ht="13">
+    <row r="775" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F775" s="4"/>
       <c r="I775" s="4"/>
       <c r="L775" s="4"/>
@@ -12836,7 +12834,7 @@
       <c r="R775" s="4"/>
       <c r="U775" s="4"/>
     </row>
-    <row r="776" spans="6:21" ht="13">
+    <row r="776" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F776" s="4"/>
       <c r="I776" s="4"/>
       <c r="L776" s="4"/>
@@ -12844,7 +12842,7 @@
       <c r="R776" s="4"/>
       <c r="U776" s="4"/>
     </row>
-    <row r="777" spans="6:21" ht="13">
+    <row r="777" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F777" s="4"/>
       <c r="I777" s="4"/>
       <c r="L777" s="4"/>
@@ -12852,7 +12850,7 @@
       <c r="R777" s="4"/>
       <c r="U777" s="4"/>
     </row>
-    <row r="778" spans="6:21" ht="13">
+    <row r="778" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F778" s="4"/>
       <c r="I778" s="4"/>
       <c r="L778" s="4"/>
@@ -12860,7 +12858,7 @@
       <c r="R778" s="4"/>
       <c r="U778" s="4"/>
     </row>
-    <row r="779" spans="6:21" ht="13">
+    <row r="779" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F779" s="4"/>
       <c r="I779" s="4"/>
       <c r="L779" s="4"/>
@@ -12868,7 +12866,7 @@
       <c r="R779" s="4"/>
       <c r="U779" s="4"/>
     </row>
-    <row r="780" spans="6:21" ht="13">
+    <row r="780" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F780" s="4"/>
       <c r="I780" s="4"/>
       <c r="L780" s="4"/>
@@ -12876,7 +12874,7 @@
       <c r="R780" s="4"/>
       <c r="U780" s="4"/>
     </row>
-    <row r="781" spans="6:21" ht="13">
+    <row r="781" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F781" s="4"/>
       <c r="I781" s="4"/>
       <c r="L781" s="4"/>
@@ -12884,7 +12882,7 @@
       <c r="R781" s="4"/>
       <c r="U781" s="4"/>
     </row>
-    <row r="782" spans="6:21" ht="13">
+    <row r="782" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F782" s="4"/>
       <c r="I782" s="4"/>
       <c r="L782" s="4"/>
@@ -12892,7 +12890,7 @@
       <c r="R782" s="4"/>
       <c r="U782" s="4"/>
     </row>
-    <row r="783" spans="6:21" ht="13">
+    <row r="783" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F783" s="4"/>
       <c r="I783" s="4"/>
       <c r="L783" s="4"/>
@@ -12900,7 +12898,7 @@
       <c r="R783" s="4"/>
       <c r="U783" s="4"/>
     </row>
-    <row r="784" spans="6:21" ht="13">
+    <row r="784" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F784" s="4"/>
       <c r="I784" s="4"/>
       <c r="L784" s="4"/>
@@ -12908,7 +12906,7 @@
       <c r="R784" s="4"/>
       <c r="U784" s="4"/>
     </row>
-    <row r="785" spans="6:21" ht="13">
+    <row r="785" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F785" s="4"/>
       <c r="I785" s="4"/>
       <c r="L785" s="4"/>
@@ -12916,7 +12914,7 @@
       <c r="R785" s="4"/>
       <c r="U785" s="4"/>
     </row>
-    <row r="786" spans="6:21" ht="13">
+    <row r="786" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F786" s="4"/>
       <c r="I786" s="4"/>
       <c r="L786" s="4"/>
@@ -12924,7 +12922,7 @@
       <c r="R786" s="4"/>
       <c r="U786" s="4"/>
     </row>
-    <row r="787" spans="6:21" ht="13">
+    <row r="787" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F787" s="4"/>
       <c r="I787" s="4"/>
       <c r="L787" s="4"/>
@@ -12932,7 +12930,7 @@
       <c r="R787" s="4"/>
       <c r="U787" s="4"/>
     </row>
-    <row r="788" spans="6:21" ht="13">
+    <row r="788" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F788" s="4"/>
       <c r="I788" s="4"/>
       <c r="L788" s="4"/>
@@ -12940,7 +12938,7 @@
       <c r="R788" s="4"/>
       <c r="U788" s="4"/>
     </row>
-    <row r="789" spans="6:21" ht="13">
+    <row r="789" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F789" s="4"/>
       <c r="I789" s="4"/>
       <c r="L789" s="4"/>
@@ -12948,7 +12946,7 @@
       <c r="R789" s="4"/>
       <c r="U789" s="4"/>
     </row>
-    <row r="790" spans="6:21" ht="13">
+    <row r="790" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F790" s="4"/>
       <c r="I790" s="4"/>
       <c r="L790" s="4"/>
@@ -12956,7 +12954,7 @@
       <c r="R790" s="4"/>
       <c r="U790" s="4"/>
     </row>
-    <row r="791" spans="6:21" ht="13">
+    <row r="791" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F791" s="4"/>
       <c r="I791" s="4"/>
       <c r="L791" s="4"/>
@@ -12964,7 +12962,7 @@
       <c r="R791" s="4"/>
       <c r="U791" s="4"/>
     </row>
-    <row r="792" spans="6:21" ht="13">
+    <row r="792" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F792" s="4"/>
       <c r="I792" s="4"/>
       <c r="L792" s="4"/>
@@ -12972,7 +12970,7 @@
       <c r="R792" s="4"/>
       <c r="U792" s="4"/>
     </row>
-    <row r="793" spans="6:21" ht="13">
+    <row r="793" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F793" s="4"/>
       <c r="I793" s="4"/>
       <c r="L793" s="4"/>
@@ -12980,7 +12978,7 @@
       <c r="R793" s="4"/>
       <c r="U793" s="4"/>
     </row>
-    <row r="794" spans="6:21" ht="13">
+    <row r="794" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F794" s="4"/>
       <c r="I794" s="4"/>
       <c r="L794" s="4"/>
@@ -12988,7 +12986,7 @@
       <c r="R794" s="4"/>
       <c r="U794" s="4"/>
     </row>
-    <row r="795" spans="6:21" ht="13">
+    <row r="795" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F795" s="4"/>
       <c r="I795" s="4"/>
       <c r="L795" s="4"/>
@@ -12996,7 +12994,7 @@
       <c r="R795" s="4"/>
       <c r="U795" s="4"/>
     </row>
-    <row r="796" spans="6:21" ht="13">
+    <row r="796" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F796" s="4"/>
       <c r="I796" s="4"/>
       <c r="L796" s="4"/>
@@ -13004,7 +13002,7 @@
       <c r="R796" s="4"/>
       <c r="U796" s="4"/>
     </row>
-    <row r="797" spans="6:21" ht="13">
+    <row r="797" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F797" s="4"/>
       <c r="I797" s="4"/>
       <c r="L797" s="4"/>
@@ -13012,7 +13010,7 @@
       <c r="R797" s="4"/>
       <c r="U797" s="4"/>
     </row>
-    <row r="798" spans="6:21" ht="13">
+    <row r="798" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F798" s="4"/>
       <c r="I798" s="4"/>
       <c r="L798" s="4"/>
@@ -13020,7 +13018,7 @@
       <c r="R798" s="4"/>
       <c r="U798" s="4"/>
     </row>
-    <row r="799" spans="6:21" ht="13">
+    <row r="799" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F799" s="4"/>
       <c r="I799" s="4"/>
       <c r="L799" s="4"/>
@@ -13028,7 +13026,7 @@
       <c r="R799" s="4"/>
       <c r="U799" s="4"/>
     </row>
-    <row r="800" spans="6:21" ht="13">
+    <row r="800" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F800" s="4"/>
       <c r="I800" s="4"/>
       <c r="L800" s="4"/>
@@ -13036,7 +13034,7 @@
       <c r="R800" s="4"/>
       <c r="U800" s="4"/>
     </row>
-    <row r="801" spans="6:21" ht="13">
+    <row r="801" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F801" s="4"/>
       <c r="I801" s="4"/>
       <c r="L801" s="4"/>
@@ -13044,7 +13042,7 @@
       <c r="R801" s="4"/>
       <c r="U801" s="4"/>
     </row>
-    <row r="802" spans="6:21" ht="13">
+    <row r="802" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F802" s="4"/>
       <c r="I802" s="4"/>
       <c r="L802" s="4"/>
@@ -13052,7 +13050,7 @@
       <c r="R802" s="4"/>
       <c r="U802" s="4"/>
     </row>
-    <row r="803" spans="6:21" ht="13">
+    <row r="803" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F803" s="4"/>
       <c r="I803" s="4"/>
       <c r="L803" s="4"/>
@@ -13060,7 +13058,7 @@
       <c r="R803" s="4"/>
       <c r="U803" s="4"/>
     </row>
-    <row r="804" spans="6:21" ht="13">
+    <row r="804" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F804" s="4"/>
       <c r="I804" s="4"/>
       <c r="L804" s="4"/>
@@ -13068,7 +13066,7 @@
       <c r="R804" s="4"/>
       <c r="U804" s="4"/>
     </row>
-    <row r="805" spans="6:21" ht="13">
+    <row r="805" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F805" s="4"/>
       <c r="I805" s="4"/>
       <c r="L805" s="4"/>
@@ -13076,7 +13074,7 @@
       <c r="R805" s="4"/>
       <c r="U805" s="4"/>
     </row>
-    <row r="806" spans="6:21" ht="13">
+    <row r="806" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F806" s="4"/>
       <c r="I806" s="4"/>
       <c r="L806" s="4"/>
@@ -13084,7 +13082,7 @@
       <c r="R806" s="4"/>
       <c r="U806" s="4"/>
     </row>
-    <row r="807" spans="6:21" ht="13">
+    <row r="807" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F807" s="4"/>
       <c r="I807" s="4"/>
       <c r="L807" s="4"/>
@@ -13092,7 +13090,7 @@
       <c r="R807" s="4"/>
       <c r="U807" s="4"/>
     </row>
-    <row r="808" spans="6:21" ht="13">
+    <row r="808" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F808" s="4"/>
       <c r="I808" s="4"/>
       <c r="L808" s="4"/>
@@ -13100,7 +13098,7 @@
       <c r="R808" s="4"/>
       <c r="U808" s="4"/>
     </row>
-    <row r="809" spans="6:21" ht="13">
+    <row r="809" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F809" s="4"/>
       <c r="I809" s="4"/>
       <c r="L809" s="4"/>
@@ -13108,7 +13106,7 @@
       <c r="R809" s="4"/>
       <c r="U809" s="4"/>
     </row>
-    <row r="810" spans="6:21" ht="13">
+    <row r="810" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F810" s="4"/>
       <c r="I810" s="4"/>
       <c r="L810" s="4"/>
@@ -13116,7 +13114,7 @@
       <c r="R810" s="4"/>
       <c r="U810" s="4"/>
     </row>
-    <row r="811" spans="6:21" ht="13">
+    <row r="811" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F811" s="4"/>
       <c r="I811" s="4"/>
       <c r="L811" s="4"/>
@@ -13124,7 +13122,7 @@
       <c r="R811" s="4"/>
       <c r="U811" s="4"/>
     </row>
-    <row r="812" spans="6:21" ht="13">
+    <row r="812" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F812" s="4"/>
       <c r="I812" s="4"/>
       <c r="L812" s="4"/>
@@ -13132,7 +13130,7 @@
       <c r="R812" s="4"/>
       <c r="U812" s="4"/>
     </row>
-    <row r="813" spans="6:21" ht="13">
+    <row r="813" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F813" s="4"/>
       <c r="I813" s="4"/>
       <c r="L813" s="4"/>
@@ -13140,7 +13138,7 @@
       <c r="R813" s="4"/>
       <c r="U813" s="4"/>
     </row>
-    <row r="814" spans="6:21" ht="13">
+    <row r="814" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F814" s="4"/>
       <c r="I814" s="4"/>
       <c r="L814" s="4"/>
@@ -13148,7 +13146,7 @@
       <c r="R814" s="4"/>
       <c r="U814" s="4"/>
     </row>
-    <row r="815" spans="6:21" ht="13">
+    <row r="815" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F815" s="4"/>
       <c r="I815" s="4"/>
       <c r="L815" s="4"/>
@@ -13156,7 +13154,7 @@
       <c r="R815" s="4"/>
       <c r="U815" s="4"/>
     </row>
-    <row r="816" spans="6:21" ht="13">
+    <row r="816" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F816" s="4"/>
       <c r="I816" s="4"/>
       <c r="L816" s="4"/>
@@ -13164,7 +13162,7 @@
       <c r="R816" s="4"/>
       <c r="U816" s="4"/>
     </row>
-    <row r="817" spans="6:21" ht="13">
+    <row r="817" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F817" s="4"/>
       <c r="I817" s="4"/>
       <c r="L817" s="4"/>
@@ -13172,7 +13170,7 @@
       <c r="R817" s="4"/>
       <c r="U817" s="4"/>
     </row>
-    <row r="818" spans="6:21" ht="13">
+    <row r="818" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F818" s="4"/>
       <c r="I818" s="4"/>
       <c r="L818" s="4"/>
@@ -13180,7 +13178,7 @@
       <c r="R818" s="4"/>
       <c r="U818" s="4"/>
     </row>
-    <row r="819" spans="6:21" ht="13">
+    <row r="819" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F819" s="4"/>
       <c r="I819" s="4"/>
       <c r="L819" s="4"/>
@@ -13188,7 +13186,7 @@
       <c r="R819" s="4"/>
       <c r="U819" s="4"/>
     </row>
-    <row r="820" spans="6:21" ht="13">
+    <row r="820" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F820" s="4"/>
       <c r="I820" s="4"/>
       <c r="L820" s="4"/>
@@ -13196,7 +13194,7 @@
       <c r="R820" s="4"/>
       <c r="U820" s="4"/>
     </row>
-    <row r="821" spans="6:21" ht="13">
+    <row r="821" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F821" s="4"/>
       <c r="I821" s="4"/>
       <c r="L821" s="4"/>
@@ -13204,7 +13202,7 @@
       <c r="R821" s="4"/>
       <c r="U821" s="4"/>
     </row>
-    <row r="822" spans="6:21" ht="13">
+    <row r="822" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F822" s="4"/>
       <c r="I822" s="4"/>
       <c r="L822" s="4"/>
@@ -13212,7 +13210,7 @@
       <c r="R822" s="4"/>
       <c r="U822" s="4"/>
     </row>
-    <row r="823" spans="6:21" ht="13">
+    <row r="823" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F823" s="4"/>
       <c r="I823" s="4"/>
       <c r="L823" s="4"/>
@@ -13220,7 +13218,7 @@
       <c r="R823" s="4"/>
       <c r="U823" s="4"/>
     </row>
-    <row r="824" spans="6:21" ht="13">
+    <row r="824" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F824" s="4"/>
       <c r="I824" s="4"/>
       <c r="L824" s="4"/>
@@ -13228,7 +13226,7 @@
       <c r="R824" s="4"/>
       <c r="U824" s="4"/>
     </row>
-    <row r="825" spans="6:21" ht="13">
+    <row r="825" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F825" s="4"/>
       <c r="I825" s="4"/>
       <c r="L825" s="4"/>
@@ -13236,7 +13234,7 @@
       <c r="R825" s="4"/>
       <c r="U825" s="4"/>
     </row>
-    <row r="826" spans="6:21" ht="13">
+    <row r="826" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F826" s="4"/>
       <c r="I826" s="4"/>
       <c r="L826" s="4"/>
@@ -13244,7 +13242,7 @@
       <c r="R826" s="4"/>
       <c r="U826" s="4"/>
     </row>
-    <row r="827" spans="6:21" ht="13">
+    <row r="827" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F827" s="4"/>
       <c r="I827" s="4"/>
       <c r="L827" s="4"/>
@@ -13252,7 +13250,7 @@
       <c r="R827" s="4"/>
       <c r="U827" s="4"/>
     </row>
-    <row r="828" spans="6:21" ht="13">
+    <row r="828" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F828" s="4"/>
       <c r="I828" s="4"/>
       <c r="L828" s="4"/>
@@ -13260,7 +13258,7 @@
       <c r="R828" s="4"/>
       <c r="U828" s="4"/>
     </row>
-    <row r="829" spans="6:21" ht="13">
+    <row r="829" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F829" s="4"/>
       <c r="I829" s="4"/>
       <c r="L829" s="4"/>
@@ -13268,7 +13266,7 @@
       <c r="R829" s="4"/>
       <c r="U829" s="4"/>
     </row>
-    <row r="830" spans="6:21" ht="13">
+    <row r="830" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F830" s="4"/>
       <c r="I830" s="4"/>
       <c r="L830" s="4"/>
@@ -13276,7 +13274,7 @@
       <c r="R830" s="4"/>
       <c r="U830" s="4"/>
     </row>
-    <row r="831" spans="6:21" ht="13">
+    <row r="831" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F831" s="4"/>
       <c r="I831" s="4"/>
       <c r="L831" s="4"/>
@@ -13284,7 +13282,7 @@
       <c r="R831" s="4"/>
       <c r="U831" s="4"/>
     </row>
-    <row r="832" spans="6:21" ht="13">
+    <row r="832" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F832" s="4"/>
       <c r="I832" s="4"/>
       <c r="L832" s="4"/>
@@ -13292,7 +13290,7 @@
       <c r="R832" s="4"/>
       <c r="U832" s="4"/>
     </row>
-    <row r="833" spans="6:21" ht="13">
+    <row r="833" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F833" s="4"/>
       <c r="I833" s="4"/>
       <c r="L833" s="4"/>
@@ -13300,7 +13298,7 @@
       <c r="R833" s="4"/>
       <c r="U833" s="4"/>
     </row>
-    <row r="834" spans="6:21" ht="13">
+    <row r="834" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F834" s="4"/>
       <c r="I834" s="4"/>
       <c r="L834" s="4"/>
@@ -13308,7 +13306,7 @@
       <c r="R834" s="4"/>
       <c r="U834" s="4"/>
     </row>
-    <row r="835" spans="6:21" ht="13">
+    <row r="835" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F835" s="4"/>
       <c r="I835" s="4"/>
       <c r="L835" s="4"/>
@@ -13316,7 +13314,7 @@
       <c r="R835" s="4"/>
       <c r="U835" s="4"/>
     </row>
-    <row r="836" spans="6:21" ht="13">
+    <row r="836" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F836" s="4"/>
       <c r="I836" s="4"/>
       <c r="L836" s="4"/>
@@ -13324,7 +13322,7 @@
       <c r="R836" s="4"/>
       <c r="U836" s="4"/>
     </row>
-    <row r="837" spans="6:21" ht="13">
+    <row r="837" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F837" s="4"/>
       <c r="I837" s="4"/>
       <c r="L837" s="4"/>
@@ -13332,7 +13330,7 @@
       <c r="R837" s="4"/>
       <c r="U837" s="4"/>
     </row>
-    <row r="838" spans="6:21" ht="13">
+    <row r="838" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F838" s="4"/>
       <c r="I838" s="4"/>
       <c r="L838" s="4"/>
@@ -13340,7 +13338,7 @@
       <c r="R838" s="4"/>
       <c r="U838" s="4"/>
     </row>
-    <row r="839" spans="6:21" ht="13">
+    <row r="839" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F839" s="4"/>
       <c r="I839" s="4"/>
       <c r="L839" s="4"/>
@@ -13348,7 +13346,7 @@
       <c r="R839" s="4"/>
       <c r="U839" s="4"/>
     </row>
-    <row r="840" spans="6:21" ht="13">
+    <row r="840" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F840" s="4"/>
       <c r="I840" s="4"/>
       <c r="L840" s="4"/>
@@ -13356,7 +13354,7 @@
       <c r="R840" s="4"/>
       <c r="U840" s="4"/>
     </row>
-    <row r="841" spans="6:21" ht="13">
+    <row r="841" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F841" s="4"/>
       <c r="I841" s="4"/>
       <c r="L841" s="4"/>
@@ -13364,7 +13362,7 @@
       <c r="R841" s="4"/>
       <c r="U841" s="4"/>
     </row>
-    <row r="842" spans="6:21" ht="13">
+    <row r="842" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F842" s="4"/>
       <c r="I842" s="4"/>
       <c r="L842" s="4"/>
@@ -13372,7 +13370,7 @@
       <c r="R842" s="4"/>
       <c r="U842" s="4"/>
     </row>
-    <row r="843" spans="6:21" ht="13">
+    <row r="843" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F843" s="4"/>
       <c r="I843" s="4"/>
       <c r="L843" s="4"/>
@@ -13380,7 +13378,7 @@
       <c r="R843" s="4"/>
       <c r="U843" s="4"/>
     </row>
-    <row r="844" spans="6:21" ht="13">
+    <row r="844" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F844" s="4"/>
       <c r="I844" s="4"/>
       <c r="L844" s="4"/>
@@ -13388,7 +13386,7 @@
       <c r="R844" s="4"/>
       <c r="U844" s="4"/>
     </row>
-    <row r="845" spans="6:21" ht="13">
+    <row r="845" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F845" s="4"/>
       <c r="I845" s="4"/>
       <c r="L845" s="4"/>
@@ -13396,7 +13394,7 @@
       <c r="R845" s="4"/>
       <c r="U845" s="4"/>
     </row>
-    <row r="846" spans="6:21" ht="13">
+    <row r="846" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F846" s="4"/>
       <c r="I846" s="4"/>
       <c r="L846" s="4"/>
@@ -13404,7 +13402,7 @@
       <c r="R846" s="4"/>
       <c r="U846" s="4"/>
     </row>
-    <row r="847" spans="6:21" ht="13">
+    <row r="847" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F847" s="4"/>
       <c r="I847" s="4"/>
       <c r="L847" s="4"/>
@@ -13412,7 +13410,7 @@
       <c r="R847" s="4"/>
       <c r="U847" s="4"/>
     </row>
-    <row r="848" spans="6:21" ht="13">
+    <row r="848" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F848" s="4"/>
       <c r="I848" s="4"/>
       <c r="L848" s="4"/>
@@ -13420,7 +13418,7 @@
       <c r="R848" s="4"/>
       <c r="U848" s="4"/>
     </row>
-    <row r="849" spans="6:21" ht="13">
+    <row r="849" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F849" s="4"/>
       <c r="I849" s="4"/>
       <c r="L849" s="4"/>
@@ -13428,7 +13426,7 @@
       <c r="R849" s="4"/>
       <c r="U849" s="4"/>
     </row>
-    <row r="850" spans="6:21" ht="13">
+    <row r="850" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F850" s="4"/>
       <c r="I850" s="4"/>
       <c r="L850" s="4"/>
@@ -13436,7 +13434,7 @@
       <c r="R850" s="4"/>
       <c r="U850" s="4"/>
     </row>
-    <row r="851" spans="6:21" ht="13">
+    <row r="851" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F851" s="4"/>
       <c r="I851" s="4"/>
       <c r="L851" s="4"/>
@@ -13444,7 +13442,7 @@
       <c r="R851" s="4"/>
       <c r="U851" s="4"/>
     </row>
-    <row r="852" spans="6:21" ht="13">
+    <row r="852" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F852" s="4"/>
       <c r="I852" s="4"/>
       <c r="L852" s="4"/>
@@ -13452,7 +13450,7 @@
       <c r="R852" s="4"/>
       <c r="U852" s="4"/>
     </row>
-    <row r="853" spans="6:21" ht="13">
+    <row r="853" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F853" s="4"/>
       <c r="I853" s="4"/>
       <c r="L853" s="4"/>
@@ -13460,7 +13458,7 @@
       <c r="R853" s="4"/>
       <c r="U853" s="4"/>
     </row>
-    <row r="854" spans="6:21" ht="13">
+    <row r="854" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F854" s="4"/>
       <c r="I854" s="4"/>
       <c r="L854" s="4"/>
@@ -13468,7 +13466,7 @@
       <c r="R854" s="4"/>
       <c r="U854" s="4"/>
     </row>
-    <row r="855" spans="6:21" ht="13">
+    <row r="855" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F855" s="4"/>
       <c r="I855" s="4"/>
       <c r="L855" s="4"/>
@@ -13476,7 +13474,7 @@
       <c r="R855" s="4"/>
       <c r="U855" s="4"/>
     </row>
-    <row r="856" spans="6:21" ht="13">
+    <row r="856" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F856" s="4"/>
       <c r="I856" s="4"/>
       <c r="L856" s="4"/>
@@ -13484,7 +13482,7 @@
       <c r="R856" s="4"/>
       <c r="U856" s="4"/>
     </row>
-    <row r="857" spans="6:21" ht="13">
+    <row r="857" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F857" s="4"/>
       <c r="I857" s="4"/>
       <c r="L857" s="4"/>
@@ -13492,7 +13490,7 @@
       <c r="R857" s="4"/>
       <c r="U857" s="4"/>
     </row>
-    <row r="858" spans="6:21" ht="13">
+    <row r="858" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F858" s="4"/>
       <c r="I858" s="4"/>
       <c r="L858" s="4"/>
@@ -13500,7 +13498,7 @@
       <c r="R858" s="4"/>
       <c r="U858" s="4"/>
     </row>
-    <row r="859" spans="6:21" ht="13">
+    <row r="859" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F859" s="4"/>
       <c r="I859" s="4"/>
       <c r="L859" s="4"/>
@@ -13508,7 +13506,7 @@
       <c r="R859" s="4"/>
       <c r="U859" s="4"/>
     </row>
-    <row r="860" spans="6:21" ht="13">
+    <row r="860" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F860" s="4"/>
       <c r="I860" s="4"/>
       <c r="L860" s="4"/>
@@ -13516,7 +13514,7 @@
       <c r="R860" s="4"/>
       <c r="U860" s="4"/>
     </row>
-    <row r="861" spans="6:21" ht="13">
+    <row r="861" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F861" s="4"/>
       <c r="I861" s="4"/>
       <c r="L861" s="4"/>
@@ -13524,7 +13522,7 @@
       <c r="R861" s="4"/>
       <c r="U861" s="4"/>
     </row>
-    <row r="862" spans="6:21" ht="13">
+    <row r="862" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F862" s="4"/>
       <c r="I862" s="4"/>
       <c r="L862" s="4"/>
@@ -13532,7 +13530,7 @@
       <c r="R862" s="4"/>
       <c r="U862" s="4"/>
     </row>
-    <row r="863" spans="6:21" ht="13">
+    <row r="863" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F863" s="4"/>
       <c r="I863" s="4"/>
       <c r="L863" s="4"/>
@@ -13540,7 +13538,7 @@
       <c r="R863" s="4"/>
       <c r="U863" s="4"/>
     </row>
-    <row r="864" spans="6:21" ht="13">
+    <row r="864" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F864" s="4"/>
       <c r="I864" s="4"/>
       <c r="L864" s="4"/>
@@ -13548,7 +13546,7 @@
       <c r="R864" s="4"/>
       <c r="U864" s="4"/>
     </row>
-    <row r="865" spans="6:21" ht="13">
+    <row r="865" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F865" s="4"/>
       <c r="I865" s="4"/>
       <c r="L865" s="4"/>
@@ -13556,7 +13554,7 @@
       <c r="R865" s="4"/>
       <c r="U865" s="4"/>
     </row>
-    <row r="866" spans="6:21" ht="13">
+    <row r="866" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F866" s="4"/>
       <c r="I866" s="4"/>
       <c r="L866" s="4"/>
@@ -13564,7 +13562,7 @@
       <c r="R866" s="4"/>
       <c r="U866" s="4"/>
     </row>
-    <row r="867" spans="6:21" ht="13">
+    <row r="867" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F867" s="4"/>
       <c r="I867" s="4"/>
       <c r="L867" s="4"/>
@@ -13572,7 +13570,7 @@
       <c r="R867" s="4"/>
       <c r="U867" s="4"/>
     </row>
-    <row r="868" spans="6:21" ht="13">
+    <row r="868" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F868" s="4"/>
       <c r="I868" s="4"/>
       <c r="L868" s="4"/>
@@ -13580,7 +13578,7 @@
       <c r="R868" s="4"/>
       <c r="U868" s="4"/>
     </row>
-    <row r="869" spans="6:21" ht="13">
+    <row r="869" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F869" s="4"/>
       <c r="I869" s="4"/>
       <c r="L869" s="4"/>
@@ -13588,7 +13586,7 @@
       <c r="R869" s="4"/>
       <c r="U869" s="4"/>
     </row>
-    <row r="870" spans="6:21" ht="13">
+    <row r="870" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F870" s="4"/>
       <c r="I870" s="4"/>
       <c r="L870" s="4"/>
@@ -13596,7 +13594,7 @@
       <c r="R870" s="4"/>
       <c r="U870" s="4"/>
     </row>
-    <row r="871" spans="6:21" ht="13">
+    <row r="871" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F871" s="4"/>
       <c r="I871" s="4"/>
       <c r="L871" s="4"/>
@@ -13604,7 +13602,7 @@
       <c r="R871" s="4"/>
       <c r="U871" s="4"/>
     </row>
-    <row r="872" spans="6:21" ht="13">
+    <row r="872" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F872" s="4"/>
       <c r="I872" s="4"/>
       <c r="L872" s="4"/>
@@ -13612,7 +13610,7 @@
       <c r="R872" s="4"/>
       <c r="U872" s="4"/>
     </row>
-    <row r="873" spans="6:21" ht="13">
+    <row r="873" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F873" s="4"/>
       <c r="I873" s="4"/>
       <c r="L873" s="4"/>
@@ -13620,7 +13618,7 @@
       <c r="R873" s="4"/>
       <c r="U873" s="4"/>
     </row>
-    <row r="874" spans="6:21" ht="13">
+    <row r="874" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F874" s="4"/>
       <c r="I874" s="4"/>
       <c r="L874" s="4"/>
@@ -13628,7 +13626,7 @@
       <c r="R874" s="4"/>
       <c r="U874" s="4"/>
     </row>
-    <row r="875" spans="6:21" ht="13">
+    <row r="875" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F875" s="4"/>
       <c r="I875" s="4"/>
       <c r="L875" s="4"/>
@@ -13636,7 +13634,7 @@
       <c r="R875" s="4"/>
       <c r="U875" s="4"/>
     </row>
-    <row r="876" spans="6:21" ht="13">
+    <row r="876" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F876" s="4"/>
       <c r="I876" s="4"/>
       <c r="L876" s="4"/>
@@ -13644,7 +13642,7 @@
       <c r="R876" s="4"/>
       <c r="U876" s="4"/>
     </row>
-    <row r="877" spans="6:21" ht="13">
+    <row r="877" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F877" s="4"/>
       <c r="I877" s="4"/>
       <c r="L877" s="4"/>
@@ -13652,7 +13650,7 @@
       <c r="R877" s="4"/>
       <c r="U877" s="4"/>
     </row>
-    <row r="878" spans="6:21" ht="13">
+    <row r="878" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F878" s="4"/>
       <c r="I878" s="4"/>
       <c r="L878" s="4"/>
@@ -13660,7 +13658,7 @@
       <c r="R878" s="4"/>
       <c r="U878" s="4"/>
     </row>
-    <row r="879" spans="6:21" ht="13">
+    <row r="879" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F879" s="4"/>
       <c r="I879" s="4"/>
       <c r="L879" s="4"/>
@@ -13668,7 +13666,7 @@
       <c r="R879" s="4"/>
       <c r="U879" s="4"/>
     </row>
-    <row r="880" spans="6:21" ht="13">
+    <row r="880" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F880" s="4"/>
       <c r="I880" s="4"/>
       <c r="L880" s="4"/>
@@ -13676,7 +13674,7 @@
       <c r="R880" s="4"/>
       <c r="U880" s="4"/>
     </row>
-    <row r="881" spans="6:21" ht="13">
+    <row r="881" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F881" s="4"/>
       <c r="I881" s="4"/>
       <c r="L881" s="4"/>
@@ -13684,7 +13682,7 @@
       <c r="R881" s="4"/>
       <c r="U881" s="4"/>
     </row>
-    <row r="882" spans="6:21" ht="13">
+    <row r="882" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F882" s="4"/>
       <c r="I882" s="4"/>
       <c r="L882" s="4"/>
@@ -13692,7 +13690,7 @@
       <c r="R882" s="4"/>
       <c r="U882" s="4"/>
     </row>
-    <row r="883" spans="6:21" ht="13">
+    <row r="883" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F883" s="4"/>
       <c r="I883" s="4"/>
       <c r="L883" s="4"/>
@@ -13700,7 +13698,7 @@
       <c r="R883" s="4"/>
       <c r="U883" s="4"/>
     </row>
-    <row r="884" spans="6:21" ht="13">
+    <row r="884" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F884" s="4"/>
       <c r="I884" s="4"/>
       <c r="L884" s="4"/>
@@ -13708,7 +13706,7 @@
       <c r="R884" s="4"/>
       <c r="U884" s="4"/>
     </row>
-    <row r="885" spans="6:21" ht="13">
+    <row r="885" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F885" s="4"/>
       <c r="I885" s="4"/>
       <c r="L885" s="4"/>
@@ -13716,7 +13714,7 @@
       <c r="R885" s="4"/>
       <c r="U885" s="4"/>
     </row>
-    <row r="886" spans="6:21" ht="13">
+    <row r="886" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F886" s="4"/>
       <c r="I886" s="4"/>
       <c r="L886" s="4"/>
@@ -13724,7 +13722,7 @@
       <c r="R886" s="4"/>
       <c r="U886" s="4"/>
     </row>
-    <row r="887" spans="6:21" ht="13">
+    <row r="887" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F887" s="4"/>
       <c r="I887" s="4"/>
       <c r="L887" s="4"/>
@@ -13732,7 +13730,7 @@
       <c r="R887" s="4"/>
       <c r="U887" s="4"/>
     </row>
-    <row r="888" spans="6:21" ht="13">
+    <row r="888" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F888" s="4"/>
       <c r="I888" s="4"/>
       <c r="L888" s="4"/>
@@ -13740,7 +13738,7 @@
       <c r="R888" s="4"/>
       <c r="U888" s="4"/>
     </row>
-    <row r="889" spans="6:21" ht="13">
+    <row r="889" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F889" s="4"/>
       <c r="I889" s="4"/>
       <c r="L889" s="4"/>
@@ -13748,7 +13746,7 @@
       <c r="R889" s="4"/>
       <c r="U889" s="4"/>
     </row>
-    <row r="890" spans="6:21" ht="13">
+    <row r="890" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F890" s="4"/>
       <c r="I890" s="4"/>
       <c r="L890" s="4"/>
@@ -13756,7 +13754,7 @@
       <c r="R890" s="4"/>
       <c r="U890" s="4"/>
     </row>
-    <row r="891" spans="6:21" ht="13">
+    <row r="891" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F891" s="4"/>
       <c r="I891" s="4"/>
       <c r="L891" s="4"/>
@@ -13764,7 +13762,7 @@
       <c r="R891" s="4"/>
       <c r="U891" s="4"/>
     </row>
-    <row r="892" spans="6:21" ht="13">
+    <row r="892" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F892" s="4"/>
       <c r="I892" s="4"/>
       <c r="L892" s="4"/>
@@ -13772,7 +13770,7 @@
       <c r="R892" s="4"/>
       <c r="U892" s="4"/>
     </row>
-    <row r="893" spans="6:21" ht="13">
+    <row r="893" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F893" s="4"/>
       <c r="I893" s="4"/>
       <c r="L893" s="4"/>
@@ -13780,7 +13778,7 @@
       <c r="R893" s="4"/>
       <c r="U893" s="4"/>
     </row>
-    <row r="894" spans="6:21" ht="13">
+    <row r="894" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F894" s="4"/>
       <c r="I894" s="4"/>
       <c r="L894" s="4"/>
@@ -13788,7 +13786,7 @@
       <c r="R894" s="4"/>
       <c r="U894" s="4"/>
     </row>
-    <row r="895" spans="6:21" ht="13">
+    <row r="895" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F895" s="4"/>
       <c r="I895" s="4"/>
       <c r="L895" s="4"/>
@@ -13796,7 +13794,7 @@
       <c r="R895" s="4"/>
       <c r="U895" s="4"/>
     </row>
-    <row r="896" spans="6:21" ht="13">
+    <row r="896" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F896" s="4"/>
       <c r="I896" s="4"/>
       <c r="L896" s="4"/>
@@ -13804,7 +13802,7 @@
       <c r="R896" s="4"/>
       <c r="U896" s="4"/>
     </row>
-    <row r="897" spans="6:21" ht="13">
+    <row r="897" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F897" s="4"/>
       <c r="I897" s="4"/>
       <c r="L897" s="4"/>
@@ -13812,7 +13810,7 @@
       <c r="R897" s="4"/>
       <c r="U897" s="4"/>
     </row>
-    <row r="898" spans="6:21" ht="13">
+    <row r="898" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F898" s="4"/>
       <c r="I898" s="4"/>
       <c r="L898" s="4"/>
@@ -13820,7 +13818,7 @@
       <c r="R898" s="4"/>
       <c r="U898" s="4"/>
     </row>
-    <row r="899" spans="6:21" ht="13">
+    <row r="899" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F899" s="4"/>
       <c r="I899" s="4"/>
       <c r="L899" s="4"/>
@@ -13828,7 +13826,7 @@
       <c r="R899" s="4"/>
       <c r="U899" s="4"/>
     </row>
-    <row r="900" spans="6:21" ht="13">
+    <row r="900" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F900" s="4"/>
       <c r="I900" s="4"/>
       <c r="L900" s="4"/>
@@ -13836,7 +13834,7 @@
       <c r="R900" s="4"/>
       <c r="U900" s="4"/>
     </row>
-    <row r="901" spans="6:21" ht="13">
+    <row r="901" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F901" s="4"/>
       <c r="I901" s="4"/>
       <c r="L901" s="4"/>
@@ -13844,7 +13842,7 @@
       <c r="R901" s="4"/>
       <c r="U901" s="4"/>
     </row>
-    <row r="902" spans="6:21" ht="13">
+    <row r="902" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F902" s="4"/>
       <c r="I902" s="4"/>
       <c r="L902" s="4"/>
@@ -13852,7 +13850,7 @@
       <c r="R902" s="4"/>
       <c r="U902" s="4"/>
     </row>
-    <row r="903" spans="6:21" ht="13">
+    <row r="903" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F903" s="4"/>
       <c r="I903" s="4"/>
       <c r="L903" s="4"/>
@@ -13860,7 +13858,7 @@
       <c r="R903" s="4"/>
       <c r="U903" s="4"/>
     </row>
-    <row r="904" spans="6:21" ht="13">
+    <row r="904" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F904" s="4"/>
       <c r="I904" s="4"/>
       <c r="L904" s="4"/>
@@ -13868,7 +13866,7 @@
       <c r="R904" s="4"/>
       <c r="U904" s="4"/>
     </row>
-    <row r="905" spans="6:21" ht="13">
+    <row r="905" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F905" s="4"/>
       <c r="I905" s="4"/>
       <c r="L905" s="4"/>
@@ -13876,7 +13874,7 @@
       <c r="R905" s="4"/>
       <c r="U905" s="4"/>
     </row>
-    <row r="906" spans="6:21" ht="13">
+    <row r="906" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F906" s="4"/>
       <c r="I906" s="4"/>
       <c r="L906" s="4"/>
@@ -13884,7 +13882,7 @@
       <c r="R906" s="4"/>
       <c r="U906" s="4"/>
     </row>
-    <row r="907" spans="6:21" ht="13">
+    <row r="907" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F907" s="4"/>
       <c r="I907" s="4"/>
       <c r="L907" s="4"/>
@@ -13892,7 +13890,7 @@
       <c r="R907" s="4"/>
       <c r="U907" s="4"/>
     </row>
-    <row r="908" spans="6:21" ht="13">
+    <row r="908" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F908" s="4"/>
       <c r="I908" s="4"/>
       <c r="L908" s="4"/>
@@ -13900,7 +13898,7 @@
       <c r="R908" s="4"/>
       <c r="U908" s="4"/>
     </row>
-    <row r="909" spans="6:21" ht="13">
+    <row r="909" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F909" s="4"/>
       <c r="I909" s="4"/>
       <c r="L909" s="4"/>
@@ -13908,7 +13906,7 @@
       <c r="R909" s="4"/>
       <c r="U909" s="4"/>
     </row>
-    <row r="910" spans="6:21" ht="13">
+    <row r="910" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F910" s="4"/>
       <c r="I910" s="4"/>
       <c r="L910" s="4"/>
@@ -13916,7 +13914,7 @@
       <c r="R910" s="4"/>
       <c r="U910" s="4"/>
     </row>
-    <row r="911" spans="6:21" ht="13">
+    <row r="911" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F911" s="4"/>
       <c r="I911" s="4"/>
       <c r="L911" s="4"/>
@@ -13924,7 +13922,7 @@
       <c r="R911" s="4"/>
       <c r="U911" s="4"/>
     </row>
-    <row r="912" spans="6:21" ht="13">
+    <row r="912" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F912" s="4"/>
       <c r="I912" s="4"/>
       <c r="L912" s="4"/>
@@ -13932,7 +13930,7 @@
       <c r="R912" s="4"/>
       <c r="U912" s="4"/>
     </row>
-    <row r="913" spans="6:21" ht="13">
+    <row r="913" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F913" s="4"/>
       <c r="I913" s="4"/>
       <c r="L913" s="4"/>
@@ -13940,7 +13938,7 @@
       <c r="R913" s="4"/>
       <c r="U913" s="4"/>
     </row>
-    <row r="914" spans="6:21" ht="13">
+    <row r="914" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F914" s="4"/>
       <c r="I914" s="4"/>
       <c r="L914" s="4"/>
@@ -13948,7 +13946,7 @@
       <c r="R914" s="4"/>
       <c r="U914" s="4"/>
     </row>
-    <row r="915" spans="6:21" ht="13">
+    <row r="915" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F915" s="4"/>
       <c r="I915" s="4"/>
       <c r="L915" s="4"/>
@@ -13956,7 +13954,7 @@
       <c r="R915" s="4"/>
       <c r="U915" s="4"/>
     </row>
-    <row r="916" spans="6:21" ht="13">
+    <row r="916" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F916" s="4"/>
       <c r="I916" s="4"/>
       <c r="L916" s="4"/>
@@ -13964,7 +13962,7 @@
       <c r="R916" s="4"/>
       <c r="U916" s="4"/>
     </row>
-    <row r="917" spans="6:21" ht="13">
+    <row r="917" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F917" s="4"/>
       <c r="I917" s="4"/>
       <c r="L917" s="4"/>
@@ -13972,7 +13970,7 @@
       <c r="R917" s="4"/>
       <c r="U917" s="4"/>
     </row>
-    <row r="918" spans="6:21" ht="13">
+    <row r="918" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F918" s="4"/>
       <c r="I918" s="4"/>
       <c r="L918" s="4"/>
@@ -13980,7 +13978,7 @@
       <c r="R918" s="4"/>
       <c r="U918" s="4"/>
     </row>
-    <row r="919" spans="6:21" ht="13">
+    <row r="919" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F919" s="4"/>
       <c r="I919" s="4"/>
       <c r="L919" s="4"/>
@@ -13988,7 +13986,7 @@
       <c r="R919" s="4"/>
       <c r="U919" s="4"/>
     </row>
-    <row r="920" spans="6:21" ht="13">
+    <row r="920" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F920" s="4"/>
       <c r="I920" s="4"/>
       <c r="L920" s="4"/>
@@ -13996,7 +13994,7 @@
       <c r="R920" s="4"/>
       <c r="U920" s="4"/>
     </row>
-    <row r="921" spans="6:21" ht="13">
+    <row r="921" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F921" s="4"/>
       <c r="I921" s="4"/>
       <c r="L921" s="4"/>
@@ -14004,7 +14002,7 @@
       <c r="R921" s="4"/>
       <c r="U921" s="4"/>
     </row>
-    <row r="922" spans="6:21" ht="13">
+    <row r="922" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F922" s="4"/>
       <c r="I922" s="4"/>
       <c r="L922" s="4"/>
@@ -14012,7 +14010,7 @@
       <c r="R922" s="4"/>
       <c r="U922" s="4"/>
     </row>
-    <row r="923" spans="6:21" ht="13">
+    <row r="923" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F923" s="4"/>
       <c r="I923" s="4"/>
       <c r="L923" s="4"/>
@@ -14020,7 +14018,7 @@
       <c r="R923" s="4"/>
       <c r="U923" s="4"/>
     </row>
-    <row r="924" spans="6:21" ht="13">
+    <row r="924" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F924" s="4"/>
       <c r="I924" s="4"/>
       <c r="L924" s="4"/>
@@ -14028,7 +14026,7 @@
       <c r="R924" s="4"/>
       <c r="U924" s="4"/>
     </row>
-    <row r="925" spans="6:21" ht="13">
+    <row r="925" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F925" s="4"/>
       <c r="I925" s="4"/>
       <c r="L925" s="4"/>
@@ -14036,7 +14034,7 @@
       <c r="R925" s="4"/>
       <c r="U925" s="4"/>
     </row>
-    <row r="926" spans="6:21" ht="13">
+    <row r="926" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F926" s="4"/>
       <c r="I926" s="4"/>
       <c r="L926" s="4"/>
@@ -14044,7 +14042,7 @@
       <c r="R926" s="4"/>
       <c r="U926" s="4"/>
     </row>
-    <row r="927" spans="6:21" ht="13">
+    <row r="927" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F927" s="4"/>
       <c r="I927" s="4"/>
       <c r="L927" s="4"/>
@@ -14052,7 +14050,7 @@
       <c r="R927" s="4"/>
       <c r="U927" s="4"/>
     </row>
-    <row r="928" spans="6:21" ht="13">
+    <row r="928" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F928" s="4"/>
       <c r="I928" s="4"/>
       <c r="L928" s="4"/>
@@ -14060,7 +14058,7 @@
       <c r="R928" s="4"/>
       <c r="U928" s="4"/>
     </row>
-    <row r="929" spans="6:21" ht="13">
+    <row r="929" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F929" s="4"/>
       <c r="I929" s="4"/>
       <c r="L929" s="4"/>
@@ -14068,7 +14066,7 @@
       <c r="R929" s="4"/>
       <c r="U929" s="4"/>
     </row>
-    <row r="930" spans="6:21" ht="13">
+    <row r="930" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F930" s="4"/>
       <c r="I930" s="4"/>
       <c r="L930" s="4"/>
@@ -14076,7 +14074,7 @@
       <c r="R930" s="4"/>
       <c r="U930" s="4"/>
     </row>
-    <row r="931" spans="6:21" ht="13">
+    <row r="931" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F931" s="4"/>
       <c r="I931" s="4"/>
       <c r="L931" s="4"/>
@@ -14084,7 +14082,7 @@
       <c r="R931" s="4"/>
       <c r="U931" s="4"/>
     </row>
-    <row r="932" spans="6:21" ht="13">
+    <row r="932" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F932" s="4"/>
       <c r="I932" s="4"/>
       <c r="L932" s="4"/>
@@ -14092,7 +14090,7 @@
       <c r="R932" s="4"/>
       <c r="U932" s="4"/>
     </row>
-    <row r="933" spans="6:21" ht="13">
+    <row r="933" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F933" s="4"/>
       <c r="I933" s="4"/>
       <c r="L933" s="4"/>
@@ -14100,7 +14098,7 @@
       <c r="R933" s="4"/>
       <c r="U933" s="4"/>
     </row>
-    <row r="934" spans="6:21" ht="13">
+    <row r="934" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F934" s="4"/>
       <c r="I934" s="4"/>
       <c r="L934" s="4"/>
@@ -14108,7 +14106,7 @@
       <c r="R934" s="4"/>
       <c r="U934" s="4"/>
     </row>
-    <row r="935" spans="6:21" ht="13">
+    <row r="935" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F935" s="4"/>
       <c r="I935" s="4"/>
       <c r="L935" s="4"/>
@@ -14116,7 +14114,7 @@
       <c r="R935" s="4"/>
       <c r="U935" s="4"/>
     </row>
-    <row r="936" spans="6:21" ht="13">
+    <row r="936" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F936" s="4"/>
       <c r="I936" s="4"/>
       <c r="L936" s="4"/>
@@ -14124,7 +14122,7 @@
       <c r="R936" s="4"/>
       <c r="U936" s="4"/>
     </row>
-    <row r="937" spans="6:21" ht="13">
+    <row r="937" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F937" s="4"/>
       <c r="I937" s="4"/>
       <c r="L937" s="4"/>
@@ -14132,7 +14130,7 @@
       <c r="R937" s="4"/>
       <c r="U937" s="4"/>
     </row>
-    <row r="938" spans="6:21" ht="13">
+    <row r="938" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F938" s="4"/>
       <c r="I938" s="4"/>
       <c r="L938" s="4"/>
@@ -14140,7 +14138,7 @@
       <c r="R938" s="4"/>
       <c r="U938" s="4"/>
     </row>
-    <row r="939" spans="6:21" ht="13">
+    <row r="939" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F939" s="4"/>
       <c r="I939" s="4"/>
       <c r="L939" s="4"/>
@@ -14148,7 +14146,7 @@
       <c r="R939" s="4"/>
       <c r="U939" s="4"/>
     </row>
-    <row r="940" spans="6:21" ht="13">
+    <row r="940" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F940" s="4"/>
       <c r="I940" s="4"/>
       <c r="L940" s="4"/>
@@ -14156,7 +14154,7 @@
       <c r="R940" s="4"/>
       <c r="U940" s="4"/>
     </row>
-    <row r="941" spans="6:21" ht="13">
+    <row r="941" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F941" s="4"/>
       <c r="I941" s="4"/>
       <c r="L941" s="4"/>
@@ -14164,7 +14162,7 @@
       <c r="R941" s="4"/>
       <c r="U941" s="4"/>
     </row>
-    <row r="942" spans="6:21" ht="13">
+    <row r="942" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F942" s="4"/>
       <c r="I942" s="4"/>
       <c r="L942" s="4"/>
@@ -14172,7 +14170,7 @@
       <c r="R942" s="4"/>
       <c r="U942" s="4"/>
     </row>
-    <row r="943" spans="6:21" ht="13">
+    <row r="943" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F943" s="4"/>
       <c r="I943" s="4"/>
       <c r="L943" s="4"/>
@@ -14180,7 +14178,7 @@
       <c r="R943" s="4"/>
       <c r="U943" s="4"/>
     </row>
-    <row r="944" spans="6:21" ht="13">
+    <row r="944" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F944" s="4"/>
       <c r="I944" s="4"/>
       <c r="L944" s="4"/>
@@ -14188,7 +14186,7 @@
       <c r="R944" s="4"/>
       <c r="U944" s="4"/>
     </row>
-    <row r="945" spans="6:21" ht="13">
+    <row r="945" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F945" s="4"/>
       <c r="I945" s="4"/>
       <c r="L945" s="4"/>
@@ -14196,7 +14194,7 @@
       <c r="R945" s="4"/>
       <c r="U945" s="4"/>
     </row>
-    <row r="946" spans="6:21" ht="13">
+    <row r="946" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F946" s="4"/>
       <c r="I946" s="4"/>
       <c r="L946" s="4"/>
@@ -14204,7 +14202,7 @@
       <c r="R946" s="4"/>
       <c r="U946" s="4"/>
     </row>
-    <row r="947" spans="6:21" ht="13">
+    <row r="947" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F947" s="4"/>
       <c r="I947" s="4"/>
       <c r="L947" s="4"/>
@@ -14212,7 +14210,7 @@
       <c r="R947" s="4"/>
       <c r="U947" s="4"/>
     </row>
-    <row r="948" spans="6:21" ht="13">
+    <row r="948" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F948" s="4"/>
       <c r="I948" s="4"/>
       <c r="L948" s="4"/>
@@ -14220,7 +14218,7 @@
       <c r="R948" s="4"/>
       <c r="U948" s="4"/>
     </row>
-    <row r="949" spans="6:21" ht="13">
+    <row r="949" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F949" s="4"/>
       <c r="I949" s="4"/>
       <c r="L949" s="4"/>
@@ -14228,7 +14226,7 @@
       <c r="R949" s="4"/>
       <c r="U949" s="4"/>
     </row>
-    <row r="950" spans="6:21" ht="13">
+    <row r="950" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F950" s="4"/>
       <c r="I950" s="4"/>
       <c r="L950" s="4"/>
@@ -14236,7 +14234,7 @@
       <c r="R950" s="4"/>
       <c r="U950" s="4"/>
     </row>
-    <row r="951" spans="6:21" ht="13">
+    <row r="951" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F951" s="4"/>
       <c r="I951" s="4"/>
       <c r="L951" s="4"/>
@@ -14244,7 +14242,7 @@
       <c r="R951" s="4"/>
       <c r="U951" s="4"/>
     </row>
-    <row r="952" spans="6:21" ht="13">
+    <row r="952" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F952" s="4"/>
       <c r="I952" s="4"/>
       <c r="L952" s="4"/>
@@ -14252,7 +14250,7 @@
       <c r="R952" s="4"/>
       <c r="U952" s="4"/>
     </row>
-    <row r="953" spans="6:21" ht="13">
+    <row r="953" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F953" s="4"/>
       <c r="I953" s="4"/>
       <c r="L953" s="4"/>
@@ -14260,7 +14258,7 @@
       <c r="R953" s="4"/>
       <c r="U953" s="4"/>
     </row>
-    <row r="954" spans="6:21" ht="13">
+    <row r="954" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F954" s="4"/>
       <c r="I954" s="4"/>
       <c r="L954" s="4"/>
@@ -14268,7 +14266,7 @@
       <c r="R954" s="4"/>
       <c r="U954" s="4"/>
     </row>
-    <row r="955" spans="6:21" ht="13">
+    <row r="955" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F955" s="4"/>
       <c r="I955" s="4"/>
       <c r="L955" s="4"/>
@@ -14276,7 +14274,7 @@
       <c r="R955" s="4"/>
       <c r="U955" s="4"/>
     </row>
-    <row r="956" spans="6:21" ht="13">
+    <row r="956" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F956" s="4"/>
       <c r="I956" s="4"/>
       <c r="L956" s="4"/>
@@ -14284,7 +14282,7 @@
       <c r="R956" s="4"/>
       <c r="U956" s="4"/>
     </row>
-    <row r="957" spans="6:21" ht="13">
+    <row r="957" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F957" s="4"/>
       <c r="I957" s="4"/>
       <c r="L957" s="4"/>
@@ -14292,7 +14290,7 @@
       <c r="R957" s="4"/>
       <c r="U957" s="4"/>
     </row>
-    <row r="958" spans="6:21" ht="13">
+    <row r="958" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F958" s="4"/>
       <c r="I958" s="4"/>
       <c r="L958" s="4"/>
@@ -14300,7 +14298,7 @@
       <c r="R958" s="4"/>
       <c r="U958" s="4"/>
     </row>
-    <row r="959" spans="6:21" ht="13">
+    <row r="959" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F959" s="4"/>
       <c r="I959" s="4"/>
       <c r="L959" s="4"/>
@@ -14308,7 +14306,7 @@
       <c r="R959" s="4"/>
       <c r="U959" s="4"/>
     </row>
-    <row r="960" spans="6:21" ht="13">
+    <row r="960" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F960" s="4"/>
       <c r="I960" s="4"/>
       <c r="L960" s="4"/>
@@ -14316,7 +14314,7 @@
       <c r="R960" s="4"/>
       <c r="U960" s="4"/>
     </row>
-    <row r="961" spans="6:21" ht="13">
+    <row r="961" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F961" s="4"/>
       <c r="I961" s="4"/>
       <c r="L961" s="4"/>
@@ -14324,7 +14322,7 @@
       <c r="R961" s="4"/>
       <c r="U961" s="4"/>
     </row>
-    <row r="962" spans="6:21" ht="13">
+    <row r="962" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F962" s="4"/>
       <c r="I962" s="4"/>
       <c r="L962" s="4"/>
@@ -14332,7 +14330,7 @@
       <c r="R962" s="4"/>
       <c r="U962" s="4"/>
     </row>
-    <row r="963" spans="6:21" ht="13">
+    <row r="963" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F963" s="4"/>
       <c r="I963" s="4"/>
       <c r="L963" s="4"/>
@@ -14340,7 +14338,7 @@
       <c r="R963" s="4"/>
       <c r="U963" s="4"/>
     </row>
-    <row r="964" spans="6:21" ht="13">
+    <row r="964" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F964" s="4"/>
       <c r="I964" s="4"/>
       <c r="L964" s="4"/>
@@ -14348,7 +14346,7 @@
       <c r="R964" s="4"/>
       <c r="U964" s="4"/>
     </row>
-    <row r="965" spans="6:21" ht="13">
+    <row r="965" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F965" s="4"/>
       <c r="I965" s="4"/>
       <c r="L965" s="4"/>
@@ -14356,7 +14354,7 @@
       <c r="R965" s="4"/>
       <c r="U965" s="4"/>
     </row>
-    <row r="966" spans="6:21" ht="13">
+    <row r="966" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F966" s="4"/>
       <c r="I966" s="4"/>
       <c r="L966" s="4"/>
@@ -14364,7 +14362,7 @@
       <c r="R966" s="4"/>
       <c r="U966" s="4"/>
     </row>
-    <row r="967" spans="6:21" ht="13">
+    <row r="967" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F967" s="4"/>
       <c r="I967" s="4"/>
       <c r="L967" s="4"/>
@@ -14372,7 +14370,7 @@
       <c r="R967" s="4"/>
       <c r="U967" s="4"/>
     </row>
-    <row r="968" spans="6:21" ht="13">
+    <row r="968" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F968" s="4"/>
       <c r="I968" s="4"/>
       <c r="L968" s="4"/>
@@ -14380,7 +14378,7 @@
       <c r="R968" s="4"/>
       <c r="U968" s="4"/>
     </row>
-    <row r="969" spans="6:21" ht="13">
+    <row r="969" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F969" s="4"/>
       <c r="I969" s="4"/>
       <c r="L969" s="4"/>
@@ -14388,7 +14386,7 @@
       <c r="R969" s="4"/>
       <c r="U969" s="4"/>
     </row>
-    <row r="970" spans="6:21" ht="13">
+    <row r="970" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F970" s="4"/>
       <c r="I970" s="4"/>
       <c r="L970" s="4"/>
@@ -14396,7 +14394,7 @@
       <c r="R970" s="4"/>
       <c r="U970" s="4"/>
     </row>
-    <row r="971" spans="6:21" ht="13">
+    <row r="971" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F971" s="4"/>
       <c r="I971" s="4"/>
       <c r="L971" s="4"/>
@@ -14404,7 +14402,7 @@
       <c r="R971" s="4"/>
       <c r="U971" s="4"/>
     </row>
-    <row r="972" spans="6:21" ht="13">
+    <row r="972" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F972" s="4"/>
       <c r="I972" s="4"/>
       <c r="L972" s="4"/>
@@ -14412,7 +14410,7 @@
       <c r="R972" s="4"/>
       <c r="U972" s="4"/>
     </row>
-    <row r="973" spans="6:21" ht="13">
+    <row r="973" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F973" s="4"/>
       <c r="I973" s="4"/>
       <c r="L973" s="4"/>
@@ -14420,7 +14418,7 @@
       <c r="R973" s="4"/>
       <c r="U973" s="4"/>
     </row>
-    <row r="974" spans="6:21" ht="13">
+    <row r="974" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F974" s="4"/>
       <c r="I974" s="4"/>
       <c r="L974" s="4"/>
@@ -14428,7 +14426,7 @@
       <c r="R974" s="4"/>
       <c r="U974" s="4"/>
     </row>
-    <row r="975" spans="6:21" ht="13">
+    <row r="975" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F975" s="4"/>
       <c r="I975" s="4"/>
       <c r="L975" s="4"/>
@@ -14436,7 +14434,7 @@
       <c r="R975" s="4"/>
       <c r="U975" s="4"/>
     </row>
-    <row r="976" spans="6:21" ht="13">
+    <row r="976" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F976" s="4"/>
       <c r="I976" s="4"/>
       <c r="L976" s="4"/>
@@ -14444,7 +14442,7 @@
       <c r="R976" s="4"/>
       <c r="U976" s="4"/>
     </row>
-    <row r="977" spans="6:21" ht="13">
+    <row r="977" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F977" s="4"/>
       <c r="I977" s="4"/>
       <c r="L977" s="4"/>
@@ -14452,7 +14450,7 @@
       <c r="R977" s="4"/>
       <c r="U977" s="4"/>
     </row>
-    <row r="978" spans="6:21" ht="13">
+    <row r="978" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F978" s="4"/>
       <c r="I978" s="4"/>
       <c r="L978" s="4"/>
@@ -14460,7 +14458,7 @@
       <c r="R978" s="4"/>
       <c r="U978" s="4"/>
     </row>
-    <row r="979" spans="6:21" ht="13">
+    <row r="979" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F979" s="4"/>
       <c r="I979" s="4"/>
       <c r="L979" s="4"/>
@@ -14468,7 +14466,7 @@
       <c r="R979" s="4"/>
       <c r="U979" s="4"/>
     </row>
-    <row r="980" spans="6:21" ht="13">
+    <row r="980" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F980" s="4"/>
       <c r="I980" s="4"/>
       <c r="L980" s="4"/>
@@ -14476,7 +14474,7 @@
       <c r="R980" s="4"/>
       <c r="U980" s="4"/>
     </row>
-    <row r="981" spans="6:21" ht="13">
+    <row r="981" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F981" s="4"/>
       <c r="I981" s="4"/>
       <c r="L981" s="4"/>
@@ -14484,7 +14482,7 @@
       <c r="R981" s="4"/>
       <c r="U981" s="4"/>
     </row>
-    <row r="982" spans="6:21" ht="13">
+    <row r="982" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F982" s="4"/>
       <c r="I982" s="4"/>
       <c r="L982" s="4"/>
@@ -14492,7 +14490,7 @@
       <c r="R982" s="4"/>
       <c r="U982" s="4"/>
     </row>
-    <row r="983" spans="6:21" ht="13">
+    <row r="983" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F983" s="4"/>
       <c r="I983" s="4"/>
       <c r="L983" s="4"/>
@@ -14500,7 +14498,7 @@
       <c r="R983" s="4"/>
       <c r="U983" s="4"/>
     </row>
-    <row r="984" spans="6:21" ht="13">
+    <row r="984" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F984" s="4"/>
       <c r="I984" s="4"/>
       <c r="L984" s="4"/>
@@ -14508,7 +14506,7 @@
       <c r="R984" s="4"/>
       <c r="U984" s="4"/>
     </row>
-    <row r="985" spans="6:21" ht="13">
+    <row r="985" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F985" s="4"/>
       <c r="I985" s="4"/>
       <c r="L985" s="4"/>
@@ -14516,7 +14514,7 @@
       <c r="R985" s="4"/>
       <c r="U985" s="4"/>
     </row>
-    <row r="986" spans="6:21" ht="13">
+    <row r="986" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F986" s="4"/>
       <c r="I986" s="4"/>
       <c r="L986" s="4"/>
@@ -14524,7 +14522,7 @@
       <c r="R986" s="4"/>
       <c r="U986" s="4"/>
     </row>
-    <row r="987" spans="6:21" ht="13">
+    <row r="987" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F987" s="4"/>
       <c r="I987" s="4"/>
       <c r="L987" s="4"/>
@@ -14532,7 +14530,7 @@
       <c r="R987" s="4"/>
       <c r="U987" s="4"/>
     </row>
-    <row r="988" spans="6:21" ht="13">
+    <row r="988" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F988" s="4"/>
       <c r="I988" s="4"/>
       <c r="L988" s="4"/>
@@ -14540,7 +14538,7 @@
       <c r="R988" s="4"/>
       <c r="U988" s="4"/>
     </row>
-    <row r="989" spans="6:21" ht="13">
+    <row r="989" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F989" s="4"/>
       <c r="I989" s="4"/>
       <c r="L989" s="4"/>
@@ -14548,7 +14546,7 @@
       <c r="R989" s="4"/>
       <c r="U989" s="4"/>
     </row>
-    <row r="990" spans="6:21" ht="13">
+    <row r="990" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F990" s="4"/>
       <c r="I990" s="4"/>
       <c r="L990" s="4"/>
@@ -14556,7 +14554,7 @@
       <c r="R990" s="4"/>
       <c r="U990" s="4"/>
     </row>
-    <row r="991" spans="6:21" ht="13">
+    <row r="991" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F991" s="4"/>
       <c r="I991" s="4"/>
       <c r="L991" s="4"/>
@@ -14564,7 +14562,7 @@
       <c r="R991" s="4"/>
       <c r="U991" s="4"/>
     </row>
-    <row r="992" spans="6:21" ht="13">
+    <row r="992" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F992" s="4"/>
       <c r="I992" s="4"/>
       <c r="L992" s="4"/>
@@ -14572,7 +14570,7 @@
       <c r="R992" s="4"/>
       <c r="U992" s="4"/>
     </row>
-    <row r="993" spans="6:21" ht="13">
+    <row r="993" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F993" s="4"/>
       <c r="I993" s="4"/>
       <c r="L993" s="4"/>
@@ -14580,7 +14578,7 @@
       <c r="R993" s="4"/>
       <c r="U993" s="4"/>
     </row>
-    <row r="994" spans="6:21" ht="13">
+    <row r="994" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F994" s="4"/>
       <c r="I994" s="4"/>
       <c r="L994" s="4"/>
@@ -14588,7 +14586,7 @@
       <c r="R994" s="4"/>
       <c r="U994" s="4"/>
     </row>
-    <row r="995" spans="6:21" ht="13">
+    <row r="995" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F995" s="4"/>
       <c r="I995" s="4"/>
       <c r="L995" s="4"/>
@@ -14596,7 +14594,7 @@
       <c r="R995" s="4"/>
       <c r="U995" s="4"/>
     </row>
-    <row r="996" spans="6:21" ht="13">
+    <row r="996" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F996" s="4"/>
       <c r="I996" s="4"/>
       <c r="L996" s="4"/>
@@ -14604,7 +14602,7 @@
       <c r="R996" s="4"/>
       <c r="U996" s="4"/>
     </row>
-    <row r="997" spans="6:21" ht="13">
+    <row r="997" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F997" s="4"/>
       <c r="I997" s="4"/>
       <c r="L997" s="4"/>
@@ -14612,7 +14610,7 @@
       <c r="R997" s="4"/>
       <c r="U997" s="4"/>
     </row>
-    <row r="998" spans="6:21" ht="13">
+    <row r="998" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F998" s="4"/>
       <c r="I998" s="4"/>
       <c r="L998" s="4"/>

--- a/DB_homicidios.xlsx
+++ b/DB_homicidios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\OneDrive\Documentos\Ingenieria Financiera\6to Semestre\Simulacion de Procesos financieros\Proyecto_Modulo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunopimentel/Documents/Iteso/6 Semestre/Simulacion de procesos financieross/Proyecto/Proyecto_Modulo1-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="6_{B02D7020-4B3A-445E-B896-C931B242C551}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{45077035-9188-4256-B3C8-F5E46739ED1A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5098F3A-85FB-F446-B1F2-83144BE33772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +138,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4A86E8"/>
         <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -153,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -197,6 +203,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,21 +430,21 @@
   </sheetPr>
   <dimension ref="A1:U998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q90" sqref="Q90"/>
+    <sheetView tabSelected="1" topLeftCell="F98" zoomScale="87" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" customWidth="1"/>
-    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -494,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>40179</v>
       </c>
@@ -559,7 +571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>40210</v>
       </c>
@@ -615,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="13">
-        <v>1194</v>
+        <v>1293</v>
       </c>
       <c r="T3" s="12">
         <v>116</v>
@@ -624,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>40238</v>
       </c>
@@ -689,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>40269</v>
       </c>
@@ -754,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>40299</v>
       </c>
@@ -819,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>40330</v>
       </c>
@@ -884,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>40360</v>
       </c>
@@ -949,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>40391</v>
       </c>
@@ -1014,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>40422</v>
       </c>
@@ -1079,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>40452</v>
       </c>
@@ -1144,7 +1156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>40483</v>
       </c>
@@ -1209,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>40513</v>
       </c>
@@ -1274,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>40544</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>40575</v>
       </c>
@@ -1404,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>40603</v>
       </c>
@@ -1469,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>40634</v>
       </c>
@@ -1534,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>40664</v>
       </c>
@@ -1599,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>40695</v>
       </c>
@@ -1664,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>40725</v>
       </c>
@@ -1729,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>40756</v>
       </c>
@@ -1794,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>40787</v>
       </c>
@@ -1859,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>40817</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>40848</v>
       </c>
@@ -1989,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>40878</v>
       </c>
@@ -2054,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>40909</v>
       </c>
@@ -2119,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>40940</v>
       </c>
@@ -2184,7 +2196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>40969</v>
       </c>
@@ -2249,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>41000</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>41030</v>
       </c>
@@ -2379,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>41061</v>
       </c>
@@ -2444,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>41091</v>
       </c>
@@ -2509,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>41122</v>
       </c>
@@ -2574,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>41153</v>
       </c>
@@ -2639,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>41183</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>41214</v>
       </c>
@@ -2760,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="13">
-        <v>1279</v>
+        <v>1456</v>
       </c>
       <c r="T36" s="12">
         <v>163</v>
@@ -2769,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>41244</v>
       </c>
@@ -2834,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>41275</v>
       </c>
@@ -2899,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>41306</v>
       </c>
@@ -2955,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="13">
-        <v>1232</v>
+        <v>1389</v>
       </c>
       <c r="T39" s="12">
         <v>173</v>
@@ -2964,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>41334</v>
       </c>
@@ -3029,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>41365</v>
       </c>
@@ -3094,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>41395</v>
       </c>
@@ -3159,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>41426</v>
       </c>
@@ -3224,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>41456</v>
       </c>
@@ -3289,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>41487</v>
       </c>
@@ -3354,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>41518</v>
       </c>
@@ -3419,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>41548</v>
       </c>
@@ -3484,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>41579</v>
       </c>
@@ -3540,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="13">
-        <v>1258</v>
+        <v>1470</v>
       </c>
       <c r="T48" s="12">
         <v>163</v>
@@ -3549,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>41609</v>
       </c>
@@ -3614,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>41640</v>
       </c>
@@ -3670,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="13">
-        <v>1266</v>
+        <v>1387</v>
       </c>
       <c r="T50" s="12">
         <v>154</v>
@@ -3679,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>41671</v>
       </c>
@@ -3735,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="S51" s="13">
-        <v>1157</v>
+        <v>1400</v>
       </c>
       <c r="T51" s="12">
         <v>150</v>
@@ -3744,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>41699</v>
       </c>
@@ -3800,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="13">
-        <v>1288</v>
+        <v>1427</v>
       </c>
       <c r="T52" s="12">
         <v>157</v>
@@ -3809,7 +3821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>41730</v>
       </c>
@@ -3865,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="13">
-        <v>1210</v>
+        <v>1449</v>
       </c>
       <c r="T53" s="12">
         <v>159</v>
@@ -3874,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>41760</v>
       </c>
@@ -3930,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="13">
-        <v>1292</v>
+        <v>1325</v>
       </c>
       <c r="T54" s="12">
         <v>191</v>
@@ -3939,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>41791</v>
       </c>
@@ -3995,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="13">
-        <v>1112</v>
+        <v>1379</v>
       </c>
       <c r="T55" s="12">
         <v>165</v>
@@ -4004,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>41821</v>
       </c>
@@ -4060,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="13">
-        <v>1106</v>
+        <v>1298</v>
       </c>
       <c r="T56" s="12">
         <v>157</v>
@@ -4069,7 +4081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>41852</v>
       </c>
@@ -4125,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="13">
-        <v>1175</v>
+        <v>1297</v>
       </c>
       <c r="T57" s="12">
         <v>150</v>
@@ -4134,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>41883</v>
       </c>
@@ -4190,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="13">
-        <v>1137</v>
+        <v>1205</v>
       </c>
       <c r="T58" s="12">
         <v>177</v>
@@ -4199,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>41913</v>
       </c>
@@ -4255,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="13">
-        <v>1193</v>
+        <v>1237</v>
       </c>
       <c r="T59" s="12">
         <v>149</v>
@@ -4264,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>41944</v>
       </c>
@@ -4320,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="13">
-        <v>1165</v>
+        <v>1247</v>
       </c>
       <c r="T60" s="12">
         <v>128</v>
@@ -4329,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
         <v>41974</v>
       </c>
@@ -4394,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>42005</v>
       </c>
@@ -4450,7 +4462,7 @@
         <v>2</v>
       </c>
       <c r="S62" s="13">
-        <v>1105</v>
+        <v>1267</v>
       </c>
       <c r="T62" s="12">
         <v>142</v>
@@ -4459,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>42036</v>
       </c>
@@ -4515,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="13">
-        <v>1041</v>
+        <v>1357</v>
       </c>
       <c r="T63" s="12">
         <v>161</v>
@@ -4524,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>42064</v>
       </c>
@@ -4580,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="13">
-        <v>1109</v>
+        <v>1389</v>
       </c>
       <c r="T64" s="12">
         <v>150</v>
@@ -4589,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>42095</v>
       </c>
@@ -4645,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="13">
-        <v>1246</v>
+        <v>1400</v>
       </c>
       <c r="T65" s="12">
         <v>155</v>
@@ -4654,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>42125</v>
       </c>
@@ -4719,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>42156</v>
       </c>
@@ -4775,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="13">
-        <v>1205</v>
+        <v>1250</v>
       </c>
       <c r="T67" s="12">
         <v>130</v>
@@ -4784,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>42186</v>
       </c>
@@ -4840,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="13">
-        <v>1256</v>
+        <v>1305</v>
       </c>
       <c r="T68" s="12">
         <v>160</v>
@@ -4849,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>42217</v>
       </c>
@@ -4914,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>42248</v>
       </c>
@@ -4979,7 +4991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>42278</v>
       </c>
@@ -5044,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>42309</v>
       </c>
@@ -5109,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>42339</v>
       </c>
@@ -5174,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>42370</v>
       </c>
@@ -5239,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>42401</v>
       </c>
@@ -5304,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>42430</v>
       </c>
@@ -5369,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>42461</v>
       </c>
@@ -5434,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>42491</v>
       </c>
@@ -5499,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>42522</v>
       </c>
@@ -5564,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>42552</v>
       </c>
@@ -5629,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>42583</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>42614</v>
       </c>
@@ -5759,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>42644</v>
       </c>
@@ -5824,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>42675</v>
       </c>
@@ -5889,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>42705</v>
       </c>
@@ -5954,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>42736</v>
       </c>
@@ -6017,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
         <v>42767</v>
       </c>
@@ -6062,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="12">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="Q87" s="12">
         <v>34</v>
@@ -6080,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
         <v>42795</v>
       </c>
@@ -6125,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="P88" s="12">
-        <v>347</v>
+        <v>135</v>
       </c>
       <c r="Q88" s="12">
         <v>50</v>
@@ -6143,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
         <v>42826</v>
       </c>
@@ -6188,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="12">
-        <v>367</v>
+        <v>167</v>
       </c>
       <c r="Q89" s="12">
         <v>49</v>
@@ -6206,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>42856</v>
       </c>
@@ -6251,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="P90" s="12">
-        <v>404</v>
+        <v>190</v>
       </c>
       <c r="Q90" s="12">
         <v>22</v>
@@ -6269,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
         <v>42887</v>
       </c>
@@ -6314,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="P91" s="12">
-        <v>436</v>
+        <v>180</v>
       </c>
       <c r="Q91" s="12">
         <v>48</v>
@@ -6332,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
         <v>42917</v>
       </c>
@@ -6379,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="P92" s="12">
-        <v>390</v>
+        <v>195</v>
       </c>
       <c r="Q92" s="12">
         <v>47</v>
@@ -6397,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
         <v>42948</v>
       </c>
@@ -6442,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="P93" s="12">
-        <v>379</v>
+        <v>200</v>
       </c>
       <c r="Q93" s="12">
         <v>50</v>
@@ -6460,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
         <v>42979</v>
       </c>
@@ -6507,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="12">
-        <v>409</v>
+        <v>234</v>
       </c>
       <c r="Q94" s="12">
         <v>51</v>
@@ -6525,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
         <v>43009</v>
       </c>
@@ -6570,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="12">
-        <v>401</v>
+        <v>227</v>
       </c>
       <c r="Q95" s="12">
         <v>42</v>
@@ -6588,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
         <v>43040</v>
       </c>
@@ -6633,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="12">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q96" s="12">
         <v>53</v>
@@ -6651,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
         <v>43070</v>
       </c>
@@ -6696,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="12">
-        <v>419</v>
+        <v>220</v>
       </c>
       <c r="Q97" s="12">
         <v>40</v>
@@ -6704,7 +6716,7 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-      <c r="S97" s="12">
+      <c r="S97" s="13">
         <v>1681</v>
       </c>
       <c r="T97" s="12">
@@ -6714,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
         <v>43101</v>
       </c>
@@ -6760,8 +6772,8 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="12">
-        <v>449</v>
+      <c r="P98" s="22">
+        <v>231</v>
       </c>
       <c r="Q98" s="12">
         <v>43</v>
@@ -6769,7 +6781,7 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-      <c r="S98" s="12">
+      <c r="S98" s="23">
         <v>1685</v>
       </c>
       <c r="T98" s="12">
@@ -6779,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
         <v>43132</v>
       </c>
@@ -6825,8 +6837,8 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="12">
-        <v>418</v>
+      <c r="P99" s="22">
+        <v>249</v>
       </c>
       <c r="Q99" s="12">
         <v>47</v>
@@ -6834,7 +6846,7 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-      <c r="S99" s="12">
+      <c r="S99" s="23">
         <v>1541</v>
       </c>
       <c r="T99" s="12">
@@ -6844,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>43160</v>
       </c>
@@ -6888,8 +6900,8 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="12">
-        <v>441</v>
+      <c r="P100" s="22">
+        <v>260</v>
       </c>
       <c r="Q100" s="12">
         <v>54</v>
@@ -6897,7 +6909,7 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="12">
+      <c r="S100" s="23">
         <v>1769</v>
       </c>
       <c r="T100" s="12">
@@ -6907,7 +6919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>43191</v>
       </c>
@@ -6953,8 +6965,8 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="12">
-        <v>478</v>
+      <c r="P101" s="22">
+        <v>256</v>
       </c>
       <c r="Q101" s="12">
         <v>53</v>
@@ -6962,7 +6974,7 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="12">
+      <c r="S101" s="23">
         <v>1799</v>
       </c>
       <c r="T101" s="12">
@@ -6972,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>43221</v>
       </c>
@@ -7018,8 +7030,8 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="12">
-        <v>437</v>
+      <c r="P102" s="22">
+        <v>243</v>
       </c>
       <c r="Q102" s="12">
         <v>52</v>
@@ -7027,7 +7039,7 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="12">
+      <c r="S102" s="23">
         <v>1859</v>
       </c>
       <c r="T102" s="12">
@@ -7037,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>43252</v>
       </c>
@@ -7081,8 +7093,8 @@
       <c r="O103" s="3">
         <v>0</v>
       </c>
-      <c r="P103" s="12">
-        <v>450</v>
+      <c r="P103" s="22">
+        <v>260</v>
       </c>
       <c r="Q103" s="12">
         <v>45</v>
@@ -7090,7 +7102,7 @@
       <c r="R103" s="3">
         <v>0</v>
       </c>
-      <c r="S103" s="12">
+      <c r="S103" s="23">
         <v>1754</v>
       </c>
       <c r="T103" s="12">
@@ -7100,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>43282</v>
       </c>
@@ -7144,8 +7156,8 @@
       <c r="O104" s="3">
         <v>0</v>
       </c>
-      <c r="P104" s="12">
-        <v>473</v>
+      <c r="P104" s="22">
+        <v>269</v>
       </c>
       <c r="Q104" s="12">
         <v>54</v>
@@ -7153,7 +7165,7 @@
       <c r="R104" s="3">
         <v>0</v>
       </c>
-      <c r="S104" s="12">
+      <c r="S104" s="23">
         <v>1968</v>
       </c>
       <c r="T104" s="12">
@@ -7163,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>43313</v>
       </c>
@@ -7207,8 +7219,8 @@
       <c r="O105" s="3">
         <v>0</v>
       </c>
-      <c r="P105" s="12">
-        <v>411</v>
+      <c r="P105" s="22">
+        <v>273</v>
       </c>
       <c r="Q105" s="12">
         <v>52</v>
@@ -7216,7 +7228,7 @@
       <c r="R105" s="3">
         <v>0</v>
       </c>
-      <c r="S105" s="12">
+      <c r="S105" s="23">
         <v>1908</v>
       </c>
       <c r="T105" s="12">
@@ -7226,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>43344</v>
       </c>
@@ -7270,8 +7282,8 @@
       <c r="O106" s="3">
         <v>0</v>
       </c>
-      <c r="P106" s="12">
-        <v>488</v>
+      <c r="P106" s="22">
+        <v>280</v>
       </c>
       <c r="Q106" s="12">
         <v>37</v>
@@ -7279,7 +7291,7 @@
       <c r="R106" s="3">
         <v>0</v>
       </c>
-      <c r="S106" s="12">
+      <c r="S106" s="23">
         <v>1859</v>
       </c>
       <c r="T106" s="12">
@@ -7289,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
         <v>43374</v>
       </c>
@@ -7333,8 +7345,8 @@
       <c r="O107" s="3">
         <v>0</v>
       </c>
-      <c r="P107" s="12">
-        <v>482</v>
+      <c r="P107" s="22">
+        <v>256</v>
       </c>
       <c r="Q107" s="12">
         <v>52</v>
@@ -7342,7 +7354,7 @@
       <c r="R107" s="3">
         <v>0</v>
       </c>
-      <c r="S107" s="12">
+      <c r="S107" s="23">
         <v>1760</v>
       </c>
       <c r="T107" s="12">
@@ -7352,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>43405</v>
       </c>
@@ -7396,8 +7408,8 @@
       <c r="O108" s="3">
         <v>0</v>
       </c>
-      <c r="P108" s="12">
-        <v>439</v>
+      <c r="P108" s="22">
+        <v>289</v>
       </c>
       <c r="Q108" s="12">
         <v>53</v>
@@ -7405,7 +7417,7 @@
       <c r="R108" s="3">
         <v>0</v>
       </c>
-      <c r="S108" s="12">
+      <c r="S108" s="23">
         <v>1775</v>
       </c>
       <c r="T108" s="12">
@@ -7415,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
         <v>43435</v>
       </c>
@@ -7459,8 +7471,8 @@
       <c r="O109" s="3">
         <v>0</v>
       </c>
-      <c r="P109" s="12">
-        <v>460</v>
+      <c r="P109" s="22">
+        <v>276</v>
       </c>
       <c r="Q109" s="12">
         <v>45</v>
@@ -7468,7 +7480,7 @@
       <c r="R109" s="3">
         <v>0</v>
       </c>
-      <c r="S109" s="12">
+      <c r="S109" s="23">
         <v>1689</v>
       </c>
       <c r="T109" s="12">
@@ -7478,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="17"/>
       <c r="F110" s="4"/>
       <c r="I110" s="4"/>
@@ -7489,7 +7501,7 @@
       <c r="R110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="17"/>
       <c r="F111" s="4"/>
       <c r="I111" s="4"/>
@@ -7498,7 +7510,7 @@
       <c r="R111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="17"/>
       <c r="F112" s="4"/>
       <c r="I112" s="4"/>
@@ -7507,7 +7519,7 @@
       <c r="R112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="17"/>
       <c r="F113" s="4"/>
       <c r="I113" s="4"/>
@@ -7516,7 +7528,7 @@
       <c r="R113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="17"/>
       <c r="F114" s="4"/>
       <c r="I114" s="4"/>
@@ -7525,7 +7537,7 @@
       <c r="R114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="17"/>
       <c r="F115" s="4"/>
       <c r="I115" s="4"/>
@@ -7534,7 +7546,7 @@
       <c r="R115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="17"/>
       <c r="F116" s="4"/>
       <c r="I116" s="4"/>
@@ -7543,7 +7555,7 @@
       <c r="R116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="17"/>
       <c r="F117" s="4"/>
       <c r="I117" s="4"/>
@@ -7552,7 +7564,7 @@
       <c r="R117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="17"/>
       <c r="F118" s="4"/>
       <c r="I118" s="4"/>
@@ -7561,7 +7573,7 @@
       <c r="R118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="17"/>
       <c r="F119" s="4"/>
       <c r="I119" s="4"/>
@@ -7570,7 +7582,7 @@
       <c r="R119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="17"/>
       <c r="F120" s="4"/>
       <c r="I120" s="4"/>
@@ -7579,7 +7591,7 @@
       <c r="R120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="17"/>
       <c r="F121" s="4"/>
       <c r="I121" s="4"/>
@@ -7588,7 +7600,7 @@
       <c r="R121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="17"/>
       <c r="F122" s="4"/>
       <c r="I122" s="4"/>
@@ -7597,7 +7609,7 @@
       <c r="R122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="17"/>
       <c r="F123" s="4"/>
       <c r="I123" s="4"/>
@@ -7606,7 +7618,7 @@
       <c r="R123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="17"/>
       <c r="F124" s="4"/>
       <c r="I124" s="4"/>
@@ -7615,7 +7627,7 @@
       <c r="R124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="17"/>
       <c r="F125" s="4"/>
       <c r="I125" s="4"/>
@@ -7624,7 +7636,7 @@
       <c r="R125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="17"/>
       <c r="F126" s="4"/>
       <c r="I126" s="4"/>
@@ -7633,7 +7645,7 @@
       <c r="R126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="17"/>
       <c r="F127" s="4"/>
       <c r="I127" s="4"/>
@@ -7642,7 +7654,7 @@
       <c r="R127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="17"/>
       <c r="F128" s="4"/>
       <c r="I128" s="4"/>
@@ -7651,7 +7663,7 @@
       <c r="R128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="17"/>
       <c r="F129" s="4"/>
       <c r="I129" s="4"/>
@@ -7660,7 +7672,7 @@
       <c r="R129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="17"/>
       <c r="F130" s="4"/>
       <c r="I130" s="4"/>
@@ -7669,7 +7681,7 @@
       <c r="R130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="17"/>
       <c r="F131" s="4"/>
       <c r="I131" s="4"/>
@@ -7678,7 +7690,7 @@
       <c r="R131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="17"/>
       <c r="F132" s="4"/>
       <c r="I132" s="4"/>
@@ -7687,7 +7699,7 @@
       <c r="R132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="17"/>
       <c r="F133" s="4"/>
       <c r="I133" s="4"/>
@@ -7696,7 +7708,7 @@
       <c r="R133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="17"/>
       <c r="F134" s="4"/>
       <c r="I134" s="4"/>
@@ -7705,7 +7717,7 @@
       <c r="R134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="17"/>
       <c r="F135" s="4"/>
       <c r="I135" s="4"/>
@@ -7714,7 +7726,7 @@
       <c r="R135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F136" s="4"/>
       <c r="I136" s="4"/>
       <c r="L136" s="4"/>
@@ -7722,7 +7734,7 @@
       <c r="R136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F137" s="4"/>
       <c r="I137" s="4"/>
       <c r="L137" s="4"/>
@@ -7730,7 +7742,7 @@
       <c r="R137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F138" s="4"/>
       <c r="I138" s="4"/>
       <c r="L138" s="4"/>
@@ -7738,7 +7750,7 @@
       <c r="R138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F139" s="4"/>
       <c r="I139" s="4"/>
       <c r="L139" s="4"/>
@@ -7746,7 +7758,7 @@
       <c r="R139" s="4"/>
       <c r="U139" s="4"/>
     </row>
-    <row r="140" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F140" s="4"/>
       <c r="I140" s="4"/>
       <c r="L140" s="4"/>
@@ -7754,7 +7766,7 @@
       <c r="R140" s="4"/>
       <c r="U140" s="4"/>
     </row>
-    <row r="141" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F141" s="4"/>
       <c r="I141" s="4"/>
       <c r="L141" s="4"/>
@@ -7762,7 +7774,7 @@
       <c r="R141" s="4"/>
       <c r="U141" s="4"/>
     </row>
-    <row r="142" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F142" s="4"/>
       <c r="I142" s="4"/>
       <c r="L142" s="4"/>
@@ -7770,7 +7782,7 @@
       <c r="R142" s="4"/>
       <c r="U142" s="4"/>
     </row>
-    <row r="143" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F143" s="4"/>
       <c r="I143" s="4"/>
       <c r="L143" s="4"/>
@@ -7778,7 +7790,7 @@
       <c r="R143" s="4"/>
       <c r="U143" s="4"/>
     </row>
-    <row r="144" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F144" s="4"/>
       <c r="I144" s="4"/>
       <c r="L144" s="4"/>
@@ -7786,7 +7798,7 @@
       <c r="R144" s="4"/>
       <c r="U144" s="4"/>
     </row>
-    <row r="145" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F145" s="4"/>
       <c r="I145" s="4"/>
       <c r="L145" s="4"/>
@@ -7794,7 +7806,7 @@
       <c r="R145" s="4"/>
       <c r="U145" s="4"/>
     </row>
-    <row r="146" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F146" s="4"/>
       <c r="I146" s="4"/>
       <c r="L146" s="4"/>
@@ -7802,7 +7814,7 @@
       <c r="R146" s="4"/>
       <c r="U146" s="4"/>
     </row>
-    <row r="147" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F147" s="4"/>
       <c r="I147" s="4"/>
       <c r="L147" s="4"/>
@@ -7810,7 +7822,7 @@
       <c r="R147" s="4"/>
       <c r="U147" s="4"/>
     </row>
-    <row r="148" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F148" s="4"/>
       <c r="I148" s="4"/>
       <c r="L148" s="4"/>
@@ -7818,7 +7830,7 @@
       <c r="R148" s="4"/>
       <c r="U148" s="4"/>
     </row>
-    <row r="149" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F149" s="4"/>
       <c r="I149" s="4"/>
       <c r="L149" s="4"/>
@@ -7826,7 +7838,7 @@
       <c r="R149" s="4"/>
       <c r="U149" s="4"/>
     </row>
-    <row r="150" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F150" s="4"/>
       <c r="I150" s="4"/>
       <c r="L150" s="4"/>
@@ -7834,7 +7846,7 @@
       <c r="R150" s="4"/>
       <c r="U150" s="4"/>
     </row>
-    <row r="151" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F151" s="4"/>
       <c r="I151" s="4"/>
       <c r="L151" s="4"/>
@@ -7842,7 +7854,7 @@
       <c r="R151" s="4"/>
       <c r="U151" s="4"/>
     </row>
-    <row r="152" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F152" s="4"/>
       <c r="I152" s="4"/>
       <c r="L152" s="4"/>
@@ -7850,7 +7862,7 @@
       <c r="R152" s="4"/>
       <c r="U152" s="4"/>
     </row>
-    <row r="153" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F153" s="4"/>
       <c r="I153" s="4"/>
       <c r="L153" s="4"/>
@@ -7858,7 +7870,7 @@
       <c r="R153" s="4"/>
       <c r="U153" s="4"/>
     </row>
-    <row r="154" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F154" s="4"/>
       <c r="I154" s="4"/>
       <c r="L154" s="4"/>
@@ -7866,7 +7878,7 @@
       <c r="R154" s="4"/>
       <c r="U154" s="4"/>
     </row>
-    <row r="155" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F155" s="4"/>
       <c r="I155" s="4"/>
       <c r="L155" s="4"/>
@@ -7874,7 +7886,7 @@
       <c r="R155" s="4"/>
       <c r="U155" s="4"/>
     </row>
-    <row r="156" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F156" s="4"/>
       <c r="I156" s="4"/>
       <c r="L156" s="4"/>
@@ -7882,7 +7894,7 @@
       <c r="R156" s="4"/>
       <c r="U156" s="4"/>
     </row>
-    <row r="157" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F157" s="4"/>
       <c r="I157" s="4"/>
       <c r="L157" s="4"/>
@@ -7890,7 +7902,7 @@
       <c r="R157" s="4"/>
       <c r="U157" s="4"/>
     </row>
-    <row r="158" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F158" s="4"/>
       <c r="I158" s="4"/>
       <c r="L158" s="4"/>
@@ -7898,7 +7910,7 @@
       <c r="R158" s="4"/>
       <c r="U158" s="4"/>
     </row>
-    <row r="159" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F159" s="4"/>
       <c r="I159" s="4"/>
       <c r="L159" s="4"/>
@@ -7906,7 +7918,7 @@
       <c r="R159" s="4"/>
       <c r="U159" s="4"/>
     </row>
-    <row r="160" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F160" s="4"/>
       <c r="I160" s="4"/>
       <c r="L160" s="4"/>
@@ -7914,7 +7926,7 @@
       <c r="R160" s="4"/>
       <c r="U160" s="4"/>
     </row>
-    <row r="161" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F161" s="4"/>
       <c r="I161" s="4"/>
       <c r="L161" s="4"/>
@@ -7922,7 +7934,7 @@
       <c r="R161" s="4"/>
       <c r="U161" s="4"/>
     </row>
-    <row r="162" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F162" s="4"/>
       <c r="I162" s="4"/>
       <c r="L162" s="4"/>
@@ -7930,7 +7942,7 @@
       <c r="R162" s="4"/>
       <c r="U162" s="4"/>
     </row>
-    <row r="163" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F163" s="4"/>
       <c r="I163" s="4"/>
       <c r="L163" s="4"/>
@@ -7938,7 +7950,7 @@
       <c r="R163" s="4"/>
       <c r="U163" s="4"/>
     </row>
-    <row r="164" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F164" s="4"/>
       <c r="I164" s="4"/>
       <c r="L164" s="4"/>
@@ -7946,7 +7958,7 @@
       <c r="R164" s="4"/>
       <c r="U164" s="4"/>
     </row>
-    <row r="165" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F165" s="4"/>
       <c r="I165" s="4"/>
       <c r="L165" s="4"/>
@@ -7954,7 +7966,7 @@
       <c r="R165" s="4"/>
       <c r="U165" s="4"/>
     </row>
-    <row r="166" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F166" s="4"/>
       <c r="I166" s="4"/>
       <c r="L166" s="4"/>
@@ -7962,7 +7974,7 @@
       <c r="R166" s="4"/>
       <c r="U166" s="4"/>
     </row>
-    <row r="167" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F167" s="4"/>
       <c r="I167" s="4"/>
       <c r="L167" s="4"/>
@@ -7970,7 +7982,7 @@
       <c r="R167" s="4"/>
       <c r="U167" s="4"/>
     </row>
-    <row r="168" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F168" s="4"/>
       <c r="I168" s="4"/>
       <c r="L168" s="4"/>
@@ -7978,7 +7990,7 @@
       <c r="R168" s="4"/>
       <c r="U168" s="4"/>
     </row>
-    <row r="169" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F169" s="4"/>
       <c r="I169" s="4"/>
       <c r="L169" s="4"/>
@@ -7986,7 +7998,7 @@
       <c r="R169" s="4"/>
       <c r="U169" s="4"/>
     </row>
-    <row r="170" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F170" s="4"/>
       <c r="I170" s="4"/>
       <c r="L170" s="4"/>
@@ -7994,7 +8006,7 @@
       <c r="R170" s="4"/>
       <c r="U170" s="4"/>
     </row>
-    <row r="171" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F171" s="4"/>
       <c r="I171" s="4"/>
       <c r="L171" s="4"/>
@@ -8002,7 +8014,7 @@
       <c r="R171" s="4"/>
       <c r="U171" s="4"/>
     </row>
-    <row r="172" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F172" s="4"/>
       <c r="I172" s="4"/>
       <c r="L172" s="4"/>
@@ -8010,7 +8022,7 @@
       <c r="R172" s="4"/>
       <c r="U172" s="4"/>
     </row>
-    <row r="173" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F173" s="4"/>
       <c r="I173" s="4"/>
       <c r="L173" s="4"/>
@@ -8018,7 +8030,7 @@
       <c r="R173" s="4"/>
       <c r="U173" s="4"/>
     </row>
-    <row r="174" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F174" s="4"/>
       <c r="I174" s="4"/>
       <c r="L174" s="4"/>
@@ -8026,7 +8038,7 @@
       <c r="R174" s="4"/>
       <c r="U174" s="4"/>
     </row>
-    <row r="175" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F175" s="4"/>
       <c r="I175" s="4"/>
       <c r="L175" s="4"/>
@@ -8034,7 +8046,7 @@
       <c r="R175" s="4"/>
       <c r="U175" s="4"/>
     </row>
-    <row r="176" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F176" s="4"/>
       <c r="I176" s="4"/>
       <c r="L176" s="4"/>
@@ -8042,7 +8054,7 @@
       <c r="R176" s="4"/>
       <c r="U176" s="4"/>
     </row>
-    <row r="177" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F177" s="4"/>
       <c r="I177" s="4"/>
       <c r="L177" s="4"/>
@@ -8050,7 +8062,7 @@
       <c r="R177" s="4"/>
       <c r="U177" s="4"/>
     </row>
-    <row r="178" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F178" s="4"/>
       <c r="I178" s="4"/>
       <c r="L178" s="4"/>
@@ -8058,7 +8070,7 @@
       <c r="R178" s="4"/>
       <c r="U178" s="4"/>
     </row>
-    <row r="179" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F179" s="4"/>
       <c r="I179" s="4"/>
       <c r="L179" s="4"/>
@@ -8066,7 +8078,7 @@
       <c r="R179" s="4"/>
       <c r="U179" s="4"/>
     </row>
-    <row r="180" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F180" s="4"/>
       <c r="I180" s="4"/>
       <c r="L180" s="4"/>
@@ -8074,7 +8086,7 @@
       <c r="R180" s="4"/>
       <c r="U180" s="4"/>
     </row>
-    <row r="181" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F181" s="4"/>
       <c r="I181" s="4"/>
       <c r="L181" s="4"/>
@@ -8082,7 +8094,7 @@
       <c r="R181" s="4"/>
       <c r="U181" s="4"/>
     </row>
-    <row r="182" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F182" s="4"/>
       <c r="I182" s="4"/>
       <c r="L182" s="4"/>
@@ -8090,7 +8102,7 @@
       <c r="R182" s="4"/>
       <c r="U182" s="4"/>
     </row>
-    <row r="183" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F183" s="4"/>
       <c r="I183" s="4"/>
       <c r="L183" s="4"/>
@@ -8098,7 +8110,7 @@
       <c r="R183" s="4"/>
       <c r="U183" s="4"/>
     </row>
-    <row r="184" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F184" s="4"/>
       <c r="I184" s="4"/>
       <c r="L184" s="4"/>
@@ -8106,7 +8118,7 @@
       <c r="R184" s="4"/>
       <c r="U184" s="4"/>
     </row>
-    <row r="185" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F185" s="4"/>
       <c r="I185" s="4"/>
       <c r="L185" s="4"/>
@@ -8114,7 +8126,7 @@
       <c r="R185" s="4"/>
       <c r="U185" s="4"/>
     </row>
-    <row r="186" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F186" s="4"/>
       <c r="I186" s="4"/>
       <c r="L186" s="4"/>
@@ -8122,7 +8134,7 @@
       <c r="R186" s="4"/>
       <c r="U186" s="4"/>
     </row>
-    <row r="187" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F187" s="4"/>
       <c r="I187" s="4"/>
       <c r="L187" s="4"/>
@@ -8130,7 +8142,7 @@
       <c r="R187" s="4"/>
       <c r="U187" s="4"/>
     </row>
-    <row r="188" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F188" s="4"/>
       <c r="I188" s="4"/>
       <c r="L188" s="4"/>
@@ -8138,7 +8150,7 @@
       <c r="R188" s="4"/>
       <c r="U188" s="4"/>
     </row>
-    <row r="189" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F189" s="4"/>
       <c r="I189" s="4"/>
       <c r="L189" s="4"/>
@@ -8146,7 +8158,7 @@
       <c r="R189" s="4"/>
       <c r="U189" s="4"/>
     </row>
-    <row r="190" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F190" s="4"/>
       <c r="I190" s="4"/>
       <c r="L190" s="4"/>
@@ -8154,7 +8166,7 @@
       <c r="R190" s="4"/>
       <c r="U190" s="4"/>
     </row>
-    <row r="191" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F191" s="4"/>
       <c r="I191" s="4"/>
       <c r="L191" s="4"/>
@@ -8162,7 +8174,7 @@
       <c r="R191" s="4"/>
       <c r="U191" s="4"/>
     </row>
-    <row r="192" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F192" s="4"/>
       <c r="I192" s="4"/>
       <c r="L192" s="4"/>
@@ -8170,7 +8182,7 @@
       <c r="R192" s="4"/>
       <c r="U192" s="4"/>
     </row>
-    <row r="193" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F193" s="4"/>
       <c r="I193" s="4"/>
       <c r="L193" s="4"/>
@@ -8178,7 +8190,7 @@
       <c r="R193" s="4"/>
       <c r="U193" s="4"/>
     </row>
-    <row r="194" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F194" s="4"/>
       <c r="I194" s="4"/>
       <c r="L194" s="4"/>
@@ -8186,7 +8198,7 @@
       <c r="R194" s="4"/>
       <c r="U194" s="4"/>
     </row>
-    <row r="195" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F195" s="4"/>
       <c r="I195" s="4"/>
       <c r="L195" s="4"/>
@@ -8194,7 +8206,7 @@
       <c r="R195" s="4"/>
       <c r="U195" s="4"/>
     </row>
-    <row r="196" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F196" s="4"/>
       <c r="I196" s="4"/>
       <c r="L196" s="4"/>
@@ -8202,7 +8214,7 @@
       <c r="R196" s="4"/>
       <c r="U196" s="4"/>
     </row>
-    <row r="197" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F197" s="4"/>
       <c r="I197" s="4"/>
       <c r="L197" s="4"/>
@@ -8210,7 +8222,7 @@
       <c r="R197" s="4"/>
       <c r="U197" s="4"/>
     </row>
-    <row r="198" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F198" s="4"/>
       <c r="I198" s="4"/>
       <c r="L198" s="4"/>
@@ -8218,7 +8230,7 @@
       <c r="R198" s="4"/>
       <c r="U198" s="4"/>
     </row>
-    <row r="199" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F199" s="4"/>
       <c r="I199" s="4"/>
       <c r="L199" s="4"/>
@@ -8226,7 +8238,7 @@
       <c r="R199" s="4"/>
       <c r="U199" s="4"/>
     </row>
-    <row r="200" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F200" s="4"/>
       <c r="I200" s="4"/>
       <c r="L200" s="4"/>
@@ -8234,7 +8246,7 @@
       <c r="R200" s="4"/>
       <c r="U200" s="4"/>
     </row>
-    <row r="201" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F201" s="4"/>
       <c r="I201" s="4"/>
       <c r="L201" s="4"/>
@@ -8242,7 +8254,7 @@
       <c r="R201" s="4"/>
       <c r="U201" s="4"/>
     </row>
-    <row r="202" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F202" s="4"/>
       <c r="I202" s="4"/>
       <c r="L202" s="4"/>
@@ -8250,7 +8262,7 @@
       <c r="R202" s="4"/>
       <c r="U202" s="4"/>
     </row>
-    <row r="203" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F203" s="4"/>
       <c r="I203" s="4"/>
       <c r="L203" s="4"/>
@@ -8258,7 +8270,7 @@
       <c r="R203" s="4"/>
       <c r="U203" s="4"/>
     </row>
-    <row r="204" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F204" s="4"/>
       <c r="I204" s="4"/>
       <c r="L204" s="4"/>
@@ -8266,7 +8278,7 @@
       <c r="R204" s="4"/>
       <c r="U204" s="4"/>
     </row>
-    <row r="205" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F205" s="4"/>
       <c r="I205" s="4"/>
       <c r="L205" s="4"/>
@@ -8274,7 +8286,7 @@
       <c r="R205" s="4"/>
       <c r="U205" s="4"/>
     </row>
-    <row r="206" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F206" s="4"/>
       <c r="I206" s="4"/>
       <c r="L206" s="4"/>
@@ -8282,7 +8294,7 @@
       <c r="R206" s="4"/>
       <c r="U206" s="4"/>
     </row>
-    <row r="207" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F207" s="4"/>
       <c r="I207" s="4"/>
       <c r="L207" s="4"/>
@@ -8290,7 +8302,7 @@
       <c r="R207" s="4"/>
       <c r="U207" s="4"/>
     </row>
-    <row r="208" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F208" s="4"/>
       <c r="I208" s="4"/>
       <c r="L208" s="4"/>
@@ -8298,7 +8310,7 @@
       <c r="R208" s="4"/>
       <c r="U208" s="4"/>
     </row>
-    <row r="209" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F209" s="4"/>
       <c r="I209" s="4"/>
       <c r="L209" s="4"/>
@@ -8306,7 +8318,7 @@
       <c r="R209" s="4"/>
       <c r="U209" s="4"/>
     </row>
-    <row r="210" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F210" s="4"/>
       <c r="I210" s="4"/>
       <c r="L210" s="4"/>
@@ -8314,7 +8326,7 @@
       <c r="R210" s="4"/>
       <c r="U210" s="4"/>
     </row>
-    <row r="211" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F211" s="4"/>
       <c r="I211" s="4"/>
       <c r="L211" s="4"/>
@@ -8322,7 +8334,7 @@
       <c r="R211" s="4"/>
       <c r="U211" s="4"/>
     </row>
-    <row r="212" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F212" s="4"/>
       <c r="I212" s="4"/>
       <c r="L212" s="4"/>
@@ -8330,7 +8342,7 @@
       <c r="R212" s="4"/>
       <c r="U212" s="4"/>
     </row>
-    <row r="213" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F213" s="4"/>
       <c r="I213" s="4"/>
       <c r="L213" s="4"/>
@@ -8338,7 +8350,7 @@
       <c r="R213" s="4"/>
       <c r="U213" s="4"/>
     </row>
-    <row r="214" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F214" s="4"/>
       <c r="I214" s="4"/>
       <c r="L214" s="4"/>
@@ -8346,7 +8358,7 @@
       <c r="R214" s="4"/>
       <c r="U214" s="4"/>
     </row>
-    <row r="215" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F215" s="4"/>
       <c r="I215" s="4"/>
       <c r="L215" s="4"/>
@@ -8354,7 +8366,7 @@
       <c r="R215" s="4"/>
       <c r="U215" s="4"/>
     </row>
-    <row r="216" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F216" s="4"/>
       <c r="I216" s="4"/>
       <c r="L216" s="4"/>
@@ -8362,7 +8374,7 @@
       <c r="R216" s="4"/>
       <c r="U216" s="4"/>
     </row>
-    <row r="217" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F217" s="4"/>
       <c r="I217" s="4"/>
       <c r="L217" s="4"/>
@@ -8370,7 +8382,7 @@
       <c r="R217" s="4"/>
       <c r="U217" s="4"/>
     </row>
-    <row r="218" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F218" s="4"/>
       <c r="I218" s="4"/>
       <c r="L218" s="4"/>
@@ -8378,7 +8390,7 @@
       <c r="R218" s="4"/>
       <c r="U218" s="4"/>
     </row>
-    <row r="219" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F219" s="4"/>
       <c r="I219" s="4"/>
       <c r="L219" s="4"/>
@@ -8386,7 +8398,7 @@
       <c r="R219" s="4"/>
       <c r="U219" s="4"/>
     </row>
-    <row r="220" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F220" s="4"/>
       <c r="I220" s="4"/>
       <c r="L220" s="4"/>
@@ -8394,7 +8406,7 @@
       <c r="R220" s="4"/>
       <c r="U220" s="4"/>
     </row>
-    <row r="221" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F221" s="4"/>
       <c r="I221" s="4"/>
       <c r="L221" s="4"/>
@@ -8402,7 +8414,7 @@
       <c r="R221" s="4"/>
       <c r="U221" s="4"/>
     </row>
-    <row r="222" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F222" s="4"/>
       <c r="I222" s="4"/>
       <c r="L222" s="4"/>
@@ -8410,7 +8422,7 @@
       <c r="R222" s="4"/>
       <c r="U222" s="4"/>
     </row>
-    <row r="223" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F223" s="4"/>
       <c r="I223" s="4"/>
       <c r="L223" s="4"/>
@@ -8418,7 +8430,7 @@
       <c r="R223" s="4"/>
       <c r="U223" s="4"/>
     </row>
-    <row r="224" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F224" s="4"/>
       <c r="I224" s="4"/>
       <c r="L224" s="4"/>
@@ -8426,7 +8438,7 @@
       <c r="R224" s="4"/>
       <c r="U224" s="4"/>
     </row>
-    <row r="225" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F225" s="4"/>
       <c r="I225" s="4"/>
       <c r="L225" s="4"/>
@@ -8434,7 +8446,7 @@
       <c r="R225" s="4"/>
       <c r="U225" s="4"/>
     </row>
-    <row r="226" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F226" s="4"/>
       <c r="I226" s="4"/>
       <c r="L226" s="4"/>
@@ -8442,7 +8454,7 @@
       <c r="R226" s="4"/>
       <c r="U226" s="4"/>
     </row>
-    <row r="227" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F227" s="4"/>
       <c r="I227" s="4"/>
       <c r="L227" s="4"/>
@@ -8450,7 +8462,7 @@
       <c r="R227" s="4"/>
       <c r="U227" s="4"/>
     </row>
-    <row r="228" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F228" s="4"/>
       <c r="I228" s="4"/>
       <c r="L228" s="4"/>
@@ -8458,7 +8470,7 @@
       <c r="R228" s="4"/>
       <c r="U228" s="4"/>
     </row>
-    <row r="229" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F229" s="4"/>
       <c r="I229" s="4"/>
       <c r="L229" s="4"/>
@@ -8466,7 +8478,7 @@
       <c r="R229" s="4"/>
       <c r="U229" s="4"/>
     </row>
-    <row r="230" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F230" s="4"/>
       <c r="I230" s="4"/>
       <c r="L230" s="4"/>
@@ -8474,7 +8486,7 @@
       <c r="R230" s="4"/>
       <c r="U230" s="4"/>
     </row>
-    <row r="231" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F231" s="4"/>
       <c r="I231" s="4"/>
       <c r="L231" s="4"/>
@@ -8482,7 +8494,7 @@
       <c r="R231" s="4"/>
       <c r="U231" s="4"/>
     </row>
-    <row r="232" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F232" s="4"/>
       <c r="I232" s="4"/>
       <c r="L232" s="4"/>
@@ -8490,7 +8502,7 @@
       <c r="R232" s="4"/>
       <c r="U232" s="4"/>
     </row>
-    <row r="233" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F233" s="4"/>
       <c r="I233" s="4"/>
       <c r="L233" s="4"/>
@@ -8498,7 +8510,7 @@
       <c r="R233" s="4"/>
       <c r="U233" s="4"/>
     </row>
-    <row r="234" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F234" s="4"/>
       <c r="I234" s="4"/>
       <c r="L234" s="4"/>
@@ -8506,7 +8518,7 @@
       <c r="R234" s="4"/>
       <c r="U234" s="4"/>
     </row>
-    <row r="235" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F235" s="4"/>
       <c r="I235" s="4"/>
       <c r="L235" s="4"/>
@@ -8514,7 +8526,7 @@
       <c r="R235" s="4"/>
       <c r="U235" s="4"/>
     </row>
-    <row r="236" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F236" s="4"/>
       <c r="I236" s="4"/>
       <c r="L236" s="4"/>
@@ -8522,7 +8534,7 @@
       <c r="R236" s="4"/>
       <c r="U236" s="4"/>
     </row>
-    <row r="237" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F237" s="4"/>
       <c r="I237" s="4"/>
       <c r="L237" s="4"/>
@@ -8530,7 +8542,7 @@
       <c r="R237" s="4"/>
       <c r="U237" s="4"/>
     </row>
-    <row r="238" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F238" s="4"/>
       <c r="I238" s="4"/>
       <c r="L238" s="4"/>
@@ -8538,7 +8550,7 @@
       <c r="R238" s="4"/>
       <c r="U238" s="4"/>
     </row>
-    <row r="239" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F239" s="4"/>
       <c r="I239" s="4"/>
       <c r="L239" s="4"/>
@@ -8546,7 +8558,7 @@
       <c r="R239" s="4"/>
       <c r="U239" s="4"/>
     </row>
-    <row r="240" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F240" s="4"/>
       <c r="I240" s="4"/>
       <c r="L240" s="4"/>
@@ -8554,7 +8566,7 @@
       <c r="R240" s="4"/>
       <c r="U240" s="4"/>
     </row>
-    <row r="241" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F241" s="4"/>
       <c r="I241" s="4"/>
       <c r="L241" s="4"/>
@@ -8562,7 +8574,7 @@
       <c r="R241" s="4"/>
       <c r="U241" s="4"/>
     </row>
-    <row r="242" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F242" s="4"/>
       <c r="I242" s="4"/>
       <c r="L242" s="4"/>
@@ -8570,7 +8582,7 @@
       <c r="R242" s="4"/>
       <c r="U242" s="4"/>
     </row>
-    <row r="243" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F243" s="4"/>
       <c r="I243" s="4"/>
       <c r="L243" s="4"/>
@@ -8578,7 +8590,7 @@
       <c r="R243" s="4"/>
       <c r="U243" s="4"/>
     </row>
-    <row r="244" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F244" s="4"/>
       <c r="I244" s="4"/>
       <c r="L244" s="4"/>
@@ -8586,7 +8598,7 @@
       <c r="R244" s="4"/>
       <c r="U244" s="4"/>
     </row>
-    <row r="245" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F245" s="4"/>
       <c r="I245" s="4"/>
       <c r="L245" s="4"/>
@@ -8594,7 +8606,7 @@
       <c r="R245" s="4"/>
       <c r="U245" s="4"/>
     </row>
-    <row r="246" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F246" s="4"/>
       <c r="I246" s="4"/>
       <c r="L246" s="4"/>
@@ -8602,7 +8614,7 @@
       <c r="R246" s="4"/>
       <c r="U246" s="4"/>
     </row>
-    <row r="247" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F247" s="4"/>
       <c r="I247" s="4"/>
       <c r="L247" s="4"/>
@@ -8610,7 +8622,7 @@
       <c r="R247" s="4"/>
       <c r="U247" s="4"/>
     </row>
-    <row r="248" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F248" s="4"/>
       <c r="I248" s="4"/>
       <c r="L248" s="4"/>
@@ -8618,7 +8630,7 @@
       <c r="R248" s="4"/>
       <c r="U248" s="4"/>
     </row>
-    <row r="249" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F249" s="4"/>
       <c r="I249" s="4"/>
       <c r="L249" s="4"/>
@@ -8626,7 +8638,7 @@
       <c r="R249" s="4"/>
       <c r="U249" s="4"/>
     </row>
-    <row r="250" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F250" s="4"/>
       <c r="I250" s="4"/>
       <c r="L250" s="4"/>
@@ -8634,7 +8646,7 @@
       <c r="R250" s="4"/>
       <c r="U250" s="4"/>
     </row>
-    <row r="251" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F251" s="4"/>
       <c r="I251" s="4"/>
       <c r="L251" s="4"/>
@@ -8642,7 +8654,7 @@
       <c r="R251" s="4"/>
       <c r="U251" s="4"/>
     </row>
-    <row r="252" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F252" s="4"/>
       <c r="I252" s="4"/>
       <c r="L252" s="4"/>
@@ -8650,7 +8662,7 @@
       <c r="R252" s="4"/>
       <c r="U252" s="4"/>
     </row>
-    <row r="253" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F253" s="4"/>
       <c r="I253" s="4"/>
       <c r="L253" s="4"/>
@@ -8658,7 +8670,7 @@
       <c r="R253" s="4"/>
       <c r="U253" s="4"/>
     </row>
-    <row r="254" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F254" s="4"/>
       <c r="I254" s="4"/>
       <c r="L254" s="4"/>
@@ -8666,7 +8678,7 @@
       <c r="R254" s="4"/>
       <c r="U254" s="4"/>
     </row>
-    <row r="255" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F255" s="4"/>
       <c r="I255" s="4"/>
       <c r="L255" s="4"/>
@@ -8674,7 +8686,7 @@
       <c r="R255" s="4"/>
       <c r="U255" s="4"/>
     </row>
-    <row r="256" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F256" s="4"/>
       <c r="I256" s="4"/>
       <c r="L256" s="4"/>
@@ -8682,7 +8694,7 @@
       <c r="R256" s="4"/>
       <c r="U256" s="4"/>
     </row>
-    <row r="257" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F257" s="4"/>
       <c r="I257" s="4"/>
       <c r="L257" s="4"/>
@@ -8690,7 +8702,7 @@
       <c r="R257" s="4"/>
       <c r="U257" s="4"/>
     </row>
-    <row r="258" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F258" s="4"/>
       <c r="I258" s="4"/>
       <c r="L258" s="4"/>
@@ -8698,7 +8710,7 @@
       <c r="R258" s="4"/>
       <c r="U258" s="4"/>
     </row>
-    <row r="259" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F259" s="4"/>
       <c r="I259" s="4"/>
       <c r="L259" s="4"/>
@@ -8706,7 +8718,7 @@
       <c r="R259" s="4"/>
       <c r="U259" s="4"/>
     </row>
-    <row r="260" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F260" s="4"/>
       <c r="I260" s="4"/>
       <c r="L260" s="4"/>
@@ -8714,7 +8726,7 @@
       <c r="R260" s="4"/>
       <c r="U260" s="4"/>
     </row>
-    <row r="261" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F261" s="4"/>
       <c r="I261" s="4"/>
       <c r="L261" s="4"/>
@@ -8722,7 +8734,7 @@
       <c r="R261" s="4"/>
       <c r="U261" s="4"/>
     </row>
-    <row r="262" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F262" s="4"/>
       <c r="I262" s="4"/>
       <c r="L262" s="4"/>
@@ -8730,7 +8742,7 @@
       <c r="R262" s="4"/>
       <c r="U262" s="4"/>
     </row>
-    <row r="263" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F263" s="4"/>
       <c r="I263" s="4"/>
       <c r="L263" s="4"/>
@@ -8738,7 +8750,7 @@
       <c r="R263" s="4"/>
       <c r="U263" s="4"/>
     </row>
-    <row r="264" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F264" s="4"/>
       <c r="I264" s="4"/>
       <c r="L264" s="4"/>
@@ -8746,7 +8758,7 @@
       <c r="R264" s="4"/>
       <c r="U264" s="4"/>
     </row>
-    <row r="265" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F265" s="4"/>
       <c r="I265" s="4"/>
       <c r="L265" s="4"/>
@@ -8754,7 +8766,7 @@
       <c r="R265" s="4"/>
       <c r="U265" s="4"/>
     </row>
-    <row r="266" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F266" s="4"/>
       <c r="I266" s="4"/>
       <c r="L266" s="4"/>
@@ -8762,7 +8774,7 @@
       <c r="R266" s="4"/>
       <c r="U266" s="4"/>
     </row>
-    <row r="267" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F267" s="4"/>
       <c r="I267" s="4"/>
       <c r="L267" s="4"/>
@@ -8770,7 +8782,7 @@
       <c r="R267" s="4"/>
       <c r="U267" s="4"/>
     </row>
-    <row r="268" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F268" s="4"/>
       <c r="I268" s="4"/>
       <c r="L268" s="4"/>
@@ -8778,7 +8790,7 @@
       <c r="R268" s="4"/>
       <c r="U268" s="4"/>
     </row>
-    <row r="269" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F269" s="4"/>
       <c r="I269" s="4"/>
       <c r="L269" s="4"/>
@@ -8786,7 +8798,7 @@
       <c r="R269" s="4"/>
       <c r="U269" s="4"/>
     </row>
-    <row r="270" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F270" s="4"/>
       <c r="I270" s="4"/>
       <c r="L270" s="4"/>
@@ -8794,7 +8806,7 @@
       <c r="R270" s="4"/>
       <c r="U270" s="4"/>
     </row>
-    <row r="271" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F271" s="4"/>
       <c r="I271" s="4"/>
       <c r="L271" s="4"/>
@@ -8802,7 +8814,7 @@
       <c r="R271" s="4"/>
       <c r="U271" s="4"/>
     </row>
-    <row r="272" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F272" s="4"/>
       <c r="I272" s="4"/>
       <c r="L272" s="4"/>
@@ -8810,7 +8822,7 @@
       <c r="R272" s="4"/>
       <c r="U272" s="4"/>
     </row>
-    <row r="273" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F273" s="4"/>
       <c r="I273" s="4"/>
       <c r="L273" s="4"/>
@@ -8818,7 +8830,7 @@
       <c r="R273" s="4"/>
       <c r="U273" s="4"/>
     </row>
-    <row r="274" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F274" s="4"/>
       <c r="I274" s="4"/>
       <c r="L274" s="4"/>
@@ -8826,7 +8838,7 @@
       <c r="R274" s="4"/>
       <c r="U274" s="4"/>
     </row>
-    <row r="275" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F275" s="4"/>
       <c r="I275" s="4"/>
       <c r="L275" s="4"/>
@@ -8834,7 +8846,7 @@
       <c r="R275" s="4"/>
       <c r="U275" s="4"/>
     </row>
-    <row r="276" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F276" s="4"/>
       <c r="I276" s="4"/>
       <c r="L276" s="4"/>
@@ -8842,7 +8854,7 @@
       <c r="R276" s="4"/>
       <c r="U276" s="4"/>
     </row>
-    <row r="277" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F277" s="4"/>
       <c r="I277" s="4"/>
       <c r="L277" s="4"/>
@@ -8850,7 +8862,7 @@
       <c r="R277" s="4"/>
       <c r="U277" s="4"/>
     </row>
-    <row r="278" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F278" s="4"/>
       <c r="I278" s="4"/>
       <c r="L278" s="4"/>
@@ -8858,7 +8870,7 @@
       <c r="R278" s="4"/>
       <c r="U278" s="4"/>
     </row>
-    <row r="279" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F279" s="4"/>
       <c r="I279" s="4"/>
       <c r="L279" s="4"/>
@@ -8866,7 +8878,7 @@
       <c r="R279" s="4"/>
       <c r="U279" s="4"/>
     </row>
-    <row r="280" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F280" s="4"/>
       <c r="I280" s="4"/>
       <c r="L280" s="4"/>
@@ -8874,7 +8886,7 @@
       <c r="R280" s="4"/>
       <c r="U280" s="4"/>
     </row>
-    <row r="281" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F281" s="4"/>
       <c r="I281" s="4"/>
       <c r="L281" s="4"/>
@@ -8882,7 +8894,7 @@
       <c r="R281" s="4"/>
       <c r="U281" s="4"/>
     </row>
-    <row r="282" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F282" s="4"/>
       <c r="I282" s="4"/>
       <c r="L282" s="4"/>
@@ -8890,7 +8902,7 @@
       <c r="R282" s="4"/>
       <c r="U282" s="4"/>
     </row>
-    <row r="283" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F283" s="4"/>
       <c r="I283" s="4"/>
       <c r="L283" s="4"/>
@@ -8898,7 +8910,7 @@
       <c r="R283" s="4"/>
       <c r="U283" s="4"/>
     </row>
-    <row r="284" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F284" s="4"/>
       <c r="I284" s="4"/>
       <c r="L284" s="4"/>
@@ -8906,7 +8918,7 @@
       <c r="R284" s="4"/>
       <c r="U284" s="4"/>
     </row>
-    <row r="285" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F285" s="4"/>
       <c r="I285" s="4"/>
       <c r="L285" s="4"/>
@@ -8914,7 +8926,7 @@
       <c r="R285" s="4"/>
       <c r="U285" s="4"/>
     </row>
-    <row r="286" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F286" s="4"/>
       <c r="I286" s="4"/>
       <c r="L286" s="4"/>
@@ -8922,7 +8934,7 @@
       <c r="R286" s="4"/>
       <c r="U286" s="4"/>
     </row>
-    <row r="287" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F287" s="4"/>
       <c r="I287" s="4"/>
       <c r="L287" s="4"/>
@@ -8930,7 +8942,7 @@
       <c r="R287" s="4"/>
       <c r="U287" s="4"/>
     </row>
-    <row r="288" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F288" s="4"/>
       <c r="I288" s="4"/>
       <c r="L288" s="4"/>
@@ -8938,7 +8950,7 @@
       <c r="R288" s="4"/>
       <c r="U288" s="4"/>
     </row>
-    <row r="289" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F289" s="4"/>
       <c r="I289" s="4"/>
       <c r="L289" s="4"/>
@@ -8946,7 +8958,7 @@
       <c r="R289" s="4"/>
       <c r="U289" s="4"/>
     </row>
-    <row r="290" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F290" s="4"/>
       <c r="I290" s="4"/>
       <c r="L290" s="4"/>
@@ -8954,7 +8966,7 @@
       <c r="R290" s="4"/>
       <c r="U290" s="4"/>
     </row>
-    <row r="291" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F291" s="4"/>
       <c r="I291" s="4"/>
       <c r="L291" s="4"/>
@@ -8962,7 +8974,7 @@
       <c r="R291" s="4"/>
       <c r="U291" s="4"/>
     </row>
-    <row r="292" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F292" s="4"/>
       <c r="I292" s="4"/>
       <c r="L292" s="4"/>
@@ -8970,7 +8982,7 @@
       <c r="R292" s="4"/>
       <c r="U292" s="4"/>
     </row>
-    <row r="293" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F293" s="4"/>
       <c r="I293" s="4"/>
       <c r="L293" s="4"/>
@@ -8978,7 +8990,7 @@
       <c r="R293" s="4"/>
       <c r="U293" s="4"/>
     </row>
-    <row r="294" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F294" s="4"/>
       <c r="I294" s="4"/>
       <c r="L294" s="4"/>
@@ -8986,7 +8998,7 @@
       <c r="R294" s="4"/>
       <c r="U294" s="4"/>
     </row>
-    <row r="295" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F295" s="4"/>
       <c r="I295" s="4"/>
       <c r="L295" s="4"/>
@@ -8994,7 +9006,7 @@
       <c r="R295" s="4"/>
       <c r="U295" s="4"/>
     </row>
-    <row r="296" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F296" s="4"/>
       <c r="I296" s="4"/>
       <c r="L296" s="4"/>
@@ -9002,7 +9014,7 @@
       <c r="R296" s="4"/>
       <c r="U296" s="4"/>
     </row>
-    <row r="297" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F297" s="4"/>
       <c r="I297" s="4"/>
       <c r="L297" s="4"/>
@@ -9010,7 +9022,7 @@
       <c r="R297" s="4"/>
       <c r="U297" s="4"/>
     </row>
-    <row r="298" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F298" s="4"/>
       <c r="I298" s="4"/>
       <c r="L298" s="4"/>
@@ -9018,7 +9030,7 @@
       <c r="R298" s="4"/>
       <c r="U298" s="4"/>
     </row>
-    <row r="299" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F299" s="4"/>
       <c r="I299" s="4"/>
       <c r="L299" s="4"/>
@@ -9026,7 +9038,7 @@
       <c r="R299" s="4"/>
       <c r="U299" s="4"/>
     </row>
-    <row r="300" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F300" s="4"/>
       <c r="I300" s="4"/>
       <c r="L300" s="4"/>
@@ -9034,7 +9046,7 @@
       <c r="R300" s="4"/>
       <c r="U300" s="4"/>
     </row>
-    <row r="301" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F301" s="4"/>
       <c r="I301" s="4"/>
       <c r="L301" s="4"/>
@@ -9042,7 +9054,7 @@
       <c r="R301" s="4"/>
       <c r="U301" s="4"/>
     </row>
-    <row r="302" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F302" s="4"/>
       <c r="I302" s="4"/>
       <c r="L302" s="4"/>
@@ -9050,7 +9062,7 @@
       <c r="R302" s="4"/>
       <c r="U302" s="4"/>
     </row>
-    <row r="303" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F303" s="4"/>
       <c r="I303" s="4"/>
       <c r="L303" s="4"/>
@@ -9058,7 +9070,7 @@
       <c r="R303" s="4"/>
       <c r="U303" s="4"/>
     </row>
-    <row r="304" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F304" s="4"/>
       <c r="I304" s="4"/>
       <c r="L304" s="4"/>
@@ -9066,7 +9078,7 @@
       <c r="R304" s="4"/>
       <c r="U304" s="4"/>
     </row>
-    <row r="305" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F305" s="4"/>
       <c r="I305" s="4"/>
       <c r="L305" s="4"/>
@@ -9074,7 +9086,7 @@
       <c r="R305" s="4"/>
       <c r="U305" s="4"/>
     </row>
-    <row r="306" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F306" s="4"/>
       <c r="I306" s="4"/>
       <c r="L306" s="4"/>
@@ -9082,7 +9094,7 @@
       <c r="R306" s="4"/>
       <c r="U306" s="4"/>
     </row>
-    <row r="307" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F307" s="4"/>
       <c r="I307" s="4"/>
       <c r="L307" s="4"/>
@@ -9090,7 +9102,7 @@
       <c r="R307" s="4"/>
       <c r="U307" s="4"/>
     </row>
-    <row r="308" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F308" s="4"/>
       <c r="I308" s="4"/>
       <c r="L308" s="4"/>
@@ -9098,7 +9110,7 @@
       <c r="R308" s="4"/>
       <c r="U308" s="4"/>
     </row>
-    <row r="309" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F309" s="4"/>
       <c r="I309" s="4"/>
       <c r="L309" s="4"/>
@@ -9106,7 +9118,7 @@
       <c r="R309" s="4"/>
       <c r="U309" s="4"/>
     </row>
-    <row r="310" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F310" s="4"/>
       <c r="I310" s="4"/>
       <c r="L310" s="4"/>
@@ -9114,7 +9126,7 @@
       <c r="R310" s="4"/>
       <c r="U310" s="4"/>
     </row>
-    <row r="311" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F311" s="4"/>
       <c r="I311" s="4"/>
       <c r="L311" s="4"/>
@@ -9122,7 +9134,7 @@
       <c r="R311" s="4"/>
       <c r="U311" s="4"/>
     </row>
-    <row r="312" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F312" s="4"/>
       <c r="I312" s="4"/>
       <c r="L312" s="4"/>
@@ -9130,7 +9142,7 @@
       <c r="R312" s="4"/>
       <c r="U312" s="4"/>
     </row>
-    <row r="313" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F313" s="4"/>
       <c r="I313" s="4"/>
       <c r="L313" s="4"/>
@@ -9138,7 +9150,7 @@
       <c r="R313" s="4"/>
       <c r="U313" s="4"/>
     </row>
-    <row r="314" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F314" s="4"/>
       <c r="I314" s="4"/>
       <c r="L314" s="4"/>
@@ -9146,7 +9158,7 @@
       <c r="R314" s="4"/>
       <c r="U314" s="4"/>
     </row>
-    <row r="315" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F315" s="4"/>
       <c r="I315" s="4"/>
       <c r="L315" s="4"/>
@@ -9154,7 +9166,7 @@
       <c r="R315" s="4"/>
       <c r="U315" s="4"/>
     </row>
-    <row r="316" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F316" s="4"/>
       <c r="I316" s="4"/>
       <c r="L316" s="4"/>
@@ -9162,7 +9174,7 @@
       <c r="R316" s="4"/>
       <c r="U316" s="4"/>
     </row>
-    <row r="317" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F317" s="4"/>
       <c r="I317" s="4"/>
       <c r="L317" s="4"/>
@@ -9170,7 +9182,7 @@
       <c r="R317" s="4"/>
       <c r="U317" s="4"/>
     </row>
-    <row r="318" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F318" s="4"/>
       <c r="I318" s="4"/>
       <c r="L318" s="4"/>
@@ -9178,7 +9190,7 @@
       <c r="R318" s="4"/>
       <c r="U318" s="4"/>
     </row>
-    <row r="319" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F319" s="4"/>
       <c r="I319" s="4"/>
       <c r="L319" s="4"/>
@@ -9186,7 +9198,7 @@
       <c r="R319" s="4"/>
       <c r="U319" s="4"/>
     </row>
-    <row r="320" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F320" s="4"/>
       <c r="I320" s="4"/>
       <c r="L320" s="4"/>
@@ -9194,7 +9206,7 @@
       <c r="R320" s="4"/>
       <c r="U320" s="4"/>
     </row>
-    <row r="321" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F321" s="4"/>
       <c r="I321" s="4"/>
       <c r="L321" s="4"/>
@@ -9202,7 +9214,7 @@
       <c r="R321" s="4"/>
       <c r="U321" s="4"/>
     </row>
-    <row r="322" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F322" s="4"/>
       <c r="I322" s="4"/>
       <c r="L322" s="4"/>
@@ -9210,7 +9222,7 @@
       <c r="R322" s="4"/>
       <c r="U322" s="4"/>
     </row>
-    <row r="323" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F323" s="4"/>
       <c r="I323" s="4"/>
       <c r="L323" s="4"/>
@@ -9218,7 +9230,7 @@
       <c r="R323" s="4"/>
       <c r="U323" s="4"/>
     </row>
-    <row r="324" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F324" s="4"/>
       <c r="I324" s="4"/>
       <c r="L324" s="4"/>
@@ -9226,7 +9238,7 @@
       <c r="R324" s="4"/>
       <c r="U324" s="4"/>
     </row>
-    <row r="325" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F325" s="4"/>
       <c r="I325" s="4"/>
       <c r="L325" s="4"/>
@@ -9234,7 +9246,7 @@
       <c r="R325" s="4"/>
       <c r="U325" s="4"/>
     </row>
-    <row r="326" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F326" s="4"/>
       <c r="I326" s="4"/>
       <c r="L326" s="4"/>
@@ -9242,7 +9254,7 @@
       <c r="R326" s="4"/>
       <c r="U326" s="4"/>
     </row>
-    <row r="327" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F327" s="4"/>
       <c r="I327" s="4"/>
       <c r="L327" s="4"/>
@@ -9250,7 +9262,7 @@
       <c r="R327" s="4"/>
       <c r="U327" s="4"/>
     </row>
-    <row r="328" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F328" s="4"/>
       <c r="I328" s="4"/>
       <c r="L328" s="4"/>
@@ -9258,7 +9270,7 @@
       <c r="R328" s="4"/>
       <c r="U328" s="4"/>
     </row>
-    <row r="329" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F329" s="4"/>
       <c r="I329" s="4"/>
       <c r="L329" s="4"/>
@@ -9266,7 +9278,7 @@
       <c r="R329" s="4"/>
       <c r="U329" s="4"/>
     </row>
-    <row r="330" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F330" s="4"/>
       <c r="I330" s="4"/>
       <c r="L330" s="4"/>
@@ -9274,7 +9286,7 @@
       <c r="R330" s="4"/>
       <c r="U330" s="4"/>
     </row>
-    <row r="331" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F331" s="4"/>
       <c r="I331" s="4"/>
       <c r="L331" s="4"/>
@@ -9282,7 +9294,7 @@
       <c r="R331" s="4"/>
       <c r="U331" s="4"/>
     </row>
-    <row r="332" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F332" s="4"/>
       <c r="I332" s="4"/>
       <c r="L332" s="4"/>
@@ -9290,7 +9302,7 @@
       <c r="R332" s="4"/>
       <c r="U332" s="4"/>
     </row>
-    <row r="333" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F333" s="4"/>
       <c r="I333" s="4"/>
       <c r="L333" s="4"/>
@@ -9298,7 +9310,7 @@
       <c r="R333" s="4"/>
       <c r="U333" s="4"/>
     </row>
-    <row r="334" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F334" s="4"/>
       <c r="I334" s="4"/>
       <c r="L334" s="4"/>
@@ -9306,7 +9318,7 @@
       <c r="R334" s="4"/>
       <c r="U334" s="4"/>
     </row>
-    <row r="335" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F335" s="4"/>
       <c r="I335" s="4"/>
       <c r="L335" s="4"/>
@@ -9314,7 +9326,7 @@
       <c r="R335" s="4"/>
       <c r="U335" s="4"/>
     </row>
-    <row r="336" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F336" s="4"/>
       <c r="I336" s="4"/>
       <c r="L336" s="4"/>
@@ -9322,7 +9334,7 @@
       <c r="R336" s="4"/>
       <c r="U336" s="4"/>
     </row>
-    <row r="337" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F337" s="4"/>
       <c r="I337" s="4"/>
       <c r="L337" s="4"/>
@@ -9330,7 +9342,7 @@
       <c r="R337" s="4"/>
       <c r="U337" s="4"/>
     </row>
-    <row r="338" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F338" s="4"/>
       <c r="I338" s="4"/>
       <c r="L338" s="4"/>
@@ -9338,7 +9350,7 @@
       <c r="R338" s="4"/>
       <c r="U338" s="4"/>
     </row>
-    <row r="339" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F339" s="4"/>
       <c r="I339" s="4"/>
       <c r="L339" s="4"/>
@@ -9346,7 +9358,7 @@
       <c r="R339" s="4"/>
       <c r="U339" s="4"/>
     </row>
-    <row r="340" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F340" s="4"/>
       <c r="I340" s="4"/>
       <c r="L340" s="4"/>
@@ -9354,7 +9366,7 @@
       <c r="R340" s="4"/>
       <c r="U340" s="4"/>
     </row>
-    <row r="341" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F341" s="4"/>
       <c r="I341" s="4"/>
       <c r="L341" s="4"/>
@@ -9362,7 +9374,7 @@
       <c r="R341" s="4"/>
       <c r="U341" s="4"/>
     </row>
-    <row r="342" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F342" s="4"/>
       <c r="I342" s="4"/>
       <c r="L342" s="4"/>
@@ -9370,7 +9382,7 @@
       <c r="R342" s="4"/>
       <c r="U342" s="4"/>
     </row>
-    <row r="343" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F343" s="4"/>
       <c r="I343" s="4"/>
       <c r="L343" s="4"/>
@@ -9378,7 +9390,7 @@
       <c r="R343" s="4"/>
       <c r="U343" s="4"/>
     </row>
-    <row r="344" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F344" s="4"/>
       <c r="I344" s="4"/>
       <c r="L344" s="4"/>
@@ -9386,7 +9398,7 @@
       <c r="R344" s="4"/>
       <c r="U344" s="4"/>
     </row>
-    <row r="345" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F345" s="4"/>
       <c r="I345" s="4"/>
       <c r="L345" s="4"/>
@@ -9394,7 +9406,7 @@
       <c r="R345" s="4"/>
       <c r="U345" s="4"/>
     </row>
-    <row r="346" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F346" s="4"/>
       <c r="I346" s="4"/>
       <c r="L346" s="4"/>
@@ -9402,7 +9414,7 @@
       <c r="R346" s="4"/>
       <c r="U346" s="4"/>
     </row>
-    <row r="347" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F347" s="4"/>
       <c r="I347" s="4"/>
       <c r="L347" s="4"/>
@@ -9410,7 +9422,7 @@
       <c r="R347" s="4"/>
       <c r="U347" s="4"/>
     </row>
-    <row r="348" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F348" s="4"/>
       <c r="I348" s="4"/>
       <c r="L348" s="4"/>
@@ -9418,7 +9430,7 @@
       <c r="R348" s="4"/>
       <c r="U348" s="4"/>
     </row>
-    <row r="349" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F349" s="4"/>
       <c r="I349" s="4"/>
       <c r="L349" s="4"/>
@@ -9426,7 +9438,7 @@
       <c r="R349" s="4"/>
       <c r="U349" s="4"/>
     </row>
-    <row r="350" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F350" s="4"/>
       <c r="I350" s="4"/>
       <c r="L350" s="4"/>
@@ -9434,7 +9446,7 @@
       <c r="R350" s="4"/>
       <c r="U350" s="4"/>
     </row>
-    <row r="351" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F351" s="4"/>
       <c r="I351" s="4"/>
       <c r="L351" s="4"/>
@@ -9442,7 +9454,7 @@
       <c r="R351" s="4"/>
       <c r="U351" s="4"/>
     </row>
-    <row r="352" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F352" s="4"/>
       <c r="I352" s="4"/>
       <c r="L352" s="4"/>
@@ -9450,7 +9462,7 @@
       <c r="R352" s="4"/>
       <c r="U352" s="4"/>
     </row>
-    <row r="353" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F353" s="4"/>
       <c r="I353" s="4"/>
       <c r="L353" s="4"/>
@@ -9458,7 +9470,7 @@
       <c r="R353" s="4"/>
       <c r="U353" s="4"/>
     </row>
-    <row r="354" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F354" s="4"/>
       <c r="I354" s="4"/>
       <c r="L354" s="4"/>
@@ -9466,7 +9478,7 @@
       <c r="R354" s="4"/>
       <c r="U354" s="4"/>
     </row>
-    <row r="355" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F355" s="4"/>
       <c r="I355" s="4"/>
       <c r="L355" s="4"/>
@@ -9474,7 +9486,7 @@
       <c r="R355" s="4"/>
       <c r="U355" s="4"/>
     </row>
-    <row r="356" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F356" s="4"/>
       <c r="I356" s="4"/>
       <c r="L356" s="4"/>
@@ -9482,7 +9494,7 @@
       <c r="R356" s="4"/>
       <c r="U356" s="4"/>
     </row>
-    <row r="357" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F357" s="4"/>
       <c r="I357" s="4"/>
       <c r="L357" s="4"/>
@@ -9490,7 +9502,7 @@
       <c r="R357" s="4"/>
       <c r="U357" s="4"/>
     </row>
-    <row r="358" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F358" s="4"/>
       <c r="I358" s="4"/>
       <c r="L358" s="4"/>
@@ -9498,7 +9510,7 @@
       <c r="R358" s="4"/>
       <c r="U358" s="4"/>
     </row>
-    <row r="359" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F359" s="4"/>
       <c r="I359" s="4"/>
       <c r="L359" s="4"/>
@@ -9506,7 +9518,7 @@
       <c r="R359" s="4"/>
       <c r="U359" s="4"/>
     </row>
-    <row r="360" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F360" s="4"/>
       <c r="I360" s="4"/>
       <c r="L360" s="4"/>
@@ -9514,7 +9526,7 @@
       <c r="R360" s="4"/>
       <c r="U360" s="4"/>
     </row>
-    <row r="361" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F361" s="4"/>
       <c r="I361" s="4"/>
       <c r="L361" s="4"/>
@@ -9522,7 +9534,7 @@
       <c r="R361" s="4"/>
       <c r="U361" s="4"/>
     </row>
-    <row r="362" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F362" s="4"/>
       <c r="I362" s="4"/>
       <c r="L362" s="4"/>
@@ -9530,7 +9542,7 @@
       <c r="R362" s="4"/>
       <c r="U362" s="4"/>
     </row>
-    <row r="363" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F363" s="4"/>
       <c r="I363" s="4"/>
       <c r="L363" s="4"/>
@@ -9538,7 +9550,7 @@
       <c r="R363" s="4"/>
       <c r="U363" s="4"/>
     </row>
-    <row r="364" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F364" s="4"/>
       <c r="I364" s="4"/>
       <c r="L364" s="4"/>
@@ -9546,7 +9558,7 @@
       <c r="R364" s="4"/>
       <c r="U364" s="4"/>
     </row>
-    <row r="365" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F365" s="4"/>
       <c r="I365" s="4"/>
       <c r="L365" s="4"/>
@@ -9554,7 +9566,7 @@
       <c r="R365" s="4"/>
       <c r="U365" s="4"/>
     </row>
-    <row r="366" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F366" s="4"/>
       <c r="I366" s="4"/>
       <c r="L366" s="4"/>
@@ -9562,7 +9574,7 @@
       <c r="R366" s="4"/>
       <c r="U366" s="4"/>
     </row>
-    <row r="367" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F367" s="4"/>
       <c r="I367" s="4"/>
       <c r="L367" s="4"/>
@@ -9570,7 +9582,7 @@
       <c r="R367" s="4"/>
       <c r="U367" s="4"/>
     </row>
-    <row r="368" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F368" s="4"/>
       <c r="I368" s="4"/>
       <c r="L368" s="4"/>
@@ -9578,7 +9590,7 @@
       <c r="R368" s="4"/>
       <c r="U368" s="4"/>
     </row>
-    <row r="369" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F369" s="4"/>
       <c r="I369" s="4"/>
       <c r="L369" s="4"/>
@@ -9586,7 +9598,7 @@
       <c r="R369" s="4"/>
       <c r="U369" s="4"/>
     </row>
-    <row r="370" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F370" s="4"/>
       <c r="I370" s="4"/>
       <c r="L370" s="4"/>
@@ -9594,7 +9606,7 @@
       <c r="R370" s="4"/>
       <c r="U370" s="4"/>
     </row>
-    <row r="371" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F371" s="4"/>
       <c r="I371" s="4"/>
       <c r="L371" s="4"/>
@@ -9602,7 +9614,7 @@
       <c r="R371" s="4"/>
       <c r="U371" s="4"/>
     </row>
-    <row r="372" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F372" s="4"/>
       <c r="I372" s="4"/>
       <c r="L372" s="4"/>
@@ -9610,7 +9622,7 @@
       <c r="R372" s="4"/>
       <c r="U372" s="4"/>
     </row>
-    <row r="373" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F373" s="4"/>
       <c r="I373" s="4"/>
       <c r="L373" s="4"/>
@@ -9618,7 +9630,7 @@
       <c r="R373" s="4"/>
       <c r="U373" s="4"/>
     </row>
-    <row r="374" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F374" s="4"/>
       <c r="I374" s="4"/>
       <c r="L374" s="4"/>
@@ -9626,7 +9638,7 @@
       <c r="R374" s="4"/>
       <c r="U374" s="4"/>
     </row>
-    <row r="375" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F375" s="4"/>
       <c r="I375" s="4"/>
       <c r="L375" s="4"/>
@@ -9634,7 +9646,7 @@
       <c r="R375" s="4"/>
       <c r="U375" s="4"/>
     </row>
-    <row r="376" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F376" s="4"/>
       <c r="I376" s="4"/>
       <c r="L376" s="4"/>
@@ -9642,7 +9654,7 @@
       <c r="R376" s="4"/>
       <c r="U376" s="4"/>
     </row>
-    <row r="377" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F377" s="4"/>
       <c r="I377" s="4"/>
       <c r="L377" s="4"/>
@@ -9650,7 +9662,7 @@
       <c r="R377" s="4"/>
       <c r="U377" s="4"/>
     </row>
-    <row r="378" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F378" s="4"/>
       <c r="I378" s="4"/>
       <c r="L378" s="4"/>
@@ -9658,7 +9670,7 @@
       <c r="R378" s="4"/>
       <c r="U378" s="4"/>
     </row>
-    <row r="379" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F379" s="4"/>
       <c r="I379" s="4"/>
       <c r="L379" s="4"/>
@@ -9666,7 +9678,7 @@
       <c r="R379" s="4"/>
       <c r="U379" s="4"/>
     </row>
-    <row r="380" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F380" s="4"/>
       <c r="I380" s="4"/>
       <c r="L380" s="4"/>
@@ -9674,7 +9686,7 @@
       <c r="R380" s="4"/>
       <c r="U380" s="4"/>
     </row>
-    <row r="381" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F381" s="4"/>
       <c r="I381" s="4"/>
       <c r="L381" s="4"/>
@@ -9682,7 +9694,7 @@
       <c r="R381" s="4"/>
       <c r="U381" s="4"/>
     </row>
-    <row r="382" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F382" s="4"/>
       <c r="I382" s="4"/>
       <c r="L382" s="4"/>
@@ -9690,7 +9702,7 @@
       <c r="R382" s="4"/>
       <c r="U382" s="4"/>
     </row>
-    <row r="383" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F383" s="4"/>
       <c r="I383" s="4"/>
       <c r="L383" s="4"/>
@@ -9698,7 +9710,7 @@
       <c r="R383" s="4"/>
       <c r="U383" s="4"/>
     </row>
-    <row r="384" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F384" s="4"/>
       <c r="I384" s="4"/>
       <c r="L384" s="4"/>
@@ -9706,7 +9718,7 @@
       <c r="R384" s="4"/>
       <c r="U384" s="4"/>
     </row>
-    <row r="385" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F385" s="4"/>
       <c r="I385" s="4"/>
       <c r="L385" s="4"/>
@@ -9714,7 +9726,7 @@
       <c r="R385" s="4"/>
       <c r="U385" s="4"/>
     </row>
-    <row r="386" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F386" s="4"/>
       <c r="I386" s="4"/>
       <c r="L386" s="4"/>
@@ -9722,7 +9734,7 @@
       <c r="R386" s="4"/>
       <c r="U386" s="4"/>
     </row>
-    <row r="387" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F387" s="4"/>
       <c r="I387" s="4"/>
       <c r="L387" s="4"/>
@@ -9730,7 +9742,7 @@
       <c r="R387" s="4"/>
       <c r="U387" s="4"/>
     </row>
-    <row r="388" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F388" s="4"/>
       <c r="I388" s="4"/>
       <c r="L388" s="4"/>
@@ -9738,7 +9750,7 @@
       <c r="R388" s="4"/>
       <c r="U388" s="4"/>
     </row>
-    <row r="389" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F389" s="4"/>
       <c r="I389" s="4"/>
       <c r="L389" s="4"/>
@@ -9746,7 +9758,7 @@
       <c r="R389" s="4"/>
       <c r="U389" s="4"/>
     </row>
-    <row r="390" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F390" s="4"/>
       <c r="I390" s="4"/>
       <c r="L390" s="4"/>
@@ -9754,7 +9766,7 @@
       <c r="R390" s="4"/>
       <c r="U390" s="4"/>
     </row>
-    <row r="391" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F391" s="4"/>
       <c r="I391" s="4"/>
       <c r="L391" s="4"/>
@@ -9762,7 +9774,7 @@
       <c r="R391" s="4"/>
       <c r="U391" s="4"/>
     </row>
-    <row r="392" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F392" s="4"/>
       <c r="I392" s="4"/>
       <c r="L392" s="4"/>
@@ -9770,7 +9782,7 @@
       <c r="R392" s="4"/>
       <c r="U392" s="4"/>
     </row>
-    <row r="393" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F393" s="4"/>
       <c r="I393" s="4"/>
       <c r="L393" s="4"/>
@@ -9778,7 +9790,7 @@
       <c r="R393" s="4"/>
       <c r="U393" s="4"/>
     </row>
-    <row r="394" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F394" s="4"/>
       <c r="I394" s="4"/>
       <c r="L394" s="4"/>
@@ -9786,7 +9798,7 @@
       <c r="R394" s="4"/>
       <c r="U394" s="4"/>
     </row>
-    <row r="395" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F395" s="4"/>
       <c r="I395" s="4"/>
       <c r="L395" s="4"/>
@@ -9794,7 +9806,7 @@
       <c r="R395" s="4"/>
       <c r="U395" s="4"/>
     </row>
-    <row r="396" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F396" s="4"/>
       <c r="I396" s="4"/>
       <c r="L396" s="4"/>
@@ -9802,7 +9814,7 @@
       <c r="R396" s="4"/>
       <c r="U396" s="4"/>
     </row>
-    <row r="397" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F397" s="4"/>
       <c r="I397" s="4"/>
       <c r="L397" s="4"/>
@@ -9810,7 +9822,7 @@
       <c r="R397" s="4"/>
       <c r="U397" s="4"/>
     </row>
-    <row r="398" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F398" s="4"/>
       <c r="I398" s="4"/>
       <c r="L398" s="4"/>
@@ -9818,7 +9830,7 @@
       <c r="R398" s="4"/>
       <c r="U398" s="4"/>
     </row>
-    <row r="399" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F399" s="4"/>
       <c r="I399" s="4"/>
       <c r="L399" s="4"/>
@@ -9826,7 +9838,7 @@
       <c r="R399" s="4"/>
       <c r="U399" s="4"/>
     </row>
-    <row r="400" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F400" s="4"/>
       <c r="I400" s="4"/>
       <c r="L400" s="4"/>
@@ -9834,7 +9846,7 @@
       <c r="R400" s="4"/>
       <c r="U400" s="4"/>
     </row>
-    <row r="401" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F401" s="4"/>
       <c r="I401" s="4"/>
       <c r="L401" s="4"/>
@@ -9842,7 +9854,7 @@
       <c r="R401" s="4"/>
       <c r="U401" s="4"/>
     </row>
-    <row r="402" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F402" s="4"/>
       <c r="I402" s="4"/>
       <c r="L402" s="4"/>
@@ -9850,7 +9862,7 @@
       <c r="R402" s="4"/>
       <c r="U402" s="4"/>
     </row>
-    <row r="403" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F403" s="4"/>
       <c r="I403" s="4"/>
       <c r="L403" s="4"/>
@@ -9858,7 +9870,7 @@
       <c r="R403" s="4"/>
       <c r="U403" s="4"/>
     </row>
-    <row r="404" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F404" s="4"/>
       <c r="I404" s="4"/>
       <c r="L404" s="4"/>
@@ -9866,7 +9878,7 @@
       <c r="R404" s="4"/>
       <c r="U404" s="4"/>
     </row>
-    <row r="405" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F405" s="4"/>
       <c r="I405" s="4"/>
       <c r="L405" s="4"/>
@@ -9874,7 +9886,7 @@
       <c r="R405" s="4"/>
       <c r="U405" s="4"/>
     </row>
-    <row r="406" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F406" s="4"/>
       <c r="I406" s="4"/>
       <c r="L406" s="4"/>
@@ -9882,7 +9894,7 @@
       <c r="R406" s="4"/>
       <c r="U406" s="4"/>
     </row>
-    <row r="407" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F407" s="4"/>
       <c r="I407" s="4"/>
       <c r="L407" s="4"/>
@@ -9890,7 +9902,7 @@
       <c r="R407" s="4"/>
       <c r="U407" s="4"/>
     </row>
-    <row r="408" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F408" s="4"/>
       <c r="I408" s="4"/>
       <c r="L408" s="4"/>
@@ -9898,7 +9910,7 @@
       <c r="R408" s="4"/>
       <c r="U408" s="4"/>
     </row>
-    <row r="409" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F409" s="4"/>
       <c r="I409" s="4"/>
       <c r="L409" s="4"/>
@@ -9906,7 +9918,7 @@
       <c r="R409" s="4"/>
       <c r="U409" s="4"/>
     </row>
-    <row r="410" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F410" s="4"/>
       <c r="I410" s="4"/>
       <c r="L410" s="4"/>
@@ -9914,7 +9926,7 @@
       <c r="R410" s="4"/>
       <c r="U410" s="4"/>
     </row>
-    <row r="411" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F411" s="4"/>
       <c r="I411" s="4"/>
       <c r="L411" s="4"/>
@@ -9922,7 +9934,7 @@
       <c r="R411" s="4"/>
       <c r="U411" s="4"/>
     </row>
-    <row r="412" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F412" s="4"/>
       <c r="I412" s="4"/>
       <c r="L412" s="4"/>
@@ -9930,7 +9942,7 @@
       <c r="R412" s="4"/>
       <c r="U412" s="4"/>
     </row>
-    <row r="413" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F413" s="4"/>
       <c r="I413" s="4"/>
       <c r="L413" s="4"/>
@@ -9938,7 +9950,7 @@
       <c r="R413" s="4"/>
       <c r="U413" s="4"/>
     </row>
-    <row r="414" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F414" s="4"/>
       <c r="I414" s="4"/>
       <c r="L414" s="4"/>
@@ -9946,7 +9958,7 @@
       <c r="R414" s="4"/>
       <c r="U414" s="4"/>
     </row>
-    <row r="415" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F415" s="4"/>
       <c r="I415" s="4"/>
       <c r="L415" s="4"/>
@@ -9954,7 +9966,7 @@
       <c r="R415" s="4"/>
       <c r="U415" s="4"/>
     </row>
-    <row r="416" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F416" s="4"/>
       <c r="I416" s="4"/>
       <c r="L416" s="4"/>
@@ -9962,7 +9974,7 @@
       <c r="R416" s="4"/>
       <c r="U416" s="4"/>
     </row>
-    <row r="417" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F417" s="4"/>
       <c r="I417" s="4"/>
       <c r="L417" s="4"/>
@@ -9970,7 +9982,7 @@
       <c r="R417" s="4"/>
       <c r="U417" s="4"/>
     </row>
-    <row r="418" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F418" s="4"/>
       <c r="I418" s="4"/>
       <c r="L418" s="4"/>
@@ -9978,7 +9990,7 @@
       <c r="R418" s="4"/>
       <c r="U418" s="4"/>
     </row>
-    <row r="419" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F419" s="4"/>
       <c r="I419" s="4"/>
       <c r="L419" s="4"/>
@@ -9986,7 +9998,7 @@
       <c r="R419" s="4"/>
       <c r="U419" s="4"/>
     </row>
-    <row r="420" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F420" s="4"/>
       <c r="I420" s="4"/>
       <c r="L420" s="4"/>
@@ -9994,7 +10006,7 @@
       <c r="R420" s="4"/>
       <c r="U420" s="4"/>
     </row>
-    <row r="421" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F421" s="4"/>
       <c r="I421" s="4"/>
       <c r="L421" s="4"/>
@@ -10002,7 +10014,7 @@
       <c r="R421" s="4"/>
       <c r="U421" s="4"/>
     </row>
-    <row r="422" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F422" s="4"/>
       <c r="I422" s="4"/>
       <c r="L422" s="4"/>
@@ -10010,7 +10022,7 @@
       <c r="R422" s="4"/>
       <c r="U422" s="4"/>
     </row>
-    <row r="423" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F423" s="4"/>
       <c r="I423" s="4"/>
       <c r="L423" s="4"/>
@@ -10018,7 +10030,7 @@
       <c r="R423" s="4"/>
       <c r="U423" s="4"/>
     </row>
-    <row r="424" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F424" s="4"/>
       <c r="I424" s="4"/>
       <c r="L424" s="4"/>
@@ -10026,7 +10038,7 @@
       <c r="R424" s="4"/>
       <c r="U424" s="4"/>
     </row>
-    <row r="425" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F425" s="4"/>
       <c r="I425" s="4"/>
       <c r="L425" s="4"/>
@@ -10034,7 +10046,7 @@
       <c r="R425" s="4"/>
       <c r="U425" s="4"/>
     </row>
-    <row r="426" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F426" s="4"/>
       <c r="I426" s="4"/>
       <c r="L426" s="4"/>
@@ -10042,7 +10054,7 @@
       <c r="R426" s="4"/>
       <c r="U426" s="4"/>
     </row>
-    <row r="427" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F427" s="4"/>
       <c r="I427" s="4"/>
       <c r="L427" s="4"/>
@@ -10050,7 +10062,7 @@
       <c r="R427" s="4"/>
       <c r="U427" s="4"/>
     </row>
-    <row r="428" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F428" s="4"/>
       <c r="I428" s="4"/>
       <c r="L428" s="4"/>
@@ -10058,7 +10070,7 @@
       <c r="R428" s="4"/>
       <c r="U428" s="4"/>
     </row>
-    <row r="429" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F429" s="4"/>
       <c r="I429" s="4"/>
       <c r="L429" s="4"/>
@@ -10066,7 +10078,7 @@
       <c r="R429" s="4"/>
       <c r="U429" s="4"/>
     </row>
-    <row r="430" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F430" s="4"/>
       <c r="I430" s="4"/>
       <c r="L430" s="4"/>
@@ -10074,7 +10086,7 @@
       <c r="R430" s="4"/>
       <c r="U430" s="4"/>
     </row>
-    <row r="431" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F431" s="4"/>
       <c r="I431" s="4"/>
       <c r="L431" s="4"/>
@@ -10082,7 +10094,7 @@
       <c r="R431" s="4"/>
       <c r="U431" s="4"/>
     </row>
-    <row r="432" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F432" s="4"/>
       <c r="I432" s="4"/>
       <c r="L432" s="4"/>
@@ -10090,7 +10102,7 @@
       <c r="R432" s="4"/>
       <c r="U432" s="4"/>
     </row>
-    <row r="433" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F433" s="4"/>
       <c r="I433" s="4"/>
       <c r="L433" s="4"/>
@@ -10098,7 +10110,7 @@
       <c r="R433" s="4"/>
       <c r="U433" s="4"/>
     </row>
-    <row r="434" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F434" s="4"/>
       <c r="I434" s="4"/>
       <c r="L434" s="4"/>
@@ -10106,7 +10118,7 @@
       <c r="R434" s="4"/>
       <c r="U434" s="4"/>
     </row>
-    <row r="435" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F435" s="4"/>
       <c r="I435" s="4"/>
       <c r="L435" s="4"/>
@@ -10114,7 +10126,7 @@
       <c r="R435" s="4"/>
       <c r="U435" s="4"/>
     </row>
-    <row r="436" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F436" s="4"/>
       <c r="I436" s="4"/>
       <c r="L436" s="4"/>
@@ -10122,7 +10134,7 @@
       <c r="R436" s="4"/>
       <c r="U436" s="4"/>
     </row>
-    <row r="437" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F437" s="4"/>
       <c r="I437" s="4"/>
       <c r="L437" s="4"/>
@@ -10130,7 +10142,7 @@
       <c r="R437" s="4"/>
       <c r="U437" s="4"/>
     </row>
-    <row r="438" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F438" s="4"/>
       <c r="I438" s="4"/>
       <c r="L438" s="4"/>
@@ -10138,7 +10150,7 @@
       <c r="R438" s="4"/>
       <c r="U438" s="4"/>
     </row>
-    <row r="439" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F439" s="4"/>
       <c r="I439" s="4"/>
       <c r="L439" s="4"/>
@@ -10146,7 +10158,7 @@
       <c r="R439" s="4"/>
       <c r="U439" s="4"/>
     </row>
-    <row r="440" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F440" s="4"/>
       <c r="I440" s="4"/>
       <c r="L440" s="4"/>
@@ -10154,7 +10166,7 @@
       <c r="R440" s="4"/>
       <c r="U440" s="4"/>
     </row>
-    <row r="441" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F441" s="4"/>
       <c r="I441" s="4"/>
       <c r="L441" s="4"/>
@@ -10162,7 +10174,7 @@
       <c r="R441" s="4"/>
       <c r="U441" s="4"/>
     </row>
-    <row r="442" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F442" s="4"/>
       <c r="I442" s="4"/>
       <c r="L442" s="4"/>
@@ -10170,7 +10182,7 @@
       <c r="R442" s="4"/>
       <c r="U442" s="4"/>
     </row>
-    <row r="443" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F443" s="4"/>
       <c r="I443" s="4"/>
       <c r="L443" s="4"/>
@@ -10178,7 +10190,7 @@
       <c r="R443" s="4"/>
       <c r="U443" s="4"/>
     </row>
-    <row r="444" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F444" s="4"/>
       <c r="I444" s="4"/>
       <c r="L444" s="4"/>
@@ -10186,7 +10198,7 @@
       <c r="R444" s="4"/>
       <c r="U444" s="4"/>
     </row>
-    <row r="445" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F445" s="4"/>
       <c r="I445" s="4"/>
       <c r="L445" s="4"/>
@@ -10194,7 +10206,7 @@
       <c r="R445" s="4"/>
       <c r="U445" s="4"/>
     </row>
-    <row r="446" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F446" s="4"/>
       <c r="I446" s="4"/>
       <c r="L446" s="4"/>
@@ -10202,7 +10214,7 @@
       <c r="R446" s="4"/>
       <c r="U446" s="4"/>
     </row>
-    <row r="447" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F447" s="4"/>
       <c r="I447" s="4"/>
       <c r="L447" s="4"/>
@@ -10210,7 +10222,7 @@
       <c r="R447" s="4"/>
       <c r="U447" s="4"/>
     </row>
-    <row r="448" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F448" s="4"/>
       <c r="I448" s="4"/>
       <c r="L448" s="4"/>
@@ -10218,7 +10230,7 @@
       <c r="R448" s="4"/>
       <c r="U448" s="4"/>
     </row>
-    <row r="449" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F449" s="4"/>
       <c r="I449" s="4"/>
       <c r="L449" s="4"/>
@@ -10226,7 +10238,7 @@
       <c r="R449" s="4"/>
       <c r="U449" s="4"/>
     </row>
-    <row r="450" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F450" s="4"/>
       <c r="I450" s="4"/>
       <c r="L450" s="4"/>
@@ -10234,7 +10246,7 @@
       <c r="R450" s="4"/>
       <c r="U450" s="4"/>
     </row>
-    <row r="451" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F451" s="4"/>
       <c r="I451" s="4"/>
       <c r="L451" s="4"/>
@@ -10242,7 +10254,7 @@
       <c r="R451" s="4"/>
       <c r="U451" s="4"/>
     </row>
-    <row r="452" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F452" s="4"/>
       <c r="I452" s="4"/>
       <c r="L452" s="4"/>
@@ -10250,7 +10262,7 @@
       <c r="R452" s="4"/>
       <c r="U452" s="4"/>
     </row>
-    <row r="453" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F453" s="4"/>
       <c r="I453" s="4"/>
       <c r="L453" s="4"/>
@@ -10258,7 +10270,7 @@
       <c r="R453" s="4"/>
       <c r="U453" s="4"/>
     </row>
-    <row r="454" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F454" s="4"/>
       <c r="I454" s="4"/>
       <c r="L454" s="4"/>
@@ -10266,7 +10278,7 @@
       <c r="R454" s="4"/>
       <c r="U454" s="4"/>
     </row>
-    <row r="455" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F455" s="4"/>
       <c r="I455" s="4"/>
       <c r="L455" s="4"/>
@@ -10274,7 +10286,7 @@
       <c r="R455" s="4"/>
       <c r="U455" s="4"/>
     </row>
-    <row r="456" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F456" s="4"/>
       <c r="I456" s="4"/>
       <c r="L456" s="4"/>
@@ -10282,7 +10294,7 @@
       <c r="R456" s="4"/>
       <c r="U456" s="4"/>
     </row>
-    <row r="457" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F457" s="4"/>
       <c r="I457" s="4"/>
       <c r="L457" s="4"/>
@@ -10290,7 +10302,7 @@
       <c r="R457" s="4"/>
       <c r="U457" s="4"/>
     </row>
-    <row r="458" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F458" s="4"/>
       <c r="I458" s="4"/>
       <c r="L458" s="4"/>
@@ -10298,7 +10310,7 @@
       <c r="R458" s="4"/>
       <c r="U458" s="4"/>
     </row>
-    <row r="459" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F459" s="4"/>
       <c r="I459" s="4"/>
       <c r="L459" s="4"/>
@@ -10306,7 +10318,7 @@
       <c r="R459" s="4"/>
       <c r="U459" s="4"/>
     </row>
-    <row r="460" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F460" s="4"/>
       <c r="I460" s="4"/>
       <c r="L460" s="4"/>
@@ -10314,7 +10326,7 @@
       <c r="R460" s="4"/>
       <c r="U460" s="4"/>
     </row>
-    <row r="461" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F461" s="4"/>
       <c r="I461" s="4"/>
       <c r="L461" s="4"/>
@@ -10322,7 +10334,7 @@
       <c r="R461" s="4"/>
       <c r="U461" s="4"/>
     </row>
-    <row r="462" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F462" s="4"/>
       <c r="I462" s="4"/>
       <c r="L462" s="4"/>
@@ -10330,7 +10342,7 @@
       <c r="R462" s="4"/>
       <c r="U462" s="4"/>
     </row>
-    <row r="463" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F463" s="4"/>
       <c r="I463" s="4"/>
       <c r="L463" s="4"/>
@@ -10338,7 +10350,7 @@
       <c r="R463" s="4"/>
       <c r="U463" s="4"/>
     </row>
-    <row r="464" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F464" s="4"/>
       <c r="I464" s="4"/>
       <c r="L464" s="4"/>
@@ -10346,7 +10358,7 @@
       <c r="R464" s="4"/>
       <c r="U464" s="4"/>
     </row>
-    <row r="465" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F465" s="4"/>
       <c r="I465" s="4"/>
       <c r="L465" s="4"/>
@@ -10354,7 +10366,7 @@
       <c r="R465" s="4"/>
       <c r="U465" s="4"/>
     </row>
-    <row r="466" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F466" s="4"/>
       <c r="I466" s="4"/>
       <c r="L466" s="4"/>
@@ -10362,7 +10374,7 @@
       <c r="R466" s="4"/>
       <c r="U466" s="4"/>
     </row>
-    <row r="467" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F467" s="4"/>
       <c r="I467" s="4"/>
       <c r="L467" s="4"/>
@@ -10370,7 +10382,7 @@
       <c r="R467" s="4"/>
       <c r="U467" s="4"/>
     </row>
-    <row r="468" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F468" s="4"/>
       <c r="I468" s="4"/>
       <c r="L468" s="4"/>
@@ -10378,7 +10390,7 @@
       <c r="R468" s="4"/>
       <c r="U468" s="4"/>
     </row>
-    <row r="469" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F469" s="4"/>
       <c r="I469" s="4"/>
       <c r="L469" s="4"/>
@@ -10386,7 +10398,7 @@
       <c r="R469" s="4"/>
       <c r="U469" s="4"/>
     </row>
-    <row r="470" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F470" s="4"/>
       <c r="I470" s="4"/>
       <c r="L470" s="4"/>
@@ -10394,7 +10406,7 @@
       <c r="R470" s="4"/>
       <c r="U470" s="4"/>
     </row>
-    <row r="471" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F471" s="4"/>
       <c r="I471" s="4"/>
       <c r="L471" s="4"/>
@@ -10402,7 +10414,7 @@
       <c r="R471" s="4"/>
       <c r="U471" s="4"/>
     </row>
-    <row r="472" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F472" s="4"/>
       <c r="I472" s="4"/>
       <c r="L472" s="4"/>
@@ -10410,7 +10422,7 @@
       <c r="R472" s="4"/>
       <c r="U472" s="4"/>
     </row>
-    <row r="473" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F473" s="4"/>
       <c r="I473" s="4"/>
       <c r="L473" s="4"/>
@@ -10418,7 +10430,7 @@
       <c r="R473" s="4"/>
       <c r="U473" s="4"/>
     </row>
-    <row r="474" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F474" s="4"/>
       <c r="I474" s="4"/>
       <c r="L474" s="4"/>
@@ -10426,7 +10438,7 @@
       <c r="R474" s="4"/>
       <c r="U474" s="4"/>
     </row>
-    <row r="475" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F475" s="4"/>
       <c r="I475" s="4"/>
       <c r="L475" s="4"/>
@@ -10434,7 +10446,7 @@
       <c r="R475" s="4"/>
       <c r="U475" s="4"/>
     </row>
-    <row r="476" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F476" s="4"/>
       <c r="I476" s="4"/>
       <c r="L476" s="4"/>
@@ -10442,7 +10454,7 @@
       <c r="R476" s="4"/>
       <c r="U476" s="4"/>
     </row>
-    <row r="477" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F477" s="4"/>
       <c r="I477" s="4"/>
       <c r="L477" s="4"/>
@@ -10450,7 +10462,7 @@
       <c r="R477" s="4"/>
       <c r="U477" s="4"/>
     </row>
-    <row r="478" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F478" s="4"/>
       <c r="I478" s="4"/>
       <c r="L478" s="4"/>
@@ -10458,7 +10470,7 @@
       <c r="R478" s="4"/>
       <c r="U478" s="4"/>
     </row>
-    <row r="479" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F479" s="4"/>
       <c r="I479" s="4"/>
       <c r="L479" s="4"/>
@@ -10466,7 +10478,7 @@
       <c r="R479" s="4"/>
       <c r="U479" s="4"/>
     </row>
-    <row r="480" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F480" s="4"/>
       <c r="I480" s="4"/>
       <c r="L480" s="4"/>
@@ -10474,7 +10486,7 @@
       <c r="R480" s="4"/>
       <c r="U480" s="4"/>
     </row>
-    <row r="481" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F481" s="4"/>
       <c r="I481" s="4"/>
       <c r="L481" s="4"/>
@@ -10482,7 +10494,7 @@
       <c r="R481" s="4"/>
       <c r="U481" s="4"/>
     </row>
-    <row r="482" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F482" s="4"/>
       <c r="I482" s="4"/>
       <c r="L482" s="4"/>
@@ -10490,7 +10502,7 @@
       <c r="R482" s="4"/>
       <c r="U482" s="4"/>
     </row>
-    <row r="483" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F483" s="4"/>
       <c r="I483" s="4"/>
       <c r="L483" s="4"/>
@@ -10498,7 +10510,7 @@
       <c r="R483" s="4"/>
       <c r="U483" s="4"/>
     </row>
-    <row r="484" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F484" s="4"/>
       <c r="I484" s="4"/>
       <c r="L484" s="4"/>
@@ -10506,7 +10518,7 @@
       <c r="R484" s="4"/>
       <c r="U484" s="4"/>
     </row>
-    <row r="485" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F485" s="4"/>
       <c r="I485" s="4"/>
       <c r="L485" s="4"/>
@@ -10514,7 +10526,7 @@
       <c r="R485" s="4"/>
       <c r="U485" s="4"/>
     </row>
-    <row r="486" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F486" s="4"/>
       <c r="I486" s="4"/>
       <c r="L486" s="4"/>
@@ -10522,7 +10534,7 @@
       <c r="R486" s="4"/>
       <c r="U486" s="4"/>
     </row>
-    <row r="487" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F487" s="4"/>
       <c r="I487" s="4"/>
       <c r="L487" s="4"/>
@@ -10530,7 +10542,7 @@
       <c r="R487" s="4"/>
       <c r="U487" s="4"/>
     </row>
-    <row r="488" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F488" s="4"/>
       <c r="I488" s="4"/>
       <c r="L488" s="4"/>
@@ -10538,7 +10550,7 @@
       <c r="R488" s="4"/>
       <c r="U488" s="4"/>
     </row>
-    <row r="489" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F489" s="4"/>
       <c r="I489" s="4"/>
       <c r="L489" s="4"/>
@@ -10546,7 +10558,7 @@
       <c r="R489" s="4"/>
       <c r="U489" s="4"/>
     </row>
-    <row r="490" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F490" s="4"/>
       <c r="I490" s="4"/>
       <c r="L490" s="4"/>
@@ -10554,7 +10566,7 @@
       <c r="R490" s="4"/>
       <c r="U490" s="4"/>
     </row>
-    <row r="491" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F491" s="4"/>
       <c r="I491" s="4"/>
       <c r="L491" s="4"/>
@@ -10562,7 +10574,7 @@
       <c r="R491" s="4"/>
       <c r="U491" s="4"/>
     </row>
-    <row r="492" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F492" s="4"/>
       <c r="I492" s="4"/>
       <c r="L492" s="4"/>
@@ -10570,7 +10582,7 @@
       <c r="R492" s="4"/>
       <c r="U492" s="4"/>
     </row>
-    <row r="493" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F493" s="4"/>
       <c r="I493" s="4"/>
       <c r="L493" s="4"/>
@@ -10578,7 +10590,7 @@
       <c r="R493" s="4"/>
       <c r="U493" s="4"/>
     </row>
-    <row r="494" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F494" s="4"/>
       <c r="I494" s="4"/>
       <c r="L494" s="4"/>
@@ -10586,7 +10598,7 @@
       <c r="R494" s="4"/>
       <c r="U494" s="4"/>
     </row>
-    <row r="495" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F495" s="4"/>
       <c r="I495" s="4"/>
       <c r="L495" s="4"/>
@@ -10594,7 +10606,7 @@
       <c r="R495" s="4"/>
       <c r="U495" s="4"/>
     </row>
-    <row r="496" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F496" s="4"/>
       <c r="I496" s="4"/>
       <c r="L496" s="4"/>
@@ -10602,7 +10614,7 @@
       <c r="R496" s="4"/>
       <c r="U496" s="4"/>
     </row>
-    <row r="497" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F497" s="4"/>
       <c r="I497" s="4"/>
       <c r="L497" s="4"/>
@@ -10610,7 +10622,7 @@
       <c r="R497" s="4"/>
       <c r="U497" s="4"/>
     </row>
-    <row r="498" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F498" s="4"/>
       <c r="I498" s="4"/>
       <c r="L498" s="4"/>
@@ -10618,7 +10630,7 @@
       <c r="R498" s="4"/>
       <c r="U498" s="4"/>
     </row>
-    <row r="499" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F499" s="4"/>
       <c r="I499" s="4"/>
       <c r="L499" s="4"/>
@@ -10626,7 +10638,7 @@
       <c r="R499" s="4"/>
       <c r="U499" s="4"/>
     </row>
-    <row r="500" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F500" s="4"/>
       <c r="I500" s="4"/>
       <c r="L500" s="4"/>
@@ -10634,7 +10646,7 @@
       <c r="R500" s="4"/>
       <c r="U500" s="4"/>
     </row>
-    <row r="501" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F501" s="4"/>
       <c r="I501" s="4"/>
       <c r="L501" s="4"/>
@@ -10642,7 +10654,7 @@
       <c r="R501" s="4"/>
       <c r="U501" s="4"/>
     </row>
-    <row r="502" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F502" s="4"/>
       <c r="I502" s="4"/>
       <c r="L502" s="4"/>
@@ -10650,7 +10662,7 @@
       <c r="R502" s="4"/>
       <c r="U502" s="4"/>
     </row>
-    <row r="503" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F503" s="4"/>
       <c r="I503" s="4"/>
       <c r="L503" s="4"/>
@@ -10658,7 +10670,7 @@
       <c r="R503" s="4"/>
       <c r="U503" s="4"/>
     </row>
-    <row r="504" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F504" s="4"/>
       <c r="I504" s="4"/>
       <c r="L504" s="4"/>
@@ -10666,7 +10678,7 @@
       <c r="R504" s="4"/>
       <c r="U504" s="4"/>
     </row>
-    <row r="505" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F505" s="4"/>
       <c r="I505" s="4"/>
       <c r="L505" s="4"/>
@@ -10674,7 +10686,7 @@
       <c r="R505" s="4"/>
       <c r="U505" s="4"/>
     </row>
-    <row r="506" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F506" s="4"/>
       <c r="I506" s="4"/>
       <c r="L506" s="4"/>
@@ -10682,7 +10694,7 @@
       <c r="R506" s="4"/>
       <c r="U506" s="4"/>
     </row>
-    <row r="507" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F507" s="4"/>
       <c r="I507" s="4"/>
       <c r="L507" s="4"/>
@@ -10690,7 +10702,7 @@
       <c r="R507" s="4"/>
       <c r="U507" s="4"/>
     </row>
-    <row r="508" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F508" s="4"/>
       <c r="I508" s="4"/>
       <c r="L508" s="4"/>
@@ -10698,7 +10710,7 @@
       <c r="R508" s="4"/>
       <c r="U508" s="4"/>
     </row>
-    <row r="509" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F509" s="4"/>
       <c r="I509" s="4"/>
       <c r="L509" s="4"/>
@@ -10706,7 +10718,7 @@
       <c r="R509" s="4"/>
       <c r="U509" s="4"/>
     </row>
-    <row r="510" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F510" s="4"/>
       <c r="I510" s="4"/>
       <c r="L510" s="4"/>
@@ -10714,7 +10726,7 @@
       <c r="R510" s="4"/>
       <c r="U510" s="4"/>
     </row>
-    <row r="511" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F511" s="4"/>
       <c r="I511" s="4"/>
       <c r="L511" s="4"/>
@@ -10722,7 +10734,7 @@
       <c r="R511" s="4"/>
       <c r="U511" s="4"/>
     </row>
-    <row r="512" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F512" s="4"/>
       <c r="I512" s="4"/>
       <c r="L512" s="4"/>
@@ -10730,7 +10742,7 @@
       <c r="R512" s="4"/>
       <c r="U512" s="4"/>
     </row>
-    <row r="513" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F513" s="4"/>
       <c r="I513" s="4"/>
       <c r="L513" s="4"/>
@@ -10738,7 +10750,7 @@
       <c r="R513" s="4"/>
       <c r="U513" s="4"/>
     </row>
-    <row r="514" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="514" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F514" s="4"/>
       <c r="I514" s="4"/>
       <c r="L514" s="4"/>
@@ -10746,7 +10758,7 @@
       <c r="R514" s="4"/>
       <c r="U514" s="4"/>
     </row>
-    <row r="515" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F515" s="4"/>
       <c r="I515" s="4"/>
       <c r="L515" s="4"/>
@@ -10754,7 +10766,7 @@
       <c r="R515" s="4"/>
       <c r="U515" s="4"/>
     </row>
-    <row r="516" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F516" s="4"/>
       <c r="I516" s="4"/>
       <c r="L516" s="4"/>
@@ -10762,7 +10774,7 @@
       <c r="R516" s="4"/>
       <c r="U516" s="4"/>
     </row>
-    <row r="517" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F517" s="4"/>
       <c r="I517" s="4"/>
       <c r="L517" s="4"/>
@@ -10770,7 +10782,7 @@
       <c r="R517" s="4"/>
       <c r="U517" s="4"/>
     </row>
-    <row r="518" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F518" s="4"/>
       <c r="I518" s="4"/>
       <c r="L518" s="4"/>
@@ -10778,7 +10790,7 @@
       <c r="R518" s="4"/>
       <c r="U518" s="4"/>
     </row>
-    <row r="519" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F519" s="4"/>
       <c r="I519" s="4"/>
       <c r="L519" s="4"/>
@@ -10786,7 +10798,7 @@
       <c r="R519" s="4"/>
       <c r="U519" s="4"/>
     </row>
-    <row r="520" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F520" s="4"/>
       <c r="I520" s="4"/>
       <c r="L520" s="4"/>
@@ -10794,7 +10806,7 @@
       <c r="R520" s="4"/>
       <c r="U520" s="4"/>
     </row>
-    <row r="521" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F521" s="4"/>
       <c r="I521" s="4"/>
       <c r="L521" s="4"/>
@@ -10802,7 +10814,7 @@
       <c r="R521" s="4"/>
       <c r="U521" s="4"/>
     </row>
-    <row r="522" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F522" s="4"/>
       <c r="I522" s="4"/>
       <c r="L522" s="4"/>
@@ -10810,7 +10822,7 @@
       <c r="R522" s="4"/>
       <c r="U522" s="4"/>
     </row>
-    <row r="523" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F523" s="4"/>
       <c r="I523" s="4"/>
       <c r="L523" s="4"/>
@@ -10818,7 +10830,7 @@
       <c r="R523" s="4"/>
       <c r="U523" s="4"/>
     </row>
-    <row r="524" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F524" s="4"/>
       <c r="I524" s="4"/>
       <c r="L524" s="4"/>
@@ -10826,7 +10838,7 @@
       <c r="R524" s="4"/>
       <c r="U524" s="4"/>
     </row>
-    <row r="525" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F525" s="4"/>
       <c r="I525" s="4"/>
       <c r="L525" s="4"/>
@@ -10834,7 +10846,7 @@
       <c r="R525" s="4"/>
       <c r="U525" s="4"/>
     </row>
-    <row r="526" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F526" s="4"/>
       <c r="I526" s="4"/>
       <c r="L526" s="4"/>
@@ -10842,7 +10854,7 @@
       <c r="R526" s="4"/>
       <c r="U526" s="4"/>
     </row>
-    <row r="527" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F527" s="4"/>
       <c r="I527" s="4"/>
       <c r="L527" s="4"/>
@@ -10850,7 +10862,7 @@
       <c r="R527" s="4"/>
       <c r="U527" s="4"/>
     </row>
-    <row r="528" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F528" s="4"/>
       <c r="I528" s="4"/>
       <c r="L528" s="4"/>
@@ -10858,7 +10870,7 @@
       <c r="R528" s="4"/>
       <c r="U528" s="4"/>
     </row>
-    <row r="529" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F529" s="4"/>
       <c r="I529" s="4"/>
       <c r="L529" s="4"/>
@@ -10866,7 +10878,7 @@
       <c r="R529" s="4"/>
       <c r="U529" s="4"/>
     </row>
-    <row r="530" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F530" s="4"/>
       <c r="I530" s="4"/>
       <c r="L530" s="4"/>
@@ -10874,7 +10886,7 @@
       <c r="R530" s="4"/>
       <c r="U530" s="4"/>
     </row>
-    <row r="531" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F531" s="4"/>
       <c r="I531" s="4"/>
       <c r="L531" s="4"/>
@@ -10882,7 +10894,7 @@
       <c r="R531" s="4"/>
       <c r="U531" s="4"/>
     </row>
-    <row r="532" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F532" s="4"/>
       <c r="I532" s="4"/>
       <c r="L532" s="4"/>
@@ -10890,7 +10902,7 @@
       <c r="R532" s="4"/>
       <c r="U532" s="4"/>
     </row>
-    <row r="533" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F533" s="4"/>
       <c r="I533" s="4"/>
       <c r="L533" s="4"/>
@@ -10898,7 +10910,7 @@
       <c r="R533" s="4"/>
       <c r="U533" s="4"/>
     </row>
-    <row r="534" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F534" s="4"/>
       <c r="I534" s="4"/>
       <c r="L534" s="4"/>
@@ -10906,7 +10918,7 @@
       <c r="R534" s="4"/>
       <c r="U534" s="4"/>
     </row>
-    <row r="535" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F535" s="4"/>
       <c r="I535" s="4"/>
       <c r="L535" s="4"/>
@@ -10914,7 +10926,7 @@
       <c r="R535" s="4"/>
       <c r="U535" s="4"/>
     </row>
-    <row r="536" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F536" s="4"/>
       <c r="I536" s="4"/>
       <c r="L536" s="4"/>
@@ -10922,7 +10934,7 @@
       <c r="R536" s="4"/>
       <c r="U536" s="4"/>
     </row>
-    <row r="537" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F537" s="4"/>
       <c r="I537" s="4"/>
       <c r="L537" s="4"/>
@@ -10930,7 +10942,7 @@
       <c r="R537" s="4"/>
       <c r="U537" s="4"/>
     </row>
-    <row r="538" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F538" s="4"/>
       <c r="I538" s="4"/>
       <c r="L538" s="4"/>
@@ -10938,7 +10950,7 @@
       <c r="R538" s="4"/>
       <c r="U538" s="4"/>
     </row>
-    <row r="539" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F539" s="4"/>
       <c r="I539" s="4"/>
       <c r="L539" s="4"/>
@@ -10946,7 +10958,7 @@
       <c r="R539" s="4"/>
       <c r="U539" s="4"/>
     </row>
-    <row r="540" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F540" s="4"/>
       <c r="I540" s="4"/>
       <c r="L540" s="4"/>
@@ -10954,7 +10966,7 @@
       <c r="R540" s="4"/>
       <c r="U540" s="4"/>
     </row>
-    <row r="541" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F541" s="4"/>
       <c r="I541" s="4"/>
       <c r="L541" s="4"/>
@@ -10962,7 +10974,7 @@
       <c r="R541" s="4"/>
       <c r="U541" s="4"/>
     </row>
-    <row r="542" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F542" s="4"/>
       <c r="I542" s="4"/>
       <c r="L542" s="4"/>
@@ -10970,7 +10982,7 @@
       <c r="R542" s="4"/>
       <c r="U542" s="4"/>
     </row>
-    <row r="543" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F543" s="4"/>
       <c r="I543" s="4"/>
       <c r="L543" s="4"/>
@@ -10978,7 +10990,7 @@
       <c r="R543" s="4"/>
       <c r="U543" s="4"/>
     </row>
-    <row r="544" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F544" s="4"/>
       <c r="I544" s="4"/>
       <c r="L544" s="4"/>
@@ -10986,7 +10998,7 @@
       <c r="R544" s="4"/>
       <c r="U544" s="4"/>
     </row>
-    <row r="545" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F545" s="4"/>
       <c r="I545" s="4"/>
       <c r="L545" s="4"/>
@@ -10994,7 +11006,7 @@
       <c r="R545" s="4"/>
       <c r="U545" s="4"/>
     </row>
-    <row r="546" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F546" s="4"/>
       <c r="I546" s="4"/>
       <c r="L546" s="4"/>
@@ -11002,7 +11014,7 @@
       <c r="R546" s="4"/>
       <c r="U546" s="4"/>
     </row>
-    <row r="547" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F547" s="4"/>
       <c r="I547" s="4"/>
       <c r="L547" s="4"/>
@@ -11010,7 +11022,7 @@
       <c r="R547" s="4"/>
       <c r="U547" s="4"/>
     </row>
-    <row r="548" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F548" s="4"/>
       <c r="I548" s="4"/>
       <c r="L548" s="4"/>
@@ -11018,7 +11030,7 @@
       <c r="R548" s="4"/>
       <c r="U548" s="4"/>
     </row>
-    <row r="549" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F549" s="4"/>
       <c r="I549" s="4"/>
       <c r="L549" s="4"/>
@@ -11026,7 +11038,7 @@
       <c r="R549" s="4"/>
       <c r="U549" s="4"/>
     </row>
-    <row r="550" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F550" s="4"/>
       <c r="I550" s="4"/>
       <c r="L550" s="4"/>
@@ -11034,7 +11046,7 @@
       <c r="R550" s="4"/>
       <c r="U550" s="4"/>
     </row>
-    <row r="551" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F551" s="4"/>
       <c r="I551" s="4"/>
       <c r="L551" s="4"/>
@@ -11042,7 +11054,7 @@
       <c r="R551" s="4"/>
       <c r="U551" s="4"/>
     </row>
-    <row r="552" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F552" s="4"/>
       <c r="I552" s="4"/>
       <c r="L552" s="4"/>
@@ -11050,7 +11062,7 @@
       <c r="R552" s="4"/>
       <c r="U552" s="4"/>
     </row>
-    <row r="553" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F553" s="4"/>
       <c r="I553" s="4"/>
       <c r="L553" s="4"/>
@@ -11058,7 +11070,7 @@
       <c r="R553" s="4"/>
       <c r="U553" s="4"/>
     </row>
-    <row r="554" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F554" s="4"/>
       <c r="I554" s="4"/>
       <c r="L554" s="4"/>
@@ -11066,7 +11078,7 @@
       <c r="R554" s="4"/>
       <c r="U554" s="4"/>
     </row>
-    <row r="555" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F555" s="4"/>
       <c r="I555" s="4"/>
       <c r="L555" s="4"/>
@@ -11074,7 +11086,7 @@
       <c r="R555" s="4"/>
       <c r="U555" s="4"/>
     </row>
-    <row r="556" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F556" s="4"/>
       <c r="I556" s="4"/>
       <c r="L556" s="4"/>
@@ -11082,7 +11094,7 @@
       <c r="R556" s="4"/>
       <c r="U556" s="4"/>
     </row>
-    <row r="557" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F557" s="4"/>
       <c r="I557" s="4"/>
       <c r="L557" s="4"/>
@@ -11090,7 +11102,7 @@
       <c r="R557" s="4"/>
       <c r="U557" s="4"/>
     </row>
-    <row r="558" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F558" s="4"/>
       <c r="I558" s="4"/>
       <c r="L558" s="4"/>
@@ -11098,7 +11110,7 @@
       <c r="R558" s="4"/>
       <c r="U558" s="4"/>
     </row>
-    <row r="559" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F559" s="4"/>
       <c r="I559" s="4"/>
       <c r="L559" s="4"/>
@@ -11106,7 +11118,7 @@
       <c r="R559" s="4"/>
       <c r="U559" s="4"/>
     </row>
-    <row r="560" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F560" s="4"/>
       <c r="I560" s="4"/>
       <c r="L560" s="4"/>
@@ -11114,7 +11126,7 @@
       <c r="R560" s="4"/>
       <c r="U560" s="4"/>
     </row>
-    <row r="561" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F561" s="4"/>
       <c r="I561" s="4"/>
       <c r="L561" s="4"/>
@@ -11122,7 +11134,7 @@
       <c r="R561" s="4"/>
       <c r="U561" s="4"/>
     </row>
-    <row r="562" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F562" s="4"/>
       <c r="I562" s="4"/>
       <c r="L562" s="4"/>
@@ -11130,7 +11142,7 @@
       <c r="R562" s="4"/>
       <c r="U562" s="4"/>
     </row>
-    <row r="563" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F563" s="4"/>
       <c r="I563" s="4"/>
       <c r="L563" s="4"/>
@@ -11138,7 +11150,7 @@
       <c r="R563" s="4"/>
       <c r="U563" s="4"/>
     </row>
-    <row r="564" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F564" s="4"/>
       <c r="I564" s="4"/>
       <c r="L564" s="4"/>
@@ -11146,7 +11158,7 @@
       <c r="R564" s="4"/>
       <c r="U564" s="4"/>
     </row>
-    <row r="565" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F565" s="4"/>
       <c r="I565" s="4"/>
       <c r="L565" s="4"/>
@@ -11154,7 +11166,7 @@
       <c r="R565" s="4"/>
       <c r="U565" s="4"/>
     </row>
-    <row r="566" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F566" s="4"/>
       <c r="I566" s="4"/>
       <c r="L566" s="4"/>
@@ -11162,7 +11174,7 @@
       <c r="R566" s="4"/>
       <c r="U566" s="4"/>
     </row>
-    <row r="567" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F567" s="4"/>
       <c r="I567" s="4"/>
       <c r="L567" s="4"/>
@@ -11170,7 +11182,7 @@
       <c r="R567" s="4"/>
       <c r="U567" s="4"/>
     </row>
-    <row r="568" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F568" s="4"/>
       <c r="I568" s="4"/>
       <c r="L568" s="4"/>
@@ -11178,7 +11190,7 @@
       <c r="R568" s="4"/>
       <c r="U568" s="4"/>
     </row>
-    <row r="569" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F569" s="4"/>
       <c r="I569" s="4"/>
       <c r="L569" s="4"/>
@@ -11186,7 +11198,7 @@
       <c r="R569" s="4"/>
       <c r="U569" s="4"/>
     </row>
-    <row r="570" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F570" s="4"/>
       <c r="I570" s="4"/>
       <c r="L570" s="4"/>
@@ -11194,7 +11206,7 @@
       <c r="R570" s="4"/>
       <c r="U570" s="4"/>
     </row>
-    <row r="571" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F571" s="4"/>
       <c r="I571" s="4"/>
       <c r="L571" s="4"/>
@@ -11202,7 +11214,7 @@
       <c r="R571" s="4"/>
       <c r="U571" s="4"/>
     </row>
-    <row r="572" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F572" s="4"/>
       <c r="I572" s="4"/>
       <c r="L572" s="4"/>
@@ -11210,7 +11222,7 @@
       <c r="R572" s="4"/>
       <c r="U572" s="4"/>
     </row>
-    <row r="573" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F573" s="4"/>
       <c r="I573" s="4"/>
       <c r="L573" s="4"/>
@@ -11218,7 +11230,7 @@
       <c r="R573" s="4"/>
       <c r="U573" s="4"/>
     </row>
-    <row r="574" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F574" s="4"/>
       <c r="I574" s="4"/>
       <c r="L574" s="4"/>
@@ -11226,7 +11238,7 @@
       <c r="R574" s="4"/>
       <c r="U574" s="4"/>
     </row>
-    <row r="575" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F575" s="4"/>
       <c r="I575" s="4"/>
       <c r="L575" s="4"/>
@@ -11234,7 +11246,7 @@
       <c r="R575" s="4"/>
       <c r="U575" s="4"/>
     </row>
-    <row r="576" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F576" s="4"/>
       <c r="I576" s="4"/>
       <c r="L576" s="4"/>
@@ -11242,7 +11254,7 @@
       <c r="R576" s="4"/>
       <c r="U576" s="4"/>
     </row>
-    <row r="577" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F577" s="4"/>
       <c r="I577" s="4"/>
       <c r="L577" s="4"/>
@@ -11250,7 +11262,7 @@
       <c r="R577" s="4"/>
       <c r="U577" s="4"/>
     </row>
-    <row r="578" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F578" s="4"/>
       <c r="I578" s="4"/>
       <c r="L578" s="4"/>
@@ -11258,7 +11270,7 @@
       <c r="R578" s="4"/>
       <c r="U578" s="4"/>
     </row>
-    <row r="579" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="579" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F579" s="4"/>
       <c r="I579" s="4"/>
       <c r="L579" s="4"/>
@@ -11266,7 +11278,7 @@
       <c r="R579" s="4"/>
       <c r="U579" s="4"/>
     </row>
-    <row r="580" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F580" s="4"/>
       <c r="I580" s="4"/>
       <c r="L580" s="4"/>
@@ -11274,7 +11286,7 @@
       <c r="R580" s="4"/>
       <c r="U580" s="4"/>
     </row>
-    <row r="581" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F581" s="4"/>
       <c r="I581" s="4"/>
       <c r="L581" s="4"/>
@@ -11282,7 +11294,7 @@
       <c r="R581" s="4"/>
       <c r="U581" s="4"/>
     </row>
-    <row r="582" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F582" s="4"/>
       <c r="I582" s="4"/>
       <c r="L582" s="4"/>
@@ -11290,7 +11302,7 @@
       <c r="R582" s="4"/>
       <c r="U582" s="4"/>
     </row>
-    <row r="583" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F583" s="4"/>
       <c r="I583" s="4"/>
       <c r="L583" s="4"/>
@@ -11298,7 +11310,7 @@
       <c r="R583" s="4"/>
       <c r="U583" s="4"/>
     </row>
-    <row r="584" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F584" s="4"/>
       <c r="I584" s="4"/>
       <c r="L584" s="4"/>
@@ -11306,7 +11318,7 @@
       <c r="R584" s="4"/>
       <c r="U584" s="4"/>
     </row>
-    <row r="585" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F585" s="4"/>
       <c r="I585" s="4"/>
       <c r="L585" s="4"/>
@@ -11314,7 +11326,7 @@
       <c r="R585" s="4"/>
       <c r="U585" s="4"/>
     </row>
-    <row r="586" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F586" s="4"/>
       <c r="I586" s="4"/>
       <c r="L586" s="4"/>
@@ -11322,7 +11334,7 @@
       <c r="R586" s="4"/>
       <c r="U586" s="4"/>
     </row>
-    <row r="587" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F587" s="4"/>
       <c r="I587" s="4"/>
       <c r="L587" s="4"/>
@@ -11330,7 +11342,7 @@
       <c r="R587" s="4"/>
       <c r="U587" s="4"/>
     </row>
-    <row r="588" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F588" s="4"/>
       <c r="I588" s="4"/>
       <c r="L588" s="4"/>
@@ -11338,7 +11350,7 @@
       <c r="R588" s="4"/>
       <c r="U588" s="4"/>
     </row>
-    <row r="589" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F589" s="4"/>
       <c r="I589" s="4"/>
       <c r="L589" s="4"/>
@@ -11346,7 +11358,7 @@
       <c r="R589" s="4"/>
       <c r="U589" s="4"/>
     </row>
-    <row r="590" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F590" s="4"/>
       <c r="I590" s="4"/>
       <c r="L590" s="4"/>
@@ -11354,7 +11366,7 @@
       <c r="R590" s="4"/>
       <c r="U590" s="4"/>
     </row>
-    <row r="591" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F591" s="4"/>
       <c r="I591" s="4"/>
       <c r="L591" s="4"/>
@@ -11362,7 +11374,7 @@
       <c r="R591" s="4"/>
       <c r="U591" s="4"/>
     </row>
-    <row r="592" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F592" s="4"/>
       <c r="I592" s="4"/>
       <c r="L592" s="4"/>
@@ -11370,7 +11382,7 @@
       <c r="R592" s="4"/>
       <c r="U592" s="4"/>
     </row>
-    <row r="593" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F593" s="4"/>
       <c r="I593" s="4"/>
       <c r="L593" s="4"/>
@@ -11378,7 +11390,7 @@
       <c r="R593" s="4"/>
       <c r="U593" s="4"/>
     </row>
-    <row r="594" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F594" s="4"/>
       <c r="I594" s="4"/>
       <c r="L594" s="4"/>
@@ -11386,7 +11398,7 @@
       <c r="R594" s="4"/>
       <c r="U594" s="4"/>
     </row>
-    <row r="595" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F595" s="4"/>
       <c r="I595" s="4"/>
       <c r="L595" s="4"/>
@@ -11394,7 +11406,7 @@
       <c r="R595" s="4"/>
       <c r="U595" s="4"/>
     </row>
-    <row r="596" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F596" s="4"/>
       <c r="I596" s="4"/>
       <c r="L596" s="4"/>
@@ -11402,7 +11414,7 @@
       <c r="R596" s="4"/>
       <c r="U596" s="4"/>
     </row>
-    <row r="597" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F597" s="4"/>
       <c r="I597" s="4"/>
       <c r="L597" s="4"/>
@@ -11410,7 +11422,7 @@
       <c r="R597" s="4"/>
       <c r="U597" s="4"/>
     </row>
-    <row r="598" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F598" s="4"/>
       <c r="I598" s="4"/>
       <c r="L598" s="4"/>
@@ -11418,7 +11430,7 @@
       <c r="R598" s="4"/>
       <c r="U598" s="4"/>
     </row>
-    <row r="599" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F599" s="4"/>
       <c r="I599" s="4"/>
       <c r="L599" s="4"/>
@@ -11426,7 +11438,7 @@
       <c r="R599" s="4"/>
       <c r="U599" s="4"/>
     </row>
-    <row r="600" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F600" s="4"/>
       <c r="I600" s="4"/>
       <c r="L600" s="4"/>
@@ -11434,7 +11446,7 @@
       <c r="R600" s="4"/>
       <c r="U600" s="4"/>
     </row>
-    <row r="601" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F601" s="4"/>
       <c r="I601" s="4"/>
       <c r="L601" s="4"/>
@@ -11442,7 +11454,7 @@
       <c r="R601" s="4"/>
       <c r="U601" s="4"/>
     </row>
-    <row r="602" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F602" s="4"/>
       <c r="I602" s="4"/>
       <c r="L602" s="4"/>
@@ -11450,7 +11462,7 @@
       <c r="R602" s="4"/>
       <c r="U602" s="4"/>
     </row>
-    <row r="603" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F603" s="4"/>
       <c r="I603" s="4"/>
       <c r="L603" s="4"/>
@@ -11458,7 +11470,7 @@
       <c r="R603" s="4"/>
       <c r="U603" s="4"/>
     </row>
-    <row r="604" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F604" s="4"/>
       <c r="I604" s="4"/>
       <c r="L604" s="4"/>
@@ -11466,7 +11478,7 @@
       <c r="R604" s="4"/>
       <c r="U604" s="4"/>
     </row>
-    <row r="605" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F605" s="4"/>
       <c r="I605" s="4"/>
       <c r="L605" s="4"/>
@@ -11474,7 +11486,7 @@
       <c r="R605" s="4"/>
       <c r="U605" s="4"/>
     </row>
-    <row r="606" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="606" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F606" s="4"/>
       <c r="I606" s="4"/>
       <c r="L606" s="4"/>
@@ -11482,7 +11494,7 @@
       <c r="R606" s="4"/>
       <c r="U606" s="4"/>
     </row>
-    <row r="607" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F607" s="4"/>
       <c r="I607" s="4"/>
       <c r="L607" s="4"/>
@@ -11490,7 +11502,7 @@
       <c r="R607" s="4"/>
       <c r="U607" s="4"/>
     </row>
-    <row r="608" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F608" s="4"/>
       <c r="I608" s="4"/>
       <c r="L608" s="4"/>
@@ -11498,7 +11510,7 @@
       <c r="R608" s="4"/>
       <c r="U608" s="4"/>
     </row>
-    <row r="609" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="609" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F609" s="4"/>
       <c r="I609" s="4"/>
       <c r="L609" s="4"/>
@@ -11506,7 +11518,7 @@
       <c r="R609" s="4"/>
       <c r="U609" s="4"/>
     </row>
-    <row r="610" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F610" s="4"/>
       <c r="I610" s="4"/>
       <c r="L610" s="4"/>
@@ -11514,7 +11526,7 @@
       <c r="R610" s="4"/>
       <c r="U610" s="4"/>
     </row>
-    <row r="611" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F611" s="4"/>
       <c r="I611" s="4"/>
       <c r="L611" s="4"/>
@@ -11522,7 +11534,7 @@
       <c r="R611" s="4"/>
       <c r="U611" s="4"/>
     </row>
-    <row r="612" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F612" s="4"/>
       <c r="I612" s="4"/>
       <c r="L612" s="4"/>
@@ -11530,7 +11542,7 @@
       <c r="R612" s="4"/>
       <c r="U612" s="4"/>
     </row>
-    <row r="613" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F613" s="4"/>
       <c r="I613" s="4"/>
       <c r="L613" s="4"/>
@@ -11538,7 +11550,7 @@
       <c r="R613" s="4"/>
       <c r="U613" s="4"/>
     </row>
-    <row r="614" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="614" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F614" s="4"/>
       <c r="I614" s="4"/>
       <c r="L614" s="4"/>
@@ -11546,7 +11558,7 @@
       <c r="R614" s="4"/>
       <c r="U614" s="4"/>
     </row>
-    <row r="615" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F615" s="4"/>
       <c r="I615" s="4"/>
       <c r="L615" s="4"/>
@@ -11554,7 +11566,7 @@
       <c r="R615" s="4"/>
       <c r="U615" s="4"/>
     </row>
-    <row r="616" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F616" s="4"/>
       <c r="I616" s="4"/>
       <c r="L616" s="4"/>
@@ -11562,7 +11574,7 @@
       <c r="R616" s="4"/>
       <c r="U616" s="4"/>
     </row>
-    <row r="617" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F617" s="4"/>
       <c r="I617" s="4"/>
       <c r="L617" s="4"/>
@@ -11570,7 +11582,7 @@
       <c r="R617" s="4"/>
       <c r="U617" s="4"/>
     </row>
-    <row r="618" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="618" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F618" s="4"/>
       <c r="I618" s="4"/>
       <c r="L618" s="4"/>
@@ -11578,7 +11590,7 @@
       <c r="R618" s="4"/>
       <c r="U618" s="4"/>
     </row>
-    <row r="619" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F619" s="4"/>
       <c r="I619" s="4"/>
       <c r="L619" s="4"/>
@@ -11586,7 +11598,7 @@
       <c r="R619" s="4"/>
       <c r="U619" s="4"/>
     </row>
-    <row r="620" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F620" s="4"/>
       <c r="I620" s="4"/>
       <c r="L620" s="4"/>
@@ -11594,7 +11606,7 @@
       <c r="R620" s="4"/>
       <c r="U620" s="4"/>
     </row>
-    <row r="621" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F621" s="4"/>
       <c r="I621" s="4"/>
       <c r="L621" s="4"/>
@@ -11602,7 +11614,7 @@
       <c r="R621" s="4"/>
       <c r="U621" s="4"/>
     </row>
-    <row r="622" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F622" s="4"/>
       <c r="I622" s="4"/>
       <c r="L622" s="4"/>
@@ -11610,7 +11622,7 @@
       <c r="R622" s="4"/>
       <c r="U622" s="4"/>
     </row>
-    <row r="623" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F623" s="4"/>
       <c r="I623" s="4"/>
       <c r="L623" s="4"/>
@@ -11618,7 +11630,7 @@
       <c r="R623" s="4"/>
       <c r="U623" s="4"/>
     </row>
-    <row r="624" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F624" s="4"/>
       <c r="I624" s="4"/>
       <c r="L624" s="4"/>
@@ -11626,7 +11638,7 @@
       <c r="R624" s="4"/>
       <c r="U624" s="4"/>
     </row>
-    <row r="625" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F625" s="4"/>
       <c r="I625" s="4"/>
       <c r="L625" s="4"/>
@@ -11634,7 +11646,7 @@
       <c r="R625" s="4"/>
       <c r="U625" s="4"/>
     </row>
-    <row r="626" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F626" s="4"/>
       <c r="I626" s="4"/>
       <c r="L626" s="4"/>
@@ -11642,7 +11654,7 @@
       <c r="R626" s="4"/>
       <c r="U626" s="4"/>
     </row>
-    <row r="627" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F627" s="4"/>
       <c r="I627" s="4"/>
       <c r="L627" s="4"/>
@@ -11650,7 +11662,7 @@
       <c r="R627" s="4"/>
       <c r="U627" s="4"/>
     </row>
-    <row r="628" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F628" s="4"/>
       <c r="I628" s="4"/>
       <c r="L628" s="4"/>
@@ -11658,7 +11670,7 @@
       <c r="R628" s="4"/>
       <c r="U628" s="4"/>
     </row>
-    <row r="629" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F629" s="4"/>
       <c r="I629" s="4"/>
       <c r="L629" s="4"/>
@@ -11666,7 +11678,7 @@
       <c r="R629" s="4"/>
       <c r="U629" s="4"/>
     </row>
-    <row r="630" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F630" s="4"/>
       <c r="I630" s="4"/>
       <c r="L630" s="4"/>
@@ -11674,7 +11686,7 @@
       <c r="R630" s="4"/>
       <c r="U630" s="4"/>
     </row>
-    <row r="631" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F631" s="4"/>
       <c r="I631" s="4"/>
       <c r="L631" s="4"/>
@@ -11682,7 +11694,7 @@
       <c r="R631" s="4"/>
       <c r="U631" s="4"/>
     </row>
-    <row r="632" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F632" s="4"/>
       <c r="I632" s="4"/>
       <c r="L632" s="4"/>
@@ -11690,7 +11702,7 @@
       <c r="R632" s="4"/>
       <c r="U632" s="4"/>
     </row>
-    <row r="633" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F633" s="4"/>
       <c r="I633" s="4"/>
       <c r="L633" s="4"/>
@@ -11698,7 +11710,7 @@
       <c r="R633" s="4"/>
       <c r="U633" s="4"/>
     </row>
-    <row r="634" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="634" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F634" s="4"/>
       <c r="I634" s="4"/>
       <c r="L634" s="4"/>
@@ -11706,7 +11718,7 @@
       <c r="R634" s="4"/>
       <c r="U634" s="4"/>
     </row>
-    <row r="635" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="635" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F635" s="4"/>
       <c r="I635" s="4"/>
       <c r="L635" s="4"/>
@@ -11714,7 +11726,7 @@
       <c r="R635" s="4"/>
       <c r="U635" s="4"/>
     </row>
-    <row r="636" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="636" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F636" s="4"/>
       <c r="I636" s="4"/>
       <c r="L636" s="4"/>
@@ -11722,7 +11734,7 @@
       <c r="R636" s="4"/>
       <c r="U636" s="4"/>
     </row>
-    <row r="637" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F637" s="4"/>
       <c r="I637" s="4"/>
       <c r="L637" s="4"/>
@@ -11730,7 +11742,7 @@
       <c r="R637" s="4"/>
       <c r="U637" s="4"/>
     </row>
-    <row r="638" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F638" s="4"/>
       <c r="I638" s="4"/>
       <c r="L638" s="4"/>
@@ -11738,7 +11750,7 @@
       <c r="R638" s="4"/>
       <c r="U638" s="4"/>
     </row>
-    <row r="639" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F639" s="4"/>
       <c r="I639" s="4"/>
       <c r="L639" s="4"/>
@@ -11746,7 +11758,7 @@
       <c r="R639" s="4"/>
       <c r="U639" s="4"/>
     </row>
-    <row r="640" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F640" s="4"/>
       <c r="I640" s="4"/>
       <c r="L640" s="4"/>
@@ -11754,7 +11766,7 @@
       <c r="R640" s="4"/>
       <c r="U640" s="4"/>
     </row>
-    <row r="641" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F641" s="4"/>
       <c r="I641" s="4"/>
       <c r="L641" s="4"/>
@@ -11762,7 +11774,7 @@
       <c r="R641" s="4"/>
       <c r="U641" s="4"/>
     </row>
-    <row r="642" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F642" s="4"/>
       <c r="I642" s="4"/>
       <c r="L642" s="4"/>
@@ -11770,7 +11782,7 @@
       <c r="R642" s="4"/>
       <c r="U642" s="4"/>
     </row>
-    <row r="643" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F643" s="4"/>
       <c r="I643" s="4"/>
       <c r="L643" s="4"/>
@@ -11778,7 +11790,7 @@
       <c r="R643" s="4"/>
       <c r="U643" s="4"/>
     </row>
-    <row r="644" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F644" s="4"/>
       <c r="I644" s="4"/>
       <c r="L644" s="4"/>
@@ -11786,7 +11798,7 @@
       <c r="R644" s="4"/>
       <c r="U644" s="4"/>
     </row>
-    <row r="645" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F645" s="4"/>
       <c r="I645" s="4"/>
       <c r="L645" s="4"/>
@@ -11794,7 +11806,7 @@
       <c r="R645" s="4"/>
       <c r="U645" s="4"/>
     </row>
-    <row r="646" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F646" s="4"/>
       <c r="I646" s="4"/>
       <c r="L646" s="4"/>
@@ -11802,7 +11814,7 @@
       <c r="R646" s="4"/>
       <c r="U646" s="4"/>
     </row>
-    <row r="647" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F647" s="4"/>
       <c r="I647" s="4"/>
       <c r="L647" s="4"/>
@@ -11810,7 +11822,7 @@
       <c r="R647" s="4"/>
       <c r="U647" s="4"/>
     </row>
-    <row r="648" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F648" s="4"/>
       <c r="I648" s="4"/>
       <c r="L648" s="4"/>
@@ -11818,7 +11830,7 @@
       <c r="R648" s="4"/>
       <c r="U648" s="4"/>
     </row>
-    <row r="649" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F649" s="4"/>
       <c r="I649" s="4"/>
       <c r="L649" s="4"/>
@@ -11826,7 +11838,7 @@
       <c r="R649" s="4"/>
       <c r="U649" s="4"/>
     </row>
-    <row r="650" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F650" s="4"/>
       <c r="I650" s="4"/>
       <c r="L650" s="4"/>
@@ -11834,7 +11846,7 @@
       <c r="R650" s="4"/>
       <c r="U650" s="4"/>
     </row>
-    <row r="651" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="651" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F651" s="4"/>
       <c r="I651" s="4"/>
       <c r="L651" s="4"/>
@@ -11842,7 +11854,7 @@
       <c r="R651" s="4"/>
       <c r="U651" s="4"/>
     </row>
-    <row r="652" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="652" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F652" s="4"/>
       <c r="I652" s="4"/>
       <c r="L652" s="4"/>
@@ -11850,7 +11862,7 @@
       <c r="R652" s="4"/>
       <c r="U652" s="4"/>
     </row>
-    <row r="653" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F653" s="4"/>
       <c r="I653" s="4"/>
       <c r="L653" s="4"/>
@@ -11858,7 +11870,7 @@
       <c r="R653" s="4"/>
       <c r="U653" s="4"/>
     </row>
-    <row r="654" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F654" s="4"/>
       <c r="I654" s="4"/>
       <c r="L654" s="4"/>
@@ -11866,7 +11878,7 @@
       <c r="R654" s="4"/>
       <c r="U654" s="4"/>
     </row>
-    <row r="655" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F655" s="4"/>
       <c r="I655" s="4"/>
       <c r="L655" s="4"/>
@@ -11874,7 +11886,7 @@
       <c r="R655" s="4"/>
       <c r="U655" s="4"/>
     </row>
-    <row r="656" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F656" s="4"/>
       <c r="I656" s="4"/>
       <c r="L656" s="4"/>
@@ -11882,7 +11894,7 @@
       <c r="R656" s="4"/>
       <c r="U656" s="4"/>
     </row>
-    <row r="657" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F657" s="4"/>
       <c r="I657" s="4"/>
       <c r="L657" s="4"/>
@@ -11890,7 +11902,7 @@
       <c r="R657" s="4"/>
       <c r="U657" s="4"/>
     </row>
-    <row r="658" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="658" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F658" s="4"/>
       <c r="I658" s="4"/>
       <c r="L658" s="4"/>
@@ -11898,7 +11910,7 @@
       <c r="R658" s="4"/>
       <c r="U658" s="4"/>
     </row>
-    <row r="659" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F659" s="4"/>
       <c r="I659" s="4"/>
       <c r="L659" s="4"/>
@@ -11906,7 +11918,7 @@
       <c r="R659" s="4"/>
       <c r="U659" s="4"/>
     </row>
-    <row r="660" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F660" s="4"/>
       <c r="I660" s="4"/>
       <c r="L660" s="4"/>
@@ -11914,7 +11926,7 @@
       <c r="R660" s="4"/>
       <c r="U660" s="4"/>
     </row>
-    <row r="661" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F661" s="4"/>
       <c r="I661" s="4"/>
       <c r="L661" s="4"/>
@@ -11922,7 +11934,7 @@
       <c r="R661" s="4"/>
       <c r="U661" s="4"/>
     </row>
-    <row r="662" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F662" s="4"/>
       <c r="I662" s="4"/>
       <c r="L662" s="4"/>
@@ -11930,7 +11942,7 @@
       <c r="R662" s="4"/>
       <c r="U662" s="4"/>
     </row>
-    <row r="663" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F663" s="4"/>
       <c r="I663" s="4"/>
       <c r="L663" s="4"/>
@@ -11938,7 +11950,7 @@
       <c r="R663" s="4"/>
       <c r="U663" s="4"/>
     </row>
-    <row r="664" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F664" s="4"/>
       <c r="I664" s="4"/>
       <c r="L664" s="4"/>
@@ -11946,7 +11958,7 @@
       <c r="R664" s="4"/>
       <c r="U664" s="4"/>
     </row>
-    <row r="665" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F665" s="4"/>
       <c r="I665" s="4"/>
       <c r="L665" s="4"/>
@@ -11954,7 +11966,7 @@
       <c r="R665" s="4"/>
       <c r="U665" s="4"/>
     </row>
-    <row r="666" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="666" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F666" s="4"/>
       <c r="I666" s="4"/>
       <c r="L666" s="4"/>
@@ -11962,7 +11974,7 @@
       <c r="R666" s="4"/>
       <c r="U666" s="4"/>
     </row>
-    <row r="667" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="667" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F667" s="4"/>
       <c r="I667" s="4"/>
       <c r="L667" s="4"/>
@@ -11970,7 +11982,7 @@
       <c r="R667" s="4"/>
       <c r="U667" s="4"/>
     </row>
-    <row r="668" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="668" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F668" s="4"/>
       <c r="I668" s="4"/>
       <c r="L668" s="4"/>
@@ -11978,7 +11990,7 @@
       <c r="R668" s="4"/>
       <c r="U668" s="4"/>
     </row>
-    <row r="669" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="669" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F669" s="4"/>
       <c r="I669" s="4"/>
       <c r="L669" s="4"/>
@@ -11986,7 +11998,7 @@
       <c r="R669" s="4"/>
       <c r="U669" s="4"/>
     </row>
-    <row r="670" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="670" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F670" s="4"/>
       <c r="I670" s="4"/>
       <c r="L670" s="4"/>
@@ -11994,7 +12006,7 @@
       <c r="R670" s="4"/>
       <c r="U670" s="4"/>
     </row>
-    <row r="671" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="671" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F671" s="4"/>
       <c r="I671" s="4"/>
       <c r="L671" s="4"/>
@@ -12002,7 +12014,7 @@
       <c r="R671" s="4"/>
       <c r="U671" s="4"/>
     </row>
-    <row r="672" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="672" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F672" s="4"/>
       <c r="I672" s="4"/>
       <c r="L672" s="4"/>
@@ -12010,7 +12022,7 @@
       <c r="R672" s="4"/>
       <c r="U672" s="4"/>
     </row>
-    <row r="673" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="673" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F673" s="4"/>
       <c r="I673" s="4"/>
       <c r="L673" s="4"/>
@@ -12018,7 +12030,7 @@
       <c r="R673" s="4"/>
       <c r="U673" s="4"/>
     </row>
-    <row r="674" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="674" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F674" s="4"/>
       <c r="I674" s="4"/>
       <c r="L674" s="4"/>
@@ -12026,7 +12038,7 @@
       <c r="R674" s="4"/>
       <c r="U674" s="4"/>
     </row>
-    <row r="675" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F675" s="4"/>
       <c r="I675" s="4"/>
       <c r="L675" s="4"/>
@@ -12034,7 +12046,7 @@
       <c r="R675" s="4"/>
       <c r="U675" s="4"/>
     </row>
-    <row r="676" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="676" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F676" s="4"/>
       <c r="I676" s="4"/>
       <c r="L676" s="4"/>
@@ -12042,7 +12054,7 @@
       <c r="R676" s="4"/>
       <c r="U676" s="4"/>
     </row>
-    <row r="677" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F677" s="4"/>
       <c r="I677" s="4"/>
       <c r="L677" s="4"/>
@@ -12050,7 +12062,7 @@
       <c r="R677" s="4"/>
       <c r="U677" s="4"/>
     </row>
-    <row r="678" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="678" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F678" s="4"/>
       <c r="I678" s="4"/>
       <c r="L678" s="4"/>
@@ -12058,7 +12070,7 @@
       <c r="R678" s="4"/>
       <c r="U678" s="4"/>
     </row>
-    <row r="679" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F679" s="4"/>
       <c r="I679" s="4"/>
       <c r="L679" s="4"/>
@@ -12066,7 +12078,7 @@
       <c r="R679" s="4"/>
       <c r="U679" s="4"/>
     </row>
-    <row r="680" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="680" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F680" s="4"/>
       <c r="I680" s="4"/>
       <c r="L680" s="4"/>
@@ -12074,7 +12086,7 @@
       <c r="R680" s="4"/>
       <c r="U680" s="4"/>
     </row>
-    <row r="681" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="681" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F681" s="4"/>
       <c r="I681" s="4"/>
       <c r="L681" s="4"/>
@@ -12082,7 +12094,7 @@
       <c r="R681" s="4"/>
       <c r="U681" s="4"/>
     </row>
-    <row r="682" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="682" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F682" s="4"/>
       <c r="I682" s="4"/>
       <c r="L682" s="4"/>
@@ -12090,7 +12102,7 @@
       <c r="R682" s="4"/>
       <c r="U682" s="4"/>
     </row>
-    <row r="683" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="683" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F683" s="4"/>
       <c r="I683" s="4"/>
       <c r="L683" s="4"/>
@@ -12098,7 +12110,7 @@
       <c r="R683" s="4"/>
       <c r="U683" s="4"/>
     </row>
-    <row r="684" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="684" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F684" s="4"/>
       <c r="I684" s="4"/>
       <c r="L684" s="4"/>
@@ -12106,7 +12118,7 @@
       <c r="R684" s="4"/>
       <c r="U684" s="4"/>
     </row>
-    <row r="685" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="685" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F685" s="4"/>
       <c r="I685" s="4"/>
       <c r="L685" s="4"/>
@@ -12114,7 +12126,7 @@
       <c r="R685" s="4"/>
       <c r="U685" s="4"/>
     </row>
-    <row r="686" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="686" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F686" s="4"/>
       <c r="I686" s="4"/>
       <c r="L686" s="4"/>
@@ -12122,7 +12134,7 @@
       <c r="R686" s="4"/>
       <c r="U686" s="4"/>
     </row>
-    <row r="687" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="687" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F687" s="4"/>
       <c r="I687" s="4"/>
       <c r="L687" s="4"/>
@@ -12130,7 +12142,7 @@
       <c r="R687" s="4"/>
       <c r="U687" s="4"/>
     </row>
-    <row r="688" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="688" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F688" s="4"/>
       <c r="I688" s="4"/>
       <c r="L688" s="4"/>
@@ -12138,7 +12150,7 @@
       <c r="R688" s="4"/>
       <c r="U688" s="4"/>
     </row>
-    <row r="689" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="689" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F689" s="4"/>
       <c r="I689" s="4"/>
       <c r="L689" s="4"/>
@@ -12146,7 +12158,7 @@
       <c r="R689" s="4"/>
       <c r="U689" s="4"/>
     </row>
-    <row r="690" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="690" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F690" s="4"/>
       <c r="I690" s="4"/>
       <c r="L690" s="4"/>
@@ -12154,7 +12166,7 @@
       <c r="R690" s="4"/>
       <c r="U690" s="4"/>
     </row>
-    <row r="691" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="691" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F691" s="4"/>
       <c r="I691" s="4"/>
       <c r="L691" s="4"/>
@@ -12162,7 +12174,7 @@
       <c r="R691" s="4"/>
       <c r="U691" s="4"/>
     </row>
-    <row r="692" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="692" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F692" s="4"/>
       <c r="I692" s="4"/>
       <c r="L692" s="4"/>
@@ -12170,7 +12182,7 @@
       <c r="R692" s="4"/>
       <c r="U692" s="4"/>
     </row>
-    <row r="693" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F693" s="4"/>
       <c r="I693" s="4"/>
       <c r="L693" s="4"/>
@@ -12178,7 +12190,7 @@
       <c r="R693" s="4"/>
       <c r="U693" s="4"/>
     </row>
-    <row r="694" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="694" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F694" s="4"/>
       <c r="I694" s="4"/>
       <c r="L694" s="4"/>
@@ -12186,7 +12198,7 @@
       <c r="R694" s="4"/>
       <c r="U694" s="4"/>
     </row>
-    <row r="695" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="695" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F695" s="4"/>
       <c r="I695" s="4"/>
       <c r="L695" s="4"/>
@@ -12194,7 +12206,7 @@
       <c r="R695" s="4"/>
       <c r="U695" s="4"/>
     </row>
-    <row r="696" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F696" s="4"/>
       <c r="I696" s="4"/>
       <c r="L696" s="4"/>
@@ -12202,7 +12214,7 @@
       <c r="R696" s="4"/>
       <c r="U696" s="4"/>
     </row>
-    <row r="697" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F697" s="4"/>
       <c r="I697" s="4"/>
       <c r="L697" s="4"/>
@@ -12210,7 +12222,7 @@
       <c r="R697" s="4"/>
       <c r="U697" s="4"/>
     </row>
-    <row r="698" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F698" s="4"/>
       <c r="I698" s="4"/>
       <c r="L698" s="4"/>
@@ -12218,7 +12230,7 @@
       <c r="R698" s="4"/>
       <c r="U698" s="4"/>
     </row>
-    <row r="699" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="699" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F699" s="4"/>
       <c r="I699" s="4"/>
       <c r="L699" s="4"/>
@@ -12226,7 +12238,7 @@
       <c r="R699" s="4"/>
       <c r="U699" s="4"/>
     </row>
-    <row r="700" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="700" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F700" s="4"/>
       <c r="I700" s="4"/>
       <c r="L700" s="4"/>
@@ -12234,7 +12246,7 @@
       <c r="R700" s="4"/>
       <c r="U700" s="4"/>
     </row>
-    <row r="701" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="701" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F701" s="4"/>
       <c r="I701" s="4"/>
       <c r="L701" s="4"/>
@@ -12242,7 +12254,7 @@
       <c r="R701" s="4"/>
       <c r="U701" s="4"/>
     </row>
-    <row r="702" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="702" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F702" s="4"/>
       <c r="I702" s="4"/>
       <c r="L702" s="4"/>
@@ -12250,7 +12262,7 @@
       <c r="R702" s="4"/>
       <c r="U702" s="4"/>
     </row>
-    <row r="703" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F703" s="4"/>
       <c r="I703" s="4"/>
       <c r="L703" s="4"/>
@@ -12258,7 +12270,7 @@
       <c r="R703" s="4"/>
       <c r="U703" s="4"/>
     </row>
-    <row r="704" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="704" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F704" s="4"/>
       <c r="I704" s="4"/>
       <c r="L704" s="4"/>
@@ -12266,7 +12278,7 @@
       <c r="R704" s="4"/>
       <c r="U704" s="4"/>
     </row>
-    <row r="705" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="705" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F705" s="4"/>
       <c r="I705" s="4"/>
       <c r="L705" s="4"/>
@@ -12274,7 +12286,7 @@
       <c r="R705" s="4"/>
       <c r="U705" s="4"/>
     </row>
-    <row r="706" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="706" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F706" s="4"/>
       <c r="I706" s="4"/>
       <c r="L706" s="4"/>
@@ -12282,7 +12294,7 @@
       <c r="R706" s="4"/>
       <c r="U706" s="4"/>
     </row>
-    <row r="707" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F707" s="4"/>
       <c r="I707" s="4"/>
       <c r="L707" s="4"/>
@@ -12290,7 +12302,7 @@
       <c r="R707" s="4"/>
       <c r="U707" s="4"/>
     </row>
-    <row r="708" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="708" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F708" s="4"/>
       <c r="I708" s="4"/>
       <c r="L708" s="4"/>
@@ -12298,7 +12310,7 @@
       <c r="R708" s="4"/>
       <c r="U708" s="4"/>
     </row>
-    <row r="709" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="709" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F709" s="4"/>
       <c r="I709" s="4"/>
       <c r="L709" s="4"/>
@@ -12306,7 +12318,7 @@
       <c r="R709" s="4"/>
       <c r="U709" s="4"/>
     </row>
-    <row r="710" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="710" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F710" s="4"/>
       <c r="I710" s="4"/>
       <c r="L710" s="4"/>
@@ -12314,7 +12326,7 @@
       <c r="R710" s="4"/>
       <c r="U710" s="4"/>
     </row>
-    <row r="711" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="711" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F711" s="4"/>
       <c r="I711" s="4"/>
       <c r="L711" s="4"/>
@@ -12322,7 +12334,7 @@
       <c r="R711" s="4"/>
       <c r="U711" s="4"/>
     </row>
-    <row r="712" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="712" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F712" s="4"/>
       <c r="I712" s="4"/>
       <c r="L712" s="4"/>
@@ -12330,7 +12342,7 @@
       <c r="R712" s="4"/>
       <c r="U712" s="4"/>
     </row>
-    <row r="713" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="713" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F713" s="4"/>
       <c r="I713" s="4"/>
       <c r="L713" s="4"/>
@@ -12338,7 +12350,7 @@
       <c r="R713" s="4"/>
       <c r="U713" s="4"/>
     </row>
-    <row r="714" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="714" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F714" s="4"/>
       <c r="I714" s="4"/>
       <c r="L714" s="4"/>
@@ -12346,7 +12358,7 @@
       <c r="R714" s="4"/>
       <c r="U714" s="4"/>
     </row>
-    <row r="715" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="715" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F715" s="4"/>
       <c r="I715" s="4"/>
       <c r="L715" s="4"/>
@@ -12354,7 +12366,7 @@
       <c r="R715" s="4"/>
       <c r="U715" s="4"/>
     </row>
-    <row r="716" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="716" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F716" s="4"/>
       <c r="I716" s="4"/>
       <c r="L716" s="4"/>
@@ -12362,7 +12374,7 @@
       <c r="R716" s="4"/>
       <c r="U716" s="4"/>
     </row>
-    <row r="717" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F717" s="4"/>
       <c r="I717" s="4"/>
       <c r="L717" s="4"/>
@@ -12370,7 +12382,7 @@
       <c r="R717" s="4"/>
       <c r="U717" s="4"/>
     </row>
-    <row r="718" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F718" s="4"/>
       <c r="I718" s="4"/>
       <c r="L718" s="4"/>
@@ -12378,7 +12390,7 @@
       <c r="R718" s="4"/>
       <c r="U718" s="4"/>
     </row>
-    <row r="719" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="719" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F719" s="4"/>
       <c r="I719" s="4"/>
       <c r="L719" s="4"/>
@@ -12386,7 +12398,7 @@
       <c r="R719" s="4"/>
       <c r="U719" s="4"/>
     </row>
-    <row r="720" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="720" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F720" s="4"/>
       <c r="I720" s="4"/>
       <c r="L720" s="4"/>
@@ -12394,7 +12406,7 @@
       <c r="R720" s="4"/>
       <c r="U720" s="4"/>
     </row>
-    <row r="721" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="721" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F721" s="4"/>
       <c r="I721" s="4"/>
       <c r="L721" s="4"/>
@@ -12402,7 +12414,7 @@
       <c r="R721" s="4"/>
       <c r="U721" s="4"/>
     </row>
-    <row r="722" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F722" s="4"/>
       <c r="I722" s="4"/>
       <c r="L722" s="4"/>
@@ -12410,7 +12422,7 @@
       <c r="R722" s="4"/>
       <c r="U722" s="4"/>
     </row>
-    <row r="723" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F723" s="4"/>
       <c r="I723" s="4"/>
       <c r="L723" s="4"/>
@@ -12418,7 +12430,7 @@
       <c r="R723" s="4"/>
       <c r="U723" s="4"/>
     </row>
-    <row r="724" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="724" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F724" s="4"/>
       <c r="I724" s="4"/>
       <c r="L724" s="4"/>
@@ -12426,7 +12438,7 @@
       <c r="R724" s="4"/>
       <c r="U724" s="4"/>
     </row>
-    <row r="725" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F725" s="4"/>
       <c r="I725" s="4"/>
       <c r="L725" s="4"/>
@@ -12434,7 +12446,7 @@
       <c r="R725" s="4"/>
       <c r="U725" s="4"/>
     </row>
-    <row r="726" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F726" s="4"/>
       <c r="I726" s="4"/>
       <c r="L726" s="4"/>
@@ -12442,7 +12454,7 @@
       <c r="R726" s="4"/>
       <c r="U726" s="4"/>
     </row>
-    <row r="727" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="727" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F727" s="4"/>
       <c r="I727" s="4"/>
       <c r="L727" s="4"/>
@@ -12450,7 +12462,7 @@
       <c r="R727" s="4"/>
       <c r="U727" s="4"/>
     </row>
-    <row r="728" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F728" s="4"/>
       <c r="I728" s="4"/>
       <c r="L728" s="4"/>
@@ -12458,7 +12470,7 @@
       <c r="R728" s="4"/>
       <c r="U728" s="4"/>
     </row>
-    <row r="729" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="729" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F729" s="4"/>
       <c r="I729" s="4"/>
       <c r="L729" s="4"/>
@@ -12466,7 +12478,7 @@
       <c r="R729" s="4"/>
       <c r="U729" s="4"/>
     </row>
-    <row r="730" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="730" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F730" s="4"/>
       <c r="I730" s="4"/>
       <c r="L730" s="4"/>
@@ -12474,7 +12486,7 @@
       <c r="R730" s="4"/>
       <c r="U730" s="4"/>
     </row>
-    <row r="731" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="731" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F731" s="4"/>
       <c r="I731" s="4"/>
       <c r="L731" s="4"/>
@@ -12482,7 +12494,7 @@
       <c r="R731" s="4"/>
       <c r="U731" s="4"/>
     </row>
-    <row r="732" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="732" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F732" s="4"/>
       <c r="I732" s="4"/>
       <c r="L732" s="4"/>
@@ -12490,7 +12502,7 @@
       <c r="R732" s="4"/>
       <c r="U732" s="4"/>
     </row>
-    <row r="733" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F733" s="4"/>
       <c r="I733" s="4"/>
       <c r="L733" s="4"/>
@@ -12498,7 +12510,7 @@
       <c r="R733" s="4"/>
       <c r="U733" s="4"/>
     </row>
-    <row r="734" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="734" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F734" s="4"/>
       <c r="I734" s="4"/>
       <c r="L734" s="4"/>
@@ -12506,7 +12518,7 @@
       <c r="R734" s="4"/>
       <c r="U734" s="4"/>
     </row>
-    <row r="735" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="735" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F735" s="4"/>
       <c r="I735" s="4"/>
       <c r="L735" s="4"/>
@@ -12514,7 +12526,7 @@
       <c r="R735" s="4"/>
       <c r="U735" s="4"/>
     </row>
-    <row r="736" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="736" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F736" s="4"/>
       <c r="I736" s="4"/>
       <c r="L736" s="4"/>
@@ -12522,7 +12534,7 @@
       <c r="R736" s="4"/>
       <c r="U736" s="4"/>
     </row>
-    <row r="737" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F737" s="4"/>
       <c r="I737" s="4"/>
       <c r="L737" s="4"/>
@@ -12530,7 +12542,7 @@
       <c r="R737" s="4"/>
       <c r="U737" s="4"/>
     </row>
-    <row r="738" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="738" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F738" s="4"/>
       <c r="I738" s="4"/>
       <c r="L738" s="4"/>
@@ -12538,7 +12550,7 @@
       <c r="R738" s="4"/>
       <c r="U738" s="4"/>
     </row>
-    <row r="739" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="739" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F739" s="4"/>
       <c r="I739" s="4"/>
       <c r="L739" s="4"/>
@@ -12546,7 +12558,7 @@
       <c r="R739" s="4"/>
       <c r="U739" s="4"/>
     </row>
-    <row r="740" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="740" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F740" s="4"/>
       <c r="I740" s="4"/>
       <c r="L740" s="4"/>
@@ -12554,7 +12566,7 @@
       <c r="R740" s="4"/>
       <c r="U740" s="4"/>
     </row>
-    <row r="741" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="741" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F741" s="4"/>
       <c r="I741" s="4"/>
       <c r="L741" s="4"/>
@@ -12562,7 +12574,7 @@
       <c r="R741" s="4"/>
       <c r="U741" s="4"/>
     </row>
-    <row r="742" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="742" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F742" s="4"/>
       <c r="I742" s="4"/>
       <c r="L742" s="4"/>
@@ -12570,7 +12582,7 @@
       <c r="R742" s="4"/>
       <c r="U742" s="4"/>
     </row>
-    <row r="743" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="743" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F743" s="4"/>
       <c r="I743" s="4"/>
       <c r="L743" s="4"/>
@@ -12578,7 +12590,7 @@
       <c r="R743" s="4"/>
       <c r="U743" s="4"/>
     </row>
-    <row r="744" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="744" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F744" s="4"/>
       <c r="I744" s="4"/>
       <c r="L744" s="4"/>
@@ -12586,7 +12598,7 @@
       <c r="R744" s="4"/>
       <c r="U744" s="4"/>
     </row>
-    <row r="745" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="745" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F745" s="4"/>
       <c r="I745" s="4"/>
       <c r="L745" s="4"/>
@@ -12594,7 +12606,7 @@
       <c r="R745" s="4"/>
       <c r="U745" s="4"/>
     </row>
-    <row r="746" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="746" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F746" s="4"/>
       <c r="I746" s="4"/>
       <c r="L746" s="4"/>
@@ -12602,7 +12614,7 @@
       <c r="R746" s="4"/>
       <c r="U746" s="4"/>
     </row>
-    <row r="747" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="747" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F747" s="4"/>
       <c r="I747" s="4"/>
       <c r="L747" s="4"/>
@@ -12610,7 +12622,7 @@
       <c r="R747" s="4"/>
       <c r="U747" s="4"/>
     </row>
-    <row r="748" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="748" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F748" s="4"/>
       <c r="I748" s="4"/>
       <c r="L748" s="4"/>
@@ -12618,7 +12630,7 @@
       <c r="R748" s="4"/>
       <c r="U748" s="4"/>
     </row>
-    <row r="749" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="749" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F749" s="4"/>
       <c r="I749" s="4"/>
       <c r="L749" s="4"/>
@@ -12626,7 +12638,7 @@
       <c r="R749" s="4"/>
       <c r="U749" s="4"/>
     </row>
-    <row r="750" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F750" s="4"/>
       <c r="I750" s="4"/>
       <c r="L750" s="4"/>
@@ -12634,7 +12646,7 @@
       <c r="R750" s="4"/>
       <c r="U750" s="4"/>
     </row>
-    <row r="751" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="751" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F751" s="4"/>
       <c r="I751" s="4"/>
       <c r="L751" s="4"/>
@@ -12642,7 +12654,7 @@
       <c r="R751" s="4"/>
       <c r="U751" s="4"/>
     </row>
-    <row r="752" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="752" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F752" s="4"/>
       <c r="I752" s="4"/>
       <c r="L752" s="4"/>
@@ -12650,7 +12662,7 @@
       <c r="R752" s="4"/>
       <c r="U752" s="4"/>
     </row>
-    <row r="753" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="753" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F753" s="4"/>
       <c r="I753" s="4"/>
       <c r="L753" s="4"/>
@@ -12658,7 +12670,7 @@
       <c r="R753" s="4"/>
       <c r="U753" s="4"/>
     </row>
-    <row r="754" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="754" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F754" s="4"/>
       <c r="I754" s="4"/>
       <c r="L754" s="4"/>
@@ -12666,7 +12678,7 @@
       <c r="R754" s="4"/>
       <c r="U754" s="4"/>
     </row>
-    <row r="755" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="755" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F755" s="4"/>
       <c r="I755" s="4"/>
       <c r="L755" s="4"/>
@@ -12674,7 +12686,7 @@
       <c r="R755" s="4"/>
       <c r="U755" s="4"/>
     </row>
-    <row r="756" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F756" s="4"/>
       <c r="I756" s="4"/>
       <c r="L756" s="4"/>
@@ -12682,7 +12694,7 @@
       <c r="R756" s="4"/>
       <c r="U756" s="4"/>
     </row>
-    <row r="757" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F757" s="4"/>
       <c r="I757" s="4"/>
       <c r="L757" s="4"/>
@@ -12690,7 +12702,7 @@
       <c r="R757" s="4"/>
       <c r="U757" s="4"/>
     </row>
-    <row r="758" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="758" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F758" s="4"/>
       <c r="I758" s="4"/>
       <c r="L758" s="4"/>
@@ -12698,7 +12710,7 @@
       <c r="R758" s="4"/>
       <c r="U758" s="4"/>
     </row>
-    <row r="759" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="759" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F759" s="4"/>
       <c r="I759" s="4"/>
       <c r="L759" s="4"/>
@@ -12706,7 +12718,7 @@
       <c r="R759" s="4"/>
       <c r="U759" s="4"/>
     </row>
-    <row r="760" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="760" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F760" s="4"/>
       <c r="I760" s="4"/>
       <c r="L760" s="4"/>
@@ -12714,7 +12726,7 @@
       <c r="R760" s="4"/>
       <c r="U760" s="4"/>
     </row>
-    <row r="761" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="761" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F761" s="4"/>
       <c r="I761" s="4"/>
       <c r="L761" s="4"/>
@@ -12722,7 +12734,7 @@
       <c r="R761" s="4"/>
       <c r="U761" s="4"/>
     </row>
-    <row r="762" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F762" s="4"/>
       <c r="I762" s="4"/>
       <c r="L762" s="4"/>
@@ -12730,7 +12742,7 @@
       <c r="R762" s="4"/>
       <c r="U762" s="4"/>
     </row>
-    <row r="763" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F763" s="4"/>
       <c r="I763" s="4"/>
       <c r="L763" s="4"/>
@@ -12738,7 +12750,7 @@
       <c r="R763" s="4"/>
       <c r="U763" s="4"/>
     </row>
-    <row r="764" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F764" s="4"/>
       <c r="I764" s="4"/>
       <c r="L764" s="4"/>
@@ -12746,7 +12758,7 @@
       <c r="R764" s="4"/>
       <c r="U764" s="4"/>
     </row>
-    <row r="765" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F765" s="4"/>
       <c r="I765" s="4"/>
       <c r="L765" s="4"/>
@@ -12754,7 +12766,7 @@
       <c r="R765" s="4"/>
       <c r="U765" s="4"/>
     </row>
-    <row r="766" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F766" s="4"/>
       <c r="I766" s="4"/>
       <c r="L766" s="4"/>
@@ -12762,7 +12774,7 @@
       <c r="R766" s="4"/>
       <c r="U766" s="4"/>
     </row>
-    <row r="767" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="767" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F767" s="4"/>
       <c r="I767" s="4"/>
       <c r="L767" s="4"/>
@@ -12770,7 +12782,7 @@
       <c r="R767" s="4"/>
       <c r="U767" s="4"/>
     </row>
-    <row r="768" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="768" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F768" s="4"/>
       <c r="I768" s="4"/>
       <c r="L768" s="4"/>
@@ -12778,7 +12790,7 @@
       <c r="R768" s="4"/>
       <c r="U768" s="4"/>
     </row>
-    <row r="769" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="769" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F769" s="4"/>
       <c r="I769" s="4"/>
       <c r="L769" s="4"/>
@@ -12786,7 +12798,7 @@
       <c r="R769" s="4"/>
       <c r="U769" s="4"/>
     </row>
-    <row r="770" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="770" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F770" s="4"/>
       <c r="I770" s="4"/>
       <c r="L770" s="4"/>
@@ -12794,7 +12806,7 @@
       <c r="R770" s="4"/>
       <c r="U770" s="4"/>
     </row>
-    <row r="771" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="771" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F771" s="4"/>
       <c r="I771" s="4"/>
       <c r="L771" s="4"/>
@@ -12802,7 +12814,7 @@
       <c r="R771" s="4"/>
       <c r="U771" s="4"/>
     </row>
-    <row r="772" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F772" s="4"/>
       <c r="I772" s="4"/>
       <c r="L772" s="4"/>
@@ -12810,7 +12822,7 @@
       <c r="R772" s="4"/>
       <c r="U772" s="4"/>
     </row>
-    <row r="773" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F773" s="4"/>
       <c r="I773" s="4"/>
       <c r="L773" s="4"/>
@@ -12818,7 +12830,7 @@
       <c r="R773" s="4"/>
       <c r="U773" s="4"/>
     </row>
-    <row r="774" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F774" s="4"/>
       <c r="I774" s="4"/>
       <c r="L774" s="4"/>
@@ -12826,7 +12838,7 @@
       <c r="R774" s="4"/>
       <c r="U774" s="4"/>
     </row>
-    <row r="775" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F775" s="4"/>
       <c r="I775" s="4"/>
       <c r="L775" s="4"/>
@@ -12834,7 +12846,7 @@
       <c r="R775" s="4"/>
       <c r="U775" s="4"/>
     </row>
-    <row r="776" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="776" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F776" s="4"/>
       <c r="I776" s="4"/>
       <c r="L776" s="4"/>
@@ -12842,7 +12854,7 @@
       <c r="R776" s="4"/>
       <c r="U776" s="4"/>
     </row>
-    <row r="777" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="777" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F777" s="4"/>
       <c r="I777" s="4"/>
       <c r="L777" s="4"/>
@@ -12850,7 +12862,7 @@
       <c r="R777" s="4"/>
       <c r="U777" s="4"/>
     </row>
-    <row r="778" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="778" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F778" s="4"/>
       <c r="I778" s="4"/>
       <c r="L778" s="4"/>
@@ -12858,7 +12870,7 @@
       <c r="R778" s="4"/>
       <c r="U778" s="4"/>
     </row>
-    <row r="779" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="779" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F779" s="4"/>
       <c r="I779" s="4"/>
       <c r="L779" s="4"/>
@@ -12866,7 +12878,7 @@
       <c r="R779" s="4"/>
       <c r="U779" s="4"/>
     </row>
-    <row r="780" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F780" s="4"/>
       <c r="I780" s="4"/>
       <c r="L780" s="4"/>
@@ -12874,7 +12886,7 @@
       <c r="R780" s="4"/>
       <c r="U780" s="4"/>
     </row>
-    <row r="781" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="781" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F781" s="4"/>
       <c r="I781" s="4"/>
       <c r="L781" s="4"/>
@@ -12882,7 +12894,7 @@
       <c r="R781" s="4"/>
       <c r="U781" s="4"/>
     </row>
-    <row r="782" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F782" s="4"/>
       <c r="I782" s="4"/>
       <c r="L782" s="4"/>
@@ -12890,7 +12902,7 @@
       <c r="R782" s="4"/>
       <c r="U782" s="4"/>
     </row>
-    <row r="783" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="783" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F783" s="4"/>
       <c r="I783" s="4"/>
       <c r="L783" s="4"/>
@@ -12898,7 +12910,7 @@
       <c r="R783" s="4"/>
       <c r="U783" s="4"/>
     </row>
-    <row r="784" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F784" s="4"/>
       <c r="I784" s="4"/>
       <c r="L784" s="4"/>
@@ -12906,7 +12918,7 @@
       <c r="R784" s="4"/>
       <c r="U784" s="4"/>
     </row>
-    <row r="785" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="785" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F785" s="4"/>
       <c r="I785" s="4"/>
       <c r="L785" s="4"/>
@@ -12914,7 +12926,7 @@
       <c r="R785" s="4"/>
       <c r="U785" s="4"/>
     </row>
-    <row r="786" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="786" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F786" s="4"/>
       <c r="I786" s="4"/>
       <c r="L786" s="4"/>
@@ -12922,7 +12934,7 @@
       <c r="R786" s="4"/>
       <c r="U786" s="4"/>
     </row>
-    <row r="787" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="787" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F787" s="4"/>
       <c r="I787" s="4"/>
       <c r="L787" s="4"/>
@@ -12930,7 +12942,7 @@
       <c r="R787" s="4"/>
       <c r="U787" s="4"/>
     </row>
-    <row r="788" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F788" s="4"/>
       <c r="I788" s="4"/>
       <c r="L788" s="4"/>
@@ -12938,7 +12950,7 @@
       <c r="R788" s="4"/>
       <c r="U788" s="4"/>
     </row>
-    <row r="789" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="789" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F789" s="4"/>
       <c r="I789" s="4"/>
       <c r="L789" s="4"/>
@@ -12946,7 +12958,7 @@
       <c r="R789" s="4"/>
       <c r="U789" s="4"/>
     </row>
-    <row r="790" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="790" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F790" s="4"/>
       <c r="I790" s="4"/>
       <c r="L790" s="4"/>
@@ -12954,7 +12966,7 @@
       <c r="R790" s="4"/>
       <c r="U790" s="4"/>
     </row>
-    <row r="791" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F791" s="4"/>
       <c r="I791" s="4"/>
       <c r="L791" s="4"/>
@@ -12962,7 +12974,7 @@
       <c r="R791" s="4"/>
       <c r="U791" s="4"/>
     </row>
-    <row r="792" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F792" s="4"/>
       <c r="I792" s="4"/>
       <c r="L792" s="4"/>
@@ -12970,7 +12982,7 @@
       <c r="R792" s="4"/>
       <c r="U792" s="4"/>
     </row>
-    <row r="793" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F793" s="4"/>
       <c r="I793" s="4"/>
       <c r="L793" s="4"/>
@@ -12978,7 +12990,7 @@
       <c r="R793" s="4"/>
       <c r="U793" s="4"/>
     </row>
-    <row r="794" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="794" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F794" s="4"/>
       <c r="I794" s="4"/>
       <c r="L794" s="4"/>
@@ -12986,7 +12998,7 @@
       <c r="R794" s="4"/>
       <c r="U794" s="4"/>
     </row>
-    <row r="795" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="795" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F795" s="4"/>
       <c r="I795" s="4"/>
       <c r="L795" s="4"/>
@@ -12994,7 +13006,7 @@
       <c r="R795" s="4"/>
       <c r="U795" s="4"/>
     </row>
-    <row r="796" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="796" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F796" s="4"/>
       <c r="I796" s="4"/>
       <c r="L796" s="4"/>
@@ -13002,7 +13014,7 @@
       <c r="R796" s="4"/>
       <c r="U796" s="4"/>
     </row>
-    <row r="797" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="797" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F797" s="4"/>
       <c r="I797" s="4"/>
       <c r="L797" s="4"/>
@@ -13010,7 +13022,7 @@
       <c r="R797" s="4"/>
       <c r="U797" s="4"/>
     </row>
-    <row r="798" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="798" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F798" s="4"/>
       <c r="I798" s="4"/>
       <c r="L798" s="4"/>
@@ -13018,7 +13030,7 @@
       <c r="R798" s="4"/>
       <c r="U798" s="4"/>
     </row>
-    <row r="799" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="799" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F799" s="4"/>
       <c r="I799" s="4"/>
       <c r="L799" s="4"/>
@@ -13026,7 +13038,7 @@
       <c r="R799" s="4"/>
       <c r="U799" s="4"/>
     </row>
-    <row r="800" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="800" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F800" s="4"/>
       <c r="I800" s="4"/>
       <c r="L800" s="4"/>
@@ -13034,7 +13046,7 @@
       <c r="R800" s="4"/>
       <c r="U800" s="4"/>
     </row>
-    <row r="801" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F801" s="4"/>
       <c r="I801" s="4"/>
       <c r="L801" s="4"/>
@@ -13042,7 +13054,7 @@
       <c r="R801" s="4"/>
       <c r="U801" s="4"/>
     </row>
-    <row r="802" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="802" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F802" s="4"/>
       <c r="I802" s="4"/>
       <c r="L802" s="4"/>
@@ -13050,7 +13062,7 @@
       <c r="R802" s="4"/>
       <c r="U802" s="4"/>
     </row>
-    <row r="803" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="803" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F803" s="4"/>
       <c r="I803" s="4"/>
       <c r="L803" s="4"/>
@@ -13058,7 +13070,7 @@
       <c r="R803" s="4"/>
       <c r="U803" s="4"/>
     </row>
-    <row r="804" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="804" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F804" s="4"/>
       <c r="I804" s="4"/>
       <c r="L804" s="4"/>
@@ -13066,7 +13078,7 @@
       <c r="R804" s="4"/>
       <c r="U804" s="4"/>
     </row>
-    <row r="805" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="805" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F805" s="4"/>
       <c r="I805" s="4"/>
       <c r="L805" s="4"/>
@@ -13074,7 +13086,7 @@
       <c r="R805" s="4"/>
       <c r="U805" s="4"/>
     </row>
-    <row r="806" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="806" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F806" s="4"/>
       <c r="I806" s="4"/>
       <c r="L806" s="4"/>
@@ -13082,7 +13094,7 @@
       <c r="R806" s="4"/>
       <c r="U806" s="4"/>
     </row>
-    <row r="807" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="807" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F807" s="4"/>
       <c r="I807" s="4"/>
       <c r="L807" s="4"/>
@@ -13090,7 +13102,7 @@
       <c r="R807" s="4"/>
       <c r="U807" s="4"/>
     </row>
-    <row r="808" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="808" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F808" s="4"/>
       <c r="I808" s="4"/>
       <c r="L808" s="4"/>
@@ -13098,7 +13110,7 @@
       <c r="R808" s="4"/>
       <c r="U808" s="4"/>
     </row>
-    <row r="809" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F809" s="4"/>
       <c r="I809" s="4"/>
       <c r="L809" s="4"/>
@@ -13106,7 +13118,7 @@
       <c r="R809" s="4"/>
       <c r="U809" s="4"/>
     </row>
-    <row r="810" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="810" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F810" s="4"/>
       <c r="I810" s="4"/>
       <c r="L810" s="4"/>
@@ -13114,7 +13126,7 @@
       <c r="R810" s="4"/>
       <c r="U810" s="4"/>
     </row>
-    <row r="811" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="811" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F811" s="4"/>
       <c r="I811" s="4"/>
       <c r="L811" s="4"/>
@@ -13122,7 +13134,7 @@
       <c r="R811" s="4"/>
       <c r="U811" s="4"/>
     </row>
-    <row r="812" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="812" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F812" s="4"/>
       <c r="I812" s="4"/>
       <c r="L812" s="4"/>
@@ -13130,7 +13142,7 @@
       <c r="R812" s="4"/>
       <c r="U812" s="4"/>
     </row>
-    <row r="813" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="813" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F813" s="4"/>
       <c r="I813" s="4"/>
       <c r="L813" s="4"/>
@@ -13138,7 +13150,7 @@
       <c r="R813" s="4"/>
       <c r="U813" s="4"/>
     </row>
-    <row r="814" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="814" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F814" s="4"/>
       <c r="I814" s="4"/>
       <c r="L814" s="4"/>
@@ -13146,7 +13158,7 @@
       <c r="R814" s="4"/>
       <c r="U814" s="4"/>
     </row>
-    <row r="815" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="815" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F815" s="4"/>
       <c r="I815" s="4"/>
       <c r="L815" s="4"/>
@@ -13154,7 +13166,7 @@
       <c r="R815" s="4"/>
       <c r="U815" s="4"/>
     </row>
-    <row r="816" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="816" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F816" s="4"/>
       <c r="I816" s="4"/>
       <c r="L816" s="4"/>
@@ -13162,7 +13174,7 @@
       <c r="R816" s="4"/>
       <c r="U816" s="4"/>
     </row>
-    <row r="817" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F817" s="4"/>
       <c r="I817" s="4"/>
       <c r="L817" s="4"/>
@@ -13170,7 +13182,7 @@
       <c r="R817" s="4"/>
       <c r="U817" s="4"/>
     </row>
-    <row r="818" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="818" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F818" s="4"/>
       <c r="I818" s="4"/>
       <c r="L818" s="4"/>
@@ -13178,7 +13190,7 @@
       <c r="R818" s="4"/>
       <c r="U818" s="4"/>
     </row>
-    <row r="819" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="819" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F819" s="4"/>
       <c r="I819" s="4"/>
       <c r="L819" s="4"/>
@@ -13186,7 +13198,7 @@
       <c r="R819" s="4"/>
       <c r="U819" s="4"/>
     </row>
-    <row r="820" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="820" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F820" s="4"/>
       <c r="I820" s="4"/>
       <c r="L820" s="4"/>
@@ -13194,7 +13206,7 @@
       <c r="R820" s="4"/>
       <c r="U820" s="4"/>
     </row>
-    <row r="821" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="821" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F821" s="4"/>
       <c r="I821" s="4"/>
       <c r="L821" s="4"/>
@@ -13202,7 +13214,7 @@
       <c r="R821" s="4"/>
       <c r="U821" s="4"/>
     </row>
-    <row r="822" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="822" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F822" s="4"/>
       <c r="I822" s="4"/>
       <c r="L822" s="4"/>
@@ -13210,7 +13222,7 @@
       <c r="R822" s="4"/>
       <c r="U822" s="4"/>
     </row>
-    <row r="823" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="823" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F823" s="4"/>
       <c r="I823" s="4"/>
       <c r="L823" s="4"/>
@@ -13218,7 +13230,7 @@
       <c r="R823" s="4"/>
       <c r="U823" s="4"/>
     </row>
-    <row r="824" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="824" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F824" s="4"/>
       <c r="I824" s="4"/>
       <c r="L824" s="4"/>
@@ -13226,7 +13238,7 @@
       <c r="R824" s="4"/>
       <c r="U824" s="4"/>
     </row>
-    <row r="825" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="825" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F825" s="4"/>
       <c r="I825" s="4"/>
       <c r="L825" s="4"/>
@@ -13234,7 +13246,7 @@
       <c r="R825" s="4"/>
       <c r="U825" s="4"/>
     </row>
-    <row r="826" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="826" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F826" s="4"/>
       <c r="I826" s="4"/>
       <c r="L826" s="4"/>
@@ -13242,7 +13254,7 @@
       <c r="R826" s="4"/>
       <c r="U826" s="4"/>
     </row>
-    <row r="827" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="827" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F827" s="4"/>
       <c r="I827" s="4"/>
       <c r="L827" s="4"/>
@@ -13250,7 +13262,7 @@
       <c r="R827" s="4"/>
       <c r="U827" s="4"/>
     </row>
-    <row r="828" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="828" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F828" s="4"/>
       <c r="I828" s="4"/>
       <c r="L828" s="4"/>
@@ -13258,7 +13270,7 @@
       <c r="R828" s="4"/>
       <c r="U828" s="4"/>
     </row>
-    <row r="829" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="829" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F829" s="4"/>
       <c r="I829" s="4"/>
       <c r="L829" s="4"/>
@@ -13266,7 +13278,7 @@
       <c r="R829" s="4"/>
       <c r="U829" s="4"/>
     </row>
-    <row r="830" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="830" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F830" s="4"/>
       <c r="I830" s="4"/>
       <c r="L830" s="4"/>
@@ -13274,7 +13286,7 @@
       <c r="R830" s="4"/>
       <c r="U830" s="4"/>
     </row>
-    <row r="831" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F831" s="4"/>
       <c r="I831" s="4"/>
       <c r="L831" s="4"/>
@@ -13282,7 +13294,7 @@
       <c r="R831" s="4"/>
       <c r="U831" s="4"/>
     </row>
-    <row r="832" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F832" s="4"/>
       <c r="I832" s="4"/>
       <c r="L832" s="4"/>
@@ -13290,7 +13302,7 @@
       <c r="R832" s="4"/>
       <c r="U832" s="4"/>
     </row>
-    <row r="833" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F833" s="4"/>
       <c r="I833" s="4"/>
       <c r="L833" s="4"/>
@@ -13298,7 +13310,7 @@
       <c r="R833" s="4"/>
       <c r="U833" s="4"/>
     </row>
-    <row r="834" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F834" s="4"/>
       <c r="I834" s="4"/>
       <c r="L834" s="4"/>
@@ -13306,7 +13318,7 @@
       <c r="R834" s="4"/>
       <c r="U834" s="4"/>
     </row>
-    <row r="835" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F835" s="4"/>
       <c r="I835" s="4"/>
       <c r="L835" s="4"/>
@@ -13314,7 +13326,7 @@
       <c r="R835" s="4"/>
       <c r="U835" s="4"/>
     </row>
-    <row r="836" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="836" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F836" s="4"/>
       <c r="I836" s="4"/>
       <c r="L836" s="4"/>
@@ -13322,7 +13334,7 @@
       <c r="R836" s="4"/>
       <c r="U836" s="4"/>
     </row>
-    <row r="837" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="837" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F837" s="4"/>
       <c r="I837" s="4"/>
       <c r="L837" s="4"/>
@@ -13330,7 +13342,7 @@
       <c r="R837" s="4"/>
       <c r="U837" s="4"/>
     </row>
-    <row r="838" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="838" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F838" s="4"/>
       <c r="I838" s="4"/>
       <c r="L838" s="4"/>
@@ -13338,7 +13350,7 @@
       <c r="R838" s="4"/>
       <c r="U838" s="4"/>
     </row>
-    <row r="839" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="839" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F839" s="4"/>
       <c r="I839" s="4"/>
       <c r="L839" s="4"/>
@@ -13346,7 +13358,7 @@
       <c r="R839" s="4"/>
       <c r="U839" s="4"/>
     </row>
-    <row r="840" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="840" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F840" s="4"/>
       <c r="I840" s="4"/>
       <c r="L840" s="4"/>
@@ -13354,7 +13366,7 @@
       <c r="R840" s="4"/>
       <c r="U840" s="4"/>
     </row>
-    <row r="841" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="841" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F841" s="4"/>
       <c r="I841" s="4"/>
       <c r="L841" s="4"/>
@@ -13362,7 +13374,7 @@
       <c r="R841" s="4"/>
       <c r="U841" s="4"/>
     </row>
-    <row r="842" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F842" s="4"/>
       <c r="I842" s="4"/>
       <c r="L842" s="4"/>
@@ -13370,7 +13382,7 @@
       <c r="R842" s="4"/>
       <c r="U842" s="4"/>
     </row>
-    <row r="843" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="843" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F843" s="4"/>
       <c r="I843" s="4"/>
       <c r="L843" s="4"/>
@@ -13378,7 +13390,7 @@
       <c r="R843" s="4"/>
       <c r="U843" s="4"/>
     </row>
-    <row r="844" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="844" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F844" s="4"/>
       <c r="I844" s="4"/>
       <c r="L844" s="4"/>
@@ -13386,7 +13398,7 @@
       <c r="R844" s="4"/>
       <c r="U844" s="4"/>
     </row>
-    <row r="845" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F845" s="4"/>
       <c r="I845" s="4"/>
       <c r="L845" s="4"/>
@@ -13394,7 +13406,7 @@
       <c r="R845" s="4"/>
       <c r="U845" s="4"/>
     </row>
-    <row r="846" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="846" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F846" s="4"/>
       <c r="I846" s="4"/>
       <c r="L846" s="4"/>
@@ -13402,7 +13414,7 @@
       <c r="R846" s="4"/>
       <c r="U846" s="4"/>
     </row>
-    <row r="847" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="847" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F847" s="4"/>
       <c r="I847" s="4"/>
       <c r="L847" s="4"/>
@@ -13410,7 +13422,7 @@
       <c r="R847" s="4"/>
       <c r="U847" s="4"/>
     </row>
-    <row r="848" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="848" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F848" s="4"/>
       <c r="I848" s="4"/>
       <c r="L848" s="4"/>
@@ -13418,7 +13430,7 @@
       <c r="R848" s="4"/>
       <c r="U848" s="4"/>
     </row>
-    <row r="849" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="849" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F849" s="4"/>
       <c r="I849" s="4"/>
       <c r="L849" s="4"/>
@@ -13426,7 +13438,7 @@
       <c r="R849" s="4"/>
       <c r="U849" s="4"/>
     </row>
-    <row r="850" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="850" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F850" s="4"/>
       <c r="I850" s="4"/>
       <c r="L850" s="4"/>
@@ -13434,7 +13446,7 @@
       <c r="R850" s="4"/>
       <c r="U850" s="4"/>
     </row>
-    <row r="851" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="851" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F851" s="4"/>
       <c r="I851" s="4"/>
       <c r="L851" s="4"/>
@@ -13442,7 +13454,7 @@
       <c r="R851" s="4"/>
       <c r="U851" s="4"/>
     </row>
-    <row r="852" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="852" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F852" s="4"/>
       <c r="I852" s="4"/>
       <c r="L852" s="4"/>
@@ -13450,7 +13462,7 @@
       <c r="R852" s="4"/>
       <c r="U852" s="4"/>
     </row>
-    <row r="853" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="853" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F853" s="4"/>
       <c r="I853" s="4"/>
       <c r="L853" s="4"/>
@@ -13458,7 +13470,7 @@
       <c r="R853" s="4"/>
       <c r="U853" s="4"/>
     </row>
-    <row r="854" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="854" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F854" s="4"/>
       <c r="I854" s="4"/>
       <c r="L854" s="4"/>
@@ -13466,7 +13478,7 @@
       <c r="R854" s="4"/>
       <c r="U854" s="4"/>
     </row>
-    <row r="855" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="855" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F855" s="4"/>
       <c r="I855" s="4"/>
       <c r="L855" s="4"/>
@@ -13474,7 +13486,7 @@
       <c r="R855" s="4"/>
       <c r="U855" s="4"/>
     </row>
-    <row r="856" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="856" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F856" s="4"/>
       <c r="I856" s="4"/>
       <c r="L856" s="4"/>
@@ -13482,7 +13494,7 @@
       <c r="R856" s="4"/>
       <c r="U856" s="4"/>
     </row>
-    <row r="857" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="857" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F857" s="4"/>
       <c r="I857" s="4"/>
       <c r="L857" s="4"/>
@@ -13490,7 +13502,7 @@
       <c r="R857" s="4"/>
       <c r="U857" s="4"/>
     </row>
-    <row r="858" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="858" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F858" s="4"/>
       <c r="I858" s="4"/>
       <c r="L858" s="4"/>
@@ -13498,7 +13510,7 @@
       <c r="R858" s="4"/>
       <c r="U858" s="4"/>
     </row>
-    <row r="859" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="859" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F859" s="4"/>
       <c r="I859" s="4"/>
       <c r="L859" s="4"/>
@@ -13506,7 +13518,7 @@
       <c r="R859" s="4"/>
       <c r="U859" s="4"/>
     </row>
-    <row r="860" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F860" s="4"/>
       <c r="I860" s="4"/>
       <c r="L860" s="4"/>
@@ -13514,7 +13526,7 @@
       <c r="R860" s="4"/>
       <c r="U860" s="4"/>
     </row>
-    <row r="861" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="861" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F861" s="4"/>
       <c r="I861" s="4"/>
       <c r="L861" s="4"/>
@@ -13522,7 +13534,7 @@
       <c r="R861" s="4"/>
       <c r="U861" s="4"/>
     </row>
-    <row r="862" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="862" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F862" s="4"/>
       <c r="I862" s="4"/>
       <c r="L862" s="4"/>
@@ -13530,7 +13542,7 @@
       <c r="R862" s="4"/>
       <c r="U862" s="4"/>
     </row>
-    <row r="863" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="863" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F863" s="4"/>
       <c r="I863" s="4"/>
       <c r="L863" s="4"/>
@@ -13538,7 +13550,7 @@
       <c r="R863" s="4"/>
       <c r="U863" s="4"/>
     </row>
-    <row r="864" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="864" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F864" s="4"/>
       <c r="I864" s="4"/>
       <c r="L864" s="4"/>
@@ -13546,7 +13558,7 @@
       <c r="R864" s="4"/>
       <c r="U864" s="4"/>
     </row>
-    <row r="865" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="865" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F865" s="4"/>
       <c r="I865" s="4"/>
       <c r="L865" s="4"/>
@@ -13554,7 +13566,7 @@
       <c r="R865" s="4"/>
       <c r="U865" s="4"/>
     </row>
-    <row r="866" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="866" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F866" s="4"/>
       <c r="I866" s="4"/>
       <c r="L866" s="4"/>
@@ -13562,7 +13574,7 @@
       <c r="R866" s="4"/>
       <c r="U866" s="4"/>
     </row>
-    <row r="867" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="867" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F867" s="4"/>
       <c r="I867" s="4"/>
       <c r="L867" s="4"/>
@@ -13570,7 +13582,7 @@
       <c r="R867" s="4"/>
       <c r="U867" s="4"/>
     </row>
-    <row r="868" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="868" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F868" s="4"/>
       <c r="I868" s="4"/>
       <c r="L868" s="4"/>
@@ -13578,7 +13590,7 @@
       <c r="R868" s="4"/>
       <c r="U868" s="4"/>
     </row>
-    <row r="869" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="869" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F869" s="4"/>
       <c r="I869" s="4"/>
       <c r="L869" s="4"/>
@@ -13586,7 +13598,7 @@
       <c r="R869" s="4"/>
       <c r="U869" s="4"/>
     </row>
-    <row r="870" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="870" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F870" s="4"/>
       <c r="I870" s="4"/>
       <c r="L870" s="4"/>
@@ -13594,7 +13606,7 @@
       <c r="R870" s="4"/>
       <c r="U870" s="4"/>
     </row>
-    <row r="871" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="871" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F871" s="4"/>
       <c r="I871" s="4"/>
       <c r="L871" s="4"/>
@@ -13602,7 +13614,7 @@
       <c r="R871" s="4"/>
       <c r="U871" s="4"/>
     </row>
-    <row r="872" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="872" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F872" s="4"/>
       <c r="I872" s="4"/>
       <c r="L872" s="4"/>
@@ -13610,7 +13622,7 @@
       <c r="R872" s="4"/>
       <c r="U872" s="4"/>
     </row>
-    <row r="873" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="873" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F873" s="4"/>
       <c r="I873" s="4"/>
       <c r="L873" s="4"/>
@@ -13618,7 +13630,7 @@
       <c r="R873" s="4"/>
       <c r="U873" s="4"/>
     </row>
-    <row r="874" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="874" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F874" s="4"/>
       <c r="I874" s="4"/>
       <c r="L874" s="4"/>
@@ -13626,7 +13638,7 @@
       <c r="R874" s="4"/>
       <c r="U874" s="4"/>
     </row>
-    <row r="875" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="875" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F875" s="4"/>
       <c r="I875" s="4"/>
       <c r="L875" s="4"/>
@@ -13634,7 +13646,7 @@
       <c r="R875" s="4"/>
       <c r="U875" s="4"/>
     </row>
-    <row r="876" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="876" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F876" s="4"/>
       <c r="I876" s="4"/>
       <c r="L876" s="4"/>
@@ -13642,7 +13654,7 @@
       <c r="R876" s="4"/>
       <c r="U876" s="4"/>
     </row>
-    <row r="877" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="877" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F877" s="4"/>
       <c r="I877" s="4"/>
       <c r="L877" s="4"/>
@@ -13650,7 +13662,7 @@
       <c r="R877" s="4"/>
       <c r="U877" s="4"/>
     </row>
-    <row r="878" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F878" s="4"/>
       <c r="I878" s="4"/>
       <c r="L878" s="4"/>
@@ -13658,7 +13670,7 @@
       <c r="R878" s="4"/>
       <c r="U878" s="4"/>
     </row>
-    <row r="879" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="879" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F879" s="4"/>
       <c r="I879" s="4"/>
       <c r="L879" s="4"/>
@@ -13666,7 +13678,7 @@
       <c r="R879" s="4"/>
       <c r="U879" s="4"/>
     </row>
-    <row r="880" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="880" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F880" s="4"/>
       <c r="I880" s="4"/>
       <c r="L880" s="4"/>
@@ -13674,7 +13686,7 @@
       <c r="R880" s="4"/>
       <c r="U880" s="4"/>
     </row>
-    <row r="881" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F881" s="4"/>
       <c r="I881" s="4"/>
       <c r="L881" s="4"/>
@@ -13682,7 +13694,7 @@
       <c r="R881" s="4"/>
       <c r="U881" s="4"/>
     </row>
-    <row r="882" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="882" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F882" s="4"/>
       <c r="I882" s="4"/>
       <c r="L882" s="4"/>
@@ -13690,7 +13702,7 @@
       <c r="R882" s="4"/>
       <c r="U882" s="4"/>
     </row>
-    <row r="883" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="883" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F883" s="4"/>
       <c r="I883" s="4"/>
       <c r="L883" s="4"/>
@@ -13698,7 +13710,7 @@
       <c r="R883" s="4"/>
       <c r="U883" s="4"/>
     </row>
-    <row r="884" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="884" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F884" s="4"/>
       <c r="I884" s="4"/>
       <c r="L884" s="4"/>
@@ -13706,7 +13718,7 @@
       <c r="R884" s="4"/>
       <c r="U884" s="4"/>
     </row>
-    <row r="885" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F885" s="4"/>
       <c r="I885" s="4"/>
       <c r="L885" s="4"/>
@@ -13714,7 +13726,7 @@
       <c r="R885" s="4"/>
       <c r="U885" s="4"/>
     </row>
-    <row r="886" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F886" s="4"/>
       <c r="I886" s="4"/>
       <c r="L886" s="4"/>
@@ -13722,7 +13734,7 @@
       <c r="R886" s="4"/>
       <c r="U886" s="4"/>
     </row>
-    <row r="887" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F887" s="4"/>
       <c r="I887" s="4"/>
       <c r="L887" s="4"/>
@@ -13730,7 +13742,7 @@
       <c r="R887" s="4"/>
       <c r="U887" s="4"/>
     </row>
-    <row r="888" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="888" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F888" s="4"/>
       <c r="I888" s="4"/>
       <c r="L888" s="4"/>
@@ -13738,7 +13750,7 @@
       <c r="R888" s="4"/>
       <c r="U888" s="4"/>
     </row>
-    <row r="889" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="889" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F889" s="4"/>
       <c r="I889" s="4"/>
       <c r="L889" s="4"/>
@@ -13746,7 +13758,7 @@
       <c r="R889" s="4"/>
       <c r="U889" s="4"/>
     </row>
-    <row r="890" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="890" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F890" s="4"/>
       <c r="I890" s="4"/>
       <c r="L890" s="4"/>
@@ -13754,7 +13766,7 @@
       <c r="R890" s="4"/>
       <c r="U890" s="4"/>
     </row>
-    <row r="891" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="891" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F891" s="4"/>
       <c r="I891" s="4"/>
       <c r="L891" s="4"/>
@@ -13762,7 +13774,7 @@
       <c r="R891" s="4"/>
       <c r="U891" s="4"/>
     </row>
-    <row r="892" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="892" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F892" s="4"/>
       <c r="I892" s="4"/>
       <c r="L892" s="4"/>
@@ -13770,7 +13782,7 @@
       <c r="R892" s="4"/>
       <c r="U892" s="4"/>
     </row>
-    <row r="893" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="893" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F893" s="4"/>
       <c r="I893" s="4"/>
       <c r="L893" s="4"/>
@@ -13778,7 +13790,7 @@
       <c r="R893" s="4"/>
       <c r="U893" s="4"/>
     </row>
-    <row r="894" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="894" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F894" s="4"/>
       <c r="I894" s="4"/>
       <c r="L894" s="4"/>
@@ -13786,7 +13798,7 @@
       <c r="R894" s="4"/>
       <c r="U894" s="4"/>
     </row>
-    <row r="895" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="895" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F895" s="4"/>
       <c r="I895" s="4"/>
       <c r="L895" s="4"/>
@@ -13794,7 +13806,7 @@
       <c r="R895" s="4"/>
       <c r="U895" s="4"/>
     </row>
-    <row r="896" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="896" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F896" s="4"/>
       <c r="I896" s="4"/>
       <c r="L896" s="4"/>
@@ -13802,7 +13814,7 @@
       <c r="R896" s="4"/>
       <c r="U896" s="4"/>
     </row>
-    <row r="897" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="897" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F897" s="4"/>
       <c r="I897" s="4"/>
       <c r="L897" s="4"/>
@@ -13810,7 +13822,7 @@
       <c r="R897" s="4"/>
       <c r="U897" s="4"/>
     </row>
-    <row r="898" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="898" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F898" s="4"/>
       <c r="I898" s="4"/>
       <c r="L898" s="4"/>
@@ -13818,7 +13830,7 @@
       <c r="R898" s="4"/>
       <c r="U898" s="4"/>
     </row>
-    <row r="899" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="899" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F899" s="4"/>
       <c r="I899" s="4"/>
       <c r="L899" s="4"/>
@@ -13826,7 +13838,7 @@
       <c r="R899" s="4"/>
       <c r="U899" s="4"/>
     </row>
-    <row r="900" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="900" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F900" s="4"/>
       <c r="I900" s="4"/>
       <c r="L900" s="4"/>
@@ -13834,7 +13846,7 @@
       <c r="R900" s="4"/>
       <c r="U900" s="4"/>
     </row>
-    <row r="901" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="901" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F901" s="4"/>
       <c r="I901" s="4"/>
       <c r="L901" s="4"/>
@@ -13842,7 +13854,7 @@
       <c r="R901" s="4"/>
       <c r="U901" s="4"/>
     </row>
-    <row r="902" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="902" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F902" s="4"/>
       <c r="I902" s="4"/>
       <c r="L902" s="4"/>
@@ -13850,7 +13862,7 @@
       <c r="R902" s="4"/>
       <c r="U902" s="4"/>
     </row>
-    <row r="903" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="903" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F903" s="4"/>
       <c r="I903" s="4"/>
       <c r="L903" s="4"/>
@@ -13858,7 +13870,7 @@
       <c r="R903" s="4"/>
       <c r="U903" s="4"/>
     </row>
-    <row r="904" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="904" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F904" s="4"/>
       <c r="I904" s="4"/>
       <c r="L904" s="4"/>
@@ -13866,7 +13878,7 @@
       <c r="R904" s="4"/>
       <c r="U904" s="4"/>
     </row>
-    <row r="905" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="905" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F905" s="4"/>
       <c r="I905" s="4"/>
       <c r="L905" s="4"/>
@@ -13874,7 +13886,7 @@
       <c r="R905" s="4"/>
       <c r="U905" s="4"/>
     </row>
-    <row r="906" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="906" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F906" s="4"/>
       <c r="I906" s="4"/>
       <c r="L906" s="4"/>
@@ -13882,7 +13894,7 @@
       <c r="R906" s="4"/>
       <c r="U906" s="4"/>
     </row>
-    <row r="907" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="907" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F907" s="4"/>
       <c r="I907" s="4"/>
       <c r="L907" s="4"/>
@@ -13890,7 +13902,7 @@
       <c r="R907" s="4"/>
       <c r="U907" s="4"/>
     </row>
-    <row r="908" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="908" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F908" s="4"/>
       <c r="I908" s="4"/>
       <c r="L908" s="4"/>
@@ -13898,7 +13910,7 @@
       <c r="R908" s="4"/>
       <c r="U908" s="4"/>
     </row>
-    <row r="909" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="909" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F909" s="4"/>
       <c r="I909" s="4"/>
       <c r="L909" s="4"/>
@@ -13906,7 +13918,7 @@
       <c r="R909" s="4"/>
       <c r="U909" s="4"/>
     </row>
-    <row r="910" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="910" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F910" s="4"/>
       <c r="I910" s="4"/>
       <c r="L910" s="4"/>
@@ -13914,7 +13926,7 @@
       <c r="R910" s="4"/>
       <c r="U910" s="4"/>
     </row>
-    <row r="911" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="911" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F911" s="4"/>
       <c r="I911" s="4"/>
       <c r="L911" s="4"/>
@@ -13922,7 +13934,7 @@
       <c r="R911" s="4"/>
       <c r="U911" s="4"/>
     </row>
-    <row r="912" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="912" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F912" s="4"/>
       <c r="I912" s="4"/>
       <c r="L912" s="4"/>
@@ -13930,7 +13942,7 @@
       <c r="R912" s="4"/>
       <c r="U912" s="4"/>
     </row>
-    <row r="913" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F913" s="4"/>
       <c r="I913" s="4"/>
       <c r="L913" s="4"/>
@@ -13938,7 +13950,7 @@
       <c r="R913" s="4"/>
       <c r="U913" s="4"/>
     </row>
-    <row r="914" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="914" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F914" s="4"/>
       <c r="I914" s="4"/>
       <c r="L914" s="4"/>
@@ -13946,7 +13958,7 @@
       <c r="R914" s="4"/>
       <c r="U914" s="4"/>
     </row>
-    <row r="915" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="915" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F915" s="4"/>
       <c r="I915" s="4"/>
       <c r="L915" s="4"/>
@@ -13954,7 +13966,7 @@
       <c r="R915" s="4"/>
       <c r="U915" s="4"/>
     </row>
-    <row r="916" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="916" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F916" s="4"/>
       <c r="I916" s="4"/>
       <c r="L916" s="4"/>
@@ -13962,7 +13974,7 @@
       <c r="R916" s="4"/>
       <c r="U916" s="4"/>
     </row>
-    <row r="917" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F917" s="4"/>
       <c r="I917" s="4"/>
       <c r="L917" s="4"/>
@@ -13970,7 +13982,7 @@
       <c r="R917" s="4"/>
       <c r="U917" s="4"/>
     </row>
-    <row r="918" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F918" s="4"/>
       <c r="I918" s="4"/>
       <c r="L918" s="4"/>
@@ -13978,7 +13990,7 @@
       <c r="R918" s="4"/>
       <c r="U918" s="4"/>
     </row>
-    <row r="919" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F919" s="4"/>
       <c r="I919" s="4"/>
       <c r="L919" s="4"/>
@@ -13986,7 +13998,7 @@
       <c r="R919" s="4"/>
       <c r="U919" s="4"/>
     </row>
-    <row r="920" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="920" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F920" s="4"/>
       <c r="I920" s="4"/>
       <c r="L920" s="4"/>
@@ -13994,7 +14006,7 @@
       <c r="R920" s="4"/>
       <c r="U920" s="4"/>
     </row>
-    <row r="921" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F921" s="4"/>
       <c r="I921" s="4"/>
       <c r="L921" s="4"/>
@@ -14002,7 +14014,7 @@
       <c r="R921" s="4"/>
       <c r="U921" s="4"/>
     </row>
-    <row r="922" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="922" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F922" s="4"/>
       <c r="I922" s="4"/>
       <c r="L922" s="4"/>
@@ -14010,7 +14022,7 @@
       <c r="R922" s="4"/>
       <c r="U922" s="4"/>
     </row>
-    <row r="923" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="923" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F923" s="4"/>
       <c r="I923" s="4"/>
       <c r="L923" s="4"/>
@@ -14018,7 +14030,7 @@
       <c r="R923" s="4"/>
       <c r="U923" s="4"/>
     </row>
-    <row r="924" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F924" s="4"/>
       <c r="I924" s="4"/>
       <c r="L924" s="4"/>
@@ -14026,7 +14038,7 @@
       <c r="R924" s="4"/>
       <c r="U924" s="4"/>
     </row>
-    <row r="925" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F925" s="4"/>
       <c r="I925" s="4"/>
       <c r="L925" s="4"/>
@@ -14034,7 +14046,7 @@
       <c r="R925" s="4"/>
       <c r="U925" s="4"/>
     </row>
-    <row r="926" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="926" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F926" s="4"/>
       <c r="I926" s="4"/>
       <c r="L926" s="4"/>
@@ -14042,7 +14054,7 @@
       <c r="R926" s="4"/>
       <c r="U926" s="4"/>
     </row>
-    <row r="927" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="927" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F927" s="4"/>
       <c r="I927" s="4"/>
       <c r="L927" s="4"/>
@@ -14050,7 +14062,7 @@
       <c r="R927" s="4"/>
       <c r="U927" s="4"/>
     </row>
-    <row r="928" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="928" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F928" s="4"/>
       <c r="I928" s="4"/>
       <c r="L928" s="4"/>
@@ -14058,7 +14070,7 @@
       <c r="R928" s="4"/>
       <c r="U928" s="4"/>
     </row>
-    <row r="929" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F929" s="4"/>
       <c r="I929" s="4"/>
       <c r="L929" s="4"/>
@@ -14066,7 +14078,7 @@
       <c r="R929" s="4"/>
       <c r="U929" s="4"/>
     </row>
-    <row r="930" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="930" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F930" s="4"/>
       <c r="I930" s="4"/>
       <c r="L930" s="4"/>
@@ -14074,7 +14086,7 @@
       <c r="R930" s="4"/>
       <c r="U930" s="4"/>
     </row>
-    <row r="931" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F931" s="4"/>
       <c r="I931" s="4"/>
       <c r="L931" s="4"/>
@@ -14082,7 +14094,7 @@
       <c r="R931" s="4"/>
       <c r="U931" s="4"/>
     </row>
-    <row r="932" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="932" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F932" s="4"/>
       <c r="I932" s="4"/>
       <c r="L932" s="4"/>
@@ -14090,7 +14102,7 @@
       <c r="R932" s="4"/>
       <c r="U932" s="4"/>
     </row>
-    <row r="933" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F933" s="4"/>
       <c r="I933" s="4"/>
       <c r="L933" s="4"/>
@@ -14098,7 +14110,7 @@
       <c r="R933" s="4"/>
       <c r="U933" s="4"/>
     </row>
-    <row r="934" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="934" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F934" s="4"/>
       <c r="I934" s="4"/>
       <c r="L934" s="4"/>
@@ -14106,7 +14118,7 @@
       <c r="R934" s="4"/>
       <c r="U934" s="4"/>
     </row>
-    <row r="935" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="935" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F935" s="4"/>
       <c r="I935" s="4"/>
       <c r="L935" s="4"/>
@@ -14114,7 +14126,7 @@
       <c r="R935" s="4"/>
       <c r="U935" s="4"/>
     </row>
-    <row r="936" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F936" s="4"/>
       <c r="I936" s="4"/>
       <c r="L936" s="4"/>
@@ -14122,7 +14134,7 @@
       <c r="R936" s="4"/>
       <c r="U936" s="4"/>
     </row>
-    <row r="937" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F937" s="4"/>
       <c r="I937" s="4"/>
       <c r="L937" s="4"/>
@@ -14130,7 +14142,7 @@
       <c r="R937" s="4"/>
       <c r="U937" s="4"/>
     </row>
-    <row r="938" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F938" s="4"/>
       <c r="I938" s="4"/>
       <c r="L938" s="4"/>
@@ -14138,7 +14150,7 @@
       <c r="R938" s="4"/>
       <c r="U938" s="4"/>
     </row>
-    <row r="939" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="939" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F939" s="4"/>
       <c r="I939" s="4"/>
       <c r="L939" s="4"/>
@@ -14146,7 +14158,7 @@
       <c r="R939" s="4"/>
       <c r="U939" s="4"/>
     </row>
-    <row r="940" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="940" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F940" s="4"/>
       <c r="I940" s="4"/>
       <c r="L940" s="4"/>
@@ -14154,7 +14166,7 @@
       <c r="R940" s="4"/>
       <c r="U940" s="4"/>
     </row>
-    <row r="941" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F941" s="4"/>
       <c r="I941" s="4"/>
       <c r="L941" s="4"/>
@@ -14162,7 +14174,7 @@
       <c r="R941" s="4"/>
       <c r="U941" s="4"/>
     </row>
-    <row r="942" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="942" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F942" s="4"/>
       <c r="I942" s="4"/>
       <c r="L942" s="4"/>
@@ -14170,7 +14182,7 @@
       <c r="R942" s="4"/>
       <c r="U942" s="4"/>
     </row>
-    <row r="943" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="943" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F943" s="4"/>
       <c r="I943" s="4"/>
       <c r="L943" s="4"/>
@@ -14178,7 +14190,7 @@
       <c r="R943" s="4"/>
       <c r="U943" s="4"/>
     </row>
-    <row r="944" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="944" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F944" s="4"/>
       <c r="I944" s="4"/>
       <c r="L944" s="4"/>
@@ -14186,7 +14198,7 @@
       <c r="R944" s="4"/>
       <c r="U944" s="4"/>
     </row>
-    <row r="945" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="945" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F945" s="4"/>
       <c r="I945" s="4"/>
       <c r="L945" s="4"/>
@@ -14194,7 +14206,7 @@
       <c r="R945" s="4"/>
       <c r="U945" s="4"/>
     </row>
-    <row r="946" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="946" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F946" s="4"/>
       <c r="I946" s="4"/>
       <c r="L946" s="4"/>
@@ -14202,7 +14214,7 @@
       <c r="R946" s="4"/>
       <c r="U946" s="4"/>
     </row>
-    <row r="947" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="947" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F947" s="4"/>
       <c r="I947" s="4"/>
       <c r="L947" s="4"/>
@@ -14210,7 +14222,7 @@
       <c r="R947" s="4"/>
       <c r="U947" s="4"/>
     </row>
-    <row r="948" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="948" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F948" s="4"/>
       <c r="I948" s="4"/>
       <c r="L948" s="4"/>
@@ -14218,7 +14230,7 @@
       <c r="R948" s="4"/>
       <c r="U948" s="4"/>
     </row>
-    <row r="949" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="949" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F949" s="4"/>
       <c r="I949" s="4"/>
       <c r="L949" s="4"/>
@@ -14226,7 +14238,7 @@
       <c r="R949" s="4"/>
       <c r="U949" s="4"/>
     </row>
-    <row r="950" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="950" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F950" s="4"/>
       <c r="I950" s="4"/>
       <c r="L950" s="4"/>
@@ -14234,7 +14246,7 @@
       <c r="R950" s="4"/>
       <c r="U950" s="4"/>
     </row>
-    <row r="951" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="951" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F951" s="4"/>
       <c r="I951" s="4"/>
       <c r="L951" s="4"/>
@@ -14242,7 +14254,7 @@
       <c r="R951" s="4"/>
       <c r="U951" s="4"/>
     </row>
-    <row r="952" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="952" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F952" s="4"/>
       <c r="I952" s="4"/>
       <c r="L952" s="4"/>
@@ -14250,7 +14262,7 @@
       <c r="R952" s="4"/>
       <c r="U952" s="4"/>
     </row>
-    <row r="953" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="953" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F953" s="4"/>
       <c r="I953" s="4"/>
       <c r="L953" s="4"/>
@@ -14258,7 +14270,7 @@
       <c r="R953" s="4"/>
       <c r="U953" s="4"/>
     </row>
-    <row r="954" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F954" s="4"/>
       <c r="I954" s="4"/>
       <c r="L954" s="4"/>
@@ -14266,7 +14278,7 @@
       <c r="R954" s="4"/>
       <c r="U954" s="4"/>
     </row>
-    <row r="955" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="955" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F955" s="4"/>
       <c r="I955" s="4"/>
       <c r="L955" s="4"/>
@@ -14274,7 +14286,7 @@
       <c r="R955" s="4"/>
       <c r="U955" s="4"/>
     </row>
-    <row r="956" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="956" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F956" s="4"/>
       <c r="I956" s="4"/>
       <c r="L956" s="4"/>
@@ -14282,7 +14294,7 @@
       <c r="R956" s="4"/>
       <c r="U956" s="4"/>
     </row>
-    <row r="957" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="957" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F957" s="4"/>
       <c r="I957" s="4"/>
       <c r="L957" s="4"/>
@@ -14290,7 +14302,7 @@
       <c r="R957" s="4"/>
       <c r="U957" s="4"/>
     </row>
-    <row r="958" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F958" s="4"/>
       <c r="I958" s="4"/>
       <c r="L958" s="4"/>
@@ -14298,7 +14310,7 @@
       <c r="R958" s="4"/>
       <c r="U958" s="4"/>
     </row>
-    <row r="959" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="959" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F959" s="4"/>
       <c r="I959" s="4"/>
       <c r="L959" s="4"/>
@@ -14306,7 +14318,7 @@
       <c r="R959" s="4"/>
       <c r="U959" s="4"/>
     </row>
-    <row r="960" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="960" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F960" s="4"/>
       <c r="I960" s="4"/>
       <c r="L960" s="4"/>
@@ -14314,7 +14326,7 @@
       <c r="R960" s="4"/>
       <c r="U960" s="4"/>
     </row>
-    <row r="961" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="961" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F961" s="4"/>
       <c r="I961" s="4"/>
       <c r="L961" s="4"/>
@@ -14322,7 +14334,7 @@
       <c r="R961" s="4"/>
       <c r="U961" s="4"/>
     </row>
-    <row r="962" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F962" s="4"/>
       <c r="I962" s="4"/>
       <c r="L962" s="4"/>
@@ -14330,7 +14342,7 @@
       <c r="R962" s="4"/>
       <c r="U962" s="4"/>
     </row>
-    <row r="963" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F963" s="4"/>
       <c r="I963" s="4"/>
       <c r="L963" s="4"/>
@@ -14338,7 +14350,7 @@
       <c r="R963" s="4"/>
       <c r="U963" s="4"/>
     </row>
-    <row r="964" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="964" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F964" s="4"/>
       <c r="I964" s="4"/>
       <c r="L964" s="4"/>
@@ -14346,7 +14358,7 @@
       <c r="R964" s="4"/>
       <c r="U964" s="4"/>
     </row>
-    <row r="965" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="965" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F965" s="4"/>
       <c r="I965" s="4"/>
       <c r="L965" s="4"/>
@@ -14354,7 +14366,7 @@
       <c r="R965" s="4"/>
       <c r="U965" s="4"/>
     </row>
-    <row r="966" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F966" s="4"/>
       <c r="I966" s="4"/>
       <c r="L966" s="4"/>
@@ -14362,7 +14374,7 @@
       <c r="R966" s="4"/>
       <c r="U966" s="4"/>
     </row>
-    <row r="967" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="967" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F967" s="4"/>
       <c r="I967" s="4"/>
       <c r="L967" s="4"/>
@@ -14370,7 +14382,7 @@
       <c r="R967" s="4"/>
       <c r="U967" s="4"/>
     </row>
-    <row r="968" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="968" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F968" s="4"/>
       <c r="I968" s="4"/>
       <c r="L968" s="4"/>
@@ -14378,7 +14390,7 @@
       <c r="R968" s="4"/>
       <c r="U968" s="4"/>
     </row>
-    <row r="969" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="969" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F969" s="4"/>
       <c r="I969" s="4"/>
       <c r="L969" s="4"/>
@@ -14386,7 +14398,7 @@
       <c r="R969" s="4"/>
       <c r="U969" s="4"/>
     </row>
-    <row r="970" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="970" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F970" s="4"/>
       <c r="I970" s="4"/>
       <c r="L970" s="4"/>
@@ -14394,7 +14406,7 @@
       <c r="R970" s="4"/>
       <c r="U970" s="4"/>
     </row>
-    <row r="971" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="971" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F971" s="4"/>
       <c r="I971" s="4"/>
       <c r="L971" s="4"/>
@@ -14402,7 +14414,7 @@
       <c r="R971" s="4"/>
       <c r="U971" s="4"/>
     </row>
-    <row r="972" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="972" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F972" s="4"/>
       <c r="I972" s="4"/>
       <c r="L972" s="4"/>
@@ -14410,7 +14422,7 @@
       <c r="R972" s="4"/>
       <c r="U972" s="4"/>
     </row>
-    <row r="973" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="973" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F973" s="4"/>
       <c r="I973" s="4"/>
       <c r="L973" s="4"/>
@@ -14418,7 +14430,7 @@
       <c r="R973" s="4"/>
       <c r="U973" s="4"/>
     </row>
-    <row r="974" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="974" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F974" s="4"/>
       <c r="I974" s="4"/>
       <c r="L974" s="4"/>
@@ -14426,7 +14438,7 @@
       <c r="R974" s="4"/>
       <c r="U974" s="4"/>
     </row>
-    <row r="975" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="975" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F975" s="4"/>
       <c r="I975" s="4"/>
       <c r="L975" s="4"/>
@@ -14434,7 +14446,7 @@
       <c r="R975" s="4"/>
       <c r="U975" s="4"/>
     </row>
-    <row r="976" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="976" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F976" s="4"/>
       <c r="I976" s="4"/>
       <c r="L976" s="4"/>
@@ -14442,7 +14454,7 @@
       <c r="R976" s="4"/>
       <c r="U976" s="4"/>
     </row>
-    <row r="977" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F977" s="4"/>
       <c r="I977" s="4"/>
       <c r="L977" s="4"/>
@@ -14450,7 +14462,7 @@
       <c r="R977" s="4"/>
       <c r="U977" s="4"/>
     </row>
-    <row r="978" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="978" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F978" s="4"/>
       <c r="I978" s="4"/>
       <c r="L978" s="4"/>
@@ -14458,7 +14470,7 @@
       <c r="R978" s="4"/>
       <c r="U978" s="4"/>
     </row>
-    <row r="979" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F979" s="4"/>
       <c r="I979" s="4"/>
       <c r="L979" s="4"/>
@@ -14466,7 +14478,7 @@
       <c r="R979" s="4"/>
       <c r="U979" s="4"/>
     </row>
-    <row r="980" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F980" s="4"/>
       <c r="I980" s="4"/>
       <c r="L980" s="4"/>
@@ -14474,7 +14486,7 @@
       <c r="R980" s="4"/>
       <c r="U980" s="4"/>
     </row>
-    <row r="981" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F981" s="4"/>
       <c r="I981" s="4"/>
       <c r="L981" s="4"/>
@@ -14482,7 +14494,7 @@
       <c r="R981" s="4"/>
       <c r="U981" s="4"/>
     </row>
-    <row r="982" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F982" s="4"/>
       <c r="I982" s="4"/>
       <c r="L982" s="4"/>
@@ -14490,7 +14502,7 @@
       <c r="R982" s="4"/>
       <c r="U982" s="4"/>
     </row>
-    <row r="983" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F983" s="4"/>
       <c r="I983" s="4"/>
       <c r="L983" s="4"/>
@@ -14498,7 +14510,7 @@
       <c r="R983" s="4"/>
       <c r="U983" s="4"/>
     </row>
-    <row r="984" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F984" s="4"/>
       <c r="I984" s="4"/>
       <c r="L984" s="4"/>
@@ -14506,7 +14518,7 @@
       <c r="R984" s="4"/>
       <c r="U984" s="4"/>
     </row>
-    <row r="985" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F985" s="4"/>
       <c r="I985" s="4"/>
       <c r="L985" s="4"/>
@@ -14514,7 +14526,7 @@
       <c r="R985" s="4"/>
       <c r="U985" s="4"/>
     </row>
-    <row r="986" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F986" s="4"/>
       <c r="I986" s="4"/>
       <c r="L986" s="4"/>
@@ -14522,7 +14534,7 @@
       <c r="R986" s="4"/>
       <c r="U986" s="4"/>
     </row>
-    <row r="987" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F987" s="4"/>
       <c r="I987" s="4"/>
       <c r="L987" s="4"/>
@@ -14530,7 +14542,7 @@
       <c r="R987" s="4"/>
       <c r="U987" s="4"/>
     </row>
-    <row r="988" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F988" s="4"/>
       <c r="I988" s="4"/>
       <c r="L988" s="4"/>
@@ -14538,7 +14550,7 @@
       <c r="R988" s="4"/>
       <c r="U988" s="4"/>
     </row>
-    <row r="989" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F989" s="4"/>
       <c r="I989" s="4"/>
       <c r="L989" s="4"/>
@@ -14546,7 +14558,7 @@
       <c r="R989" s="4"/>
       <c r="U989" s="4"/>
     </row>
-    <row r="990" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F990" s="4"/>
       <c r="I990" s="4"/>
       <c r="L990" s="4"/>
@@ -14554,7 +14566,7 @@
       <c r="R990" s="4"/>
       <c r="U990" s="4"/>
     </row>
-    <row r="991" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F991" s="4"/>
       <c r="I991" s="4"/>
       <c r="L991" s="4"/>
@@ -14562,7 +14574,7 @@
       <c r="R991" s="4"/>
       <c r="U991" s="4"/>
     </row>
-    <row r="992" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F992" s="4"/>
       <c r="I992" s="4"/>
       <c r="L992" s="4"/>
@@ -14570,7 +14582,7 @@
       <c r="R992" s="4"/>
       <c r="U992" s="4"/>
     </row>
-    <row r="993" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="993" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F993" s="4"/>
       <c r="I993" s="4"/>
       <c r="L993" s="4"/>
@@ -14578,7 +14590,7 @@
       <c r="R993" s="4"/>
       <c r="U993" s="4"/>
     </row>
-    <row r="994" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="994" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F994" s="4"/>
       <c r="I994" s="4"/>
       <c r="L994" s="4"/>
@@ -14586,7 +14598,7 @@
       <c r="R994" s="4"/>
       <c r="U994" s="4"/>
     </row>
-    <row r="995" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="995" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F995" s="4"/>
       <c r="I995" s="4"/>
       <c r="L995" s="4"/>
@@ -14594,7 +14606,7 @@
       <c r="R995" s="4"/>
       <c r="U995" s="4"/>
     </row>
-    <row r="996" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="996" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F996" s="4"/>
       <c r="I996" s="4"/>
       <c r="L996" s="4"/>
@@ -14602,7 +14614,7 @@
       <c r="R996" s="4"/>
       <c r="U996" s="4"/>
     </row>
-    <row r="997" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="997" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F997" s="4"/>
       <c r="I997" s="4"/>
       <c r="L997" s="4"/>
@@ -14610,7 +14622,7 @@
       <c r="R997" s="4"/>
       <c r="U997" s="4"/>
     </row>
-    <row r="998" spans="6:21" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="998" spans="6:21" ht="13" x14ac:dyDescent="0.15">
       <c r="F998" s="4"/>
       <c r="I998" s="4"/>
       <c r="L998" s="4"/>

--- a/DB_homicidios.xlsx
+++ b/DB_homicidios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunopimentel/Documents/Iteso/6 Semestre/Simulacion de procesos financieross/Proyecto/Proyecto_Modulo1-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5098F3A-85FB-F446-B1F2-83144BE33772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7272BC9-2185-3842-80AE-127B85594440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -430,8 +432,8 @@
   </sheetPr>
   <dimension ref="A1:U998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F98" zoomScale="87" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S109"/>
+    <sheetView tabSelected="1" topLeftCell="F70" zoomScale="87" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q112" sqref="Q112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6074,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="12">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="Q87" s="12">
         <v>34</v>
@@ -6200,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="12">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="Q89" s="12">
         <v>49</v>
@@ -6263,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="P90" s="12">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="Q90" s="12">
         <v>22</v>
@@ -6326,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="P91" s="12">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="Q91" s="12">
         <v>48</v>
@@ -6391,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="P92" s="12">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="Q92" s="12">
         <v>47</v>
@@ -6454,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="P93" s="12">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="Q93" s="12">
         <v>50</v>
@@ -6519,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="12">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="Q94" s="12">
         <v>51</v>
@@ -6582,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="12">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="Q95" s="12">
         <v>42</v>
@@ -6645,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="12">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="Q96" s="12">
         <v>53</v>
@@ -6708,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="12">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="Q97" s="12">
         <v>40</v>
@@ -6773,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="P98" s="22">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="Q98" s="12">
         <v>43</v>
@@ -6838,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="22">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="Q99" s="12">
         <v>47</v>
@@ -6901,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="P100" s="22">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="Q100" s="12">
         <v>54</v>
@@ -6966,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="P101" s="22">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c r="Q101" s="12">
         <v>53</v>
@@ -7031,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="22">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="Q102" s="12">
         <v>52</v>
@@ -7094,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="P103" s="22">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="Q103" s="12">
         <v>45</v>
@@ -7157,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="P104" s="22">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="Q104" s="12">
         <v>54</v>
@@ -7220,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="P105" s="22">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c r="Q105" s="12">
         <v>52</v>
@@ -7283,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="P106" s="22">
-        <v>280</v>
+        <v>143</v>
       </c>
       <c r="Q106" s="12">
         <v>37</v>
@@ -7346,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="P107" s="22">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="Q107" s="12">
         <v>52</v>
@@ -7409,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="22">
-        <v>289</v>
+        <v>166</v>
       </c>
       <c r="Q108" s="12">
         <v>53</v>
@@ -7472,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="22">
-        <v>276</v>
+        <v>151</v>
       </c>
       <c r="Q109" s="12">
         <v>45</v>
